--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="170">
   <si>
     <t>Nummer</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Skalpel</t>
   </si>
   <si>
-    <t>Schere</t>
-  </si>
-  <si>
     <t>Nadeln</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Bücher</t>
   </si>
   <si>
-    <t>Reagenzgläser</t>
-  </si>
-  <si>
     <t>Kisten</t>
   </si>
   <si>
@@ -258,20 +252,287 @@
     <t>Voodoopuppenbauplan</t>
   </si>
   <si>
-    <t>Bericht Voodoopuppen</t>
-  </si>
-  <si>
     <t>Haftbefehl</t>
   </si>
   <si>
     <t>Aschenbecher</t>
+  </si>
+  <si>
+    <t>Plan weshalb Voodoo</t>
+  </si>
+  <si>
+    <t>40cm höhe</t>
+  </si>
+  <si>
+    <t>170cm höhe</t>
+  </si>
+  <si>
+    <t>Kerze groß</t>
+  </si>
+  <si>
+    <t>Kerze mittel</t>
+  </si>
+  <si>
+    <t>Kerze klein</t>
+  </si>
+  <si>
+    <t>28cm höhe</t>
+  </si>
+  <si>
+    <t>23cm höhe</t>
+  </si>
+  <si>
+    <t>18cm höhe</t>
+  </si>
+  <si>
+    <t>12*19cm (breite undefiniert)</t>
+  </si>
+  <si>
+    <t>13,5*21,5cm (breite undefiniert)</t>
+  </si>
+  <si>
+    <t>17,0*24,0cm (breite undefiniert)</t>
+  </si>
+  <si>
+    <t>21,0*29,7cm (A4) (breite undefiniert)</t>
+  </si>
+  <si>
+    <t>Buch klein dick</t>
+  </si>
+  <si>
+    <t>Buch klein dünn</t>
+  </si>
+  <si>
+    <t>Buch standart dünn</t>
+  </si>
+  <si>
+    <t>Buch standart dick</t>
+  </si>
+  <si>
+    <t>Buch mittel dick</t>
+  </si>
+  <si>
+    <t>Buch mittel dünn</t>
+  </si>
+  <si>
+    <t>Buch groß dick</t>
+  </si>
+  <si>
+    <t>Buch groß dünn</t>
+  </si>
+  <si>
+    <t>35 cm höhe / ca. 20cm breit</t>
+  </si>
+  <si>
+    <t>ca 25 cm höhe</t>
+  </si>
+  <si>
+    <t>70cm höhe/ 100cm breite</t>
+  </si>
+  <si>
+    <t>1,6 cm durchmesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reagenzglas </t>
+  </si>
+  <si>
+    <t>Chemiegläser</t>
+  </si>
+  <si>
+    <t>Becherglas</t>
+  </si>
+  <si>
+    <t>1000 ml</t>
+  </si>
+  <si>
+    <t>14,5 cm höhe/ 10,5 cm durchmesser</t>
+  </si>
+  <si>
+    <t>Erlenmeyerkolben</t>
+  </si>
+  <si>
+    <t>Messkolben</t>
+  </si>
+  <si>
+    <t>250 ml</t>
+  </si>
+  <si>
+    <t>Erlenmeyerkolben gewinde</t>
+  </si>
+  <si>
+    <t>Raumbau</t>
+  </si>
+  <si>
+    <t>Wand mit Tür</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wand </t>
+  </si>
+  <si>
+    <t>Wand mit Fenster</t>
+  </si>
+  <si>
+    <t>Wand mit Vergittertem Fenster</t>
+  </si>
+  <si>
+    <t>Deckenplatten</t>
+  </si>
+  <si>
+    <t>Bodenplatten</t>
+  </si>
+  <si>
+    <t>12cm höhe</t>
+  </si>
+  <si>
+    <t>15cm höhe</t>
+  </si>
+  <si>
+    <t>ca 18 cm höhe</t>
+  </si>
+  <si>
+    <t>verschiedenfarbiger Kopf</t>
+  </si>
+  <si>
+    <t>Operationsschere</t>
+  </si>
+  <si>
+    <t>Pinzette</t>
+  </si>
+  <si>
+    <t>6 cm höhe</t>
+  </si>
+  <si>
+    <t>Operationspinzette</t>
+  </si>
+  <si>
+    <t>Fadentrenner</t>
+  </si>
+  <si>
+    <t>10cm höhe</t>
+  </si>
+  <si>
+    <t>Nähnadel</t>
+  </si>
+  <si>
+    <t>4cm höhe</t>
+  </si>
+  <si>
+    <t>Garn</t>
+  </si>
+  <si>
+    <t>4cm höhe/ ca 1,5 cm durchmesser</t>
+  </si>
+  <si>
+    <t>14cm durchmesser</t>
+  </si>
+  <si>
+    <t>100ml / tricherartig</t>
+  </si>
+  <si>
+    <t>500 ml / bauchig</t>
+  </si>
+  <si>
+    <t>Nicht Angefangen</t>
+  </si>
+  <si>
+    <t>in Arbeit</t>
+  </si>
+  <si>
+    <t>Fertig</t>
+  </si>
+  <si>
+    <t>ca 30cm durchmesser</t>
+  </si>
+  <si>
+    <t>Bericht Voodoopuppe 13</t>
+  </si>
+  <si>
+    <t>Bericht Voodoopuppe 1</t>
+  </si>
+  <si>
+    <t>Bericht Voodoopuppe 7</t>
+  </si>
+  <si>
+    <t>Gebeude karte</t>
+  </si>
+  <si>
+    <t>unterschiedliche größen</t>
+  </si>
+  <si>
+    <t>Wand_Fenster_MOD</t>
+  </si>
+  <si>
+    <t>Wand_Tür_MOD</t>
+  </si>
+  <si>
+    <t>Wand_MOD</t>
+  </si>
+  <si>
+    <t>Wand_Fenstergitter_MOD</t>
+  </si>
+  <si>
+    <t>Deckenplatter_MOD</t>
+  </si>
+  <si>
+    <t>Bodenplatten_MOD</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Static Mesh</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>ANIM</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>SKIN</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>Ambient Occlusion Map</t>
+  </si>
+  <si>
+    <t>Normal Map</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>Color Map</t>
+  </si>
+  <si>
+    <t>Kiste klein</t>
+  </si>
+  <si>
+    <t>Kiste mittel</t>
+  </si>
+  <si>
+    <t>Kiste Groß</t>
+  </si>
+  <si>
+    <t>65cm höhe</t>
+  </si>
+  <si>
+    <t>25cm höhe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +540,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +623,33 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -351,10 +660,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -366,8 +678,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,13 +715,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -723,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,11 +1057,13 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" customWidth="1"/>
     <col min="7" max="7" width="32.140625" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -770,97 +1094,178 @@
       <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="11"/>
       <c r="H2" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -874,304 +1279,1210 @@
       <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="I17" s="13"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F19" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="G21" s="11"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
+      <c r="I22" s="13"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
+      <c r="G23" s="11"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="G24" s="11"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F24" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G27" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G25" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F26" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="G30" s="11"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="G31" s="11"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F28" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="G32" s="11"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F29" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="G33" s="11"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F30" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G35" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="I35" s="13"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F31" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G37" s="4"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F32" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="G39" s="5"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="I72" s="13"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="I82" s="13"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="I85" s="13"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I86" s="13"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I88" s="13"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I89" s="13"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="12"/>
+      <c r="C93" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H96" s="12"/>
+      <c r="I96" s="13"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="13"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>82</v>
-      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="13"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="13"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="13"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="13"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="13"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="246">
   <si>
     <t>Nummer</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Wachmann</t>
   </si>
   <si>
-    <t>Idel</t>
-  </si>
-  <si>
     <t>Greifen</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>Bericht Voodoopuppe 7</t>
   </si>
   <si>
-    <t>Gebeude karte</t>
-  </si>
-  <si>
     <t>unterschiedliche größen</t>
   </si>
   <si>
@@ -526,6 +520,240 @@
   </si>
   <si>
     <t>25cm höhe</t>
+  </si>
+  <si>
+    <t>Voodoo13_SM</t>
+  </si>
+  <si>
+    <t>Voodoo13_RIG</t>
+  </si>
+  <si>
+    <t>Voodoo13_SKIN</t>
+  </si>
+  <si>
+    <t>Voodoo13_Laufen_ANIM</t>
+  </si>
+  <si>
+    <t>Voodoo13_Springen_ANIM</t>
+  </si>
+  <si>
+    <t>Voodoo13_Schieben_ANIM</t>
+  </si>
+  <si>
+    <t>Voodoo13_Ziehen_ANIM</t>
+  </si>
+  <si>
+    <t>Voodoo13_Klettern_ANIM</t>
+  </si>
+  <si>
+    <t>Wachamnn_SM</t>
+  </si>
+  <si>
+    <t>Wachmann_RIG</t>
+  </si>
+  <si>
+    <t>Wachmann_SKIN</t>
+  </si>
+  <si>
+    <t>Wachmann_Laufen_ANIM</t>
+  </si>
+  <si>
+    <t>Wachmann_Türöffnen_ANIM</t>
+  </si>
+  <si>
+    <t>Wachmann_Greifen_ANIM</t>
+  </si>
+  <si>
+    <t>Schreibtisch_Platte_MOD</t>
+  </si>
+  <si>
+    <t>Schreibtisch_Schubladen_MOD</t>
+  </si>
+  <si>
+    <t>Schreibtisch_Tür_MOD</t>
+  </si>
+  <si>
+    <t>Bürostuhl_SM</t>
+  </si>
+  <si>
+    <t>Regal_Seite_groß_MOD</t>
+  </si>
+  <si>
+    <t>Regal_Seite_klein_MOD</t>
+  </si>
+  <si>
+    <t>Regal_Boden_groß_MOD</t>
+  </si>
+  <si>
+    <t>Regal_Boden_klein_MOD</t>
+  </si>
+  <si>
+    <t>Waschbecken_SM</t>
+  </si>
+  <si>
+    <t>Operationstisch_SM</t>
+  </si>
+  <si>
+    <t>Experimentetisch_SM</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>22cm breit/ 30 cm tief</t>
+  </si>
+  <si>
+    <t>Tablet_SM</t>
+  </si>
+  <si>
+    <t>Skalpel_SM</t>
+  </si>
+  <si>
+    <t>Operationsschere_SM</t>
+  </si>
+  <si>
+    <t>Nadel_SM</t>
+  </si>
+  <si>
+    <t>Pinzette_SM</t>
+  </si>
+  <si>
+    <t>Operationspinzette_SM</t>
+  </si>
+  <si>
+    <t>Fadentrenner_SM</t>
+  </si>
+  <si>
+    <t>Nähnadel_SM</t>
+  </si>
+  <si>
+    <t>Garn_SM</t>
+  </si>
+  <si>
+    <t>Voodoomasken_SM</t>
+  </si>
+  <si>
+    <t>Fetisch_SM</t>
+  </si>
+  <si>
+    <t>Lampe_SM</t>
+  </si>
+  <si>
+    <t>Pinwand_SM</t>
+  </si>
+  <si>
+    <t>Kerze_groß_SM</t>
+  </si>
+  <si>
+    <t>Kerze_mittel_SM</t>
+  </si>
+  <si>
+    <t>Kerze_klein_SM</t>
+  </si>
+  <si>
+    <t>Wandkalender_SM</t>
+  </si>
+  <si>
+    <t>Voodoopuppenbauplan_SM</t>
+  </si>
+  <si>
+    <t>Bericht_Voodoo13_SM</t>
+  </si>
+  <si>
+    <t>Bericht_Voodoo1_SM</t>
+  </si>
+  <si>
+    <t>Bericht_Voodoo7_SM</t>
+  </si>
+  <si>
+    <t>Gebäude karte</t>
+  </si>
+  <si>
+    <t>Bebäudekarte_SM</t>
+  </si>
+  <si>
+    <t>Haftbefehl_SM</t>
+  </si>
+  <si>
+    <t>Voodooplan_SM</t>
+  </si>
+  <si>
+    <t>Buch_klein_dünn_SM</t>
+  </si>
+  <si>
+    <t>Buch_klein_dick_SM</t>
+  </si>
+  <si>
+    <t>Buch_mittel_dünn_SM</t>
+  </si>
+  <si>
+    <t>Buch_mittel_dick_SM</t>
+  </si>
+  <si>
+    <t>Buch_standart_dünn_SM</t>
+  </si>
+  <si>
+    <t>Buch_standart_dick_SM</t>
+  </si>
+  <si>
+    <t>Buch_groß_dünn_SM</t>
+  </si>
+  <si>
+    <t>Buch_groß_dick_SM</t>
+  </si>
+  <si>
+    <t>Reagenzglas_SM</t>
+  </si>
+  <si>
+    <t>Knopf</t>
+  </si>
+  <si>
+    <t>Voodoo13_Knopf_SM</t>
+  </si>
+  <si>
+    <t>Erlenmeyerkolben_SM</t>
+  </si>
+  <si>
+    <t>Messkolben_SM</t>
+  </si>
+  <si>
+    <t>Erlenmeyerkolben_verschließbar_SM</t>
+  </si>
+  <si>
+    <t>Kiste_klein_SM</t>
+  </si>
+  <si>
+    <t>Kiste_mittel_SM</t>
+  </si>
+  <si>
+    <t>Kiste_groß_SM</t>
+  </si>
+  <si>
+    <t>Dreck_01_DECAL</t>
+  </si>
+  <si>
+    <t>Veve_   _DECAL</t>
+  </si>
+  <si>
+    <t>Aschenbecher_SM</t>
+  </si>
+  <si>
+    <t>Wachmann_Idle_ANIM</t>
+  </si>
+  <si>
+    <t>Voodoo13_Idle_ANIM</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>Aktenschrank</t>
+  </si>
+  <si>
+    <t>Aktenschrank_SM</t>
+  </si>
+  <si>
+    <t>80cm höhe/ 40cm breit / 60cm tief</t>
   </si>
 </sst>
 </file>
@@ -715,13 +943,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1045,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1285,7 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" customWidth="1"/>
     <col min="7" max="7" width="32.140625" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -1074,16 +1302,16 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1102,13 +1330,15 @@
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="F2" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="17"/>
@@ -1117,38 +1347,41 @@
       <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="17"/>
@@ -1156,43 +1389,47 @@
         <v>4</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="17"/>
@@ -1205,36 +1442,40 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="17"/>
@@ -1242,42 +1483,47 @@
         <v>6</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="17"/>
@@ -1285,102 +1531,109 @@
         <v>7</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="13"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="17"/>
       <c r="K13" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="17"/>
       <c r="K14" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="17"/>
       <c r="K15" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>10</v>
@@ -1390,20 +1643,22 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="17"/>
       <c r="K16" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>11</v>
@@ -1413,20 +1668,22 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="17"/>
       <c r="K17" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>12</v>
@@ -1434,73 +1691,78 @@
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="17"/>
       <c r="K18" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="13"/>
       <c r="J19" s="17"/>
       <c r="K19" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="13"/>
       <c r="J20" s="17"/>
       <c r="K20" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -1511,16 +1773,16 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="F22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G22" s="11"/>
       <c r="I22" s="13"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
@@ -1530,13 +1792,19 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="F23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I23" s="13"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -1551,7 +1819,7 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" s="11"/>
       <c r="I24" s="13"/>
@@ -1564,17 +1832,13 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G25" s="11"/>
       <c r="I25" s="13"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1583,67 +1847,73 @@
       <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="13"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="13"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="13"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="13"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="A30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="I30" s="13"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -1654,12 +1924,14 @@
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="F31" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G31" s="11"/>
       <c r="I31" s="13"/>
@@ -1668,12 +1940,14 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="F32" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G32" s="11"/>
       <c r="I32" s="13"/>
@@ -1682,344 +1956,376 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="F33" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G33" s="11"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="I38" s="13"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
+      <c r="G42" s="5"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="5"/>
+      <c r="C45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="4"/>
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="F46" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="F49" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G49" s="5"/>
       <c r="I49" s="13"/>
     </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="I50" s="13"/>
+    </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="C51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G57" s="5"/>
+      <c r="G57" s="11"/>
       <c r="I57" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="I60" s="13"/>
-    </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="A61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="F61" s="5" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G61" s="5"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="5" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="G64" s="5"/>
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="C65" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="5"/>
       <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="C66" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="5"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="I67" s="13"/>
-    </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="A68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -2030,111 +2336,121 @@
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="4" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="G69" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="4" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="4" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="4" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="I72" s="13"/>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="I73" s="13"/>
+    </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
       <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" s="5"/>
+      <c r="C75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
       <c r="I75" s="13"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" s="5"/>
+      <c r="C76" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
       <c r="I76" s="13"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="I77" s="13"/>
-    </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A78" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="I78" s="13"/>
     </row>
@@ -2142,12 +2458,14 @@
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="F79" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G79" s="5"/>
       <c r="I79" s="13"/>
@@ -2156,12 +2474,14 @@
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="F80" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G80" s="5"/>
       <c r="I80" s="13"/>
@@ -2170,12 +2490,14 @@
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="F81" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G81" s="5"/>
       <c r="I81" s="13"/>
@@ -2184,25 +2506,47 @@
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="F82" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G82" s="5"/>
       <c r="I82" s="13"/>
     </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="I83" s="13"/>
+    </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="G84" s="5"/>
       <c r="I84" s="13"/>
     </row>
@@ -2210,12 +2554,14 @@
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="F85" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G85" s="5"/>
       <c r="I85" s="13"/>
@@ -2224,231 +2570,233 @@
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="E86" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="5"/>
       <c r="I86" s="13"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I87" s="13"/>
-    </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A88" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="G88" s="5"/>
       <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I90" s="13"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I89" s="13"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="I93" s="13"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="13"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="12"/>
+      <c r="C97" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C98" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="13"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G92" s="7"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="12"/>
-      <c r="C93" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G94" s="7"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H96" s="12"/>
-      <c r="I96" s="13"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="13"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="H100" s="12"/>
       <c r="I100" s="13"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" s="5"/>
+      <c r="A102" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
       <c r="H102" s="12"/>
       <c r="I102" s="13"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
+      <c r="A104" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
       <c r="H104" s="12"/>
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="13"/>
-    </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="A106" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G106" s="5"/>
       <c r="H106" s="12"/>
       <c r="I106" s="13"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="13"/>
-    </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="A108" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>150</v>
-      </c>
+      <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
@@ -2458,11 +2806,11 @@
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
@@ -2473,16 +2821,76 @@
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
       <c r="I110" s="13"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="13"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="13"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="13"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="267">
   <si>
     <t>Nummer</t>
   </si>
@@ -808,6 +808,15 @@
   </si>
   <si>
     <t>Familienfoto03_SM</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Voodoo Power 'health bar'</t>
+  </si>
+  <si>
+    <t>Voodoo Brain Game Botton</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1015,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1016,6 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1376,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,31 +1408,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1444,11 +1453,11 @@
       <c r="H2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="I2" s="23"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1466,12 +1475,12 @@
         <v>21</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1489,14 +1498,14 @@
         <v>23</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -1514,12 +1523,12 @@
         <v>23</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="19" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -1537,12 +1546,12 @@
         <v>23</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -1560,12 +1569,12 @@
         <v>23</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="20" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -1583,14 +1592,14 @@
         <v>23</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -1608,12 +1617,12 @@
         <v>23</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="16"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -1631,14 +1640,14 @@
         <v>23</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="21" t="s">
+      <c r="K10" s="15"/>
+      <c r="L10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="16"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -1656,12 +1665,12 @@
         <v>23</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="16"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1673,10 +1682,10 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1696,14 +1705,14 @@
         <v>22</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="23" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="16"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -1721,14 +1730,14 @@
         <v>23</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="23" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -1746,14 +1755,14 @@
         <v>23</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="23" t="s">
+      <c r="K15" s="15"/>
+      <c r="L15" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="16"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -1771,14 +1780,14 @@
         <v>23</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="15"/>
+      <c r="L16" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="16"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -1796,14 +1805,14 @@
         <v>23</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="23" t="s">
+      <c r="K17" s="15"/>
+      <c r="L17" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="16"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -1821,14 +1830,14 @@
         <v>23</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="23" t="s">
+      <c r="K18" s="15"/>
+      <c r="L18" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="N18" s="16"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -1846,14 +1855,14 @@
         <v>23</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="23" t="s">
+      <c r="K19" s="15"/>
+      <c r="L19" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="N19" s="16"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -1865,14 +1874,14 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="23" t="s">
+      <c r="K20" s="15"/>
+      <c r="L20" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="N20" s="16"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1890,10 +1899,10 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="5"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -1905,10 +1914,10 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2850,7 +2859,7 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
@@ -2865,7 +2874,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
@@ -2880,7 +2889,7 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
@@ -2908,7 +2917,7 @@
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
@@ -3473,6 +3482,45 @@
       <c r="G124" s="3"/>
       <c r="H124" s="6"/>
       <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="272">
   <si>
     <t>Nummer</t>
   </si>
@@ -363,12 +363,6 @@
     <t xml:space="preserve">Wand </t>
   </si>
   <si>
-    <t>Wand mit Fenster</t>
-  </si>
-  <si>
-    <t>Wand mit Vergittertem Fenster</t>
-  </si>
-  <si>
     <t>Deckenplatten</t>
   </si>
   <si>
@@ -817,6 +811,27 @@
   </si>
   <si>
     <t>Voodoo Brain Game Botton</t>
+  </si>
+  <si>
+    <t>Fenster 30cm höhe / 100cm breite</t>
+  </si>
+  <si>
+    <t>Kellerfenster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vergittertem Fenster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300cm höhe / 100cm breit </t>
+  </si>
+  <si>
+    <t>Tür 200cm höhe / 100cm breit</t>
+  </si>
+  <si>
+    <t>100cm breit/100cm tief</t>
+  </si>
+  <si>
+    <t>Müss man Öffnen können</t>
   </si>
 </sst>
 </file>
@@ -1387,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1459,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>79</v>
@@ -1463,11 +1478,11 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1478,7 +1493,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N3" s="15"/>
     </row>
@@ -1490,7 +1505,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1503,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N4" s="15"/>
     </row>
@@ -1515,7 +1530,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1526,19 +1541,19 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1561,7 +1576,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1584,7 +1599,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1609,7 +1624,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1632,7 +1647,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1657,7 +1672,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1695,7 +1710,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>80</v>
@@ -1707,7 +1722,7 @@
       <c r="I13" s="5"/>
       <c r="K13" s="15"/>
       <c r="L13" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>50</v>
@@ -1722,7 +1737,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1732,10 +1747,10 @@
       <c r="I14" s="5"/>
       <c r="K14" s="15"/>
       <c r="L14" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N14" s="15"/>
     </row>
@@ -1747,7 +1762,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1757,7 +1772,7 @@
       <c r="I15" s="5"/>
       <c r="K15" s="15"/>
       <c r="L15" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M15" s="22" t="s">
         <v>10</v>
@@ -1767,12 +1782,12 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1782,7 +1797,7 @@
       <c r="I16" s="5"/>
       <c r="K16" s="15"/>
       <c r="L16" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M16" s="22" t="s">
         <v>11</v>
@@ -1797,7 +1812,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1807,7 +1822,7 @@
       <c r="I17" s="5"/>
       <c r="K17" s="15"/>
       <c r="L17" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M17" s="22" t="s">
         <v>12</v>
@@ -1822,7 +1837,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1832,10 +1847,10 @@
       <c r="I18" s="5"/>
       <c r="K18" s="15"/>
       <c r="L18" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N18" s="15"/>
     </row>
@@ -1847,7 +1862,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1857,10 +1872,10 @@
       <c r="I19" s="5"/>
       <c r="K19" s="15"/>
       <c r="L19" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="N19" s="15"/>
     </row>
@@ -1876,26 +1891,26 @@
       <c r="I20" s="2"/>
       <c r="K20" s="15"/>
       <c r="L20" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="5"/>
@@ -1949,7 +1964,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>45</v>
@@ -1971,7 +1986,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>32</v>
@@ -2029,7 +2044,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>37</v>
@@ -2067,7 +2082,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>46</v>
@@ -2115,7 +2130,7 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>40</v>
@@ -2132,7 +2147,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>42</v>
@@ -2149,7 +2164,7 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>44</v>
@@ -2166,7 +2181,7 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>49</v>
@@ -2188,16 +2203,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="2"/>
@@ -2222,7 +2237,7 @@
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>53</v>
@@ -2252,7 +2267,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>57</v>
@@ -2280,7 +2295,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>59</v>
@@ -2321,10 +2336,10 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="2"/>
@@ -2334,14 +2349,14 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="2"/>
@@ -2351,14 +2366,14 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="2"/>
@@ -2372,13 +2387,13 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="5"/>
@@ -2387,14 +2402,14 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="2"/>
@@ -2404,14 +2419,14 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="2"/>
@@ -2421,14 +2436,14 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="2"/>
@@ -2438,14 +2453,14 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="2"/>
@@ -2455,14 +2470,14 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="2"/>
@@ -2487,7 +2502,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>99</v>
@@ -2515,7 +2530,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>100</v>
@@ -2537,7 +2552,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2552,14 +2567,14 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="2"/>
@@ -2569,11 +2584,11 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
@@ -2599,7 +2614,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>101</v>
@@ -2640,7 +2655,7 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>84</v>
@@ -2657,7 +2672,7 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>85</v>
@@ -2674,7 +2689,7 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>86</v>
@@ -2715,7 +2730,7 @@
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
@@ -2732,7 +2747,7 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -2743,11 +2758,11 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -2758,11 +2773,11 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -2773,11 +2788,11 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -2788,11 +2803,11 @@
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -2807,7 +2822,7 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -2822,7 +2837,7 @@
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -2833,15 +2848,15 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -2850,11 +2865,11 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
@@ -2865,11 +2880,11 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
@@ -2880,11 +2895,11 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -2904,16 +2919,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="2"/>
@@ -2951,7 +2966,7 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>87</v>
@@ -2968,7 +2983,7 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>87</v>
@@ -2985,7 +3000,7 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>88</v>
@@ -3002,7 +3017,7 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>88</v>
@@ -3019,7 +3034,7 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>89</v>
@@ -3036,7 +3051,7 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>89</v>
@@ -3053,7 +3068,7 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>90</v>
@@ -3070,7 +3085,7 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>90</v>
@@ -3111,7 +3126,7 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>102</v>
@@ -3128,11 +3143,11 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="5"/>
@@ -3145,11 +3160,11 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="5"/>
@@ -3162,7 +3177,7 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="s">
@@ -3216,14 +3231,14 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="2"/>
@@ -3233,11 +3248,11 @@
       <c r="A107" s="2"/>
       <c r="B107" s="6"/>
       <c r="C107" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>79</v>
@@ -3250,14 +3265,14 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="2"/>
@@ -3282,11 +3297,11 @@
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F110" s="11"/>
       <c r="G110" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="5"/>
@@ -3334,7 +3349,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
@@ -3360,10 +3375,10 @@
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="6"/>
@@ -3401,9 +3416,11 @@
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F119" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="G119" s="3"/>
       <c r="H119" s="6"/>
       <c r="I119" s="5"/>
@@ -3416,10 +3433,14 @@
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="H120" s="6"/>
       <c r="I120" s="5"/>
     </row>
@@ -3427,13 +3448,15 @@
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="3" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F121" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G121" s="3"/>
       <c r="H121" s="6"/>
       <c r="I121" s="5"/>
@@ -3442,13 +3465,15 @@
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="3" t="s">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F122" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G122" s="3"/>
       <c r="H122" s="6"/>
       <c r="I122" s="5"/>
@@ -3457,13 +3482,15 @@
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F123" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="G123" s="3"/>
       <c r="H123" s="6"/>
       <c r="I123" s="5"/>
@@ -3472,20 +3499,22 @@
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F124" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="G124" s="3"/>
       <c r="H124" s="6"/>
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3500,7 +3529,7 @@
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3513,7 +3542,7 @@
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="272">
   <si>
     <t>Nummer</t>
   </si>
@@ -838,7 +838,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,8 +867,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,6 +963,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1009,13 +1022,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1040,8 +1054,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="20 % - Akzent1" xfId="4" builtinId="30"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
@@ -1402,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1986,6 @@
         <v>45</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
       <c r="I24" s="5"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2536,7 +2551,9 @@
         <v>100</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3258,7 +3275,9 @@
         <v>79</v>
       </c>
       <c r="G107" s="3"/>
-      <c r="H107" s="2"/>
+      <c r="H107" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3422,8 +3441,10 @@
         <v>268</v>
       </c>
       <c r="G119" s="3"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="5"/>
+      <c r="H119" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" s="17"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
@@ -3441,7 +3462,9 @@
       <c r="G120" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H120" s="6"/>
+      <c r="H120" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3492,7 +3515,9 @@
         <v>270</v>
       </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="6"/>
+      <c r="H123" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3509,7 +3534,9 @@
         <v>270</v>
       </c>
       <c r="G124" s="3"/>
-      <c r="H124" s="6"/>
+      <c r="H124" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="273">
   <si>
     <t>Nummer</t>
   </si>
@@ -42,9 +42,6 @@
     <t>nice to have</t>
   </si>
   <si>
-    <t>Voodoo Puppe</t>
-  </si>
-  <si>
     <t>Asset Mesh</t>
   </si>
   <si>
@@ -832,13 +829,19 @@
   </si>
   <si>
     <t>Müss man Öffnen können</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Mülleimer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,6 +873,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1029,7 +1038,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1055,6 +1064,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="4" builtinId="30"/>
@@ -1086,13 +1098,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1416,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,22 +1452,22 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>1</v>
@@ -1469,20 +1481,20 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>8</v>
+        <v>271</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="23"/>
       <c r="K2" s="15"/>
@@ -1494,39 +1506,39 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="5"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5"/>
       <c r="K4" s="15"/>
@@ -1534,47 +1546,47 @@
         <v>4</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="5"/>
       <c r="K6" s="15"/>
@@ -1587,40 +1599,40 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5"/>
       <c r="K8" s="15"/>
@@ -1628,47 +1640,47 @@
         <v>6</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="5"/>
       <c r="K10" s="15"/>
@@ -1676,30 +1688,30 @@
         <v>7</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="5"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="15"/>
     </row>
@@ -1720,178 +1732,178 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="5"/>
       <c r="K13" s="15"/>
       <c r="L13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="5"/>
       <c r="K14" s="15"/>
       <c r="L14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="5"/>
       <c r="K15" s="15"/>
       <c r="L15" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="5"/>
       <c r="K16" s="15"/>
       <c r="L16" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="5"/>
       <c r="K17" s="15"/>
       <c r="L17" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="5"/>
       <c r="K18" s="15"/>
       <c r="L18" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="5"/>
       <c r="K19" s="15"/>
       <c r="L19" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N19" s="15"/>
     </row>
@@ -1907,26 +1919,26 @@
       <c r="I20" s="2"/>
       <c r="K20" s="15"/>
       <c r="L20" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="5"/>
@@ -1952,17 +1964,17 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="5"/>
@@ -1976,14 +1988,14 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3"/>
       <c r="I24" s="5"/>
@@ -1997,17 +2009,17 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="5"/>
@@ -2024,7 +2036,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2"/>
@@ -2041,7 +2053,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="2"/>
@@ -2055,17 +2067,17 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="5"/>
@@ -2091,19 +2103,19 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="5"/>
@@ -2124,7 +2136,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2132,7 +2144,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="5"/>
@@ -2141,14 +2153,14 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="2"/>
@@ -2158,14 +2170,14 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="2"/>
@@ -2175,14 +2187,14 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="2"/>
@@ -2192,14 +2204,14 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
@@ -2218,16 +2230,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="2"/>
@@ -2246,19 +2258,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="5"/>
@@ -2276,16 +2288,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="2"/>
@@ -2304,16 +2316,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="2"/>
@@ -2332,7 +2344,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2347,14 +2359,14 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="2"/>
@@ -2364,14 +2376,14 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="2"/>
@@ -2381,14 +2393,14 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="2"/>
@@ -2398,17 +2410,17 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F50" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="5"/>
@@ -2417,14 +2429,14 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="2"/>
@@ -2434,14 +2446,14 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="2"/>
@@ -2451,14 +2463,14 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="2"/>
@@ -2468,14 +2480,14 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="2"/>
@@ -2485,14 +2497,14 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="2"/>
@@ -2511,16 +2523,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="2"/>
@@ -2539,106 +2551,102 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="5"/>
+    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" s="11"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="A63" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>248</v>
-      </c>
+      <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="C64" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G64" s="11"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>101</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="5"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
@@ -2653,47 +2661,41 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="E67" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G67" s="11"/>
       <c r="H67" s="2"/>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" s="11"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="5"/>
+      <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="A69" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="2"/>
       <c r="I69" s="5"/>
@@ -2702,70 +2704,72 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="2"/>
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G71" s="11"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="11"/>
       <c r="H72" s="2"/>
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="5"/>
+      <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="A74" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="2"/>
@@ -2775,14 +2779,16 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="H75" s="2"/>
       <c r="I75" s="5"/>
     </row>
@@ -2790,11 +2796,11 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -2805,11 +2811,11 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -2820,11 +2826,11 @@
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -2832,14 +2838,14 @@
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="7" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -2847,14 +2853,14 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="7" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -2865,58 +2871,58 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="7" t="s">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="G81" s="7"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="C82" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
       <c r="H82" s="2"/>
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="C83" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="H83" s="2"/>
-      <c r="I83" s="5"/>
+      <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -2926,28 +2932,30 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="C85" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G86" s="7"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
       <c r="H86" s="2"/>
       <c r="I86" s="5"/>
     </row>
@@ -2963,48 +2971,42 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
+      <c r="A88" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G88" s="7"/>
       <c r="H88" s="2"/>
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G89" s="11"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="5"/>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="A90" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="2"/>
       <c r="I90" s="5"/>
@@ -3013,14 +3015,14 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="2"/>
@@ -3030,14 +3032,14 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="2"/>
@@ -3047,14 +3049,14 @@
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="2"/>
@@ -3064,14 +3066,14 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="2"/>
@@ -3081,14 +3083,14 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="2"/>
@@ -3098,74 +3100,74 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="2"/>
       <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G97" s="11"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
+      <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
+      <c r="E98" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="G98" s="11"/>
       <c r="H98" s="2"/>
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="11" t="s">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G99" s="11"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>226</v>
-      </c>
+      <c r="E100" s="11"/>
       <c r="F100" s="11"/>
-      <c r="G100" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="G100" s="11"/>
       <c r="H100" s="2"/>
       <c r="I100" s="5"/>
     </row>
@@ -3173,16 +3175,16 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11" t="s">
-        <v>132</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G101" s="11"/>
       <c r="H101" s="2"/>
       <c r="I101" s="5"/>
     </row>
@@ -3190,15 +3192,15 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="5"/>
@@ -3207,88 +3209,86 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="E103" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F103" s="11"/>
       <c r="G103" s="11" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+      <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="6"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H105" s="2"/>
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G106" s="9"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="2"/>
-      <c r="I106" s="5"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="A107" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="H107" s="6"/>
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>162</v>
@@ -3299,30 +3299,38 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H110" s="6"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G110" s="9"/>
+      <c r="H110" s="2"/>
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3337,15 +3345,19 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+      <c r="A112" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="H112" s="6"/>
       <c r="I112" s="5"/>
     </row>
@@ -3361,17 +3373,15 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
+      <c r="A114" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
       <c r="H114" s="6"/>
       <c r="I114" s="5"/>
     </row>
@@ -3387,19 +3397,17 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" s="11"/>
+      <c r="A116" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
       <c r="H116" s="6"/>
       <c r="I116" s="5"/>
     </row>
@@ -3415,168 +3423,196 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
+      <c r="A118" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G118" s="11"/>
       <c r="H118" s="6"/>
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I119" s="17"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A120" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H120" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="6"/>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="3" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G121" s="3"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="5"/>
+      <c r="H121" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I121" s="17"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="3" t="s">
-        <v>267</v>
+        <v>112</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I122" s="5"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="3" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="H123" s="6"/>
       <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="3" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G124" s="3"/>
-      <c r="H124" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="H124" s="6"/>
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="G125" s="3"/>
-      <c r="H125" s="2"/>
+      <c r="H125" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="3" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="G126" s="3"/>
-      <c r="H126" s="2"/>
+      <c r="H126" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I126" s="5"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="3" t="s">
-        <v>264</v>
-      </c>
+      <c r="A127" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="2"/>
       <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:F61"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,9 +2588,9 @@
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="11"/>
       <c r="H61" s="25"/>
-      <c r="I61" s="26"/>
+      <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -825,9 +825,6 @@
     <t>Tür 200cm höhe / 100cm breit</t>
   </si>
   <si>
-    <t>100cm breit/100cm tief</t>
-  </si>
-  <si>
     <t>Müss man Öffnen können</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>Mülleimer</t>
+  </si>
+  <si>
+    <t>100cm breit/100cm tief/5cm dick</t>
   </si>
 </sst>
 </file>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -3314,7 +3314,7 @@
       <c r="H109" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I109" s="5"/>
+      <c r="I109" s="18"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
@@ -3480,7 +3480,7 @@
       <c r="H121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I121" s="17"/>
+      <c r="I121" s="18"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
@@ -3496,12 +3496,12 @@
         <v>268</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H122" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I122" s="5"/>
+      <c r="I122" s="17"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
@@ -3548,13 +3548,13 @@
         <v>144</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I125" s="5"/>
+      <c r="I125" s="18"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
@@ -3567,13 +3567,13 @@
         <v>145</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I126" s="5"/>
+      <c r="I126" s="18"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="273">
   <si>
     <t>Nummer</t>
   </si>
@@ -135,21 +135,12 @@
     <t>Seitenteil groß</t>
   </si>
   <si>
-    <t>160cm höhe/ 40cm tief</t>
-  </si>
-  <si>
     <t>Seitenteil klein</t>
   </si>
   <si>
-    <t>200cm höhe/ 40cm tief</t>
-  </si>
-  <si>
     <t>Regalboden groß</t>
   </si>
   <si>
-    <t>200cm breit/ 40 cm tief</t>
-  </si>
-  <si>
     <t>120cm breit/ 60cm tiefe</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>Regalboden klein</t>
   </si>
   <si>
-    <t>100cm breit/ 40cm tief</t>
-  </si>
-  <si>
     <t>Modular</t>
   </si>
   <si>
@@ -835,6 +823,18 @@
   </si>
   <si>
     <t>100cm breit/100cm tief/5cm dick</t>
+  </si>
+  <si>
+    <t>160cm höhe/ 40cm tief/8cm dick</t>
+  </si>
+  <si>
+    <t>200cm höhe/ 40cm tief/8cm dick</t>
+  </si>
+  <si>
+    <t>200cm breit/ 40 cm tief/8cm dick</t>
+  </si>
+  <si>
+    <t>100cm breit/ 40cm tief/8cm dick</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1067,6 +1067,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="4" builtinId="30"/>
@@ -1430,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>1</v>
@@ -1481,16 +1483,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="13" t="s">
@@ -1506,11 +1508,11 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1521,7 +1523,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N3" s="15"/>
     </row>
@@ -1533,7 +1535,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1546,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N4" s="15"/>
     </row>
@@ -1558,7 +1560,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1569,19 +1571,19 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1604,7 +1606,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1627,7 +1629,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1652,7 +1654,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1675,7 +1677,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1700,7 +1702,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1738,10 +1740,10 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="10" t="s">
@@ -1750,10 +1752,10 @@
       <c r="I13" s="5"/>
       <c r="K13" s="15"/>
       <c r="L13" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N13" s="15"/>
     </row>
@@ -1765,7 +1767,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1775,10 +1777,10 @@
       <c r="I14" s="5"/>
       <c r="K14" s="15"/>
       <c r="L14" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N14" s="15"/>
     </row>
@@ -1790,7 +1792,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1800,7 +1802,7 @@
       <c r="I15" s="5"/>
       <c r="K15" s="15"/>
       <c r="L15" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M15" s="22" t="s">
         <v>9</v>
@@ -1810,12 +1812,12 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1825,7 +1827,7 @@
       <c r="I16" s="5"/>
       <c r="K16" s="15"/>
       <c r="L16" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M16" s="22" t="s">
         <v>10</v>
@@ -1840,7 +1842,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1850,7 +1852,7 @@
       <c r="I17" s="5"/>
       <c r="K17" s="15"/>
       <c r="L17" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M17" s="22" t="s">
         <v>11</v>
@@ -1865,7 +1867,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1875,10 +1877,10 @@
       <c r="I18" s="5"/>
       <c r="K18" s="15"/>
       <c r="L18" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N18" s="15"/>
     </row>
@@ -1890,7 +1892,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1900,10 +1902,10 @@
       <c r="I19" s="5"/>
       <c r="K19" s="15"/>
       <c r="L19" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N19" s="15"/>
     </row>
@@ -1919,26 +1921,26 @@
       <c r="I20" s="2"/>
       <c r="K20" s="15"/>
       <c r="L20" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="5"/>
@@ -1971,12 +1973,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1992,10 +1996,10 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G24" s="3"/>
       <c r="I24" s="5"/>
@@ -2013,7 +2017,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>31</v>
@@ -2071,7 +2075,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>36</v>
@@ -2109,13 +2113,13 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="5"/>
@@ -2144,10 +2148,12 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -2157,65 +2163,73 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="5"/>
+      <c r="H33" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="5"/>
+      <c r="H34" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="5"/>
+      <c r="H35" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="5"/>
+      <c r="H36" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -2230,16 +2244,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="2"/>
@@ -2258,19 +2272,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="5"/>
@@ -2288,16 +2302,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="2"/>
@@ -2316,16 +2330,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="2"/>
@@ -2344,7 +2358,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2359,14 +2373,14 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="2"/>
@@ -2376,14 +2390,14 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="2"/>
@@ -2393,14 +2407,14 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="2"/>
@@ -2410,17 +2424,17 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="5"/>
@@ -2429,14 +2443,14 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="2"/>
@@ -2446,14 +2460,14 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="2"/>
@@ -2463,14 +2477,14 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="2"/>
@@ -2480,14 +2494,14 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="2"/>
@@ -2497,14 +2511,14 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="2"/>
@@ -2523,16 +2537,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="2"/>
@@ -2551,16 +2565,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="24" t="s">
@@ -2581,7 +2595,7 @@
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -2605,7 +2619,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2620,14 +2634,14 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="2"/>
@@ -2637,11 +2651,11 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -2661,16 +2675,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="2"/>
@@ -2689,7 +2703,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -2704,14 +2718,14 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="2"/>
@@ -2721,14 +2735,14 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="2"/>
@@ -2738,14 +2752,14 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G72" s="11"/>
       <c r="H72" s="2"/>
@@ -2764,7 +2778,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2779,15 +2793,15 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="5"/>
@@ -2796,11 +2810,11 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -2811,11 +2825,11 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -2826,11 +2840,11 @@
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -2841,11 +2855,11 @@
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -2856,11 +2870,11 @@
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -2871,11 +2885,11 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -2886,11 +2900,11 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -2901,15 +2915,15 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -2918,11 +2932,11 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -2933,11 +2947,11 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
@@ -2948,11 +2962,11 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -2972,16 +2986,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="2"/>
@@ -3000,7 +3014,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3015,14 +3029,14 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="2"/>
@@ -3032,14 +3046,14 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="2"/>
@@ -3049,14 +3063,14 @@
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="2"/>
@@ -3066,14 +3080,14 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="2"/>
@@ -3083,14 +3097,14 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="2"/>
@@ -3100,14 +3114,14 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="2"/>
@@ -3117,14 +3131,14 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="2"/>
@@ -3134,14 +3148,14 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="2"/>
@@ -3160,7 +3174,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3175,14 +3189,14 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="2"/>
@@ -3192,15 +3206,15 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="5"/>
@@ -3209,15 +3223,15 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="5"/>
@@ -3226,15 +3240,15 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="5"/>
@@ -3243,15 +3257,15 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="5"/>
@@ -3269,7 +3283,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3284,14 +3298,14 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="2"/>
@@ -3301,14 +3315,14 @@
       <c r="A109" s="2"/>
       <c r="B109" s="6"/>
       <c r="C109" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="24" t="s">
@@ -3320,14 +3334,14 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="2"/>
@@ -3346,17 +3360,17 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F112" s="11"/>
       <c r="G112" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="5"/>
@@ -3374,7 +3388,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3398,13 +3412,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -3424,16 +3438,16 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="6"/>
@@ -3452,7 +3466,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3467,14 +3481,14 @@
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="24" t="s">
@@ -3486,17 +3500,17 @@
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H122" s="24" t="s">
         <v>23</v>
@@ -3507,14 +3521,14 @@
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="6"/>
@@ -3524,14 +3538,14 @@
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="6"/>
@@ -3541,14 +3555,14 @@
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="24" t="s">
@@ -3560,14 +3574,14 @@
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="24" t="s">
@@ -3577,7 +3591,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3592,7 +3606,7 @@
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -3605,7 +3619,7 @@
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="273">
   <si>
     <t>Nummer</t>
   </si>
@@ -486,9 +486,6 @@
     <t>Kiste mittel</t>
   </si>
   <si>
-    <t>Kiste Groß</t>
-  </si>
-  <si>
     <t>65cm höhe</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>100cm breit/ 40cm tief/8cm dick</t>
+  </si>
+  <si>
+    <t>Kiste groß</t>
   </si>
 </sst>
 </file>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>74</v>
@@ -1508,11 +1508,11 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1535,7 +1535,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1560,7 +1560,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1578,12 +1578,12 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1606,7 +1606,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1629,7 +1629,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1654,7 +1654,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1677,7 +1677,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1702,7 +1702,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1740,7 +1740,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>75</v>
@@ -1767,7 +1767,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1792,7 +1792,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1812,12 +1812,12 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1842,7 +1842,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1867,7 +1867,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1892,7 +1892,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1930,17 +1930,17 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="5"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>41</v>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>31</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>36</v>
@@ -2113,7 +2113,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>42</v>
@@ -2163,10 +2163,10 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="29" t="s">
@@ -2182,10 +2182,10 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="24" t="s">
@@ -2201,10 +2201,10 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="24" t="s">
@@ -2220,10 +2220,10 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="24" t="s">
@@ -2244,16 +2244,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="2"/>
@@ -2278,7 +2278,7 @@
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>48</v>
@@ -2308,7 +2308,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>52</v>
@@ -2336,7 +2336,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>54</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>113</v>
@@ -2390,14 +2390,14 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="2"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>112</v>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>114</v>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>118</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>113</v>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>121</v>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>123</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>125</v>
@@ -2543,7 +2543,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>94</v>
@@ -2571,7 +2571,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>95</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2634,11 +2634,11 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>131</v>
@@ -2651,11 +2651,11 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -2681,7 +2681,7 @@
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>96</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>79</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>80</v>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>81</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -2870,11 +2870,11 @@
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -2915,15 +2915,15 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -2932,11 +2932,11 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -2947,11 +2947,11 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
@@ -2962,11 +2962,11 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -2986,16 +2986,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="2"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>82</v>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>82</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>83</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>83</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>84</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>84</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>85</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>85</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>97</v>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="5"/>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11" t="s">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11" t="s">
@@ -3291,8 +3291,10 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="5"/>
+      <c r="H107" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I107" s="18"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
@@ -3302,14 +3304,16 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G108" s="9"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="5"/>
+      <c r="H108" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108" s="18"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
@@ -3319,7 +3323,7 @@
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>74</v>
@@ -3334,18 +3338,20 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="9" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="5"/>
+      <c r="H110" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I110" s="18"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
@@ -3366,7 +3372,7 @@
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F112" s="11"/>
       <c r="G112" s="11" t="s">
@@ -3418,7 +3424,7 @@
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -3444,7 +3450,7 @@
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>126</v>
@@ -3488,7 +3494,7 @@
         <v>138</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="24" t="s">
@@ -3507,48 +3513,52 @@
         <v>137</v>
       </c>
       <c r="F122" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H122" s="24" t="s">
+      <c r="H122" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I122" s="17"/>
+      <c r="I122" s="18"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="6"/>
+      <c r="H123" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G124" s="3"/>
-      <c r="H124" s="6"/>
+      <c r="H124" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3562,7 +3572,7 @@
         <v>140</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="24" t="s">
@@ -3581,7 +3591,7 @@
         <v>141</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="24" t="s">
@@ -3591,7 +3601,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3606,7 +3616,7 @@
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -3619,7 +3629,7 @@
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1418,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1735,7 @@
       <c r="H13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="17"/>
       <c r="K13" s="15"/>
       <c r="L13" s="22" t="s">
         <v>147</v>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,7 +3481,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="6"/>
-      <c r="I120" s="5"/>
+      <c r="I120" s="18"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
@@ -3540,7 +3540,7 @@
       <c r="H123" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I123" s="5"/>
+      <c r="I123" s="18"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
@@ -3559,7 +3559,7 @@
       <c r="H124" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I124" s="5"/>
+      <c r="I124" s="18"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="273">
   <si>
     <t>Nummer</t>
   </si>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,7 +1978,7 @@
       <c r="G23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="5"/>
@@ -2002,7 +2002,10 @@
         <v>41</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="18"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2025,8 +2028,10 @@
       <c r="G25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="5"/>
+      <c r="H25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="17"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="273">
   <si>
     <t>Nummer</t>
   </si>
@@ -135,12 +135,21 @@
     <t>Seitenteil groß</t>
   </si>
   <si>
+    <t>160cm höhe/ 40cm tief</t>
+  </si>
+  <si>
     <t>Seitenteil klein</t>
   </si>
   <si>
+    <t>200cm höhe/ 40cm tief</t>
+  </si>
+  <si>
     <t>Regalboden groß</t>
   </si>
   <si>
+    <t>200cm breit/ 40 cm tief</t>
+  </si>
+  <si>
     <t>120cm breit/ 60cm tiefe</t>
   </si>
   <si>
@@ -153,6 +162,9 @@
     <t>Regalboden klein</t>
   </si>
   <si>
+    <t>100cm breit/ 40cm tief</t>
+  </si>
+  <si>
     <t>Modular</t>
   </si>
   <si>
@@ -486,6 +498,9 @@
     <t>Kiste mittel</t>
   </si>
   <si>
+    <t>Kiste Groß</t>
+  </si>
+  <si>
     <t>65cm höhe</t>
   </si>
   <si>
@@ -820,21 +835,6 @@
   </si>
   <si>
     <t>100cm breit/100cm tief/5cm dick</t>
-  </si>
-  <si>
-    <t>160cm höhe/ 40cm tief/8cm dick</t>
-  </si>
-  <si>
-    <t>200cm höhe/ 40cm tief/8cm dick</t>
-  </si>
-  <si>
-    <t>200cm breit/ 40 cm tief/8cm dick</t>
-  </si>
-  <si>
-    <t>100cm breit/ 40cm tief/8cm dick</t>
-  </si>
-  <si>
-    <t>Kiste groß</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1067,8 +1067,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="4" builtinId="30"/>
@@ -1432,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>1</v>
@@ -1483,16 +1481,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="13" t="s">
@@ -1508,11 +1506,11 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1523,7 +1521,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N3" s="15"/>
     </row>
@@ -1535,7 +1533,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1548,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N4" s="15"/>
     </row>
@@ -1560,7 +1558,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1571,19 +1569,19 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1606,7 +1604,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1629,7 +1627,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1654,7 +1652,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1677,7 +1675,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1702,7 +1700,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1740,10 +1738,10 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="10" t="s">
@@ -1752,10 +1750,10 @@
       <c r="I13" s="5"/>
       <c r="K13" s="15"/>
       <c r="L13" s="22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N13" s="15"/>
     </row>
@@ -1767,7 +1765,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1777,10 +1775,10 @@
       <c r="I14" s="5"/>
       <c r="K14" s="15"/>
       <c r="L14" s="22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N14" s="15"/>
     </row>
@@ -1792,7 +1790,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1802,7 +1800,7 @@
       <c r="I15" s="5"/>
       <c r="K15" s="15"/>
       <c r="L15" s="22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M15" s="22" t="s">
         <v>9</v>
@@ -1812,12 +1810,12 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1827,7 +1825,7 @@
       <c r="I16" s="5"/>
       <c r="K16" s="15"/>
       <c r="L16" s="22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M16" s="22" t="s">
         <v>10</v>
@@ -1842,7 +1840,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1852,7 +1850,7 @@
       <c r="I17" s="5"/>
       <c r="K17" s="15"/>
       <c r="L17" s="22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M17" s="22" t="s">
         <v>11</v>
@@ -1867,7 +1865,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1877,10 +1875,10 @@
       <c r="I18" s="5"/>
       <c r="K18" s="15"/>
       <c r="L18" s="22" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N18" s="15"/>
     </row>
@@ -1892,7 +1890,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1902,10 +1900,10 @@
       <c r="I19" s="5"/>
       <c r="K19" s="15"/>
       <c r="L19" s="22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N19" s="15"/>
     </row>
@@ -1921,26 +1919,26 @@
       <c r="I20" s="2"/>
       <c r="K20" s="15"/>
       <c r="L20" s="22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="5"/>
@@ -1973,14 +1971,12 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>23</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="5"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1996,16 +1992,13 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="5"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2020,7 +2013,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>31</v>
@@ -2028,10 +2021,8 @@
       <c r="G25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="17"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="5"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2080,7 +2071,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>36</v>
@@ -2118,13 +2109,13 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="5"/>
@@ -2153,12 +2144,10 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -2168,73 +2157,65 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="18"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="18"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="18"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="18"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -2249,16 +2230,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="2"/>
@@ -2277,19 +2258,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="5"/>
@@ -2307,16 +2288,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="2"/>
@@ -2335,16 +2316,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="2"/>
@@ -2363,7 +2344,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2378,14 +2359,14 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="2"/>
@@ -2395,14 +2376,14 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="2"/>
@@ -2412,14 +2393,14 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="2"/>
@@ -2429,17 +2410,17 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="5"/>
@@ -2448,14 +2429,14 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="2"/>
@@ -2465,14 +2446,14 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="2"/>
@@ -2482,14 +2463,14 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="2"/>
@@ -2499,14 +2480,14 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="2"/>
@@ -2516,14 +2497,14 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="2"/>
@@ -2542,16 +2523,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="2"/>
@@ -2570,16 +2551,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="24" t="s">
@@ -2600,7 +2581,7 @@
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -2624,7 +2605,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2639,14 +2620,14 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="2"/>
@@ -2656,11 +2637,11 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -2680,16 +2661,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="2"/>
@@ -2708,7 +2689,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -2723,14 +2704,14 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="2"/>
@@ -2740,14 +2721,14 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="2"/>
@@ -2757,14 +2738,14 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G72" s="11"/>
       <c r="H72" s="2"/>
@@ -2783,7 +2764,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2798,15 +2779,15 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="5"/>
@@ -2815,11 +2796,11 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -2830,11 +2811,11 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -2845,11 +2826,11 @@
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -2860,11 +2841,11 @@
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -2875,11 +2856,11 @@
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -2890,11 +2871,11 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -2905,11 +2886,11 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -2920,15 +2901,15 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -2937,11 +2918,11 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -2952,11 +2933,11 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="11" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
@@ -2967,11 +2948,11 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -2991,16 +2972,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="2"/>
@@ -3019,7 +3000,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3034,14 +3015,14 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="2"/>
@@ -3051,14 +3032,14 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="2"/>
@@ -3068,14 +3049,14 @@
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="2"/>
@@ -3085,14 +3066,14 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="2"/>
@@ -3102,14 +3083,14 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="2"/>
@@ -3119,14 +3100,14 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="2"/>
@@ -3136,14 +3117,14 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="2"/>
@@ -3153,14 +3134,14 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="2"/>
@@ -3179,7 +3160,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3194,14 +3175,14 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="2"/>
@@ -3211,15 +3192,15 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="5"/>
@@ -3228,15 +3209,15 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="5"/>
@@ -3245,15 +3226,15 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="5"/>
@@ -3262,15 +3243,15 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="5"/>
@@ -3288,7 +3269,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3296,42 +3277,38 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I107" s="18"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G108" s="9"/>
-      <c r="H108" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I108" s="18"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="6"/>
       <c r="C109" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="24" t="s">
@@ -3343,20 +3320,18 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="9" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I110" s="18"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
@@ -3371,17 +3346,17 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F112" s="11"/>
       <c r="G112" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="5"/>
@@ -3399,7 +3374,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3423,13 +3398,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -3449,16 +3424,16 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="6"/>
@@ -3477,7 +3452,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3486,20 +3461,20 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="6"/>
-      <c r="I120" s="18"/>
+      <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="24" t="s">
@@ -3511,73 +3486,69 @@
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H122" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="H122" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I122" s="18"/>
+      <c r="I122" s="17"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I123" s="18"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G124" s="3"/>
-      <c r="H124" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I124" s="18"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="24" t="s">
@@ -3589,14 +3560,14 @@
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="24" t="s">
@@ -3606,7 +3577,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3621,7 +3592,7 @@
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -3634,7 +3605,7 @@
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="275">
   <si>
     <t>Nummer</t>
   </si>
@@ -835,6 +835,12 @@
   </si>
   <si>
     <t>100cm breit/100cm tief/5cm dick</t>
+  </si>
+  <si>
+    <t>Schubladen müssen herausziehbar sein</t>
+  </si>
+  <si>
+    <t>Hibiskus</t>
   </si>
 </sst>
 </file>
@@ -1062,11 +1068,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="4" builtinId="30"/>
@@ -1430,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1448,7 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
@@ -1496,7 +1502,7 @@
       <c r="H2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="27"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -1517,7 +1523,7 @@
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="18"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="5" t="s">
@@ -1540,7 +1546,7 @@
       <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="17"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
         <v>4</v>
@@ -2197,7 +2203,6 @@
         <v>43</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2241,7 +2246,9 @@
       <c r="F38" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="5"/>
     </row>
@@ -2563,7 +2570,7 @@
         <v>99</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="24" t="s">
+      <c r="H59" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I59" s="5"/>
@@ -2576,20 +2583,20 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="26"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="25"/>
+      <c r="H61" s="24"/>
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3311,7 +3318,7 @@
         <v>78</v>
       </c>
       <c r="G109" s="3"/>
-      <c r="H109" s="24" t="s">
+      <c r="H109" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I109" s="18"/>
@@ -3381,7 +3388,9 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
+      <c r="G114" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="H114" s="6"/>
       <c r="I114" s="5"/>
     </row>
@@ -3477,7 +3486,7 @@
         <v>267</v>
       </c>
       <c r="G121" s="3"/>
-      <c r="H121" s="24" t="s">
+      <c r="H121" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I121" s="18"/>
@@ -3498,7 +3507,7 @@
       <c r="G122" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H122" s="24" t="s">
+      <c r="H122" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I122" s="17"/>
@@ -3551,7 +3560,7 @@
         <v>272</v>
       </c>
       <c r="G125" s="3"/>
-      <c r="H125" s="24" t="s">
+      <c r="H125" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I125" s="18"/>
@@ -3570,7 +3579,7 @@
         <v>272</v>
       </c>
       <c r="G126" s="3"/>
-      <c r="H126" s="24" t="s">
+      <c r="H126" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I126" s="18"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="275">
   <si>
     <t>Nummer</t>
   </si>
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,7 +3391,9 @@
       <c r="G114" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H114" s="6"/>
+      <c r="H114" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I114" s="5"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="275">
   <si>
     <t>Nummer</t>
   </si>
@@ -1044,7 +1044,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1073,6 +1073,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="4" builtinId="30"/>
@@ -1436,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K114" sqref="K114"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +1984,9 @@
       <c r="G23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2004,6 +2008,9 @@
         <v>44</v>
       </c>
       <c r="G24" s="3"/>
+      <c r="H24" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2027,7 +2034,9 @@
       <c r="G25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2085,7 +2094,9 @@
       <c r="G28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2152,7 +2163,9 @@
       <c r="G32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2169,7 +2182,9 @@
         <v>39</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2186,7 +2201,9 @@
         <v>41</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2203,6 +2220,9 @@
         <v>43</v>
       </c>
       <c r="G35" s="3"/>
+      <c r="H35" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2219,7 +2239,9 @@
         <v>48</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3284,7 +3306,9 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="6"/>
+      <c r="H107" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3301,7 +3325,9 @@
         <v>162</v>
       </c>
       <c r="G108" s="9"/>
-      <c r="H108" s="2"/>
+      <c r="H108" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3337,7 +3363,9 @@
         <v>161</v>
       </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="2"/>
+      <c r="H110" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3471,7 +3499,9 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="6"/>
+      <c r="H120" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3509,7 +3539,7 @@
       <c r="G122" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H122" s="23" t="s">
+      <c r="H122" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I122" s="17"/>
@@ -3528,7 +3558,9 @@
         <v>264</v>
       </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="6"/>
+      <c r="H123" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3545,7 +3577,9 @@
         <v>264</v>
       </c>
       <c r="G124" s="3"/>
-      <c r="H124" s="6"/>
+      <c r="H124" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId5"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="276">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -846,25 +849,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -882,7 +879,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +974,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1109,172 +1112,136 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd99594"/>
-      <rgbColor rgb="ffe5b8b7"/>
-      <rgbColor rgb="ff006100"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ff0c0c0c"/>
-      <rgbColor rgb="ff9c0006"/>
-      <rgbColor rgb="ffffc7ce"/>
-      <rgbColor rgb="ffb2a1c7"/>
-      <rgbColor rgb="ffccc0d9"/>
-      <rgbColor rgb="ff9c6500"/>
-      <rgbColor rgb="ffffeb9c"/>
-      <rgbColor rgb="ff95b3d7"/>
-      <rgbColor rgb="ffc2d69b"/>
-      <rgbColor rgb="ffd6e3bc"/>
-      <rgbColor rgb="ffa5b6ca"/>
-      <rgbColor rgb="fffabf8f"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffdbe5f1"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD99594"/>
+      <rgbColor rgb="FFE5B8B7"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FF0C0C0C"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFB2A1C7"/>
+      <rgbColor rgb="FFCCC0D9"/>
+      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF95B3D7"/>
+      <rgbColor rgb="FFC2D69B"/>
+      <rgbColor rgb="FFD6E3BC"/>
+      <rgbColor rgb="FFA5B6CA"/>
+      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFDBE5F1"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1400,7 +1367,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1409,7 +1376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1418,7 +1385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1492,7 +1459,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1500,7 +1467,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1519,7 +1486,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1575,7 +1542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1601,7 +1568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1627,7 +1594,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1653,7 +1620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1679,7 +1646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1705,7 +1672,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1731,7 +1698,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1757,7 +1724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1770,9 +1737,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1787,7 +1760,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1795,7 +1768,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1814,7 +1787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1840,7 +1813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1866,7 +1839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1892,7 +1865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1918,7 +1891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1944,7 +1917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1970,7 +1943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1996,7 +1969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2022,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2048,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2061,9 +2034,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2077,7 +2056,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2096,7 +2075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2126,7 +2105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2152,7 +2131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2178,7 +2157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2204,7 +2183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2230,7 +2209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,7 +2235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2282,7 +2261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2308,7 +2287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2334,7 +2313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2347,68 +2326,75 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1719" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
-    <col min="16" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="22.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="1" customWidth="1"/>
+    <col min="15" max="256" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3"/>
@@ -2418,21 +2404,21 @@
       <c r="N1" s="4"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" t="s" s="8">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="9"/>
@@ -2443,238 +2429,238 @@
       <c r="N2" s="11"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
-      <c r="C3" t="s" s="14">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" t="s" s="14">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" t="s" s="15">
+      <c r="H3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" t="s" s="17">
+      <c r="M3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" t="s" s="18">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" t="s" s="18">
+      <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
-      <c r="H4" t="s" s="20">
+      <c r="H4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" t="s" s="14">
+      <c r="L4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s" s="22">
+      <c r="M4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" t="s" s="18">
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
-      <c r="E5" t="s" s="18">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-      <c r="H5" t="s" s="20">
+      <c r="H5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" t="s" s="24">
+      <c r="M5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" t="s" s="18">
+      <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" t="s" s="18">
+      <c r="E6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="H6" t="s" s="20">
+      <c r="H6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
-      <c r="L6" t="s" s="18">
+      <c r="L6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" t="s" s="18">
+      <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" t="s" s="18">
+      <c r="E7" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" t="s" s="20">
+      <c r="H7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" t="s" s="15">
+      <c r="M7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" t="s" s="18">
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" t="s" s="18">
+      <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" t="s" s="20">
+      <c r="H8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
-      <c r="L8" t="s" s="25">
+      <c r="L8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M8" t="s" s="26">
+      <c r="M8" s="26" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" t="s" s="18">
+      <c r="B9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" t="s" s="18">
+      <c r="E9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" t="s" s="20">
+      <c r="H9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" t="s" s="20">
+      <c r="M9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" t="s" s="18">
+      <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" t="s" s="18">
+      <c r="E10" s="18" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" t="s" s="20">
+      <c r="H10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
-      <c r="L10" t="s" s="27">
+      <c r="L10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s" s="28">
+      <c r="M10" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" t="s" s="26">
+      <c r="B11" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" t="s" s="26">
+      <c r="E11" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
-      <c r="H11" t="s" s="20">
+      <c r="H11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" t="s" s="30">
+      <c r="M11" s="30" t="s">
         <v>41</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2691,198 +2677,198 @@
       <c r="N12" s="11"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="14">
+    <row r="13" spans="1:15" ht="15" customHeight="1">
+      <c r="A13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" t="s" s="14">
+      <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s" s="14">
+      <c r="F13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" t="s" s="30">
+      <c r="H13" s="30" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
-      <c r="L13" t="s" s="31">
+      <c r="L13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="M13" t="s" s="31">
+      <c r="M13" s="31" t="s">
         <v>46</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" t="s" s="18">
+      <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" t="s" s="18">
+      <c r="E14" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" t="s" s="20">
+      <c r="H14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
-      <c r="L14" t="s" s="31">
+      <c r="L14" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="M14" t="s" s="31">
+      <c r="M14" s="31" t="s">
         <v>49</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="12"/>
-      <c r="B15" t="s" s="18">
+      <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" t="s" s="18">
+      <c r="E15" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" t="s" s="20">
+      <c r="H15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
-      <c r="L15" t="s" s="31">
+      <c r="L15" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="M15" t="s" s="31">
+      <c r="M15" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" t="s" s="18">
+      <c r="B16" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" t="s" s="18">
+      <c r="E16" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" t="s" s="20">
+      <c r="H16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
-      <c r="L16" t="s" s="31">
+      <c r="L16" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="M16" t="s" s="31">
+      <c r="M16" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" t="s" s="18">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" t="s" s="18">
+      <c r="E17" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" t="s" s="20">
+      <c r="H17" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
-      <c r="L17" t="s" s="31">
+      <c r="L17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="M17" t="s" s="31">
+      <c r="M17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" t="s" s="18">
+      <c r="B18" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" t="s" s="18">
+      <c r="E18" s="18" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" t="s" s="20">
+      <c r="H18" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
-      <c r="L18" t="s" s="31">
+      <c r="L18" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M18" t="s" s="31">
+      <c r="M18" s="31" t="s">
         <v>59</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" t="s" s="26">
+      <c r="B19" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" t="s" s="26">
+      <c r="E19" s="26" t="s">
         <v>61</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
-      <c r="H19" t="s" s="20">
+      <c r="H19" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
-      <c r="L19" t="s" s="31">
+      <c r="L19" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="M19" t="s" s="31">
+      <c r="M19" s="31" t="s">
         <v>63</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2894,27 +2880,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
-      <c r="L20" t="s" s="31">
+      <c r="L20" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="M20" t="s" s="31">
+      <c r="M20" s="31" t="s">
         <v>65</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="14">
+    <row r="21" spans="1:15" ht="15" customHeight="1">
+      <c r="A21" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" t="s" s="14">
+      <c r="E21" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" t="s" s="14">
+      <c r="G21" s="14" t="s">
         <v>68</v>
       </c>
       <c r="H21" s="12"/>
@@ -2926,7 +2912,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2943,21 +2929,23 @@
       <c r="N22" s="11"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="14">
+    <row r="23" spans="1:15" ht="15" customHeight="1">
+      <c r="A23" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" t="s" s="14">
+      <c r="F23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G23" t="s" s="14">
+      <c r="G23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I23" s="23"/>
       <c r="J23" s="3"/>
       <c r="K23" s="32"/>
@@ -2966,21 +2954,23 @@
       <c r="N23" s="32"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" t="s" s="14">
+      <c r="C24" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" t="s" s="14">
+      <c r="E24" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s" s="14">
+      <c r="F24" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I24" s="23"/>
       <c r="J24" s="3"/>
       <c r="K24" s="5"/>
@@ -2989,23 +2979,25 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" t="s" s="14">
+      <c r="C25" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" t="s" s="14">
+      <c r="E25" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s" s="14">
+      <c r="F25" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G25" t="s" s="14">
+      <c r="G25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I25" s="23"/>
       <c r="J25" s="3"/>
       <c r="K25" s="5"/>
@@ -3014,13 +3006,13 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" t="s" s="14">
+      <c r="F26" s="14" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="13"/>
@@ -3033,13 +3025,13 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" t="s" s="14">
+      <c r="F27" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G27" s="13"/>
@@ -3052,23 +3044,25 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" t="s" s="14">
+      <c r="C28" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" t="s" s="14">
+      <c r="E28" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F28" t="s" s="14">
+      <c r="F28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G28" t="s" s="14">
+      <c r="G28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I28" s="23"/>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
@@ -3077,7 +3071,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3094,20 +3088,20 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="14">
+    <row r="30" spans="1:15" ht="15" customHeight="1">
+      <c r="A30" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" t="s" s="14">
+      <c r="E30" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F30" t="s" s="14">
+      <c r="F30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G30" t="s" s="14">
+      <c r="G30" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H30" s="12"/>
@@ -3119,7 +3113,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3136,8 +3130,8 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="14">
+    <row r="32" spans="1:15" ht="15" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="13"/>
@@ -3145,10 +3139,12 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" t="s" s="14">
+      <c r="G32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="3"/>
       <c r="K32" s="5"/>
@@ -3157,21 +3153,23 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" t="s" s="14">
+      <c r="C33" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="13"/>
-      <c r="E33" t="s" s="14">
+      <c r="E33" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="14">
+      <c r="F33" s="14" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="3"/>
       <c r="K33" s="5"/>
@@ -3180,21 +3178,23 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" t="s" s="14">
+      <c r="C34" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" t="s" s="14">
+      <c r="E34" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F34" t="s" s="14">
+      <c r="F34" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I34" s="23"/>
       <c r="J34" s="3"/>
       <c r="K34" s="5"/>
@@ -3203,21 +3203,23 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
-      <c r="C35" t="s" s="14">
+      <c r="C35" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" t="s" s="14">
+      <c r="E35" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F35" t="s" s="14">
+      <c r="F35" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I35" s="23"/>
       <c r="J35" s="3"/>
       <c r="K35" s="5"/>
@@ -3226,21 +3228,23 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:15" ht="15" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
-      <c r="C36" t="s" s="14">
+      <c r="C36" s="14" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" t="s" s="14">
+      <c r="E36" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F36" t="s" s="14">
+      <c r="F36" s="14" t="s">
         <v>99</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I36" s="23"/>
       <c r="J36" s="3"/>
       <c r="K36" s="5"/>
@@ -3249,7 +3253,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3266,20 +3270,20 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="18">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
+      <c r="A38" s="18" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
-      <c r="E38" t="s" s="18">
+      <c r="E38" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F38" t="s" s="18">
+      <c r="F38" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G38" t="s" s="18">
+      <c r="G38" s="18" t="s">
         <v>103</v>
       </c>
       <c r="H38" s="12"/>
@@ -3291,7 +3295,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3308,20 +3312,20 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="25">
+    <row r="40" spans="1:15" ht="15" customHeight="1">
+      <c r="A40" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
-      <c r="E40" t="s" s="25">
+      <c r="E40" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F40" t="s" s="25">
+      <c r="F40" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G40" t="s" s="25">
+      <c r="G40" s="25" t="s">
         <v>107</v>
       </c>
       <c r="H40" s="12"/>
@@ -3333,7 +3337,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3350,17 +3354,17 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="18">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
+      <c r="A42" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" t="s" s="18">
+      <c r="E42" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F42" t="s" s="18">
+      <c r="F42" s="18" t="s">
         <v>110</v>
       </c>
       <c r="G42" s="19"/>
@@ -3373,7 +3377,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:15" ht="15" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3390,17 +3394,17 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="25">
+    <row r="44" spans="1:15" ht="15" customHeight="1">
+      <c r="A44" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
-      <c r="E44" t="s" s="25">
+      <c r="E44" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F44" t="s" s="25">
+      <c r="F44" s="25" t="s">
         <v>113</v>
       </c>
       <c r="G44" s="33"/>
@@ -3413,7 +3417,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3430,8 +3434,8 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="18">
+    <row r="46" spans="1:15" ht="15" customHeight="1">
+      <c r="A46" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B46" s="19"/>
@@ -3449,17 +3453,17 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:15" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
-      <c r="C47" t="s" s="18">
+      <c r="C47" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" t="s" s="18">
+      <c r="E47" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F47" t="s" s="18">
+      <c r="F47" s="18" t="s">
         <v>117</v>
       </c>
       <c r="G47" s="19"/>
@@ -3472,17 +3476,17 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:15" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
-      <c r="C48" t="s" s="25">
+      <c r="C48" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D48" s="33"/>
-      <c r="E48" t="s" s="25">
+      <c r="E48" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F48" t="s" s="25">
+      <c r="F48" s="25" t="s">
         <v>120</v>
       </c>
       <c r="G48" s="33"/>
@@ -3495,17 +3499,17 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:15" ht="15" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
-      <c r="C49" t="s" s="18">
+      <c r="C49" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="19"/>
-      <c r="E49" t="s" s="18">
+      <c r="E49" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F49" t="s" s="18">
+      <c r="F49" s="18" t="s">
         <v>123</v>
       </c>
       <c r="G49" s="19"/>
@@ -3518,20 +3522,20 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:15" ht="15" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
-      <c r="C50" t="s" s="25">
+      <c r="C50" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="33"/>
-      <c r="E50" t="s" s="25">
+      <c r="E50" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F50" t="s" s="25">
+      <c r="F50" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G50" t="s" s="25">
+      <c r="G50" s="25" t="s">
         <v>127</v>
       </c>
       <c r="H50" s="12"/>
@@ -3543,17 +3547,17 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
-      <c r="C51" t="s" s="25">
+      <c r="C51" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D51" s="33"/>
-      <c r="E51" t="s" s="25">
+      <c r="E51" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F51" t="s" s="25">
+      <c r="F51" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G51" s="33"/>
@@ -3566,17 +3570,17 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:15" ht="15" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
-      <c r="C52" t="s" s="25">
+      <c r="C52" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D52" s="33"/>
-      <c r="E52" t="s" s="25">
+      <c r="E52" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="F52" t="s" s="25">
+      <c r="F52" s="25" t="s">
         <v>117</v>
       </c>
       <c r="G52" s="33"/>
@@ -3589,17 +3593,17 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:15" ht="15" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
-      <c r="C53" t="s" s="25">
+      <c r="C53" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D53" s="33"/>
-      <c r="E53" t="s" s="25">
+      <c r="E53" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F53" t="s" s="25">
+      <c r="F53" s="25" t="s">
         <v>135</v>
       </c>
       <c r="G53" s="33"/>
@@ -3612,17 +3616,17 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:15" ht="15" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
-      <c r="C54" t="s" s="25">
+      <c r="C54" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D54" s="33"/>
-      <c r="E54" t="s" s="25">
+      <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F54" t="s" s="25">
+      <c r="F54" s="25" t="s">
         <v>138</v>
       </c>
       <c r="G54" s="33"/>
@@ -3635,17 +3639,17 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
-      <c r="C55" t="s" s="25">
+      <c r="C55" s="25" t="s">
         <v>139</v>
       </c>
       <c r="D55" s="33"/>
-      <c r="E55" t="s" s="25">
+      <c r="E55" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="F55" t="s" s="25">
+      <c r="F55" s="25" t="s">
         <v>141</v>
       </c>
       <c r="G55" s="33"/>
@@ -3658,7 +3662,7 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:15" ht="15" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3675,17 +3679,17 @@
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="s" s="14">
+    <row r="57" spans="1:15" ht="15" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" t="s" s="14">
+      <c r="E57" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F57" t="s" s="14">
+      <c r="F57" s="14" t="s">
         <v>144</v>
       </c>
       <c r="G57" s="13"/>
@@ -3698,7 +3702,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" spans="1:15" ht="15" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3715,21 +3719,21 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="s" s="14">
+    <row r="59" spans="1:15" ht="15" customHeight="1">
+      <c r="A59" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" t="s" s="14">
+      <c r="E59" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F59" t="s" s="14">
+      <c r="F59" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G59" s="13"/>
-      <c r="H59" t="s" s="34">
+      <c r="H59" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I59" s="23"/>
@@ -3740,7 +3744,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" spans="1:15" ht="15" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3757,8 +3761,8 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" t="s" s="25">
+    <row r="61" spans="1:15" ht="15" customHeight="1">
+      <c r="A61" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B61" s="33"/>
@@ -3776,7 +3780,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62" spans="1:15" ht="15" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3793,8 +3797,8 @@
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="s" s="25">
+    <row r="63" spans="1:15" ht="15" customHeight="1">
+      <c r="A63" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B63" s="33"/>
@@ -3812,17 +3816,17 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" spans="1:15" ht="15" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
-      <c r="C64" t="s" s="25">
+      <c r="C64" s="25" t="s">
         <v>150</v>
       </c>
       <c r="D64" s="33"/>
-      <c r="E64" t="s" s="25">
+      <c r="E64" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F64" t="s" s="25">
+      <c r="F64" s="25" t="s">
         <v>152</v>
       </c>
       <c r="G64" s="33"/>
@@ -3835,14 +3839,14 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" spans="1:15" ht="15" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
-      <c r="C65" t="s" s="25">
+      <c r="C65" s="25" t="s">
         <v>153</v>
       </c>
       <c r="D65" s="33"/>
-      <c r="E65" t="s" s="25">
+      <c r="E65" s="25" t="s">
         <v>154</v>
       </c>
       <c r="F65" s="33"/>
@@ -3856,7 +3860,7 @@
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66" spans="1:15" ht="15" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3873,17 +3877,17 @@
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
     </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="s" s="25">
+    <row r="67" spans="1:15" ht="15" customHeight="1">
+      <c r="A67" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
-      <c r="E67" t="s" s="25">
+      <c r="E67" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="F67" t="s" s="25">
+      <c r="F67" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G67" s="33"/>
@@ -3896,7 +3900,7 @@
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68" spans="1:15" ht="15" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3913,8 +3917,8 @@
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
     </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" t="s" s="25">
+    <row r="69" spans="1:15" ht="15" customHeight="1">
+      <c r="A69" s="25" t="s">
         <v>158</v>
       </c>
       <c r="B69" s="33"/>
@@ -3932,17 +3936,17 @@
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70" spans="1:15" ht="15" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
-      <c r="C70" t="s" s="25">
+      <c r="C70" s="25" t="s">
         <v>159</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" t="s" s="25">
+      <c r="E70" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F70" t="s" s="25">
+      <c r="F70" s="25" t="s">
         <v>161</v>
       </c>
       <c r="G70" s="33"/>
@@ -3955,17 +3959,17 @@
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71" spans="1:15" ht="15" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
-      <c r="C71" t="s" s="25">
+      <c r="C71" s="25" t="s">
         <v>162</v>
       </c>
       <c r="D71" s="33"/>
-      <c r="E71" t="s" s="25">
+      <c r="E71" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F71" t="s" s="25">
+      <c r="F71" s="25" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="33"/>
@@ -3978,17 +3982,17 @@
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" ht="15" customHeight="1">
+    <row r="72" spans="1:15" ht="15" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
-      <c r="C72" t="s" s="25">
+      <c r="C72" s="25" t="s">
         <v>165</v>
       </c>
       <c r="D72" s="33"/>
-      <c r="E72" t="s" s="25">
+      <c r="E72" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F72" t="s" s="25">
+      <c r="F72" s="25" t="s">
         <v>167</v>
       </c>
       <c r="G72" s="33"/>
@@ -4001,7 +4005,7 @@
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73" spans="1:15" ht="15" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -4018,8 +4022,8 @@
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
     </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" t="s" s="18">
+    <row r="74" spans="1:15" ht="15" customHeight="1">
+      <c r="A74" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B74" s="19"/>
@@ -4037,18 +4041,18 @@
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" spans="1:15" ht="15" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
-      <c r="C75" t="s" s="18">
+      <c r="C75" s="18" t="s">
         <v>169</v>
       </c>
       <c r="D75" s="19"/>
-      <c r="E75" t="s" s="18">
+      <c r="E75" s="18" t="s">
         <v>170</v>
       </c>
       <c r="F75" s="19"/>
-      <c r="G75" t="s" s="18">
+      <c r="G75" s="18" t="s">
         <v>171</v>
       </c>
       <c r="H75" s="12"/>
@@ -4060,14 +4064,14 @@
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" spans="1:15" ht="15" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
-      <c r="C76" t="s" s="18">
+      <c r="C76" s="18" t="s">
         <v>172</v>
       </c>
       <c r="D76" s="19"/>
-      <c r="E76" t="s" s="18">
+      <c r="E76" s="18" t="s">
         <v>173</v>
       </c>
       <c r="F76" s="19"/>
@@ -4081,14 +4085,14 @@
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77" spans="1:15" ht="15" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
-      <c r="C77" t="s" s="18">
+      <c r="C77" s="18" t="s">
         <v>174</v>
       </c>
       <c r="D77" s="19"/>
-      <c r="E77" t="s" s="18">
+      <c r="E77" s="18" t="s">
         <v>175</v>
       </c>
       <c r="F77" s="19"/>
@@ -4102,14 +4106,14 @@
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78" spans="1:15" ht="15" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
-      <c r="C78" t="s" s="18">
+      <c r="C78" s="18" t="s">
         <v>176</v>
       </c>
       <c r="D78" s="19"/>
-      <c r="E78" t="s" s="18">
+      <c r="E78" s="18" t="s">
         <v>177</v>
       </c>
       <c r="F78" s="19"/>
@@ -4123,14 +4127,14 @@
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79" spans="1:15" ht="15" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
-      <c r="C79" t="s" s="18">
+      <c r="C79" s="18" t="s">
         <v>178</v>
       </c>
       <c r="D79" s="19"/>
-      <c r="E79" t="s" s="18">
+      <c r="E79" s="18" t="s">
         <v>179</v>
       </c>
       <c r="F79" s="19"/>
@@ -4144,14 +4148,14 @@
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80" spans="1:15" ht="15" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
-      <c r="C80" t="s" s="18">
+      <c r="C80" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="19"/>
-      <c r="E80" t="s" s="18">
+      <c r="E80" s="18" t="s">
         <v>181</v>
       </c>
       <c r="F80" s="19"/>
@@ -4165,14 +4169,14 @@
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81" spans="1:15" ht="15" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
-      <c r="C81" t="s" s="18">
+      <c r="C81" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D81" s="19"/>
-      <c r="E81" t="s" s="18">
+      <c r="E81" s="18" t="s">
         <v>183</v>
       </c>
       <c r="F81" s="19"/>
@@ -4186,14 +4190,14 @@
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82" spans="1:15" ht="15" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
-      <c r="C82" t="s" s="18">
+      <c r="C82" s="18" t="s">
         <v>184</v>
       </c>
       <c r="D82" s="19"/>
-      <c r="E82" t="s" s="18">
+      <c r="E82" s="18" t="s">
         <v>185</v>
       </c>
       <c r="F82" s="19"/>
@@ -4207,18 +4211,18 @@
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" spans="1:15" ht="15" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
-      <c r="C83" t="s" s="18">
+      <c r="C83" s="18" t="s">
         <v>186</v>
       </c>
       <c r="D83" s="19"/>
-      <c r="E83" t="s" s="18">
+      <c r="E83" s="18" t="s">
         <v>187</v>
       </c>
       <c r="F83" s="19"/>
-      <c r="G83" t="s" s="18">
+      <c r="G83" s="18" t="s">
         <v>188</v>
       </c>
       <c r="H83" s="12"/>
@@ -4230,14 +4234,14 @@
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" spans="1:15" ht="15" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
-      <c r="C84" t="s" s="25">
+      <c r="C84" s="25" t="s">
         <v>189</v>
       </c>
       <c r="D84" s="33"/>
-      <c r="E84" t="s" s="25">
+      <c r="E84" s="25" t="s">
         <v>190</v>
       </c>
       <c r="F84" s="33"/>
@@ -4251,14 +4255,14 @@
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85" spans="1:15" ht="15" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
-      <c r="C85" t="s" s="25">
+      <c r="C85" s="25" t="s">
         <v>191</v>
       </c>
       <c r="D85" s="33"/>
-      <c r="E85" t="s" s="25">
+      <c r="E85" s="25" t="s">
         <v>192</v>
       </c>
       <c r="F85" s="33"/>
@@ -4272,14 +4276,14 @@
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
     </row>
-    <row r="86" ht="15" customHeight="1">
+    <row r="86" spans="1:15" ht="15" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
-      <c r="C86" t="s" s="25">
+      <c r="C86" s="25" t="s">
         <v>193</v>
       </c>
       <c r="D86" s="33"/>
-      <c r="E86" t="s" s="25">
+      <c r="E86" s="25" t="s">
         <v>194</v>
       </c>
       <c r="F86" s="33"/>
@@ -4293,7 +4297,7 @@
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87" spans="1:15" ht="15" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4310,17 +4314,17 @@
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
     </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" t="s" s="18">
+    <row r="88" spans="1:15" ht="15" customHeight="1">
+      <c r="A88" s="18" t="s">
         <v>195</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
-      <c r="E88" t="s" s="18">
+      <c r="E88" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F88" t="s" s="18">
+      <c r="F88" s="18" t="s">
         <v>197</v>
       </c>
       <c r="G88" s="19"/>
@@ -4333,7 +4337,7 @@
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" ht="15" customHeight="1">
+    <row r="89" spans="1:15" ht="15" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4350,8 +4354,8 @@
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
     </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" t="s" s="25">
+    <row r="90" spans="1:15" ht="15" customHeight="1">
+      <c r="A90" s="25" t="s">
         <v>198</v>
       </c>
       <c r="B90" s="33"/>
@@ -4369,17 +4373,17 @@
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" spans="1:15" ht="15" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
-      <c r="C91" t="s" s="25">
+      <c r="C91" s="25" t="s">
         <v>199</v>
       </c>
       <c r="D91" s="33"/>
-      <c r="E91" t="s" s="25">
+      <c r="E91" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="F91" t="s" s="25">
+      <c r="F91" s="25" t="s">
         <v>201</v>
       </c>
       <c r="G91" s="33"/>
@@ -4392,17 +4396,17 @@
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" ht="15" customHeight="1">
+    <row r="92" spans="1:15" ht="15" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
-      <c r="C92" t="s" s="25">
+      <c r="C92" s="25" t="s">
         <v>202</v>
       </c>
       <c r="D92" s="33"/>
-      <c r="E92" t="s" s="25">
+      <c r="E92" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F92" t="s" s="25">
+      <c r="F92" s="25" t="s">
         <v>201</v>
       </c>
       <c r="G92" s="33"/>
@@ -4415,17 +4419,17 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" ht="15" customHeight="1">
+    <row r="93" spans="1:15" ht="15" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
-      <c r="C93" t="s" s="25">
+      <c r="C93" s="25" t="s">
         <v>204</v>
       </c>
       <c r="D93" s="33"/>
-      <c r="E93" t="s" s="25">
+      <c r="E93" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F93" t="s" s="25">
+      <c r="F93" s="25" t="s">
         <v>206</v>
       </c>
       <c r="G93" s="33"/>
@@ -4438,17 +4442,17 @@
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
     </row>
-    <row r="94" ht="15" customHeight="1">
+    <row r="94" spans="1:15" ht="15" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
-      <c r="C94" t="s" s="25">
+      <c r="C94" s="25" t="s">
         <v>207</v>
       </c>
       <c r="D94" s="33"/>
-      <c r="E94" t="s" s="25">
+      <c r="E94" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F94" t="s" s="25">
+      <c r="F94" s="25" t="s">
         <v>206</v>
       </c>
       <c r="G94" s="33"/>
@@ -4461,17 +4465,17 @@
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95" spans="1:15" ht="15" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
-      <c r="C95" t="s" s="25">
+      <c r="C95" s="25" t="s">
         <v>209</v>
       </c>
       <c r="D95" s="33"/>
-      <c r="E95" t="s" s="25">
+      <c r="E95" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F95" t="s" s="25">
+      <c r="F95" s="25" t="s">
         <v>211</v>
       </c>
       <c r="G95" s="33"/>
@@ -4484,17 +4488,17 @@
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
     </row>
-    <row r="96" ht="15" customHeight="1">
+    <row r="96" spans="1:15" ht="15" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
-      <c r="C96" t="s" s="25">
+      <c r="C96" s="25" t="s">
         <v>212</v>
       </c>
       <c r="D96" s="33"/>
-      <c r="E96" t="s" s="25">
+      <c r="E96" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F96" t="s" s="25">
+      <c r="F96" s="25" t="s">
         <v>211</v>
       </c>
       <c r="G96" s="33"/>
@@ -4507,17 +4511,17 @@
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" spans="1:15" ht="15" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
-      <c r="C97" t="s" s="25">
+      <c r="C97" s="25" t="s">
         <v>214</v>
       </c>
       <c r="D97" s="33"/>
-      <c r="E97" t="s" s="25">
+      <c r="E97" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F97" t="s" s="25">
+      <c r="F97" s="25" t="s">
         <v>216</v>
       </c>
       <c r="G97" s="33"/>
@@ -4530,17 +4534,17 @@
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98" spans="1:15" ht="15" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
-      <c r="C98" t="s" s="25">
+      <c r="C98" s="25" t="s">
         <v>217</v>
       </c>
       <c r="D98" s="33"/>
-      <c r="E98" t="s" s="25">
+      <c r="E98" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F98" t="s" s="25">
+      <c r="F98" s="25" t="s">
         <v>216</v>
       </c>
       <c r="G98" s="33"/>
@@ -4553,7 +4557,7 @@
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
     </row>
-    <row r="99" ht="15" customHeight="1">
+    <row r="99" spans="1:15" ht="15" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4570,8 +4574,8 @@
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
     </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="A100" t="s" s="25">
+    <row r="100" spans="1:15" ht="15" customHeight="1">
+      <c r="A100" s="25" t="s">
         <v>219</v>
       </c>
       <c r="B100" s="33"/>
@@ -4589,24 +4593,24 @@
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
     </row>
-    <row r="101" ht="15" customHeight="1">
+    <row r="101" spans="1:15" ht="15" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
-      <c r="C101" t="s" s="25">
+      <c r="C101" s="25" t="s">
         <v>220</v>
       </c>
       <c r="D101" s="33"/>
-      <c r="E101" t="s" s="25">
+      <c r="E101" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F101" t="s" s="25">
+      <c r="F101" s="25" t="s">
         <v>222</v>
       </c>
       <c r="G101" s="33"/>
-      <c r="H101" t="s" s="36">
+      <c r="H101" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I101" t="s" s="17">
+      <c r="I101" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J101" s="3"/>
@@ -4616,24 +4620,24 @@
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" ht="15" customHeight="1">
+    <row r="102" spans="1:15" ht="15" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
-      <c r="C102" t="s" s="25">
+      <c r="C102" s="25" t="s">
         <v>224</v>
       </c>
       <c r="D102" s="33"/>
-      <c r="E102" t="s" s="25">
+      <c r="E102" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F102" s="33"/>
-      <c r="G102" t="s" s="25">
+      <c r="G102" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="H102" t="s" s="36">
+      <c r="H102" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I102" t="s" s="17">
+      <c r="I102" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J102" s="3"/>
@@ -4643,24 +4647,24 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" ht="15" customHeight="1">
+    <row r="103" spans="1:15" ht="15" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
-      <c r="C103" t="s" s="25">
+      <c r="C103" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D103" s="33"/>
-      <c r="E103" t="s" s="25">
+      <c r="E103" s="25" t="s">
         <v>228</v>
       </c>
       <c r="F103" s="33"/>
-      <c r="G103" t="s" s="25">
+      <c r="G103" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="H103" t="s" s="36">
+      <c r="H103" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I103" t="s" s="17">
+      <c r="I103" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J103" s="3"/>
@@ -4670,24 +4674,24 @@
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" spans="1:15" ht="15" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
-      <c r="C104" t="s" s="25">
+      <c r="C104" s="25" t="s">
         <v>230</v>
       </c>
       <c r="D104" s="33"/>
-      <c r="E104" t="s" s="25">
+      <c r="E104" s="25" t="s">
         <v>231</v>
       </c>
       <c r="F104" s="33"/>
-      <c r="G104" t="s" s="25">
+      <c r="G104" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="H104" t="s" s="36">
+      <c r="H104" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I104" t="s" s="17">
+      <c r="I104" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J104" s="3"/>
@@ -4697,24 +4701,24 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" ht="15" customHeight="1">
+    <row r="105" spans="1:15" ht="15" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
-      <c r="C105" t="s" s="25">
+      <c r="C105" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
-      <c r="F105" t="s" s="25">
+      <c r="F105" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="G105" t="s" s="25">
+      <c r="G105" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="H105" t="s" s="36">
+      <c r="H105" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I105" t="s" s="17">
+      <c r="I105" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J105" s="3"/>
@@ -4724,7 +4728,7 @@
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
     </row>
-    <row r="106" ht="15" customHeight="1">
+    <row r="106" spans="1:15" ht="15" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4741,8 +4745,8 @@
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="A107" t="s" s="14">
+    <row r="107" spans="1:15" ht="15" customHeight="1">
+      <c r="A107" s="14" t="s">
         <v>236</v>
       </c>
       <c r="B107" s="13"/>
@@ -4751,7 +4755,9 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
-      <c r="H107" s="12"/>
+      <c r="H107" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I107" s="23"/>
       <c r="J107" s="3"/>
       <c r="K107" s="5"/>
@@ -4760,21 +4766,23 @@
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" ht="15" customHeight="1">
+    <row r="108" spans="1:15" ht="15" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
-      <c r="C108" t="s" s="26">
+      <c r="C108" s="26" t="s">
         <v>237</v>
       </c>
       <c r="D108" s="29"/>
-      <c r="E108" t="s" s="26">
+      <c r="E108" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F108" t="s" s="26">
+      <c r="F108" s="26" t="s">
         <v>239</v>
       </c>
       <c r="G108" s="29"/>
-      <c r="H108" s="12"/>
+      <c r="H108" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I108" s="23"/>
       <c r="J108" s="3"/>
       <c r="K108" s="5"/>
@@ -4783,21 +4791,21 @@
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
     </row>
-    <row r="109" ht="15" customHeight="1">
+    <row r="109" spans="1:15" ht="15" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
-      <c r="C109" t="s" s="14">
+      <c r="C109" s="14" t="s">
         <v>240</v>
       </c>
       <c r="D109" s="13"/>
-      <c r="E109" t="s" s="14">
+      <c r="E109" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F109" t="s" s="14">
+      <c r="F109" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="13"/>
-      <c r="H109" t="s" s="34">
+      <c r="H109" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I109" s="16"/>
@@ -4808,21 +4816,23 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" ht="15" customHeight="1">
+    <row r="110" spans="1:15" ht="15" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
-      <c r="C110" t="s" s="26">
+      <c r="C110" s="26" t="s">
         <v>242</v>
       </c>
       <c r="D110" s="29"/>
-      <c r="E110" t="s" s="26">
+      <c r="E110" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="F110" t="s" s="26">
+      <c r="F110" s="26" t="s">
         <v>244</v>
       </c>
       <c r="G110" s="29"/>
-      <c r="H110" s="12"/>
+      <c r="H110" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I110" s="23"/>
       <c r="J110" s="3"/>
       <c r="K110" s="5"/>
@@ -4831,7 +4841,7 @@
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" ht="15" customHeight="1">
+    <row r="111" spans="1:15" ht="15" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4848,18 +4858,18 @@
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" ht="15" customHeight="1">
-      <c r="A112" t="s" s="25">
+    <row r="112" spans="1:15" ht="15" customHeight="1">
+      <c r="A112" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
-      <c r="E112" t="s" s="25">
+      <c r="E112" s="25" t="s">
         <v>246</v>
       </c>
       <c r="F112" s="33"/>
-      <c r="G112" t="s" s="25">
+      <c r="G112" s="25" t="s">
         <v>247</v>
       </c>
       <c r="H112" s="12"/>
@@ -4871,7 +4881,7 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" ht="15" customHeight="1">
+    <row r="113" spans="1:15" ht="15" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4888,8 +4898,8 @@
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" ht="15" customHeight="1">
-      <c r="A114" t="s" s="14">
+    <row r="114" spans="1:15" ht="15" customHeight="1">
+      <c r="A114" s="14" t="s">
         <v>248</v>
       </c>
       <c r="B114" s="13"/>
@@ -4897,10 +4907,10 @@
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
-      <c r="G114" t="s" s="14">
+      <c r="G114" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H114" t="s" s="15">
+      <c r="H114" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I114" s="23"/>
@@ -4911,7 +4921,7 @@
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" ht="15" customHeight="1">
+    <row r="115" spans="1:15" ht="15" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4928,14 +4938,14 @@
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" ht="15" customHeight="1">
-      <c r="A116" t="s" s="18">
+    <row r="116" spans="1:15" ht="15" customHeight="1">
+      <c r="A116" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
-      <c r="E116" t="s" s="18">
+      <c r="E116" s="18" t="s">
         <v>251</v>
       </c>
       <c r="F116" s="19"/>
@@ -4949,7 +4959,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" ht="15" customHeight="1">
+    <row r="117" spans="1:15" ht="15" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4966,24 +4976,24 @@
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" ht="15" customHeight="1">
-      <c r="A118" t="s" s="25">
+    <row r="118" spans="1:15" ht="15" customHeight="1">
+      <c r="A118" s="25" t="s">
         <v>252</v>
       </c>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
-      <c r="E118" t="s" s="25">
+      <c r="E118" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="F118" t="s" s="25">
+      <c r="F118" s="25" t="s">
         <v>254</v>
       </c>
       <c r="G118" s="33"/>
-      <c r="H118" t="s" s="36">
+      <c r="H118" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I118" t="s" s="17">
+      <c r="I118" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J118" s="3"/>
@@ -4993,7 +5003,7 @@
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119" spans="1:15" ht="15" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -5010,8 +5020,8 @@
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" ht="15" customHeight="1">
-      <c r="A120" t="s" s="14">
+    <row r="120" spans="1:15" ht="15" customHeight="1">
+      <c r="A120" s="14" t="s">
         <v>255</v>
       </c>
       <c r="B120" s="13"/>
@@ -5020,7 +5030,9 @@
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
-      <c r="H120" s="12"/>
+      <c r="H120" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I120" s="23"/>
       <c r="J120" s="3"/>
       <c r="K120" s="5"/>
@@ -5029,21 +5041,21 @@
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" ht="15" customHeight="1">
+    <row r="121" spans="1:15" ht="15" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
-      <c r="C121" t="s" s="14">
+      <c r="C121" s="14" t="s">
         <v>256</v>
       </c>
       <c r="D121" s="13"/>
-      <c r="E121" t="s" s="14">
+      <c r="E121" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F121" t="s" s="14">
+      <c r="F121" s="14" t="s">
         <v>258</v>
       </c>
       <c r="G121" s="13"/>
-      <c r="H121" t="s" s="34">
+      <c r="H121" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I121" s="16"/>
@@ -5054,23 +5066,23 @@
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" ht="15" customHeight="1">
+    <row r="122" spans="1:15" ht="15" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
-      <c r="C122" t="s" s="14">
+      <c r="C122" s="14" t="s">
         <v>259</v>
       </c>
       <c r="D122" s="13"/>
-      <c r="E122" t="s" s="14">
+      <c r="E122" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="F122" t="s" s="14">
+      <c r="F122" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G122" t="s" s="14">
+      <c r="G122" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H122" t="s" s="34">
+      <c r="H122" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I122" s="21"/>
@@ -5081,21 +5093,23 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" ht="15" customHeight="1">
+    <row r="123" spans="1:15" ht="15" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
-      <c r="C123" t="s" s="14">
+      <c r="C123" s="14" t="s">
         <v>263</v>
       </c>
       <c r="D123" s="13"/>
-      <c r="E123" t="s" s="14">
+      <c r="E123" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F123" t="s" s="14">
+      <c r="F123" s="14" t="s">
         <v>265</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="12"/>
+      <c r="H123" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I123" s="23"/>
       <c r="J123" s="3"/>
       <c r="K123" s="5"/>
@@ -5104,21 +5118,23 @@
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" ht="15" customHeight="1">
+    <row r="124" spans="1:15" ht="15" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
-      <c r="C124" t="s" s="14">
+      <c r="C124" s="14" t="s">
         <v>266</v>
       </c>
       <c r="D124" s="13"/>
-      <c r="E124" t="s" s="14">
+      <c r="E124" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F124" t="s" s="14">
+      <c r="F124" s="14" t="s">
         <v>265</v>
       </c>
       <c r="G124" s="13"/>
-      <c r="H124" s="12"/>
+      <c r="H124" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I124" s="23"/>
       <c r="J124" s="3"/>
       <c r="K124" s="5"/>
@@ -5127,21 +5143,21 @@
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" ht="15" customHeight="1">
+    <row r="125" spans="1:15" ht="15" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
-      <c r="C125" t="s" s="14">
+      <c r="C125" s="14" t="s">
         <v>268</v>
       </c>
       <c r="D125" s="13"/>
-      <c r="E125" t="s" s="14">
+      <c r="E125" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F125" t="s" s="14">
+      <c r="F125" s="14" t="s">
         <v>270</v>
       </c>
       <c r="G125" s="13"/>
-      <c r="H125" t="s" s="34">
+      <c r="H125" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I125" s="16"/>
@@ -5152,21 +5168,21 @@
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" ht="15" customHeight="1">
+    <row r="126" spans="1:15" ht="15" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
-      <c r="C126" t="s" s="14">
+      <c r="C126" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D126" s="13"/>
-      <c r="E126" t="s" s="14">
+      <c r="E126" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F126" t="s" s="14">
+      <c r="F126" s="14" t="s">
         <v>270</v>
       </c>
       <c r="G126" s="13"/>
-      <c r="H126" t="s" s="34">
+      <c r="H126" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I126" s="16"/>
@@ -5177,8 +5193,8 @@
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" ht="15" customHeight="1">
-      <c r="A127" t="s" s="14">
+    <row r="127" spans="1:15" ht="15" customHeight="1">
+      <c r="A127" s="14" t="s">
         <v>273</v>
       </c>
       <c r="B127" s="13"/>
@@ -5196,10 +5212,10 @@
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
     </row>
-    <row r="128" ht="15" customHeight="1">
+    <row r="128" spans="1:15" ht="15" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
-      <c r="C128" t="s" s="14">
+      <c r="C128" s="14" t="s">
         <v>274</v>
       </c>
       <c r="D128" s="13"/>
@@ -5215,10 +5231,10 @@
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
     </row>
-    <row r="129" ht="15" customHeight="1">
+    <row r="129" spans="1:15" ht="15" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
-      <c r="C129" t="s" s="14">
+      <c r="C129" s="14" t="s">
         <v>275</v>
       </c>
       <c r="D129" s="13"/>
@@ -5235,8 +5251,8 @@
       <c r="O129" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5244,85 +5260,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="37" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="37" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="37" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="37" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="37" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5330,8 +5343,8 @@
       <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5339,85 +5352,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="38" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="38" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="38" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="38" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="38" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5425,8 +5433,8 @@
       <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -850,7 +850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -878,8 +878,15 @@
       <color indexed="19"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,6 +987,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1112,11 +1124,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1157,9 +1170,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2347,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2946,7 +2961,7 @@
       <c r="H23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="3"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
@@ -2971,7 +2986,7 @@
       <c r="H24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="3"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -2998,7 +3013,7 @@
       <c r="H25" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="3"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -3017,7 +3032,7 @@
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="23"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="3"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -3036,7 +3051,7 @@
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="23"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -3063,7 +3078,7 @@
       <c r="H28" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="40"/>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -3145,7 +3160,7 @@
       <c r="H32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="40"/>
       <c r="J32" s="3"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -3170,7 +3185,7 @@
       <c r="H33" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="3"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -3195,7 +3210,7 @@
       <c r="H34" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="3"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -3220,7 +3235,7 @@
       <c r="H35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="40"/>
       <c r="J35" s="3"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -3245,7 +3260,7 @@
       <c r="H36" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="40"/>
       <c r="J36" s="3"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -4758,7 +4773,7 @@
       <c r="H107" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I107" s="23"/>
+      <c r="I107" s="40"/>
       <c r="J107" s="3"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -4783,7 +4798,7 @@
       <c r="H108" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I108" s="23"/>
+      <c r="I108" s="40"/>
       <c r="J108" s="3"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -4833,7 +4848,7 @@
       <c r="H110" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I110" s="23"/>
+      <c r="I110" s="40"/>
       <c r="J110" s="3"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
@@ -5033,7 +5048,7 @@
       <c r="H120" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I120" s="23"/>
+      <c r="I120" s="40"/>
       <c r="J120" s="3"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
@@ -5085,7 +5100,7 @@
       <c r="H122" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I122" s="21"/>
+      <c r="I122" s="40"/>
       <c r="J122" s="3"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -5110,7 +5125,7 @@
       <c r="H123" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I123" s="23"/>
+      <c r="I123" s="40"/>
       <c r="J123" s="3"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -5135,7 +5150,7 @@
       <c r="H124" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I124" s="23"/>
+      <c r="I124" s="40"/>
       <c r="J124" s="3"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="276">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -850,11 +850,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1126,10 +1133,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1139,22 +1146,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1165,12 +1172,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2362,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3010,7 +3018,7 @@
       <c r="G25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="41" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="40"/>
@@ -3031,7 +3039,9 @@
         <v>78</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I26" s="40"/>
       <c r="J26" s="3"/>
       <c r="K26" s="5"/>
@@ -3050,7 +3060,9 @@
         <v>79</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I27" s="40"/>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
@@ -3119,7 +3131,9 @@
       <c r="G30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId5"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="276">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -846,25 +849,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -881,8 +885,15 @@
       <color indexed="19"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +988,17 @@
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1109,172 +1131,140 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd99594"/>
-      <rgbColor rgb="ffe5b8b7"/>
-      <rgbColor rgb="ff006100"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ff0c0c0c"/>
-      <rgbColor rgb="ff9c0006"/>
-      <rgbColor rgb="ffffc7ce"/>
-      <rgbColor rgb="ffb2a1c7"/>
-      <rgbColor rgb="ffccc0d9"/>
-      <rgbColor rgb="ff9c6500"/>
-      <rgbColor rgb="ffffeb9c"/>
-      <rgbColor rgb="ff95b3d7"/>
-      <rgbColor rgb="ffc2d69b"/>
-      <rgbColor rgb="ffd6e3bc"/>
-      <rgbColor rgb="ffa5b6ca"/>
-      <rgbColor rgb="fffabf8f"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffdbe5f1"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD99594"/>
+      <rgbColor rgb="FFE5B8B7"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FF0C0C0C"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFB2A1C7"/>
+      <rgbColor rgb="FFCCC0D9"/>
+      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF95B3D7"/>
+      <rgbColor rgb="FFC2D69B"/>
+      <rgbColor rgb="FFD6E3BC"/>
+      <rgbColor rgb="FFA5B6CA"/>
+      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFDBE5F1"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1400,7 +1390,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1409,7 +1399,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1418,7 +1408,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1492,7 +1482,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1500,7 +1490,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1519,7 +1509,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1539,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1575,7 +1565,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1601,7 +1591,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1627,7 +1617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1653,7 +1643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1679,7 +1669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1705,7 +1695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1731,7 +1721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1757,7 +1747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1770,9 +1760,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1787,7 +1783,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1795,7 +1791,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1814,7 +1810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1840,7 +1836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1866,7 +1862,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1892,7 +1888,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1918,7 +1914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1944,7 +1940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1970,7 +1966,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1996,7 +1992,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2022,7 +2018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2048,7 +2044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2061,9 +2057,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2077,7 +2079,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2096,7 +2098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2126,7 +2128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2152,7 +2154,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2178,7 +2180,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2204,7 +2206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2230,7 +2232,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,7 +2258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2282,7 +2284,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2308,7 +2310,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2334,7 +2336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2347,68 +2349,75 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1719" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
-    <col min="16" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="22.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="1" customWidth="1"/>
+    <col min="15" max="256" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3"/>
@@ -2418,21 +2427,21 @@
       <c r="N1" s="4"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" t="s" s="8">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="9"/>
@@ -2443,238 +2452,238 @@
       <c r="N2" s="11"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
-      <c r="C3" t="s" s="14">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" t="s" s="14">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" t="s" s="15">
+      <c r="H3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" t="s" s="17">
+      <c r="M3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" t="s" s="18">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" t="s" s="18">
+      <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
-      <c r="H4" t="s" s="20">
+      <c r="H4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" t="s" s="14">
+      <c r="L4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s" s="22">
+      <c r="M4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" t="s" s="18">
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
-      <c r="E5" t="s" s="18">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-      <c r="H5" t="s" s="20">
+      <c r="H5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" t="s" s="24">
+      <c r="M5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" t="s" s="18">
+      <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" t="s" s="18">
+      <c r="E6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="H6" t="s" s="20">
+      <c r="H6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
-      <c r="L6" t="s" s="18">
+      <c r="L6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" t="s" s="18">
+      <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" t="s" s="18">
+      <c r="E7" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" t="s" s="20">
+      <c r="H7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" t="s" s="15">
+      <c r="M7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" t="s" s="18">
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" t="s" s="18">
+      <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" t="s" s="20">
+      <c r="H8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
-      <c r="L8" t="s" s="25">
+      <c r="L8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M8" t="s" s="26">
+      <c r="M8" s="26" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" t="s" s="18">
+      <c r="B9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" t="s" s="18">
+      <c r="E9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" t="s" s="20">
+      <c r="H9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" t="s" s="20">
+      <c r="M9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" t="s" s="18">
+      <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" t="s" s="18">
+      <c r="E10" s="18" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" t="s" s="20">
+      <c r="H10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
-      <c r="L10" t="s" s="27">
+      <c r="L10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s" s="28">
+      <c r="M10" s="28" t="s">
         <v>38</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" t="s" s="26">
+      <c r="B11" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" t="s" s="26">
+      <c r="E11" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
-      <c r="H11" t="s" s="20">
+      <c r="H11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" t="s" s="30">
+      <c r="M11" s="30" t="s">
         <v>41</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2691,198 +2700,198 @@
       <c r="N12" s="11"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="14">
+    <row r="13" spans="1:15" ht="15" customHeight="1">
+      <c r="A13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" t="s" s="14">
+      <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s" s="14">
+      <c r="F13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" t="s" s="30">
+      <c r="H13" s="30" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
-      <c r="L13" t="s" s="31">
+      <c r="L13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="M13" t="s" s="31">
+      <c r="M13" s="31" t="s">
         <v>46</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" t="s" s="18">
+      <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" t="s" s="18">
+      <c r="E14" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" t="s" s="20">
+      <c r="H14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
-      <c r="L14" t="s" s="31">
+      <c r="L14" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="M14" t="s" s="31">
+      <c r="M14" s="31" t="s">
         <v>49</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="12"/>
-      <c r="B15" t="s" s="18">
+      <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" t="s" s="18">
+      <c r="E15" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" t="s" s="20">
+      <c r="H15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
-      <c r="L15" t="s" s="31">
+      <c r="L15" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="M15" t="s" s="31">
+      <c r="M15" s="31" t="s">
         <v>1</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" t="s" s="18">
+      <c r="B16" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" t="s" s="18">
+      <c r="E16" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" t="s" s="20">
+      <c r="H16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
-      <c r="L16" t="s" s="31">
+      <c r="L16" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="M16" t="s" s="31">
+      <c r="M16" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" t="s" s="18">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" t="s" s="18">
+      <c r="E17" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" t="s" s="20">
+      <c r="H17" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
-      <c r="L17" t="s" s="31">
+      <c r="L17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="M17" t="s" s="31">
+      <c r="M17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" t="s" s="18">
+      <c r="B18" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" t="s" s="18">
+      <c r="E18" s="18" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" t="s" s="20">
+      <c r="H18" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
-      <c r="L18" t="s" s="31">
+      <c r="L18" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M18" t="s" s="31">
+      <c r="M18" s="31" t="s">
         <v>59</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" t="s" s="26">
+      <c r="B19" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" t="s" s="26">
+      <c r="E19" s="26" t="s">
         <v>61</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
-      <c r="H19" t="s" s="20">
+      <c r="H19" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
-      <c r="L19" t="s" s="31">
+      <c r="L19" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="M19" t="s" s="31">
+      <c r="M19" s="31" t="s">
         <v>63</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2894,27 +2903,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
-      <c r="L20" t="s" s="31">
+      <c r="L20" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="M20" t="s" s="31">
+      <c r="M20" s="31" t="s">
         <v>65</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="14">
+    <row r="21" spans="1:15" ht="15" customHeight="1">
+      <c r="A21" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" t="s" s="14">
+      <c r="E21" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" t="s" s="14">
+      <c r="G21" s="14" t="s">
         <v>68</v>
       </c>
       <c r="H21" s="12"/>
@@ -2926,7 +2935,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2943,22 +2952,24 @@
       <c r="N22" s="11"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="14">
+    <row r="23" spans="1:15" ht="15" customHeight="1">
+      <c r="A23" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" t="s" s="14">
+      <c r="F23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G23" t="s" s="14">
+      <c r="G23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="23"/>
+      <c r="H23" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="40"/>
       <c r="J23" s="3"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
@@ -2966,22 +2977,24 @@
       <c r="N23" s="32"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" t="s" s="14">
+      <c r="C24" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" t="s" s="14">
+      <c r="E24" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s" s="14">
+      <c r="F24" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="40"/>
       <c r="J24" s="3"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -2989,24 +3002,26 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" t="s" s="14">
+      <c r="C25" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" t="s" s="14">
+      <c r="E25" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s" s="14">
+      <c r="F25" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G25" t="s" s="14">
+      <c r="G25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="23"/>
+      <c r="H25" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="40"/>
       <c r="J25" s="3"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -3014,18 +3029,20 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" t="s" s="14">
+      <c r="F26" s="14" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="40"/>
       <c r="J26" s="3"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -3033,18 +3050,20 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" t="s" s="14">
+      <c r="F27" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="23"/>
+      <c r="H27" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="40"/>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -3052,24 +3071,26 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" t="s" s="14">
+      <c r="C28" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" t="s" s="14">
+      <c r="E28" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F28" t="s" s="14">
+      <c r="F28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G28" t="s" s="14">
+      <c r="G28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="40"/>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -3077,7 +3098,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3094,23 +3115,25 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="14">
+    <row r="30" spans="1:15" ht="15" customHeight="1">
+      <c r="A30" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" t="s" s="14">
+      <c r="E30" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F30" t="s" s="14">
+      <c r="F30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G30" t="s" s="14">
+      <c r="G30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>
@@ -3119,7 +3142,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3136,8 +3159,8 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="14">
+    <row r="32" spans="1:15" ht="15" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="13"/>
@@ -3145,11 +3168,13 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" t="s" s="14">
+      <c r="G32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="23"/>
+      <c r="H32" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="40"/>
       <c r="J32" s="3"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -3157,22 +3182,24 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" t="s" s="14">
+      <c r="C33" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="13"/>
-      <c r="E33" t="s" s="14">
+      <c r="E33" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="14">
+      <c r="F33" s="14" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="23"/>
+      <c r="H33" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="40"/>
       <c r="J33" s="3"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -3180,22 +3207,24 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" t="s" s="14">
+      <c r="C34" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" t="s" s="14">
+      <c r="E34" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F34" t="s" s="14">
+      <c r="F34" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="23"/>
+      <c r="H34" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="40"/>
       <c r="J34" s="3"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -3203,22 +3232,24 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
-      <c r="C35" t="s" s="14">
+      <c r="C35" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" t="s" s="14">
+      <c r="E35" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F35" t="s" s="14">
+      <c r="F35" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="23"/>
+      <c r="H35" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="40"/>
       <c r="J35" s="3"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -3226,22 +3257,24 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:15" ht="15" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
-      <c r="C36" t="s" s="14">
+      <c r="C36" s="14" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" t="s" s="14">
+      <c r="E36" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F36" t="s" s="14">
+      <c r="F36" s="14" t="s">
         <v>99</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="23"/>
+      <c r="H36" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="40"/>
       <c r="J36" s="3"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -3249,7 +3282,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3266,20 +3299,20 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="18">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
+      <c r="A38" s="18" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
-      <c r="E38" t="s" s="18">
+      <c r="E38" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F38" t="s" s="18">
+      <c r="F38" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G38" t="s" s="18">
+      <c r="G38" s="18" t="s">
         <v>103</v>
       </c>
       <c r="H38" s="12"/>
@@ -3291,7 +3324,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3308,20 +3341,20 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="25">
+    <row r="40" spans="1:15" ht="15" customHeight="1">
+      <c r="A40" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
-      <c r="E40" t="s" s="25">
+      <c r="E40" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F40" t="s" s="25">
+      <c r="F40" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G40" t="s" s="25">
+      <c r="G40" s="25" t="s">
         <v>107</v>
       </c>
       <c r="H40" s="12"/>
@@ -3333,7 +3366,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3350,17 +3383,17 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="18">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
+      <c r="A42" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" t="s" s="18">
+      <c r="E42" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F42" t="s" s="18">
+      <c r="F42" s="18" t="s">
         <v>110</v>
       </c>
       <c r="G42" s="19"/>
@@ -3373,7 +3406,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:15" ht="15" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3390,17 +3423,17 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="25">
+    <row r="44" spans="1:15" ht="15" customHeight="1">
+      <c r="A44" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
-      <c r="E44" t="s" s="25">
+      <c r="E44" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F44" t="s" s="25">
+      <c r="F44" s="25" t="s">
         <v>113</v>
       </c>
       <c r="G44" s="33"/>
@@ -3413,7 +3446,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3430,8 +3463,8 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="18">
+    <row r="46" spans="1:15" ht="15" customHeight="1">
+      <c r="A46" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B46" s="19"/>
@@ -3449,17 +3482,17 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:15" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
-      <c r="C47" t="s" s="18">
+      <c r="C47" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" t="s" s="18">
+      <c r="E47" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F47" t="s" s="18">
+      <c r="F47" s="18" t="s">
         <v>117</v>
       </c>
       <c r="G47" s="19"/>
@@ -3472,17 +3505,17 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:15" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
-      <c r="C48" t="s" s="25">
+      <c r="C48" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D48" s="33"/>
-      <c r="E48" t="s" s="25">
+      <c r="E48" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F48" t="s" s="25">
+      <c r="F48" s="25" t="s">
         <v>120</v>
       </c>
       <c r="G48" s="33"/>
@@ -3495,17 +3528,17 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:15" ht="15" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
-      <c r="C49" t="s" s="18">
+      <c r="C49" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="19"/>
-      <c r="E49" t="s" s="18">
+      <c r="E49" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F49" t="s" s="18">
+      <c r="F49" s="18" t="s">
         <v>123</v>
       </c>
       <c r="G49" s="19"/>
@@ -3518,20 +3551,20 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:15" ht="15" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
-      <c r="C50" t="s" s="25">
+      <c r="C50" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="33"/>
-      <c r="E50" t="s" s="25">
+      <c r="E50" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F50" t="s" s="25">
+      <c r="F50" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G50" t="s" s="25">
+      <c r="G50" s="25" t="s">
         <v>127</v>
       </c>
       <c r="H50" s="12"/>
@@ -3543,17 +3576,17 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
-      <c r="C51" t="s" s="25">
+      <c r="C51" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D51" s="33"/>
-      <c r="E51" t="s" s="25">
+      <c r="E51" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F51" t="s" s="25">
+      <c r="F51" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G51" s="33"/>
@@ -3566,17 +3599,17 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:15" ht="15" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
-      <c r="C52" t="s" s="25">
+      <c r="C52" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D52" s="33"/>
-      <c r="E52" t="s" s="25">
+      <c r="E52" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="F52" t="s" s="25">
+      <c r="F52" s="25" t="s">
         <v>117</v>
       </c>
       <c r="G52" s="33"/>
@@ -3589,17 +3622,17 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:15" ht="15" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
-      <c r="C53" t="s" s="25">
+      <c r="C53" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D53" s="33"/>
-      <c r="E53" t="s" s="25">
+      <c r="E53" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F53" t="s" s="25">
+      <c r="F53" s="25" t="s">
         <v>135</v>
       </c>
       <c r="G53" s="33"/>
@@ -3612,17 +3645,17 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:15" ht="15" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
-      <c r="C54" t="s" s="25">
+      <c r="C54" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D54" s="33"/>
-      <c r="E54" t="s" s="25">
+      <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F54" t="s" s="25">
+      <c r="F54" s="25" t="s">
         <v>138</v>
       </c>
       <c r="G54" s="33"/>
@@ -3635,17 +3668,17 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
-      <c r="C55" t="s" s="25">
+      <c r="C55" s="25" t="s">
         <v>139</v>
       </c>
       <c r="D55" s="33"/>
-      <c r="E55" t="s" s="25">
+      <c r="E55" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="F55" t="s" s="25">
+      <c r="F55" s="25" t="s">
         <v>141</v>
       </c>
       <c r="G55" s="33"/>
@@ -3658,7 +3691,7 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:15" ht="15" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3675,17 +3708,17 @@
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="s" s="14">
+    <row r="57" spans="1:15" ht="15" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" t="s" s="14">
+      <c r="E57" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F57" t="s" s="14">
+      <c r="F57" s="14" t="s">
         <v>144</v>
       </c>
       <c r="G57" s="13"/>
@@ -3698,7 +3731,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" spans="1:15" ht="15" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3715,21 +3748,21 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="s" s="14">
+    <row r="59" spans="1:15" ht="15" customHeight="1">
+      <c r="A59" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" t="s" s="14">
+      <c r="E59" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F59" t="s" s="14">
+      <c r="F59" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G59" s="13"/>
-      <c r="H59" t="s" s="34">
+      <c r="H59" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I59" s="23"/>
@@ -3740,7 +3773,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" spans="1:15" ht="15" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3757,8 +3790,8 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" t="s" s="25">
+    <row r="61" spans="1:15" ht="15" customHeight="1">
+      <c r="A61" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B61" s="33"/>
@@ -3776,7 +3809,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62" spans="1:15" ht="15" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3793,8 +3826,8 @@
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="s" s="25">
+    <row r="63" spans="1:15" ht="15" customHeight="1">
+      <c r="A63" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B63" s="33"/>
@@ -3812,17 +3845,17 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" spans="1:15" ht="15" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
-      <c r="C64" t="s" s="25">
+      <c r="C64" s="25" t="s">
         <v>150</v>
       </c>
       <c r="D64" s="33"/>
-      <c r="E64" t="s" s="25">
+      <c r="E64" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F64" t="s" s="25">
+      <c r="F64" s="25" t="s">
         <v>152</v>
       </c>
       <c r="G64" s="33"/>
@@ -3835,14 +3868,14 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" spans="1:15" ht="15" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
-      <c r="C65" t="s" s="25">
+      <c r="C65" s="25" t="s">
         <v>153</v>
       </c>
       <c r="D65" s="33"/>
-      <c r="E65" t="s" s="25">
+      <c r="E65" s="25" t="s">
         <v>154</v>
       </c>
       <c r="F65" s="33"/>
@@ -3856,7 +3889,7 @@
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66" spans="1:15" ht="15" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3873,17 +3906,17 @@
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
     </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="s" s="25">
+    <row r="67" spans="1:15" ht="15" customHeight="1">
+      <c r="A67" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
-      <c r="E67" t="s" s="25">
+      <c r="E67" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="F67" t="s" s="25">
+      <c r="F67" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G67" s="33"/>
@@ -3896,7 +3929,7 @@
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68" spans="1:15" ht="15" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3913,8 +3946,8 @@
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
     </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" t="s" s="25">
+    <row r="69" spans="1:15" ht="15" customHeight="1">
+      <c r="A69" s="25" t="s">
         <v>158</v>
       </c>
       <c r="B69" s="33"/>
@@ -3932,17 +3965,17 @@
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70" spans="1:15" ht="15" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
-      <c r="C70" t="s" s="25">
+      <c r="C70" s="25" t="s">
         <v>159</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" t="s" s="25">
+      <c r="E70" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F70" t="s" s="25">
+      <c r="F70" s="25" t="s">
         <v>161</v>
       </c>
       <c r="G70" s="33"/>
@@ -3955,17 +3988,17 @@
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71" spans="1:15" ht="15" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
-      <c r="C71" t="s" s="25">
+      <c r="C71" s="25" t="s">
         <v>162</v>
       </c>
       <c r="D71" s="33"/>
-      <c r="E71" t="s" s="25">
+      <c r="E71" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F71" t="s" s="25">
+      <c r="F71" s="25" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="33"/>
@@ -3978,17 +4011,17 @@
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" ht="15" customHeight="1">
+    <row r="72" spans="1:15" ht="15" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
-      <c r="C72" t="s" s="25">
+      <c r="C72" s="25" t="s">
         <v>165</v>
       </c>
       <c r="D72" s="33"/>
-      <c r="E72" t="s" s="25">
+      <c r="E72" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F72" t="s" s="25">
+      <c r="F72" s="25" t="s">
         <v>167</v>
       </c>
       <c r="G72" s="33"/>
@@ -4001,7 +4034,7 @@
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73" spans="1:15" ht="15" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -4018,8 +4051,8 @@
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
     </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" t="s" s="18">
+    <row r="74" spans="1:15" ht="15" customHeight="1">
+      <c r="A74" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B74" s="19"/>
@@ -4037,18 +4070,18 @@
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" spans="1:15" ht="15" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
-      <c r="C75" t="s" s="18">
+      <c r="C75" s="18" t="s">
         <v>169</v>
       </c>
       <c r="D75" s="19"/>
-      <c r="E75" t="s" s="18">
+      <c r="E75" s="18" t="s">
         <v>170</v>
       </c>
       <c r="F75" s="19"/>
-      <c r="G75" t="s" s="18">
+      <c r="G75" s="18" t="s">
         <v>171</v>
       </c>
       <c r="H75" s="12"/>
@@ -4060,14 +4093,14 @@
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" spans="1:15" ht="15" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
-      <c r="C76" t="s" s="18">
+      <c r="C76" s="18" t="s">
         <v>172</v>
       </c>
       <c r="D76" s="19"/>
-      <c r="E76" t="s" s="18">
+      <c r="E76" s="18" t="s">
         <v>173</v>
       </c>
       <c r="F76" s="19"/>
@@ -4081,14 +4114,14 @@
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77" spans="1:15" ht="15" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
-      <c r="C77" t="s" s="18">
+      <c r="C77" s="18" t="s">
         <v>174</v>
       </c>
       <c r="D77" s="19"/>
-      <c r="E77" t="s" s="18">
+      <c r="E77" s="18" t="s">
         <v>175</v>
       </c>
       <c r="F77" s="19"/>
@@ -4102,14 +4135,14 @@
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78" spans="1:15" ht="15" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
-      <c r="C78" t="s" s="18">
+      <c r="C78" s="18" t="s">
         <v>176</v>
       </c>
       <c r="D78" s="19"/>
-      <c r="E78" t="s" s="18">
+      <c r="E78" s="18" t="s">
         <v>177</v>
       </c>
       <c r="F78" s="19"/>
@@ -4123,14 +4156,14 @@
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79" spans="1:15" ht="15" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
-      <c r="C79" t="s" s="18">
+      <c r="C79" s="18" t="s">
         <v>178</v>
       </c>
       <c r="D79" s="19"/>
-      <c r="E79" t="s" s="18">
+      <c r="E79" s="18" t="s">
         <v>179</v>
       </c>
       <c r="F79" s="19"/>
@@ -4144,14 +4177,14 @@
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80" spans="1:15" ht="15" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
-      <c r="C80" t="s" s="18">
+      <c r="C80" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="19"/>
-      <c r="E80" t="s" s="18">
+      <c r="E80" s="18" t="s">
         <v>181</v>
       </c>
       <c r="F80" s="19"/>
@@ -4165,14 +4198,14 @@
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81" spans="1:15" ht="15" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
-      <c r="C81" t="s" s="18">
+      <c r="C81" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D81" s="19"/>
-      <c r="E81" t="s" s="18">
+      <c r="E81" s="18" t="s">
         <v>183</v>
       </c>
       <c r="F81" s="19"/>
@@ -4186,14 +4219,14 @@
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82" spans="1:15" ht="15" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
-      <c r="C82" t="s" s="18">
+      <c r="C82" s="18" t="s">
         <v>184</v>
       </c>
       <c r="D82" s="19"/>
-      <c r="E82" t="s" s="18">
+      <c r="E82" s="18" t="s">
         <v>185</v>
       </c>
       <c r="F82" s="19"/>
@@ -4207,18 +4240,18 @@
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" spans="1:15" ht="15" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
-      <c r="C83" t="s" s="18">
+      <c r="C83" s="18" t="s">
         <v>186</v>
       </c>
       <c r="D83" s="19"/>
-      <c r="E83" t="s" s="18">
+      <c r="E83" s="18" t="s">
         <v>187</v>
       </c>
       <c r="F83" s="19"/>
-      <c r="G83" t="s" s="18">
+      <c r="G83" s="18" t="s">
         <v>188</v>
       </c>
       <c r="H83" s="12"/>
@@ -4230,14 +4263,14 @@
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" spans="1:15" ht="15" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
-      <c r="C84" t="s" s="25">
+      <c r="C84" s="25" t="s">
         <v>189</v>
       </c>
       <c r="D84" s="33"/>
-      <c r="E84" t="s" s="25">
+      <c r="E84" s="25" t="s">
         <v>190</v>
       </c>
       <c r="F84" s="33"/>
@@ -4251,14 +4284,14 @@
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85" spans="1:15" ht="15" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
-      <c r="C85" t="s" s="25">
+      <c r="C85" s="25" t="s">
         <v>191</v>
       </c>
       <c r="D85" s="33"/>
-      <c r="E85" t="s" s="25">
+      <c r="E85" s="25" t="s">
         <v>192</v>
       </c>
       <c r="F85" s="33"/>
@@ -4272,14 +4305,14 @@
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
     </row>
-    <row r="86" ht="15" customHeight="1">
+    <row r="86" spans="1:15" ht="15" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
-      <c r="C86" t="s" s="25">
+      <c r="C86" s="25" t="s">
         <v>193</v>
       </c>
       <c r="D86" s="33"/>
-      <c r="E86" t="s" s="25">
+      <c r="E86" s="25" t="s">
         <v>194</v>
       </c>
       <c r="F86" s="33"/>
@@ -4293,7 +4326,7 @@
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87" spans="1:15" ht="15" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4310,17 +4343,17 @@
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
     </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" t="s" s="18">
+    <row r="88" spans="1:15" ht="15" customHeight="1">
+      <c r="A88" s="18" t="s">
         <v>195</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
-      <c r="E88" t="s" s="18">
+      <c r="E88" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F88" t="s" s="18">
+      <c r="F88" s="18" t="s">
         <v>197</v>
       </c>
       <c r="G88" s="19"/>
@@ -4333,7 +4366,7 @@
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" ht="15" customHeight="1">
+    <row r="89" spans="1:15" ht="15" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4350,8 +4383,8 @@
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
     </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" t="s" s="25">
+    <row r="90" spans="1:15" ht="15" customHeight="1">
+      <c r="A90" s="25" t="s">
         <v>198</v>
       </c>
       <c r="B90" s="33"/>
@@ -4369,17 +4402,17 @@
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" spans="1:15" ht="15" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
-      <c r="C91" t="s" s="25">
+      <c r="C91" s="25" t="s">
         <v>199</v>
       </c>
       <c r="D91" s="33"/>
-      <c r="E91" t="s" s="25">
+      <c r="E91" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="F91" t="s" s="25">
+      <c r="F91" s="25" t="s">
         <v>201</v>
       </c>
       <c r="G91" s="33"/>
@@ -4392,17 +4425,17 @@
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" ht="15" customHeight="1">
+    <row r="92" spans="1:15" ht="15" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
-      <c r="C92" t="s" s="25">
+      <c r="C92" s="25" t="s">
         <v>202</v>
       </c>
       <c r="D92" s="33"/>
-      <c r="E92" t="s" s="25">
+      <c r="E92" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F92" t="s" s="25">
+      <c r="F92" s="25" t="s">
         <v>201</v>
       </c>
       <c r="G92" s="33"/>
@@ -4415,17 +4448,17 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" ht="15" customHeight="1">
+    <row r="93" spans="1:15" ht="15" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
-      <c r="C93" t="s" s="25">
+      <c r="C93" s="25" t="s">
         <v>204</v>
       </c>
       <c r="D93" s="33"/>
-      <c r="E93" t="s" s="25">
+      <c r="E93" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F93" t="s" s="25">
+      <c r="F93" s="25" t="s">
         <v>206</v>
       </c>
       <c r="G93" s="33"/>
@@ -4438,17 +4471,17 @@
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
     </row>
-    <row r="94" ht="15" customHeight="1">
+    <row r="94" spans="1:15" ht="15" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
-      <c r="C94" t="s" s="25">
+      <c r="C94" s="25" t="s">
         <v>207</v>
       </c>
       <c r="D94" s="33"/>
-      <c r="E94" t="s" s="25">
+      <c r="E94" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F94" t="s" s="25">
+      <c r="F94" s="25" t="s">
         <v>206</v>
       </c>
       <c r="G94" s="33"/>
@@ -4461,17 +4494,17 @@
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95" spans="1:15" ht="15" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
-      <c r="C95" t="s" s="25">
+      <c r="C95" s="25" t="s">
         <v>209</v>
       </c>
       <c r="D95" s="33"/>
-      <c r="E95" t="s" s="25">
+      <c r="E95" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F95" t="s" s="25">
+      <c r="F95" s="25" t="s">
         <v>211</v>
       </c>
       <c r="G95" s="33"/>
@@ -4484,17 +4517,17 @@
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
     </row>
-    <row r="96" ht="15" customHeight="1">
+    <row r="96" spans="1:15" ht="15" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
-      <c r="C96" t="s" s="25">
+      <c r="C96" s="25" t="s">
         <v>212</v>
       </c>
       <c r="D96" s="33"/>
-      <c r="E96" t="s" s="25">
+      <c r="E96" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F96" t="s" s="25">
+      <c r="F96" s="25" t="s">
         <v>211</v>
       </c>
       <c r="G96" s="33"/>
@@ -4507,17 +4540,17 @@
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" spans="1:15" ht="15" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
-      <c r="C97" t="s" s="25">
+      <c r="C97" s="25" t="s">
         <v>214</v>
       </c>
       <c r="D97" s="33"/>
-      <c r="E97" t="s" s="25">
+      <c r="E97" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F97" t="s" s="25">
+      <c r="F97" s="25" t="s">
         <v>216</v>
       </c>
       <c r="G97" s="33"/>
@@ -4530,17 +4563,17 @@
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98" spans="1:15" ht="15" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
-      <c r="C98" t="s" s="25">
+      <c r="C98" s="25" t="s">
         <v>217</v>
       </c>
       <c r="D98" s="33"/>
-      <c r="E98" t="s" s="25">
+      <c r="E98" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F98" t="s" s="25">
+      <c r="F98" s="25" t="s">
         <v>216</v>
       </c>
       <c r="G98" s="33"/>
@@ -4553,7 +4586,7 @@
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
     </row>
-    <row r="99" ht="15" customHeight="1">
+    <row r="99" spans="1:15" ht="15" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4570,8 +4603,8 @@
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
     </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="A100" t="s" s="25">
+    <row r="100" spans="1:15" ht="15" customHeight="1">
+      <c r="A100" s="25" t="s">
         <v>219</v>
       </c>
       <c r="B100" s="33"/>
@@ -4589,24 +4622,24 @@
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
     </row>
-    <row r="101" ht="15" customHeight="1">
+    <row r="101" spans="1:15" ht="15" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
-      <c r="C101" t="s" s="25">
+      <c r="C101" s="25" t="s">
         <v>220</v>
       </c>
       <c r="D101" s="33"/>
-      <c r="E101" t="s" s="25">
+      <c r="E101" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F101" t="s" s="25">
+      <c r="F101" s="25" t="s">
         <v>222</v>
       </c>
       <c r="G101" s="33"/>
-      <c r="H101" t="s" s="36">
+      <c r="H101" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I101" t="s" s="17">
+      <c r="I101" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J101" s="3"/>
@@ -4616,24 +4649,24 @@
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" ht="15" customHeight="1">
+    <row r="102" spans="1:15" ht="15" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
-      <c r="C102" t="s" s="25">
+      <c r="C102" s="25" t="s">
         <v>224</v>
       </c>
       <c r="D102" s="33"/>
-      <c r="E102" t="s" s="25">
+      <c r="E102" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F102" s="33"/>
-      <c r="G102" t="s" s="25">
+      <c r="G102" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="H102" t="s" s="36">
+      <c r="H102" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I102" t="s" s="17">
+      <c r="I102" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J102" s="3"/>
@@ -4643,24 +4676,24 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" ht="15" customHeight="1">
+    <row r="103" spans="1:15" ht="15" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
-      <c r="C103" t="s" s="25">
+      <c r="C103" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D103" s="33"/>
-      <c r="E103" t="s" s="25">
+      <c r="E103" s="25" t="s">
         <v>228</v>
       </c>
       <c r="F103" s="33"/>
-      <c r="G103" t="s" s="25">
+      <c r="G103" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="H103" t="s" s="36">
+      <c r="H103" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I103" t="s" s="17">
+      <c r="I103" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J103" s="3"/>
@@ -4670,24 +4703,24 @@
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" spans="1:15" ht="15" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
-      <c r="C104" t="s" s="25">
+      <c r="C104" s="25" t="s">
         <v>230</v>
       </c>
       <c r="D104" s="33"/>
-      <c r="E104" t="s" s="25">
+      <c r="E104" s="25" t="s">
         <v>231</v>
       </c>
       <c r="F104" s="33"/>
-      <c r="G104" t="s" s="25">
+      <c r="G104" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="H104" t="s" s="36">
+      <c r="H104" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I104" t="s" s="17">
+      <c r="I104" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J104" s="3"/>
@@ -4697,24 +4730,24 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" ht="15" customHeight="1">
+    <row r="105" spans="1:15" ht="15" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
-      <c r="C105" t="s" s="25">
+      <c r="C105" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
-      <c r="F105" t="s" s="25">
+      <c r="F105" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="G105" t="s" s="25">
+      <c r="G105" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="H105" t="s" s="36">
+      <c r="H105" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I105" t="s" s="17">
+      <c r="I105" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J105" s="3"/>
@@ -4724,7 +4757,7 @@
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
     </row>
-    <row r="106" ht="15" customHeight="1">
+    <row r="106" spans="1:15" ht="15" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4741,8 +4774,8 @@
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="A107" t="s" s="14">
+    <row r="107" spans="1:15" ht="15" customHeight="1">
+      <c r="A107" s="14" t="s">
         <v>236</v>
       </c>
       <c r="B107" s="13"/>
@@ -4751,8 +4784,10 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="23"/>
+      <c r="H107" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I107" s="40"/>
       <c r="J107" s="3"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -4760,22 +4795,24 @@
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" ht="15" customHeight="1">
+    <row r="108" spans="1:15" ht="15" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
-      <c r="C108" t="s" s="26">
+      <c r="C108" s="26" t="s">
         <v>237</v>
       </c>
       <c r="D108" s="29"/>
-      <c r="E108" t="s" s="26">
+      <c r="E108" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F108" t="s" s="26">
+      <c r="F108" s="26" t="s">
         <v>239</v>
       </c>
       <c r="G108" s="29"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="23"/>
+      <c r="H108" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I108" s="40"/>
       <c r="J108" s="3"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -4783,21 +4820,21 @@
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
     </row>
-    <row r="109" ht="15" customHeight="1">
+    <row r="109" spans="1:15" ht="15" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
-      <c r="C109" t="s" s="14">
+      <c r="C109" s="14" t="s">
         <v>240</v>
       </c>
       <c r="D109" s="13"/>
-      <c r="E109" t="s" s="14">
+      <c r="E109" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F109" t="s" s="14">
+      <c r="F109" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="13"/>
-      <c r="H109" t="s" s="34">
+      <c r="H109" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I109" s="16"/>
@@ -4808,22 +4845,24 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" ht="15" customHeight="1">
+    <row r="110" spans="1:15" ht="15" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
-      <c r="C110" t="s" s="26">
+      <c r="C110" s="26" t="s">
         <v>242</v>
       </c>
       <c r="D110" s="29"/>
-      <c r="E110" t="s" s="26">
+      <c r="E110" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="F110" t="s" s="26">
+      <c r="F110" s="26" t="s">
         <v>244</v>
       </c>
       <c r="G110" s="29"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="23"/>
+      <c r="H110" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I110" s="40"/>
       <c r="J110" s="3"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
@@ -4831,7 +4870,7 @@
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" ht="15" customHeight="1">
+    <row r="111" spans="1:15" ht="15" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4848,18 +4887,18 @@
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" ht="15" customHeight="1">
-      <c r="A112" t="s" s="25">
+    <row r="112" spans="1:15" ht="15" customHeight="1">
+      <c r="A112" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
-      <c r="E112" t="s" s="25">
+      <c r="E112" s="25" t="s">
         <v>246</v>
       </c>
       <c r="F112" s="33"/>
-      <c r="G112" t="s" s="25">
+      <c r="G112" s="25" t="s">
         <v>247</v>
       </c>
       <c r="H112" s="12"/>
@@ -4871,7 +4910,7 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" ht="15" customHeight="1">
+    <row r="113" spans="1:15" ht="15" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4888,8 +4927,8 @@
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" ht="15" customHeight="1">
-      <c r="A114" t="s" s="14">
+    <row r="114" spans="1:15" ht="15" customHeight="1">
+      <c r="A114" s="14" t="s">
         <v>248</v>
       </c>
       <c r="B114" s="13"/>
@@ -4897,10 +4936,10 @@
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
-      <c r="G114" t="s" s="14">
+      <c r="G114" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H114" t="s" s="15">
+      <c r="H114" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I114" s="23"/>
@@ -4911,7 +4950,7 @@
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" ht="15" customHeight="1">
+    <row r="115" spans="1:15" ht="15" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4928,14 +4967,14 @@
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" ht="15" customHeight="1">
-      <c r="A116" t="s" s="18">
+    <row r="116" spans="1:15" ht="15" customHeight="1">
+      <c r="A116" s="18" t="s">
         <v>250</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
-      <c r="E116" t="s" s="18">
+      <c r="E116" s="18" t="s">
         <v>251</v>
       </c>
       <c r="F116" s="19"/>
@@ -4949,7 +4988,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" ht="15" customHeight="1">
+    <row r="117" spans="1:15" ht="15" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4966,24 +5005,24 @@
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" ht="15" customHeight="1">
-      <c r="A118" t="s" s="25">
+    <row r="118" spans="1:15" ht="15" customHeight="1">
+      <c r="A118" s="25" t="s">
         <v>252</v>
       </c>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
-      <c r="E118" t="s" s="25">
+      <c r="E118" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="F118" t="s" s="25">
+      <c r="F118" s="25" t="s">
         <v>254</v>
       </c>
       <c r="G118" s="33"/>
-      <c r="H118" t="s" s="36">
+      <c r="H118" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I118" t="s" s="17">
+      <c r="I118" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J118" s="3"/>
@@ -4993,7 +5032,7 @@
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119" spans="1:15" ht="15" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -5010,8 +5049,8 @@
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" ht="15" customHeight="1">
-      <c r="A120" t="s" s="14">
+    <row r="120" spans="1:15" ht="15" customHeight="1">
+      <c r="A120" s="14" t="s">
         <v>255</v>
       </c>
       <c r="B120" s="13"/>
@@ -5020,8 +5059,10 @@
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="23"/>
+      <c r="H120" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" s="40"/>
       <c r="J120" s="3"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
@@ -5029,21 +5070,21 @@
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" ht="15" customHeight="1">
+    <row r="121" spans="1:15" ht="15" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
-      <c r="C121" t="s" s="14">
+      <c r="C121" s="14" t="s">
         <v>256</v>
       </c>
       <c r="D121" s="13"/>
-      <c r="E121" t="s" s="14">
+      <c r="E121" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F121" t="s" s="14">
+      <c r="F121" s="14" t="s">
         <v>258</v>
       </c>
       <c r="G121" s="13"/>
-      <c r="H121" t="s" s="34">
+      <c r="H121" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I121" s="16"/>
@@ -5054,26 +5095,26 @@
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" ht="15" customHeight="1">
+    <row r="122" spans="1:15" ht="15" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
-      <c r="C122" t="s" s="14">
+      <c r="C122" s="14" t="s">
         <v>259</v>
       </c>
       <c r="D122" s="13"/>
-      <c r="E122" t="s" s="14">
+      <c r="E122" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="F122" t="s" s="14">
+      <c r="F122" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G122" t="s" s="14">
+      <c r="G122" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H122" t="s" s="34">
+      <c r="H122" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I122" s="21"/>
+      <c r="I122" s="40"/>
       <c r="J122" s="3"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -5081,22 +5122,24 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" ht="15" customHeight="1">
+    <row r="123" spans="1:15" ht="15" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
-      <c r="C123" t="s" s="14">
+      <c r="C123" s="14" t="s">
         <v>263</v>
       </c>
       <c r="D123" s="13"/>
-      <c r="E123" t="s" s="14">
+      <c r="E123" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F123" t="s" s="14">
+      <c r="F123" s="14" t="s">
         <v>265</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="23"/>
+      <c r="H123" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I123" s="40"/>
       <c r="J123" s="3"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -5104,22 +5147,24 @@
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" ht="15" customHeight="1">
+    <row r="124" spans="1:15" ht="15" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
-      <c r="C124" t="s" s="14">
+      <c r="C124" s="14" t="s">
         <v>266</v>
       </c>
       <c r="D124" s="13"/>
-      <c r="E124" t="s" s="14">
+      <c r="E124" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F124" t="s" s="14">
+      <c r="F124" s="14" t="s">
         <v>265</v>
       </c>
       <c r="G124" s="13"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="23"/>
+      <c r="H124" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I124" s="40"/>
       <c r="J124" s="3"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
@@ -5127,21 +5172,21 @@
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" ht="15" customHeight="1">
+    <row r="125" spans="1:15" ht="15" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
-      <c r="C125" t="s" s="14">
+      <c r="C125" s="14" t="s">
         <v>268</v>
       </c>
       <c r="D125" s="13"/>
-      <c r="E125" t="s" s="14">
+      <c r="E125" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F125" t="s" s="14">
+      <c r="F125" s="14" t="s">
         <v>270</v>
       </c>
       <c r="G125" s="13"/>
-      <c r="H125" t="s" s="34">
+      <c r="H125" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I125" s="16"/>
@@ -5152,21 +5197,21 @@
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" ht="15" customHeight="1">
+    <row r="126" spans="1:15" ht="15" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
-      <c r="C126" t="s" s="14">
+      <c r="C126" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D126" s="13"/>
-      <c r="E126" t="s" s="14">
+      <c r="E126" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F126" t="s" s="14">
+      <c r="F126" s="14" t="s">
         <v>270</v>
       </c>
       <c r="G126" s="13"/>
-      <c r="H126" t="s" s="34">
+      <c r="H126" s="34" t="s">
         <v>32</v>
       </c>
       <c r="I126" s="16"/>
@@ -5177,8 +5222,8 @@
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" ht="15" customHeight="1">
-      <c r="A127" t="s" s="14">
+    <row r="127" spans="1:15" ht="15" customHeight="1">
+      <c r="A127" s="14" t="s">
         <v>273</v>
       </c>
       <c r="B127" s="13"/>
@@ -5196,10 +5241,10 @@
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
     </row>
-    <row r="128" ht="15" customHeight="1">
+    <row r="128" spans="1:15" ht="15" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
-      <c r="C128" t="s" s="14">
+      <c r="C128" s="14" t="s">
         <v>274</v>
       </c>
       <c r="D128" s="13"/>
@@ -5215,10 +5260,10 @@
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
     </row>
-    <row r="129" ht="15" customHeight="1">
+    <row r="129" spans="1:15" ht="15" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
-      <c r="C129" t="s" s="14">
+      <c r="C129" s="14" t="s">
         <v>275</v>
       </c>
       <c r="D129" s="13"/>
@@ -5235,8 +5280,8 @@
       <c r="O129" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5244,85 +5289,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="37" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="37" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="37" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="37" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="37" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5330,8 +5372,8 @@
       <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5339,85 +5381,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="38" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="38" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="38" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="38" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="38" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5425,8 +5462,8 @@
       <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -850,7 +850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -892,8 +892,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,6 +1006,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1131,12 +1143,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1179,10 +1192,12 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2370,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3765,7 +3780,7 @@
       <c r="H59" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I59" s="23"/>
+      <c r="I59" s="42"/>
       <c r="J59" s="3"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="276">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -850,11 +850,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -899,8 +906,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,6 +1025,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1143,13 +1162,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1159,22 +1179,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1185,19 +1205,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="4" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2385,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3149,7 +3172,7 @@
       <c r="H30" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -3286,7 +3309,7 @@
         <v>99</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="44" t="s">
         <v>32</v>
       </c>
       <c r="I36" s="40"/>
@@ -3330,8 +3353,10 @@
       <c r="G38" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="23"/>
+      <c r="H38" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="43"/>
       <c r="J38" s="3"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="275">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -192,12 +192,6 @@
     <t>Wachmann_Türöffnen_ANIM</t>
   </si>
   <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>Ambient Occlusion Map</t>
-  </si>
-  <si>
     <t>Greifen</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>Normal Map</t>
   </si>
   <si>
-    <t>COLOR</t>
-  </si>
-  <si>
     <t>Color Map</t>
   </si>
   <si>
@@ -844,6 +835,12 @@
   </si>
   <si>
     <t>Voodoo Brain Game Botton</t>
+  </si>
+  <si>
+    <t>Metallic</t>
+  </si>
+  <si>
+    <t>Albedo</t>
   </si>
 </sst>
 </file>
@@ -2408,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2894,23 +2891,21 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
       <c r="L18" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>59</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M18" s="31"/>
       <c r="N18" s="11"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -2921,10 +2916,10 @@
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
       <c r="L19" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="3"/>
@@ -2942,27 +2937,27 @@
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
       <c r="L20" s="31" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="23"/>
@@ -2992,14 +2987,14 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>46</v>
@@ -3019,14 +3014,14 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="39" t="s">
@@ -3044,17 +3039,17 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H25" s="41" t="s">
         <v>32</v>
@@ -3074,7 +3069,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="39" t="s">
@@ -3095,7 +3090,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="39" t="s">
@@ -3113,17 +3108,17 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H28" s="39" t="s">
         <v>32</v>
@@ -3155,19 +3150,19 @@
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>32</v>
@@ -3199,7 +3194,7 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -3224,14 +3219,14 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="39" t="s">
@@ -3249,14 +3244,14 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="39" t="s">
@@ -3274,14 +3269,14 @@
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="39" t="s">
@@ -3299,14 +3294,14 @@
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="44" t="s">
@@ -3339,19 +3334,19 @@
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>32</v>
@@ -3383,19 +3378,19 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="23"/>
@@ -3425,16 +3420,16 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G42" s="19"/>
       <c r="H42" s="12"/>
@@ -3465,16 +3460,16 @@
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="12"/>
@@ -3505,7 +3500,7 @@
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -3526,14 +3521,14 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="12"/>
@@ -3549,14 +3544,14 @@
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D48" s="33"/>
       <c r="E48" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G48" s="33"/>
       <c r="H48" s="12"/>
@@ -3572,14 +3567,14 @@
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="12"/>
@@ -3595,17 +3590,17 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="23"/>
@@ -3620,14 +3615,14 @@
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="12"/>
@@ -3643,14 +3638,14 @@
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="12"/>
@@ -3666,14 +3661,14 @@
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="12"/>
@@ -3689,14 +3684,14 @@
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="12"/>
@@ -3712,14 +3707,14 @@
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="12"/>
@@ -3750,16 +3745,16 @@
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="12"/>
@@ -3790,16 +3785,16 @@
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="34" t="s">
@@ -3832,7 +3827,7 @@
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
       <c r="A61" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -3868,7 +3863,7 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -3889,14 +3884,14 @@
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G64" s="33"/>
       <c r="H64" s="12"/>
@@ -3912,11 +3907,11 @@
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D65" s="33"/>
       <c r="E65" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -3948,16 +3943,16 @@
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="12"/>
@@ -3988,7 +3983,7 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -4009,14 +4004,14 @@
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G70" s="33"/>
       <c r="H70" s="12"/>
@@ -4032,14 +4027,14 @@
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G71" s="33"/>
       <c r="H71" s="12"/>
@@ -4055,14 +4050,14 @@
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G72" s="33"/>
       <c r="H72" s="12"/>
@@ -4093,7 +4088,7 @@
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -4114,15 +4109,15 @@
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="23"/>
@@ -4137,11 +4132,11 @@
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -4158,11 +4153,11 @@
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -4179,11 +4174,11 @@
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -4200,11 +4195,11 @@
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -4221,11 +4216,11 @@
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -4242,11 +4237,11 @@
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -4263,11 +4258,11 @@
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
@@ -4284,15 +4279,15 @@
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -4307,11 +4302,11 @@
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D84" s="33"/>
       <c r="E84" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -4328,11 +4323,11 @@
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D85" s="33"/>
       <c r="E85" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -4349,11 +4344,11 @@
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D86" s="33"/>
       <c r="E86" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -4385,16 +4380,16 @@
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="12"/>
@@ -4425,7 +4420,7 @@
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
       <c r="A90" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -4446,14 +4441,14 @@
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D91" s="33"/>
       <c r="E91" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G91" s="33"/>
       <c r="H91" s="12"/>
@@ -4469,14 +4464,14 @@
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D92" s="33"/>
       <c r="E92" s="25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="12"/>
@@ -4492,14 +4487,14 @@
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D93" s="33"/>
       <c r="E93" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="12"/>
@@ -4515,14 +4510,14 @@
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D94" s="33"/>
       <c r="E94" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="12"/>
@@ -4538,14 +4533,14 @@
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G95" s="33"/>
       <c r="H95" s="12"/>
@@ -4561,14 +4556,14 @@
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D96" s="33"/>
       <c r="E96" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G96" s="33"/>
       <c r="H96" s="12"/>
@@ -4584,14 +4579,14 @@
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D97" s="33"/>
       <c r="E97" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G97" s="33"/>
       <c r="H97" s="12"/>
@@ -4607,14 +4602,14 @@
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D98" s="33"/>
       <c r="E98" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G98" s="33"/>
       <c r="H98" s="12"/>
@@ -4645,7 +4640,7 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1">
       <c r="A100" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
@@ -4666,21 +4661,21 @@
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G101" s="33"/>
       <c r="H101" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="5"/>
@@ -4693,21 +4688,21 @@
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H102" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="5"/>
@@ -4720,21 +4715,21 @@
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H103" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="5"/>
@@ -4747,21 +4742,21 @@
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H104" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="5"/>
@@ -4774,21 +4769,21 @@
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
       <c r="F105" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H105" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="5"/>
@@ -4816,7 +4811,7 @@
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1">
       <c r="A107" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -4839,14 +4834,14 @@
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="26" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G108" s="29"/>
       <c r="H108" s="39" t="s">
@@ -4864,11 +4859,11 @@
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>11</v>
@@ -4889,14 +4884,14 @@
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G110" s="29"/>
       <c r="H110" s="39" t="s">
@@ -4929,17 +4924,17 @@
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1">
       <c r="A112" s="25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="23"/>
@@ -4969,7 +4964,7 @@
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -4977,7 +4972,7 @@
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
       <c r="G114" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H114" s="15" t="s">
         <v>12</v>
@@ -5009,13 +5004,13 @@
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
       <c r="E116" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
@@ -5047,23 +5042,23 @@
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1">
       <c r="A118" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G118" s="33"/>
       <c r="H118" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="5"/>
@@ -5091,7 +5086,7 @@
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -5114,14 +5109,14 @@
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G121" s="13"/>
       <c r="H121" s="34" t="s">
@@ -5139,17 +5134,17 @@
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H122" s="34" t="s">
         <v>32</v>
@@ -5166,14 +5161,14 @@
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="39" t="s">
@@ -5191,14 +5186,14 @@
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="39" t="s">
@@ -5216,14 +5211,14 @@
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="34" t="s">
@@ -5241,14 +5236,14 @@
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G126" s="13"/>
       <c r="H126" s="34" t="s">
@@ -5264,7 +5259,7 @@
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -5285,7 +5280,7 @@
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
@@ -5304,7 +5299,7 @@
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="276">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1215,6 +1215,7 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2408,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2638,7 +2639,7 @@
       <c r="L8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="45" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="11"/>
@@ -3960,8 +3961,10 @@
         <v>157</v>
       </c>
       <c r="G67" s="33"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="23"/>
+      <c r="H67" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="40"/>
       <c r="J67" s="3"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="276">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Arztbesteck</t>
   </si>
   <si>
-    <t>Skalpel</t>
-  </si>
-  <si>
     <t>Skalpel_SM</t>
   </si>
   <si>
@@ -844,6 +841,9 @@
   </si>
   <si>
     <t>Voodoo Brain Game Botton</t>
+  </si>
+  <si>
+    <t>Skalpell</t>
   </si>
 </sst>
 </file>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3438,7 +3438,9 @@
         <v>110</v>
       </c>
       <c r="G42" s="19"/>
-      <c r="H42" s="12"/>
+      <c r="H42" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I42" s="23"/>
       <c r="J42" s="3"/>
       <c r="K42" s="5"/>
@@ -3527,18 +3529,20 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="18" t="s">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>117</v>
-      </c>
       <c r="G47" s="19"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="23"/>
+      <c r="H47" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="40"/>
       <c r="J47" s="3"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -3550,14 +3554,14 @@
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="33"/>
       <c r="E48" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>120</v>
       </c>
       <c r="G48" s="33"/>
       <c r="H48" s="12"/>
@@ -3573,17 +3577,19 @@
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="G49" s="19"/>
-      <c r="H49" s="12"/>
+      <c r="H49" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="I49" s="23"/>
       <c r="J49" s="3"/>
       <c r="K49" s="5"/>
@@ -3596,17 +3602,17 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="G50" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>127</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="23"/>
@@ -3621,14 +3627,14 @@
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="12"/>
@@ -3644,14 +3650,14 @@
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="12"/>
@@ -3667,14 +3673,14 @@
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>135</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="12"/>
@@ -3690,14 +3696,14 @@
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="12"/>
@@ -3713,14 +3719,14 @@
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>141</v>
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="12"/>
@@ -3751,16 +3757,16 @@
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="12"/>
@@ -3791,16 +3797,16 @@
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>147</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="34" t="s">
@@ -3833,7 +3839,7 @@
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
       <c r="A61" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -3869,7 +3875,7 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -3890,14 +3896,14 @@
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="25" t="s">
         <v>151</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="G64" s="33"/>
       <c r="H64" s="12"/>
@@ -3913,11 +3919,11 @@
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D65" s="33"/>
       <c r="E65" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -3949,16 +3955,16 @@
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>156</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>157</v>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="39" t="s">
@@ -3991,7 +3997,7 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -4012,14 +4018,14 @@
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>161</v>
       </c>
       <c r="G70" s="33"/>
       <c r="H70" s="12"/>
@@ -4035,14 +4041,14 @@
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>164</v>
       </c>
       <c r="G71" s="33"/>
       <c r="H71" s="12"/>
@@ -4058,14 +4064,14 @@
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="G72" s="33"/>
       <c r="H72" s="12"/>
@@ -4096,7 +4102,7 @@
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -4117,15 +4123,15 @@
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="23"/>
@@ -4140,11 +4146,11 @@
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -4161,11 +4167,11 @@
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -4182,11 +4188,11 @@
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -4203,11 +4209,11 @@
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -4224,11 +4230,11 @@
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -4245,11 +4251,11 @@
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -4266,11 +4272,11 @@
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
@@ -4287,15 +4293,15 @@
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -4310,11 +4316,11 @@
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D84" s="33"/>
       <c r="E84" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -4331,11 +4337,11 @@
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D85" s="33"/>
       <c r="E85" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -4352,11 +4358,11 @@
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D86" s="33"/>
       <c r="E86" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -4388,16 +4394,16 @@
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="12"/>
@@ -4428,7 +4434,7 @@
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
       <c r="A90" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -4449,14 +4455,14 @@
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D91" s="33"/>
       <c r="E91" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F91" s="25" t="s">
         <v>200</v>
-      </c>
-      <c r="F91" s="25" t="s">
-        <v>201</v>
       </c>
       <c r="G91" s="33"/>
       <c r="H91" s="12"/>
@@ -4472,14 +4478,14 @@
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D92" s="33"/>
       <c r="E92" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="12"/>
@@ -4495,14 +4501,14 @@
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D93" s="33"/>
       <c r="E93" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F93" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>206</v>
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="12"/>
@@ -4518,14 +4524,14 @@
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D94" s="33"/>
       <c r="E94" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="12"/>
@@ -4541,14 +4547,14 @@
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F95" s="25" t="s">
         <v>210</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>211</v>
       </c>
       <c r="G95" s="33"/>
       <c r="H95" s="12"/>
@@ -4564,14 +4570,14 @@
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D96" s="33"/>
       <c r="E96" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G96" s="33"/>
       <c r="H96" s="12"/>
@@ -4587,14 +4593,14 @@
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D97" s="33"/>
       <c r="E97" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>216</v>
       </c>
       <c r="G97" s="33"/>
       <c r="H97" s="12"/>
@@ -4610,14 +4616,14 @@
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D98" s="33"/>
       <c r="E98" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G98" s="33"/>
       <c r="H98" s="12"/>
@@ -4648,7 +4654,7 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1">
       <c r="A100" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
@@ -4669,21 +4675,21 @@
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F101" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="F101" s="25" t="s">
-        <v>222</v>
       </c>
       <c r="G101" s="33"/>
       <c r="H101" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="5"/>
@@ -4696,21 +4702,21 @@
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H102" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="5"/>
@@ -4723,21 +4729,21 @@
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H103" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="5"/>
@@ -4750,21 +4756,21 @@
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H104" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="5"/>
@@ -4777,21 +4783,21 @@
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
       <c r="F105" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G105" s="25" t="s">
         <v>234</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>235</v>
       </c>
       <c r="H105" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="5"/>
@@ -4819,7 +4825,7 @@
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1">
       <c r="A107" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -4842,14 +4848,14 @@
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F108" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="F108" s="26" t="s">
-        <v>239</v>
       </c>
       <c r="G108" s="29"/>
       <c r="H108" s="39" t="s">
@@ -4867,11 +4873,11 @@
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>11</v>
@@ -4892,14 +4898,14 @@
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F110" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>244</v>
       </c>
       <c r="G110" s="29"/>
       <c r="H110" s="39" t="s">
@@ -4932,17 +4938,17 @@
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1">
       <c r="A112" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="23"/>
@@ -4972,7 +4978,7 @@
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -4980,7 +4986,7 @@
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
       <c r="G114" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H114" s="15" t="s">
         <v>12</v>
@@ -5012,13 +5018,13 @@
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
       <c r="E116" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
@@ -5050,23 +5056,23 @@
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1">
       <c r="A118" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F118" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="G118" s="33"/>
       <c r="H118" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="5"/>
@@ -5094,7 +5100,7 @@
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -5117,14 +5123,14 @@
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F121" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="G121" s="13"/>
       <c r="H121" s="34" t="s">
@@ -5142,17 +5148,17 @@
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F122" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="G122" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>262</v>
       </c>
       <c r="H122" s="34" t="s">
         <v>32</v>
@@ -5169,14 +5175,14 @@
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>265</v>
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="39" t="s">
@@ -5194,14 +5200,14 @@
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="39" t="s">
@@ -5219,14 +5225,14 @@
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="F125" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="34" t="s">
@@ -5244,14 +5250,14 @@
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G126" s="13"/>
       <c r="H126" s="34" t="s">
@@ -5267,7 +5273,7 @@
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -5288,7 +5294,7 @@
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
@@ -5307,7 +5313,7 @@
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="276">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3438,9 +3438,7 @@
         <v>110</v>
       </c>
       <c r="G42" s="19"/>
-      <c r="H42" s="39" t="s">
-        <v>32</v>
-      </c>
+      <c r="H42" s="12"/>
       <c r="I42" s="23"/>
       <c r="J42" s="3"/>
       <c r="K42" s="5"/>
@@ -3590,7 +3588,7 @@
       <c r="H49" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I49" s="23"/>
+      <c r="I49" s="40"/>
       <c r="J49" s="3"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Zustand</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>Voodoo13_SM</t>
   </si>
   <si>
@@ -678,9 +675,6 @@
     <t>1,6 cm durchmesser</t>
   </si>
   <si>
-    <t>Finished</t>
-  </si>
-  <si>
     <t>Erlenmeyerkolben</t>
   </si>
   <si>
@@ -841,6 +835,42 @@
   </si>
   <si>
     <t>Albedo</t>
+  </si>
+  <si>
+    <t>voodoo Puppe</t>
+  </si>
+  <si>
+    <t>Albedo/Roughness</t>
+  </si>
+  <si>
+    <t>Albedo/Roughness/Normal</t>
+  </si>
+  <si>
+    <t>Arbeitsplätze</t>
+  </si>
+  <si>
+    <t>Stifte</t>
+  </si>
+  <si>
+    <t>Schreibmaschiene</t>
+  </si>
+  <si>
+    <t>Stempel</t>
+  </si>
+  <si>
+    <t>Notizzettel</t>
+  </si>
+  <si>
+    <t>Abhörgeräte</t>
+  </si>
+  <si>
+    <t>Taker</t>
+  </si>
+  <si>
+    <t>Brieföffner</t>
+  </si>
+  <si>
+    <t>20cm höhe/20cm tiefe/30cm breite</t>
   </si>
 </sst>
 </file>
@@ -911,7 +941,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,8 +1059,20 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1158,6 +1200,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -1166,7 +1245,7 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1203,7 +1282,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -1212,6 +1290,20 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2403,18 +2495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV129"/>
+  <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
@@ -2464,20 +2556,22 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="10"/>
@@ -2491,23 +2585,25 @@
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="3"/>
@@ -2515,26 +2611,26 @@
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="3"/>
@@ -2542,24 +2638,24 @@
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="3"/>
@@ -2567,23 +2663,23 @@
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
       <c r="L6" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -2592,24 +2688,24 @@
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="3"/>
@@ -2617,26 +2713,26 @@
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
       <c r="L8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="3"/>
@@ -2644,24 +2740,24 @@
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="3"/>
@@ -2669,26 +2765,26 @@
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
       <c r="L10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="3"/>
@@ -2696,24 +2792,24 @@
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="3"/>
@@ -2737,29 +2833,31 @@
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>275</v>
+      </c>
       <c r="E13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
       <c r="L13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="31" t="s">
         <v>45</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>46</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="3"/>
@@ -2767,26 +2865,26 @@
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
       <c r="L14" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="31" t="s">
         <v>48</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>49</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="3"/>
@@ -2794,23 +2892,23 @@
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
       <c r="L15" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="31" t="s">
         <v>1</v>
@@ -2821,26 +2919,26 @@
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
       <c r="L16" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="3"/>
@@ -2848,26 +2946,26 @@
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
       <c r="L17" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="3"/>
@@ -2875,23 +2973,23 @@
     <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
       <c r="L18" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M18" s="31"/>
       <c r="N18" s="11"/>
@@ -2900,26 +2998,26 @@
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
       <c r="L19" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="31" t="s">
         <v>60</v>
-      </c>
-      <c r="M19" s="31" t="s">
-        <v>61</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="3"/>
@@ -2937,27 +3035,29 @@
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
       <c r="L20" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E21" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="23"/>
@@ -2987,22 +3087,24 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E23" s="13"/>
       <c r="F23" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="40"/>
+        <v>45</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="39"/>
       <c r="J23" s="3"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
@@ -3014,20 +3116,22 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14" t="s">
+      <c r="F24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="40"/>
+      <c r="H24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="39"/>
       <c r="J24" s="3"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -3039,22 +3143,24 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14" t="s">
+      <c r="F25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="40"/>
+      <c r="H25" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="39"/>
       <c r="J25" s="3"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -3066,16 +3172,18 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="40"/>
+      <c r="H26" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="39"/>
       <c r="J26" s="3"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -3087,16 +3195,18 @@
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="40"/>
+      <c r="H27" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="39"/>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -3108,22 +3218,24 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14" t="s">
+      <c r="F28" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="G28" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="40"/>
+        <v>73</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="39"/>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -3150,24 +3262,26 @@
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="43"/>
+      <c r="H30" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="42"/>
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -3194,20 +3308,22 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="40"/>
+        <v>45</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="39"/>
       <c r="J32" s="3"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -3219,20 +3335,22 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="40"/>
+      <c r="H33" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="39"/>
       <c r="J33" s="3"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -3244,20 +3362,22 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14" t="s">
+      <c r="F34" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="40"/>
+      <c r="H34" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="39"/>
       <c r="J34" s="3"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -3269,20 +3389,22 @@
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14" t="s">
+      <c r="F35" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="40"/>
+      <c r="H35" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="39"/>
       <c r="J35" s="3"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -3294,20 +3416,22 @@
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14" t="s">
+      <c r="F36" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>96</v>
-      </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="40"/>
+      <c r="H36" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="39"/>
       <c r="J36" s="3"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -3334,24 +3458,26 @@
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="D38" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="E38" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="G38" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="43"/>
+      <c r="H38" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="42"/>
       <c r="J38" s="3"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -3378,22 +3504,26 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="D40" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E40" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="G40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="23"/>
+      <c r="H40" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="41"/>
       <c r="J40" s="3"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -3420,20 +3550,24 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="E42" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>107</v>
-      </c>
       <c r="G42" s="19"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="23"/>
+      <c r="H42" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="41"/>
       <c r="J42" s="3"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -3460,16 +3594,18 @@
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="D44" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E44" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="12"/>
@@ -3500,11 +3636,13 @@
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="D46" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -3521,18 +3659,22 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="18" t="s">
+      <c r="F47" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="G47" s="19"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="23"/>
+      <c r="H47" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="41"/>
       <c r="J47" s="3"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -3544,18 +3686,22 @@
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E48" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="25" t="s">
+      <c r="F48" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="G48" s="33"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="23"/>
+      <c r="H48" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="41"/>
       <c r="J48" s="3"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -3567,14 +3713,16 @@
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E49" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="18" t="s">
+      <c r="F49" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="12"/>
@@ -3590,17 +3738,19 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="25" t="s">
+      <c r="F50" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="G50" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="23"/>
@@ -3615,14 +3765,16 @@
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="25" t="s">
+      <c r="F51" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>127</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="12"/>
@@ -3638,14 +3790,16 @@
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E52" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="25" t="s">
-        <v>129</v>
-      </c>
       <c r="F52" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="12"/>
@@ -3661,14 +3815,16 @@
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="25" t="s">
+      <c r="F53" s="25" t="s">
         <v>131</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>132</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="12"/>
@@ -3684,14 +3840,16 @@
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="25" t="s">
+      <c r="F54" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>135</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="12"/>
@@ -3707,14 +3865,16 @@
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E55" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="25" t="s">
+      <c r="F55" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="12"/>
@@ -3745,16 +3905,18 @@
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="D57" s="13" t="s">
+        <v>275</v>
+      </c>
       <c r="E57" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>141</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="12"/>
@@ -3785,22 +3947,24 @@
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>275</v>
+      </c>
       <c r="E59" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="I59" s="41"/>
       <c r="J59" s="3"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -3827,15 +3991,19 @@
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
       <c r="A61" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="D61" s="33" t="s">
+        <v>275</v>
+      </c>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="44" t="s">
+        <v>37</v>
+      </c>
       <c r="I61" s="23"/>
       <c r="J61" s="3"/>
       <c r="K61" s="5"/>
@@ -3863,11 +4031,13 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
+      <c r="D63" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -3884,18 +4054,22 @@
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="25" t="s">
+      <c r="F64" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F64" s="25" t="s">
-        <v>149</v>
-      </c>
       <c r="G64" s="33"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="H64" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" s="42"/>
       <c r="J64" s="3"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
@@ -3907,16 +4081,20 @@
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E65" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="25" t="s">
-        <v>151</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
+      <c r="H65" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" s="42"/>
       <c r="J65" s="3"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -3943,16 +4121,18 @@
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
+      <c r="D67" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E67" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>153</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>154</v>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="12"/>
@@ -3983,11 +4163,13 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
+      <c r="D69" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -4004,14 +4186,16 @@
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="25" t="s">
+      <c r="F70" s="25" t="s">
         <v>157</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>158</v>
       </c>
       <c r="G70" s="33"/>
       <c r="H70" s="12"/>
@@ -4027,14 +4211,16 @@
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="25" t="s">
+      <c r="F71" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>161</v>
       </c>
       <c r="G71" s="33"/>
       <c r="H71" s="12"/>
@@ -4050,14 +4236,16 @@
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="25" t="s">
+      <c r="F72" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>164</v>
       </c>
       <c r="G72" s="33"/>
       <c r="H72" s="12"/>
@@ -4088,11 +4276,13 @@
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
+      <c r="D74" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -4109,15 +4299,17 @@
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E75" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="18" t="s">
-        <v>167</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="23"/>
@@ -4132,11 +4324,13 @@
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="18" t="s">
-        <v>170</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -4153,11 +4347,13 @@
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -4174,11 +4370,13 @@
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="18" t="s">
-        <v>174</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -4195,11 +4393,13 @@
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E79" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -4216,11 +4416,13 @@
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E80" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="18" t="s">
-        <v>178</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -4237,11 +4439,13 @@
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E81" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="18" t="s">
-        <v>180</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -4258,11 +4462,13 @@
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
@@ -4279,15 +4485,17 @@
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="18" t="s">
-        <v>184</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -4302,11 +4510,13 @@
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="D84" s="33"/>
-      <c r="E84" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -4323,11 +4533,13 @@
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -4344,11 +4556,13 @@
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D86" s="33"/>
-      <c r="E86" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -4380,19 +4594,23 @@
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
+      <c r="D88" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="E88" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F88" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F88" s="18" t="s">
-        <v>194</v>
-      </c>
       <c r="G88" s="19"/>
-      <c r="H88" s="12"/>
+      <c r="H88" s="44" t="s">
+        <v>37</v>
+      </c>
       <c r="I88" s="23"/>
       <c r="J88" s="3"/>
       <c r="K88" s="5"/>
@@ -4420,11 +4638,13 @@
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
       <c r="A90" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
+      <c r="D90" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E90" s="33"/>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -4441,14 +4661,16 @@
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="D91" s="33"/>
-      <c r="E91" s="25" t="s">
+      <c r="F91" s="25" t="s">
         <v>197</v>
-      </c>
-      <c r="F91" s="25" t="s">
-        <v>198</v>
       </c>
       <c r="G91" s="33"/>
       <c r="H91" s="12"/>
@@ -4464,14 +4686,16 @@
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E92" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D92" s="33"/>
-      <c r="E92" s="25" t="s">
-        <v>200</v>
-      </c>
       <c r="F92" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="12"/>
@@ -4487,14 +4711,16 @@
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E93" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D93" s="33"/>
-      <c r="E93" s="25" t="s">
+      <c r="F93" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>203</v>
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="12"/>
@@ -4510,14 +4736,16 @@
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D94" s="33"/>
-      <c r="E94" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="F94" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="12"/>
@@ -4533,14 +4761,16 @@
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E95" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D95" s="33"/>
-      <c r="E95" s="25" t="s">
+      <c r="F95" s="25" t="s">
         <v>207</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>208</v>
       </c>
       <c r="G95" s="33"/>
       <c r="H95" s="12"/>
@@ -4556,14 +4786,16 @@
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E96" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D96" s="33"/>
-      <c r="E96" s="25" t="s">
-        <v>210</v>
-      </c>
       <c r="F96" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G96" s="33"/>
       <c r="H96" s="12"/>
@@ -4579,14 +4811,16 @@
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E97" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D97" s="33"/>
-      <c r="E97" s="25" t="s">
+      <c r="F97" s="25" t="s">
         <v>212</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>213</v>
       </c>
       <c r="G97" s="33"/>
       <c r="H97" s="12"/>
@@ -4602,14 +4836,16 @@
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E98" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D98" s="33"/>
-      <c r="E98" s="25" t="s">
-        <v>215</v>
-      </c>
       <c r="F98" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G98" s="33"/>
       <c r="H98" s="12"/>
@@ -4640,11 +4876,13 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1">
       <c r="A100" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
+      <c r="D100" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E100" s="33"/>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -4661,22 +4899,22 @@
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E101" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D101" s="33"/>
-      <c r="E101" s="25" t="s">
+      <c r="F101" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F101" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="G101" s="33"/>
-      <c r="H101" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I101" s="17" t="s">
-        <v>220</v>
-      </c>
+      <c r="H101" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" s="46"/>
       <c r="J101" s="3"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -4688,22 +4926,22 @@
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" s="33"/>
+        <v>219</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E102" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I102" s="17" t="s">
-        <v>220</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H102" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" s="46"/>
       <c r="J102" s="3"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -4715,22 +4953,22 @@
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D103" s="33"/>
+        <v>222</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E103" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="H103" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>220</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="H103" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I103" s="46"/>
       <c r="J103" s="3"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -4742,22 +4980,22 @@
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="D104" s="33"/>
+        <v>225</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E104" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="H104" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I104" s="17" t="s">
-        <v>220</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="H104" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="46"/>
       <c r="J104" s="3"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
@@ -4769,22 +5007,22 @@
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D105" s="33"/>
+        <v>228</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E105" s="33"/>
       <c r="F105" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="H105" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I105" s="17" t="s">
-        <v>220</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="H105" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I105" s="46"/>
       <c r="J105" s="3"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
@@ -4811,18 +5049,20 @@
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1">
       <c r="A107" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
+      <c r="D107" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
-      <c r="H107" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I107" s="40"/>
+      <c r="H107" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="39"/>
       <c r="J107" s="3"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -4834,20 +5074,22 @@
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="F108" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D108" s="29"/>
-      <c r="E108" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="F108" s="26" t="s">
-        <v>236</v>
-      </c>
       <c r="G108" s="29"/>
-      <c r="H108" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I108" s="40"/>
+      <c r="H108" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="39"/>
       <c r="J108" s="3"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -4859,18 +5101,20 @@
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D109" s="13"/>
+        <v>235</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E109" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G109" s="13"/>
       <c r="H109" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I109" s="16"/>
       <c r="J109" s="3"/>
@@ -4884,20 +5128,22 @@
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F110" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D110" s="29"/>
-      <c r="E110" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>241</v>
-      </c>
       <c r="G110" s="29"/>
-      <c r="H110" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I110" s="40"/>
+      <c r="H110" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" s="39"/>
       <c r="J110" s="3"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
@@ -4924,17 +5170,19 @@
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1">
       <c r="A112" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
+      <c r="D112" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E112" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="23"/>
@@ -4945,7 +5193,7 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" spans="1:15" ht="15" customHeight="1">
+    <row r="113" spans="1:256" ht="15" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4962,22 +5210,24 @@
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" spans="1:15" ht="15" customHeight="1">
+    <row r="114" spans="1:256" ht="15" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
+      <c r="D114" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
       <c r="G114" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="I114" s="39"/>
       <c r="J114" s="3"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
@@ -4985,7 +5235,7 @@
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" spans="1:15" ht="15" customHeight="1">
+    <row r="115" spans="1:256" ht="15" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -5002,15 +5252,17 @@
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" spans="1:15" ht="15" customHeight="1">
+    <row r="116" spans="1:256" ht="15" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="D116" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="E116" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
@@ -5023,7 +5275,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" spans="1:15" ht="15" customHeight="1">
+    <row r="117" spans="1:256" ht="15" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -5040,26 +5292,26 @@
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" spans="1:15" ht="15" customHeight="1">
+    <row r="118" spans="1:256" ht="15" customHeight="1">
       <c r="A118" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
+      <c r="D118" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E118" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G118" s="33"/>
-      <c r="H118" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I118" s="17" t="s">
-        <v>220</v>
-      </c>
+      <c r="H118" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" s="46"/>
       <c r="J118" s="3"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
@@ -5067,7 +5319,7 @@
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" spans="1:15" ht="15" customHeight="1">
+    <row r="119" spans="1:256" ht="15" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -5084,20 +5336,22 @@
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" spans="1:15" ht="15" customHeight="1">
+    <row r="120" spans="1:256" ht="15" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
+      <c r="D120" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
-      <c r="H120" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I120" s="40"/>
+      <c r="H120" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="39"/>
       <c r="J120" s="3"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
@@ -5105,22 +5359,24 @@
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" spans="1:15" ht="15" customHeight="1">
+    <row r="121" spans="1:256" ht="15" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F121" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>255</v>
       </c>
       <c r="G121" s="13"/>
       <c r="H121" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I121" s="16"/>
       <c r="J121" s="3"/>
@@ -5130,26 +5386,28 @@
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" spans="1:15" ht="15" customHeight="1">
+    <row r="122" spans="1:256" ht="15" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F122" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="14" t="s">
+      <c r="G122" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F122" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>259</v>
-      </c>
       <c r="H122" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I122" s="40"/>
+        <v>31</v>
+      </c>
+      <c r="I122" s="39"/>
       <c r="J122" s="3"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -5157,24 +5415,26 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:15" ht="15" customHeight="1">
+    <row r="123" spans="1:256" ht="15" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>262</v>
-      </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I123" s="40"/>
+      <c r="H123" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" s="39"/>
       <c r="J123" s="3"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -5182,24 +5442,26 @@
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15" ht="15" customHeight="1">
+    <row r="124" spans="1:256" ht="15" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D124" s="13"/>
+        <v>261</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E124" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G124" s="13"/>
-      <c r="H124" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I124" s="40"/>
+      <c r="H124" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" s="39"/>
       <c r="J124" s="3"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
@@ -5207,22 +5469,24 @@
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" spans="1:15" ht="15" customHeight="1">
+    <row r="125" spans="1:256" ht="15" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F125" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I125" s="16"/>
       <c r="J125" s="3"/>
@@ -5232,22 +5496,24 @@
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:15" ht="15" customHeight="1">
+    <row r="126" spans="1:256" ht="15" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D126" s="13"/>
+        <v>266</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E126" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G126" s="13"/>
       <c r="H126" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I126" s="16"/>
       <c r="J126" s="3"/>
@@ -5256,19 +5522,251 @@
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
-    </row>
-    <row r="127" spans="1:15" ht="15" customHeight="1">
-      <c r="A127" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="23"/>
+      <c r="P126" s="37"/>
+      <c r="Q126" s="37"/>
+      <c r="R126" s="37"/>
+      <c r="S126" s="37"/>
+      <c r="T126" s="37"/>
+      <c r="U126" s="37"/>
+      <c r="V126" s="37"/>
+      <c r="W126" s="37"/>
+      <c r="X126" s="37"/>
+      <c r="Y126" s="37"/>
+      <c r="Z126" s="37"/>
+      <c r="AA126" s="37"/>
+      <c r="AB126" s="37"/>
+      <c r="AC126" s="37"/>
+      <c r="AD126" s="37"/>
+      <c r="AE126" s="37"/>
+      <c r="AF126" s="37"/>
+      <c r="AG126" s="37"/>
+      <c r="AH126" s="37"/>
+      <c r="AI126" s="37"/>
+      <c r="AJ126" s="37"/>
+      <c r="AK126" s="37"/>
+      <c r="AL126" s="37"/>
+      <c r="AM126" s="37"/>
+      <c r="AN126" s="37"/>
+      <c r="AO126" s="37"/>
+      <c r="AP126" s="37"/>
+      <c r="AQ126" s="37"/>
+      <c r="AR126" s="37"/>
+      <c r="AS126" s="37"/>
+      <c r="AT126" s="37"/>
+      <c r="AU126" s="37"/>
+      <c r="AV126" s="37"/>
+      <c r="AW126" s="37"/>
+      <c r="AX126" s="37"/>
+      <c r="AY126" s="37"/>
+      <c r="AZ126" s="37"/>
+      <c r="BA126" s="37"/>
+      <c r="BB126" s="37"/>
+      <c r="BC126" s="37"/>
+      <c r="BD126" s="37"/>
+      <c r="BE126" s="37"/>
+      <c r="BF126" s="37"/>
+      <c r="BG126" s="37"/>
+      <c r="BH126" s="37"/>
+      <c r="BI126" s="37"/>
+      <c r="BJ126" s="37"/>
+      <c r="BK126" s="37"/>
+      <c r="BL126" s="37"/>
+      <c r="BM126" s="37"/>
+      <c r="BN126" s="37"/>
+      <c r="BO126" s="37"/>
+      <c r="BP126" s="37"/>
+      <c r="BQ126" s="37"/>
+      <c r="BR126" s="37"/>
+      <c r="BS126" s="37"/>
+      <c r="BT126" s="37"/>
+      <c r="BU126" s="37"/>
+      <c r="BV126" s="37"/>
+      <c r="BW126" s="37"/>
+      <c r="BX126" s="37"/>
+      <c r="BY126" s="37"/>
+      <c r="BZ126" s="37"/>
+      <c r="CA126" s="37"/>
+      <c r="CB126" s="37"/>
+      <c r="CC126" s="37"/>
+      <c r="CD126" s="37"/>
+      <c r="CE126" s="37"/>
+      <c r="CF126" s="37"/>
+      <c r="CG126" s="37"/>
+      <c r="CH126" s="37"/>
+      <c r="CI126" s="37"/>
+      <c r="CJ126" s="37"/>
+      <c r="CK126" s="37"/>
+      <c r="CL126" s="37"/>
+      <c r="CM126" s="37"/>
+      <c r="CN126" s="37"/>
+      <c r="CO126" s="37"/>
+      <c r="CP126" s="37"/>
+      <c r="CQ126" s="37"/>
+      <c r="CR126" s="37"/>
+      <c r="CS126" s="37"/>
+      <c r="CT126" s="37"/>
+      <c r="CU126" s="37"/>
+      <c r="CV126" s="37"/>
+      <c r="CW126" s="37"/>
+      <c r="CX126" s="37"/>
+      <c r="CY126" s="37"/>
+      <c r="CZ126" s="37"/>
+      <c r="DA126" s="37"/>
+      <c r="DB126" s="37"/>
+      <c r="DC126" s="37"/>
+      <c r="DD126" s="37"/>
+      <c r="DE126" s="37"/>
+      <c r="DF126" s="37"/>
+      <c r="DG126" s="37"/>
+      <c r="DH126" s="37"/>
+      <c r="DI126" s="37"/>
+      <c r="DJ126" s="37"/>
+      <c r="DK126" s="37"/>
+      <c r="DL126" s="37"/>
+      <c r="DM126" s="37"/>
+      <c r="DN126" s="37"/>
+      <c r="DO126" s="37"/>
+      <c r="DP126" s="37"/>
+      <c r="DQ126" s="37"/>
+      <c r="DR126" s="37"/>
+      <c r="DS126" s="37"/>
+      <c r="DT126" s="37"/>
+      <c r="DU126" s="37"/>
+      <c r="DV126" s="37"/>
+      <c r="DW126" s="37"/>
+      <c r="DX126" s="37"/>
+      <c r="DY126" s="37"/>
+      <c r="DZ126" s="37"/>
+      <c r="EA126" s="37"/>
+      <c r="EB126" s="37"/>
+      <c r="EC126" s="37"/>
+      <c r="ED126" s="37"/>
+      <c r="EE126" s="37"/>
+      <c r="EF126" s="37"/>
+      <c r="EG126" s="37"/>
+      <c r="EH126" s="37"/>
+      <c r="EI126" s="37"/>
+      <c r="EJ126" s="37"/>
+      <c r="EK126" s="37"/>
+      <c r="EL126" s="37"/>
+      <c r="EM126" s="37"/>
+      <c r="EN126" s="37"/>
+      <c r="EO126" s="37"/>
+      <c r="EP126" s="37"/>
+      <c r="EQ126" s="37"/>
+      <c r="ER126" s="37"/>
+      <c r="ES126" s="37"/>
+      <c r="ET126" s="37"/>
+      <c r="EU126" s="37"/>
+      <c r="EV126" s="37"/>
+      <c r="EW126" s="37"/>
+      <c r="EX126" s="37"/>
+      <c r="EY126" s="37"/>
+      <c r="EZ126" s="37"/>
+      <c r="FA126" s="37"/>
+      <c r="FB126" s="37"/>
+      <c r="FC126" s="37"/>
+      <c r="FD126" s="37"/>
+      <c r="FE126" s="37"/>
+      <c r="FF126" s="37"/>
+      <c r="FG126" s="37"/>
+      <c r="FH126" s="37"/>
+      <c r="FI126" s="37"/>
+      <c r="FJ126" s="37"/>
+      <c r="FK126" s="37"/>
+      <c r="FL126" s="37"/>
+      <c r="FM126" s="37"/>
+      <c r="FN126" s="37"/>
+      <c r="FO126" s="37"/>
+      <c r="FP126" s="37"/>
+      <c r="FQ126" s="37"/>
+      <c r="FR126" s="37"/>
+      <c r="FS126" s="37"/>
+      <c r="FT126" s="37"/>
+      <c r="FU126" s="37"/>
+      <c r="FV126" s="37"/>
+      <c r="FW126" s="37"/>
+      <c r="FX126" s="37"/>
+      <c r="FY126" s="37"/>
+      <c r="FZ126" s="37"/>
+      <c r="GA126" s="37"/>
+      <c r="GB126" s="37"/>
+      <c r="GC126" s="37"/>
+      <c r="GD126" s="37"/>
+      <c r="GE126" s="37"/>
+      <c r="GF126" s="37"/>
+      <c r="GG126" s="37"/>
+      <c r="GH126" s="37"/>
+      <c r="GI126" s="37"/>
+      <c r="GJ126" s="37"/>
+      <c r="GK126" s="37"/>
+      <c r="GL126" s="37"/>
+      <c r="GM126" s="37"/>
+      <c r="GN126" s="37"/>
+      <c r="GO126" s="37"/>
+      <c r="GP126" s="37"/>
+      <c r="GQ126" s="37"/>
+      <c r="GR126" s="37"/>
+      <c r="GS126" s="37"/>
+      <c r="GT126" s="37"/>
+      <c r="GU126" s="37"/>
+      <c r="GV126" s="37"/>
+      <c r="GW126" s="37"/>
+      <c r="GX126" s="37"/>
+      <c r="GY126" s="37"/>
+      <c r="GZ126" s="37"/>
+      <c r="HA126" s="37"/>
+      <c r="HB126" s="37"/>
+      <c r="HC126" s="37"/>
+      <c r="HD126" s="37"/>
+      <c r="HE126" s="37"/>
+      <c r="HF126" s="37"/>
+      <c r="HG126" s="37"/>
+      <c r="HH126" s="37"/>
+      <c r="HI126" s="37"/>
+      <c r="HJ126" s="37"/>
+      <c r="HK126" s="37"/>
+      <c r="HL126" s="37"/>
+      <c r="HM126" s="37"/>
+      <c r="HN126" s="37"/>
+      <c r="HO126" s="37"/>
+      <c r="HP126" s="37"/>
+      <c r="HQ126" s="37"/>
+      <c r="HR126" s="37"/>
+      <c r="HS126" s="37"/>
+      <c r="HT126" s="37"/>
+      <c r="HU126" s="37"/>
+      <c r="HV126" s="37"/>
+      <c r="HW126" s="37"/>
+      <c r="HX126" s="37"/>
+      <c r="HY126" s="37"/>
+      <c r="HZ126" s="37"/>
+      <c r="IA126" s="37"/>
+      <c r="IB126" s="37"/>
+      <c r="IC126" s="37"/>
+      <c r="ID126" s="37"/>
+      <c r="IE126" s="37"/>
+      <c r="IF126" s="37"/>
+      <c r="IG126" s="37"/>
+      <c r="IH126" s="37"/>
+      <c r="II126" s="37"/>
+      <c r="IJ126" s="37"/>
+      <c r="IK126" s="37"/>
+      <c r="IL126" s="37"/>
+      <c r="IM126" s="37"/>
+      <c r="IN126" s="37"/>
+      <c r="IO126" s="37"/>
+      <c r="IP126" s="37"/>
+      <c r="IQ126" s="37"/>
+      <c r="IR126" s="37"/>
+      <c r="IS126" s="37"/>
+      <c r="IT126" s="37"/>
+      <c r="IU126" s="37"/>
+      <c r="IV126" s="37"/>
+    </row>
+    <row r="127" spans="1:256" ht="15" customHeight="1">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
       <c r="J127" s="3"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
@@ -5276,13 +5774,15 @@
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
     </row>
-    <row r="128" spans="1:15" ht="15" customHeight="1">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D128" s="13"/>
+    <row r="128" spans="1:256" ht="15" customHeight="1">
+      <c r="A128" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
@@ -5299,9 +5799,11 @@
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D129" s="13"/>
+        <v>269</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
@@ -5313,6 +5815,542 @@
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
+    </row>
+    <row r="130" spans="1:15" ht="15" customHeight="1">
+      <c r="A130" s="48"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="E130" s="50"/>
+      <c r="F130" s="50"/>
+      <c r="G130" s="50"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+    </row>
+    <row r="131" spans="1:15" ht="15" customHeight="1">
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
+      <c r="I131" s="52"/>
+    </row>
+    <row r="132" spans="1:15" ht="15" customHeight="1">
+      <c r="A132" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="56"/>
+    </row>
+    <row r="133" spans="1:15" ht="15" customHeight="1">
+      <c r="A133" s="54"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D133" s="53"/>
+      <c r="E133" s="53"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="53"/>
+      <c r="H133" s="52"/>
+      <c r="I133" s="56"/>
+    </row>
+    <row r="134" spans="1:15" ht="15" customHeight="1">
+      <c r="A134" s="54"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
+      <c r="F134" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="G134" s="53"/>
+      <c r="H134" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I134" s="56"/>
+    </row>
+    <row r="135" spans="1:15" ht="15" customHeight="1">
+      <c r="A135" s="54"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="56"/>
+    </row>
+    <row r="136" spans="1:15" ht="15" customHeight="1">
+      <c r="A136" s="54"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="56"/>
+    </row>
+    <row r="137" spans="1:15" ht="15" customHeight="1">
+      <c r="A137" s="54"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="52"/>
+      <c r="I137" s="56"/>
+    </row>
+    <row r="138" spans="1:15" ht="15" customHeight="1">
+      <c r="A138" s="54"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="D138" s="53"/>
+      <c r="E138" s="53"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="53"/>
+      <c r="H138" s="52"/>
+      <c r="I138" s="56"/>
+    </row>
+    <row r="139" spans="1:15" ht="15" customHeight="1">
+      <c r="A139" s="54"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="D139" s="53"/>
+      <c r="E139" s="53"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53"/>
+      <c r="H139" s="52"/>
+      <c r="I139" s="56"/>
+    </row>
+    <row r="140" spans="1:15" ht="15" customHeight="1">
+      <c r="A140" s="52"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52"/>
+      <c r="I140" s="52"/>
+    </row>
+    <row r="141" spans="1:15" ht="15" customHeight="1">
+      <c r="A141" s="52"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="52"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="52"/>
+      <c r="F141" s="52"/>
+      <c r="G141" s="52"/>
+      <c r="H141" s="52"/>
+      <c r="I141" s="52"/>
+    </row>
+    <row r="142" spans="1:15" ht="15" customHeight="1">
+      <c r="A142" s="52"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="52"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
+      <c r="I142" s="52"/>
+    </row>
+    <row r="143" spans="1:15" ht="15" customHeight="1">
+      <c r="A143" s="52"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
+      <c r="I143" s="52"/>
+    </row>
+    <row r="144" spans="1:15" ht="15" customHeight="1">
+      <c r="A144" s="52"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52"/>
+      <c r="F144" s="52"/>
+      <c r="G144" s="52"/>
+      <c r="H144" s="52"/>
+      <c r="I144" s="52"/>
+    </row>
+    <row r="145" spans="1:9" ht="15" customHeight="1">
+      <c r="A145" s="52"/>
+      <c r="B145" s="52"/>
+      <c r="C145" s="52"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="52"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="52"/>
+      <c r="I145" s="52"/>
+    </row>
+    <row r="146" spans="1:9" ht="15" customHeight="1">
+      <c r="A146" s="52"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="52"/>
+      <c r="H146" s="52"/>
+      <c r="I146" s="52"/>
+    </row>
+    <row r="147" spans="1:9" ht="15" customHeight="1">
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="52"/>
+      <c r="G147" s="52"/>
+      <c r="H147" s="52"/>
+      <c r="I147" s="52"/>
+    </row>
+    <row r="148" spans="1:9" ht="15" customHeight="1">
+      <c r="A148" s="52"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="52"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="52"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52"/>
+      <c r="I148" s="52"/>
+    </row>
+    <row r="149" spans="1:9" ht="15" customHeight="1">
+      <c r="A149" s="52"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="52"/>
+      <c r="H149" s="52"/>
+      <c r="I149" s="52"/>
+    </row>
+    <row r="150" spans="1:9" ht="15" customHeight="1">
+      <c r="A150" s="52"/>
+      <c r="B150" s="52"/>
+      <c r="C150" s="52"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="52"/>
+      <c r="H150" s="52"/>
+      <c r="I150" s="52"/>
+    </row>
+    <row r="151" spans="1:9" ht="15" customHeight="1">
+      <c r="A151" s="52"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="52"/>
+      <c r="H151" s="52"/>
+      <c r="I151" s="52"/>
+    </row>
+    <row r="152" spans="1:9" ht="15" customHeight="1">
+      <c r="A152" s="52"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="52"/>
+      <c r="E152" s="52"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="52"/>
+      <c r="H152" s="52"/>
+      <c r="I152" s="52"/>
+    </row>
+    <row r="153" spans="1:9" ht="15" customHeight="1">
+      <c r="A153" s="52"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="52"/>
+      <c r="D153" s="52"/>
+      <c r="E153" s="52"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="52"/>
+      <c r="H153" s="52"/>
+      <c r="I153" s="52"/>
+    </row>
+    <row r="154" spans="1:9" ht="15" customHeight="1">
+      <c r="A154" s="52"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="52"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="52"/>
+      <c r="H154" s="52"/>
+      <c r="I154" s="52"/>
+    </row>
+    <row r="155" spans="1:9" ht="15" customHeight="1">
+      <c r="A155" s="52"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="52"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="52"/>
+      <c r="G155" s="52"/>
+      <c r="H155" s="52"/>
+      <c r="I155" s="52"/>
+    </row>
+    <row r="156" spans="1:9" ht="15" customHeight="1">
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="52"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="52"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="52"/>
+      <c r="H156" s="52"/>
+      <c r="I156" s="52"/>
+    </row>
+    <row r="157" spans="1:9" ht="15" customHeight="1">
+      <c r="A157" s="52"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="52"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="52"/>
+      <c r="H157" s="52"/>
+      <c r="I157" s="52"/>
+    </row>
+    <row r="158" spans="1:9" ht="15" customHeight="1">
+      <c r="A158" s="52"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="52"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52"/>
+      <c r="I158" s="52"/>
+    </row>
+    <row r="159" spans="1:9" ht="15" customHeight="1">
+      <c r="A159" s="52"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="52"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="52"/>
+      <c r="F159" s="52"/>
+      <c r="G159" s="52"/>
+      <c r="H159" s="52"/>
+      <c r="I159" s="52"/>
+    </row>
+    <row r="160" spans="1:9" ht="15" customHeight="1">
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="52"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="52"/>
+      <c r="F160" s="52"/>
+      <c r="G160" s="52"/>
+      <c r="H160" s="52"/>
+      <c r="I160" s="52"/>
+    </row>
+    <row r="161" spans="1:9" ht="15" customHeight="1">
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="52"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="52"/>
+      <c r="G161" s="52"/>
+      <c r="H161" s="52"/>
+      <c r="I161" s="52"/>
+    </row>
+    <row r="162" spans="1:9" ht="15" customHeight="1">
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="52"/>
+      <c r="G162" s="52"/>
+      <c r="H162" s="52"/>
+      <c r="I162" s="52"/>
+    </row>
+    <row r="163" spans="1:9" ht="15" customHeight="1">
+      <c r="A163" s="52"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="52"/>
+      <c r="D163" s="52"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="52"/>
+      <c r="G163" s="52"/>
+      <c r="H163" s="52"/>
+      <c r="I163" s="52"/>
+    </row>
+    <row r="164" spans="1:9" ht="15" customHeight="1">
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="52"/>
+    </row>
+    <row r="165" spans="1:9" ht="15" customHeight="1">
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="52"/>
+      <c r="D165" s="52"/>
+      <c r="E165" s="52"/>
+      <c r="F165" s="52"/>
+      <c r="G165" s="52"/>
+      <c r="H165" s="52"/>
+      <c r="I165" s="52"/>
+    </row>
+    <row r="166" spans="1:9" ht="15" customHeight="1">
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="52"/>
+      <c r="D166" s="52"/>
+      <c r="E166" s="52"/>
+      <c r="F166" s="52"/>
+      <c r="G166" s="52"/>
+      <c r="H166" s="52"/>
+      <c r="I166" s="52"/>
+    </row>
+    <row r="167" spans="1:9" ht="15" customHeight="1">
+      <c r="A167" s="52"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="52"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="52"/>
+      <c r="F167" s="52"/>
+      <c r="G167" s="52"/>
+      <c r="H167" s="52"/>
+      <c r="I167" s="52"/>
+    </row>
+    <row r="168" spans="1:9" ht="15" customHeight="1">
+      <c r="A168" s="52"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="52"/>
+      <c r="D168" s="52"/>
+      <c r="E168" s="52"/>
+      <c r="F168" s="52"/>
+      <c r="G168" s="52"/>
+      <c r="H168" s="52"/>
+      <c r="I168" s="52"/>
+    </row>
+    <row r="169" spans="1:9" ht="15" customHeight="1">
+      <c r="A169" s="52"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="52"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="52"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="52"/>
+      <c r="H169" s="52"/>
+      <c r="I169" s="52"/>
+    </row>
+    <row r="170" spans="1:9" ht="15" customHeight="1">
+      <c r="A170" s="52"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="52"/>
+      <c r="D170" s="52"/>
+      <c r="E170" s="52"/>
+      <c r="F170" s="52"/>
+      <c r="G170" s="52"/>
+      <c r="H170" s="52"/>
+      <c r="I170" s="52"/>
+    </row>
+    <row r="171" spans="1:9" ht="15" customHeight="1">
+      <c r="A171" s="52"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="52"/>
+      <c r="D171" s="52"/>
+      <c r="E171" s="52"/>
+      <c r="F171" s="52"/>
+      <c r="G171" s="52"/>
+      <c r="H171" s="52"/>
+      <c r="I171" s="52"/>
+    </row>
+    <row r="172" spans="1:9" ht="15" customHeight="1">
+      <c r="A172" s="52"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="52"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="52"/>
+      <c r="F172" s="52"/>
+      <c r="G172" s="52"/>
+      <c r="H172" s="52"/>
+      <c r="I172" s="52"/>
+    </row>
+    <row r="173" spans="1:9" ht="15" customHeight="1">
+      <c r="A173" s="52"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="52"/>
+      <c r="H173" s="52"/>
+      <c r="I173" s="52"/>
+    </row>
+    <row r="174" spans="1:9" ht="15" customHeight="1">
+      <c r="A174" s="52"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="52"/>
+      <c r="D174" s="52"/>
+      <c r="E174" s="52"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="52"/>
+      <c r="H174" s="52"/>
+      <c r="I174" s="52"/>
+    </row>
+    <row r="175" spans="1:9" ht="15" customHeight="1">
+      <c r="A175" s="47"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="47"/>
+      <c r="D175" s="47"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="47"/>
+      <c r="H175" s="47"/>
+      <c r="I175" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
@@ -5333,7 +6371,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="10.85546875" style="37" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -5423,7 +6461,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="10.85546875" style="38" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -2497,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3725,8 +3725,10 @@
         <v>119</v>
       </c>
       <c r="G49" s="19"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="23"/>
+      <c r="H49" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="39"/>
       <c r="J49" s="3"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -877,11 +877,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1240,12 +1247,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1255,22 +1262,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1281,29 +1288,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2497,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -5873,8 +5882,10 @@
       <c r="E133" s="53"/>
       <c r="F133" s="57"/>
       <c r="G133" s="53"/>
-      <c r="H133" s="52"/>
-      <c r="I133" s="56"/>
+      <c r="H133" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="59"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1">
       <c r="A134" s="54"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -1072,7 +1072,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1237,6 +1237,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -1245,7 +1254,7 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1304,6 +1313,8 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2497,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T153" sqref="T153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -5847,6 +5858,12 @@
       <c r="G131" s="52"/>
       <c r="H131" s="52"/>
       <c r="I131" s="52"/>
+      <c r="J131" s="58"/>
+      <c r="K131" s="58"/>
+      <c r="L131" s="58"/>
+      <c r="M131" s="58"/>
+      <c r="N131" s="58"/>
+      <c r="O131" s="58"/>
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1">
       <c r="A132" s="53" t="s">
@@ -5860,6 +5877,12 @@
       <c r="G132" s="53"/>
       <c r="H132" s="52"/>
       <c r="I132" s="56"/>
+      <c r="J132" s="59"/>
+      <c r="K132" s="59"/>
+      <c r="L132" s="59"/>
+      <c r="M132" s="59"/>
+      <c r="N132" s="59"/>
+      <c r="O132" s="59"/>
     </row>
     <row r="133" spans="1:15" ht="15" customHeight="1">
       <c r="A133" s="54"/>
@@ -5873,6 +5896,12 @@
       <c r="G133" s="53"/>
       <c r="H133" s="52"/>
       <c r="I133" s="56"/>
+      <c r="J133" s="59"/>
+      <c r="K133" s="59"/>
+      <c r="L133" s="59"/>
+      <c r="M133" s="59"/>
+      <c r="N133" s="59"/>
+      <c r="O133" s="59"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1">
       <c r="A134" s="54"/>
@@ -5890,6 +5919,12 @@
         <v>37</v>
       </c>
       <c r="I134" s="56"/>
+      <c r="J134" s="59"/>
+      <c r="K134" s="59"/>
+      <c r="L134" s="59"/>
+      <c r="M134" s="59"/>
+      <c r="N134" s="59"/>
+      <c r="O134" s="59"/>
     </row>
     <row r="135" spans="1:15" ht="15" customHeight="1">
       <c r="A135" s="54"/>
@@ -5903,6 +5938,12 @@
       <c r="G135" s="53"/>
       <c r="H135" s="52"/>
       <c r="I135" s="56"/>
+      <c r="J135" s="59"/>
+      <c r="K135" s="59"/>
+      <c r="L135" s="59"/>
+      <c r="M135" s="59"/>
+      <c r="N135" s="59"/>
+      <c r="O135" s="59"/>
     </row>
     <row r="136" spans="1:15" ht="15" customHeight="1">
       <c r="A136" s="54"/>
@@ -5916,6 +5957,12 @@
       <c r="G136" s="53"/>
       <c r="H136" s="52"/>
       <c r="I136" s="56"/>
+      <c r="J136" s="59"/>
+      <c r="K136" s="59"/>
+      <c r="L136" s="59"/>
+      <c r="M136" s="59"/>
+      <c r="N136" s="59"/>
+      <c r="O136" s="59"/>
     </row>
     <row r="137" spans="1:15" ht="15" customHeight="1">
       <c r="A137" s="54"/>
@@ -5927,8 +5974,16 @@
       <c r="E137" s="53"/>
       <c r="F137" s="53"/>
       <c r="G137" s="53"/>
-      <c r="H137" s="52"/>
+      <c r="H137" s="55" t="s">
+        <v>37</v>
+      </c>
       <c r="I137" s="56"/>
+      <c r="J137" s="59"/>
+      <c r="K137" s="59"/>
+      <c r="L137" s="59"/>
+      <c r="M137" s="59"/>
+      <c r="N137" s="59"/>
+      <c r="O137" s="59"/>
     </row>
     <row r="138" spans="1:15" ht="15" customHeight="1">
       <c r="A138" s="54"/>
@@ -5942,6 +5997,12 @@
       <c r="G138" s="53"/>
       <c r="H138" s="52"/>
       <c r="I138" s="56"/>
+      <c r="J138" s="59"/>
+      <c r="K138" s="59"/>
+      <c r="L138" s="59"/>
+      <c r="M138" s="59"/>
+      <c r="N138" s="59"/>
+      <c r="O138" s="59"/>
     </row>
     <row r="139" spans="1:15" ht="15" customHeight="1">
       <c r="A139" s="54"/>
@@ -5955,6 +6016,12 @@
       <c r="G139" s="53"/>
       <c r="H139" s="52"/>
       <c r="I139" s="56"/>
+      <c r="J139" s="59"/>
+      <c r="K139" s="59"/>
+      <c r="L139" s="59"/>
+      <c r="M139" s="59"/>
+      <c r="N139" s="59"/>
+      <c r="O139" s="59"/>
     </row>
     <row r="140" spans="1:15" ht="15" customHeight="1">
       <c r="A140" s="52"/>
@@ -5966,6 +6033,12 @@
       <c r="G140" s="52"/>
       <c r="H140" s="52"/>
       <c r="I140" s="52"/>
+      <c r="J140" s="59"/>
+      <c r="K140" s="59"/>
+      <c r="L140" s="59"/>
+      <c r="M140" s="59"/>
+      <c r="N140" s="59"/>
+      <c r="O140" s="59"/>
     </row>
     <row r="141" spans="1:15" ht="15" customHeight="1">
       <c r="A141" s="52"/>
@@ -5977,6 +6050,12 @@
       <c r="G141" s="52"/>
       <c r="H141" s="52"/>
       <c r="I141" s="52"/>
+      <c r="J141" s="59"/>
+      <c r="K141" s="59"/>
+      <c r="L141" s="59"/>
+      <c r="M141" s="59"/>
+      <c r="N141" s="59"/>
+      <c r="O141" s="59"/>
     </row>
     <row r="142" spans="1:15" ht="15" customHeight="1">
       <c r="A142" s="52"/>
@@ -5988,6 +6067,12 @@
       <c r="G142" s="52"/>
       <c r="H142" s="52"/>
       <c r="I142" s="52"/>
+      <c r="J142" s="59"/>
+      <c r="K142" s="59"/>
+      <c r="L142" s="59"/>
+      <c r="M142" s="59"/>
+      <c r="N142" s="59"/>
+      <c r="O142" s="59"/>
     </row>
     <row r="143" spans="1:15" ht="15" customHeight="1">
       <c r="A143" s="52"/>
@@ -5999,6 +6084,12 @@
       <c r="G143" s="52"/>
       <c r="H143" s="52"/>
       <c r="I143" s="52"/>
+      <c r="J143" s="59"/>
+      <c r="K143" s="59"/>
+      <c r="L143" s="59"/>
+      <c r="M143" s="59"/>
+      <c r="N143" s="59"/>
+      <c r="O143" s="59"/>
     </row>
     <row r="144" spans="1:15" ht="15" customHeight="1">
       <c r="A144" s="52"/>
@@ -6010,8 +6101,14 @@
       <c r="G144" s="52"/>
       <c r="H144" s="52"/>
       <c r="I144" s="52"/>
-    </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1">
+      <c r="J144" s="59"/>
+      <c r="K144" s="59"/>
+      <c r="L144" s="59"/>
+      <c r="M144" s="59"/>
+      <c r="N144" s="59"/>
+      <c r="O144" s="59"/>
+    </row>
+    <row r="145" spans="1:15" ht="15" customHeight="1">
       <c r="A145" s="52"/>
       <c r="B145" s="52"/>
       <c r="C145" s="52"/>
@@ -6021,8 +6118,14 @@
       <c r="G145" s="52"/>
       <c r="H145" s="52"/>
       <c r="I145" s="52"/>
-    </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1">
+      <c r="J145" s="59"/>
+      <c r="K145" s="59"/>
+      <c r="L145" s="59"/>
+      <c r="M145" s="59"/>
+      <c r="N145" s="59"/>
+      <c r="O145" s="59"/>
+    </row>
+    <row r="146" spans="1:15" ht="15" customHeight="1">
       <c r="A146" s="52"/>
       <c r="B146" s="52"/>
       <c r="C146" s="52"/>
@@ -6032,8 +6135,14 @@
       <c r="G146" s="52"/>
       <c r="H146" s="52"/>
       <c r="I146" s="52"/>
-    </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1">
+      <c r="J146" s="59"/>
+      <c r="K146" s="59"/>
+      <c r="L146" s="59"/>
+      <c r="M146" s="59"/>
+      <c r="N146" s="59"/>
+      <c r="O146" s="59"/>
+    </row>
+    <row r="147" spans="1:15" ht="15" customHeight="1">
       <c r="A147" s="52"/>
       <c r="B147" s="52"/>
       <c r="C147" s="52"/>
@@ -6043,8 +6152,14 @@
       <c r="G147" s="52"/>
       <c r="H147" s="52"/>
       <c r="I147" s="52"/>
-    </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1">
+      <c r="J147" s="59"/>
+      <c r="K147" s="59"/>
+      <c r="L147" s="59"/>
+      <c r="M147" s="59"/>
+      <c r="N147" s="59"/>
+      <c r="O147" s="59"/>
+    </row>
+    <row r="148" spans="1:15" ht="15" customHeight="1">
       <c r="A148" s="52"/>
       <c r="B148" s="52"/>
       <c r="C148" s="52"/>
@@ -6054,8 +6169,14 @@
       <c r="G148" s="52"/>
       <c r="H148" s="52"/>
       <c r="I148" s="52"/>
-    </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1">
+      <c r="J148" s="59"/>
+      <c r="K148" s="59"/>
+      <c r="L148" s="59"/>
+      <c r="M148" s="59"/>
+      <c r="N148" s="59"/>
+      <c r="O148" s="59"/>
+    </row>
+    <row r="149" spans="1:15" ht="15" customHeight="1">
       <c r="A149" s="52"/>
       <c r="B149" s="52"/>
       <c r="C149" s="52"/>
@@ -6065,8 +6186,14 @@
       <c r="G149" s="52"/>
       <c r="H149" s="52"/>
       <c r="I149" s="52"/>
-    </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1">
+      <c r="J149" s="59"/>
+      <c r="K149" s="59"/>
+      <c r="L149" s="59"/>
+      <c r="M149" s="59"/>
+      <c r="N149" s="59"/>
+      <c r="O149" s="59"/>
+    </row>
+    <row r="150" spans="1:15" ht="15" customHeight="1">
       <c r="A150" s="52"/>
       <c r="B150" s="52"/>
       <c r="C150" s="52"/>
@@ -6076,8 +6203,14 @@
       <c r="G150" s="52"/>
       <c r="H150" s="52"/>
       <c r="I150" s="52"/>
-    </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1">
+      <c r="J150" s="59"/>
+      <c r="K150" s="59"/>
+      <c r="L150" s="59"/>
+      <c r="M150" s="59"/>
+      <c r="N150" s="59"/>
+      <c r="O150" s="59"/>
+    </row>
+    <row r="151" spans="1:15" ht="15" customHeight="1">
       <c r="A151" s="52"/>
       <c r="B151" s="52"/>
       <c r="C151" s="52"/>
@@ -6087,8 +6220,14 @@
       <c r="G151" s="52"/>
       <c r="H151" s="52"/>
       <c r="I151" s="52"/>
-    </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1">
+      <c r="J151" s="59"/>
+      <c r="K151" s="59"/>
+      <c r="L151" s="59"/>
+      <c r="M151" s="59"/>
+      <c r="N151" s="59"/>
+      <c r="O151" s="59"/>
+    </row>
+    <row r="152" spans="1:15" ht="15" customHeight="1">
       <c r="A152" s="52"/>
       <c r="B152" s="52"/>
       <c r="C152" s="52"/>
@@ -6098,8 +6237,14 @@
       <c r="G152" s="52"/>
       <c r="H152" s="52"/>
       <c r="I152" s="52"/>
-    </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1">
+      <c r="J152" s="59"/>
+      <c r="K152" s="59"/>
+      <c r="L152" s="59"/>
+      <c r="M152" s="59"/>
+      <c r="N152" s="59"/>
+      <c r="O152" s="59"/>
+    </row>
+    <row r="153" spans="1:15" ht="15" customHeight="1">
       <c r="A153" s="52"/>
       <c r="B153" s="52"/>
       <c r="C153" s="52"/>
@@ -6109,8 +6254,14 @@
       <c r="G153" s="52"/>
       <c r="H153" s="52"/>
       <c r="I153" s="52"/>
-    </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1">
+      <c r="J153" s="59"/>
+      <c r="K153" s="59"/>
+      <c r="L153" s="59"/>
+      <c r="M153" s="59"/>
+      <c r="N153" s="59"/>
+      <c r="O153" s="59"/>
+    </row>
+    <row r="154" spans="1:15" ht="15" customHeight="1">
       <c r="A154" s="52"/>
       <c r="B154" s="52"/>
       <c r="C154" s="52"/>
@@ -6120,8 +6271,14 @@
       <c r="G154" s="52"/>
       <c r="H154" s="52"/>
       <c r="I154" s="52"/>
-    </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1">
+      <c r="J154" s="59"/>
+      <c r="K154" s="59"/>
+      <c r="L154" s="59"/>
+      <c r="M154" s="59"/>
+      <c r="N154" s="59"/>
+      <c r="O154" s="59"/>
+    </row>
+    <row r="155" spans="1:15" ht="15" customHeight="1">
       <c r="A155" s="52"/>
       <c r="B155" s="52"/>
       <c r="C155" s="52"/>
@@ -6131,8 +6288,14 @@
       <c r="G155" s="52"/>
       <c r="H155" s="52"/>
       <c r="I155" s="52"/>
-    </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1">
+      <c r="J155" s="59"/>
+      <c r="K155" s="59"/>
+      <c r="L155" s="59"/>
+      <c r="M155" s="59"/>
+      <c r="N155" s="59"/>
+      <c r="O155" s="59"/>
+    </row>
+    <row r="156" spans="1:15" ht="15" customHeight="1">
       <c r="A156" s="52"/>
       <c r="B156" s="52"/>
       <c r="C156" s="52"/>
@@ -6142,8 +6305,14 @@
       <c r="G156" s="52"/>
       <c r="H156" s="52"/>
       <c r="I156" s="52"/>
-    </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1">
+      <c r="J156" s="59"/>
+      <c r="K156" s="59"/>
+      <c r="L156" s="59"/>
+      <c r="M156" s="59"/>
+      <c r="N156" s="59"/>
+      <c r="O156" s="59"/>
+    </row>
+    <row r="157" spans="1:15" ht="15" customHeight="1">
       <c r="A157" s="52"/>
       <c r="B157" s="52"/>
       <c r="C157" s="52"/>
@@ -6153,8 +6322,14 @@
       <c r="G157" s="52"/>
       <c r="H157" s="52"/>
       <c r="I157" s="52"/>
-    </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1">
+      <c r="J157" s="59"/>
+      <c r="K157" s="59"/>
+      <c r="L157" s="59"/>
+      <c r="M157" s="59"/>
+      <c r="N157" s="59"/>
+      <c r="O157" s="59"/>
+    </row>
+    <row r="158" spans="1:15" ht="15" customHeight="1">
       <c r="A158" s="52"/>
       <c r="B158" s="52"/>
       <c r="C158" s="52"/>
@@ -6164,8 +6339,14 @@
       <c r="G158" s="52"/>
       <c r="H158" s="52"/>
       <c r="I158" s="52"/>
-    </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1">
+      <c r="J158" s="59"/>
+      <c r="K158" s="59"/>
+      <c r="L158" s="59"/>
+      <c r="M158" s="59"/>
+      <c r="N158" s="59"/>
+      <c r="O158" s="59"/>
+    </row>
+    <row r="159" spans="1:15" ht="15" customHeight="1">
       <c r="A159" s="52"/>
       <c r="B159" s="52"/>
       <c r="C159" s="52"/>
@@ -6175,8 +6356,14 @@
       <c r="G159" s="52"/>
       <c r="H159" s="52"/>
       <c r="I159" s="52"/>
-    </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1">
+      <c r="J159" s="59"/>
+      <c r="K159" s="59"/>
+      <c r="L159" s="59"/>
+      <c r="M159" s="59"/>
+      <c r="N159" s="59"/>
+      <c r="O159" s="59"/>
+    </row>
+    <row r="160" spans="1:15" ht="15" customHeight="1">
       <c r="A160" s="52"/>
       <c r="B160" s="52"/>
       <c r="C160" s="52"/>
@@ -6186,8 +6373,14 @@
       <c r="G160" s="52"/>
       <c r="H160" s="52"/>
       <c r="I160" s="52"/>
-    </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1">
+      <c r="J160" s="59"/>
+      <c r="K160" s="59"/>
+      <c r="L160" s="59"/>
+      <c r="M160" s="59"/>
+      <c r="N160" s="59"/>
+      <c r="O160" s="59"/>
+    </row>
+    <row r="161" spans="1:15" ht="15" customHeight="1">
       <c r="A161" s="52"/>
       <c r="B161" s="52"/>
       <c r="C161" s="52"/>
@@ -6197,8 +6390,14 @@
       <c r="G161" s="52"/>
       <c r="H161" s="52"/>
       <c r="I161" s="52"/>
-    </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1">
+      <c r="J161" s="59"/>
+      <c r="K161" s="59"/>
+      <c r="L161" s="59"/>
+      <c r="M161" s="59"/>
+      <c r="N161" s="59"/>
+      <c r="O161" s="59"/>
+    </row>
+    <row r="162" spans="1:15" ht="15" customHeight="1">
       <c r="A162" s="52"/>
       <c r="B162" s="52"/>
       <c r="C162" s="52"/>
@@ -6208,8 +6407,14 @@
       <c r="G162" s="52"/>
       <c r="H162" s="52"/>
       <c r="I162" s="52"/>
-    </row>
-    <row r="163" spans="1:9" ht="15" customHeight="1">
+      <c r="J162" s="59"/>
+      <c r="K162" s="59"/>
+      <c r="L162" s="59"/>
+      <c r="M162" s="59"/>
+      <c r="N162" s="59"/>
+      <c r="O162" s="59"/>
+    </row>
+    <row r="163" spans="1:15" ht="15" customHeight="1">
       <c r="A163" s="52"/>
       <c r="B163" s="52"/>
       <c r="C163" s="52"/>
@@ -6219,8 +6424,14 @@
       <c r="G163" s="52"/>
       <c r="H163" s="52"/>
       <c r="I163" s="52"/>
-    </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1">
+      <c r="J163" s="59"/>
+      <c r="K163" s="59"/>
+      <c r="L163" s="59"/>
+      <c r="M163" s="59"/>
+      <c r="N163" s="59"/>
+      <c r="O163" s="59"/>
+    </row>
+    <row r="164" spans="1:15" ht="15" customHeight="1">
       <c r="A164" s="52"/>
       <c r="B164" s="52"/>
       <c r="C164" s="52"/>
@@ -6230,8 +6441,14 @@
       <c r="G164" s="52"/>
       <c r="H164" s="52"/>
       <c r="I164" s="52"/>
-    </row>
-    <row r="165" spans="1:9" ht="15" customHeight="1">
+      <c r="J164" s="59"/>
+      <c r="K164" s="59"/>
+      <c r="L164" s="59"/>
+      <c r="M164" s="59"/>
+      <c r="N164" s="59"/>
+      <c r="O164" s="59"/>
+    </row>
+    <row r="165" spans="1:15" ht="15" customHeight="1">
       <c r="A165" s="52"/>
       <c r="B165" s="52"/>
       <c r="C165" s="52"/>
@@ -6241,8 +6458,14 @@
       <c r="G165" s="52"/>
       <c r="H165" s="52"/>
       <c r="I165" s="52"/>
-    </row>
-    <row r="166" spans="1:9" ht="15" customHeight="1">
+      <c r="J165" s="59"/>
+      <c r="K165" s="59"/>
+      <c r="L165" s="59"/>
+      <c r="M165" s="59"/>
+      <c r="N165" s="59"/>
+      <c r="O165" s="59"/>
+    </row>
+    <row r="166" spans="1:15" ht="15" customHeight="1">
       <c r="A166" s="52"/>
       <c r="B166" s="52"/>
       <c r="C166" s="52"/>
@@ -6252,8 +6475,14 @@
       <c r="G166" s="52"/>
       <c r="H166" s="52"/>
       <c r="I166" s="52"/>
-    </row>
-    <row r="167" spans="1:9" ht="15" customHeight="1">
+      <c r="J166" s="59"/>
+      <c r="K166" s="59"/>
+      <c r="L166" s="59"/>
+      <c r="M166" s="59"/>
+      <c r="N166" s="59"/>
+      <c r="O166" s="59"/>
+    </row>
+    <row r="167" spans="1:15" ht="15" customHeight="1">
       <c r="A167" s="52"/>
       <c r="B167" s="52"/>
       <c r="C167" s="52"/>
@@ -6263,8 +6492,14 @@
       <c r="G167" s="52"/>
       <c r="H167" s="52"/>
       <c r="I167" s="52"/>
-    </row>
-    <row r="168" spans="1:9" ht="15" customHeight="1">
+      <c r="J167" s="59"/>
+      <c r="K167" s="59"/>
+      <c r="L167" s="59"/>
+      <c r="M167" s="59"/>
+      <c r="N167" s="59"/>
+      <c r="O167" s="59"/>
+    </row>
+    <row r="168" spans="1:15" ht="15" customHeight="1">
       <c r="A168" s="52"/>
       <c r="B168" s="52"/>
       <c r="C168" s="52"/>
@@ -6274,8 +6509,14 @@
       <c r="G168" s="52"/>
       <c r="H168" s="52"/>
       <c r="I168" s="52"/>
-    </row>
-    <row r="169" spans="1:9" ht="15" customHeight="1">
+      <c r="J168" s="59"/>
+      <c r="K168" s="59"/>
+      <c r="L168" s="59"/>
+      <c r="M168" s="59"/>
+      <c r="N168" s="59"/>
+      <c r="O168" s="59"/>
+    </row>
+    <row r="169" spans="1:15" ht="15" customHeight="1">
       <c r="A169" s="52"/>
       <c r="B169" s="52"/>
       <c r="C169" s="52"/>
@@ -6285,8 +6526,14 @@
       <c r="G169" s="52"/>
       <c r="H169" s="52"/>
       <c r="I169" s="52"/>
-    </row>
-    <row r="170" spans="1:9" ht="15" customHeight="1">
+      <c r="J169" s="59"/>
+      <c r="K169" s="59"/>
+      <c r="L169" s="59"/>
+      <c r="M169" s="59"/>
+      <c r="N169" s="59"/>
+      <c r="O169" s="59"/>
+    </row>
+    <row r="170" spans="1:15" ht="15" customHeight="1">
       <c r="A170" s="52"/>
       <c r="B170" s="52"/>
       <c r="C170" s="52"/>
@@ -6296,8 +6543,14 @@
       <c r="G170" s="52"/>
       <c r="H170" s="52"/>
       <c r="I170" s="52"/>
-    </row>
-    <row r="171" spans="1:9" ht="15" customHeight="1">
+      <c r="J170" s="59"/>
+      <c r="K170" s="59"/>
+      <c r="L170" s="59"/>
+      <c r="M170" s="59"/>
+      <c r="N170" s="59"/>
+      <c r="O170" s="59"/>
+    </row>
+    <row r="171" spans="1:15" ht="15" customHeight="1">
       <c r="A171" s="52"/>
       <c r="B171" s="52"/>
       <c r="C171" s="52"/>
@@ -6307,8 +6560,14 @@
       <c r="G171" s="52"/>
       <c r="H171" s="52"/>
       <c r="I171" s="52"/>
-    </row>
-    <row r="172" spans="1:9" ht="15" customHeight="1">
+      <c r="J171" s="59"/>
+      <c r="K171" s="59"/>
+      <c r="L171" s="59"/>
+      <c r="M171" s="59"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="59"/>
+    </row>
+    <row r="172" spans="1:15" ht="15" customHeight="1">
       <c r="A172" s="52"/>
       <c r="B172" s="52"/>
       <c r="C172" s="52"/>
@@ -6318,8 +6577,14 @@
       <c r="G172" s="52"/>
       <c r="H172" s="52"/>
       <c r="I172" s="52"/>
-    </row>
-    <row r="173" spans="1:9" ht="15" customHeight="1">
+      <c r="J172" s="59"/>
+      <c r="K172" s="59"/>
+      <c r="L172" s="59"/>
+      <c r="M172" s="59"/>
+      <c r="N172" s="59"/>
+      <c r="O172" s="59"/>
+    </row>
+    <row r="173" spans="1:15" ht="15" customHeight="1">
       <c r="A173" s="52"/>
       <c r="B173" s="52"/>
       <c r="C173" s="52"/>
@@ -6329,8 +6594,14 @@
       <c r="G173" s="52"/>
       <c r="H173" s="52"/>
       <c r="I173" s="52"/>
-    </row>
-    <row r="174" spans="1:9" ht="15" customHeight="1">
+      <c r="J173" s="59"/>
+      <c r="K173" s="59"/>
+      <c r="L173" s="59"/>
+      <c r="M173" s="59"/>
+      <c r="N173" s="59"/>
+      <c r="O173" s="59"/>
+    </row>
+    <row r="174" spans="1:15" ht="15" customHeight="1">
       <c r="A174" s="52"/>
       <c r="B174" s="52"/>
       <c r="C174" s="52"/>
@@ -6340,8 +6611,14 @@
       <c r="G174" s="52"/>
       <c r="H174" s="52"/>
       <c r="I174" s="52"/>
-    </row>
-    <row r="175" spans="1:9" ht="15" customHeight="1">
+      <c r="J174" s="59"/>
+      <c r="K174" s="59"/>
+      <c r="L174" s="59"/>
+      <c r="M174" s="59"/>
+      <c r="N174" s="59"/>
+      <c r="O174" s="59"/>
+    </row>
+    <row r="175" spans="1:15" ht="15" customHeight="1">
       <c r="A175" s="47"/>
       <c r="B175" s="47"/>
       <c r="C175" s="47"/>
@@ -6351,6 +6628,12 @@
       <c r="G175" s="47"/>
       <c r="H175" s="47"/>
       <c r="I175" s="47"/>
+      <c r="J175" s="47"/>
+      <c r="K175" s="47"/>
+      <c r="L175" s="47"/>
+      <c r="M175" s="47"/>
+      <c r="N175" s="47"/>
+      <c r="O175" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -877,11 +877,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1249,12 +1256,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1264,22 +1271,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1290,31 +1297,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2508,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T153" sqref="T153"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3736,8 +3746,10 @@
         <v>119</v>
       </c>
       <c r="G49" s="19"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="23"/>
+      <c r="H49" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="39"/>
       <c r="J49" s="3"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -5894,8 +5906,10 @@
       <c r="E133" s="53"/>
       <c r="F133" s="57"/>
       <c r="G133" s="53"/>
-      <c r="H133" s="52"/>
-      <c r="I133" s="56"/>
+      <c r="H133" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="62"/>
       <c r="J133" s="59"/>
       <c r="K133" s="59"/>
       <c r="L133" s="59"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -2518,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L140" sqref="L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -5902,7 +5902,9 @@
       <c r="C133" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="D133" s="53"/>
+      <c r="D133" s="53" t="s">
+        <v>274</v>
+      </c>
       <c r="E133" s="53"/>
       <c r="F133" s="57"/>
       <c r="G133" s="53"/>
@@ -5923,7 +5925,9 @@
       <c r="C134" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="D134" s="53"/>
+      <c r="D134" s="53" t="s">
+        <v>274</v>
+      </c>
       <c r="E134" s="53"/>
       <c r="F134" s="53" t="s">
         <v>284</v>
@@ -5946,7 +5950,9 @@
       <c r="C135" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D135" s="53"/>
+      <c r="D135" s="53" t="s">
+        <v>274</v>
+      </c>
       <c r="E135" s="53"/>
       <c r="F135" s="53"/>
       <c r="G135" s="53"/>
@@ -5965,7 +5971,9 @@
       <c r="C136" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="D136" s="53"/>
+      <c r="D136" s="53" t="s">
+        <v>274</v>
+      </c>
       <c r="E136" s="53"/>
       <c r="F136" s="53"/>
       <c r="G136" s="53"/>
@@ -5984,7 +5992,9 @@
       <c r="C137" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="53"/>
+      <c r="D137" s="53" t="s">
+        <v>274</v>
+      </c>
       <c r="E137" s="53"/>
       <c r="F137" s="53"/>
       <c r="G137" s="53"/>
@@ -6005,7 +6015,9 @@
       <c r="C138" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="53"/>
+      <c r="D138" s="53" t="s">
+        <v>274</v>
+      </c>
       <c r="E138" s="53"/>
       <c r="F138" s="53"/>
       <c r="G138" s="53"/>
@@ -6024,7 +6036,9 @@
       <c r="C139" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="D139" s="53"/>
+      <c r="D139" s="53" t="s">
+        <v>274</v>
+      </c>
       <c r="E139" s="53"/>
       <c r="F139" s="53"/>
       <c r="G139" s="53"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -2518,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L140" sqref="L140"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3775,8 +3775,10 @@
       <c r="G50" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="23"/>
+      <c r="H50" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="41"/>
       <c r="J50" s="3"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -3875,7 +3877,9 @@
         <v>134</v>
       </c>
       <c r="G54" s="33"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I54" s="23"/>
       <c r="J54" s="3"/>
       <c r="K54" s="5"/>
@@ -3987,7 +3991,7 @@
       <c r="H59" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="41"/>
+      <c r="I59" s="39"/>
       <c r="J59" s="3"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -2518,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3778,7 +3778,7 @@
       <c r="H50" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I50" s="41"/>
+      <c r="I50" s="39"/>
       <c r="J50" s="3"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -3880,7 +3880,7 @@
       <c r="H54" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="23"/>
+      <c r="I54" s="39"/>
       <c r="J54" s="3"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -4162,8 +4162,10 @@
         <v>153</v>
       </c>
       <c r="G67" s="33"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="23"/>
+      <c r="H67" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="39"/>
       <c r="J67" s="3"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -877,11 +877,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1256,12 +1263,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1271,22 +1278,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1297,34 +1304,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2518,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4677,7 +4685,9 @@
       <c r="E90" s="33"/>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
-      <c r="H90" s="12"/>
+      <c r="H90" s="63" t="s">
+        <v>31</v>
+      </c>
       <c r="I90" s="23"/>
       <c r="J90" s="3"/>
       <c r="K90" s="5"/>
@@ -4702,7 +4712,9 @@
         <v>197</v>
       </c>
       <c r="G91" s="33"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I91" s="23"/>
       <c r="J91" s="3"/>
       <c r="K91" s="5"/>
@@ -4727,7 +4739,9 @@
         <v>197</v>
       </c>
       <c r="G92" s="33"/>
-      <c r="H92" s="12"/>
+      <c r="H92" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I92" s="23"/>
       <c r="J92" s="3"/>
       <c r="K92" s="5"/>
@@ -4752,7 +4766,9 @@
         <v>202</v>
       </c>
       <c r="G93" s="33"/>
-      <c r="H93" s="12"/>
+      <c r="H93" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I93" s="23"/>
       <c r="J93" s="3"/>
       <c r="K93" s="5"/>
@@ -4777,7 +4793,9 @@
         <v>202</v>
       </c>
       <c r="G94" s="33"/>
-      <c r="H94" s="12"/>
+      <c r="H94" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I94" s="23"/>
       <c r="J94" s="3"/>
       <c r="K94" s="5"/>
@@ -4802,7 +4820,9 @@
         <v>207</v>
       </c>
       <c r="G95" s="33"/>
-      <c r="H95" s="12"/>
+      <c r="H95" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I95" s="23"/>
       <c r="J95" s="3"/>
       <c r="K95" s="5"/>
@@ -4827,7 +4847,9 @@
         <v>207</v>
       </c>
       <c r="G96" s="33"/>
-      <c r="H96" s="12"/>
+      <c r="H96" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I96" s="23"/>
       <c r="J96" s="3"/>
       <c r="K96" s="5"/>
@@ -4852,7 +4874,9 @@
         <v>212</v>
       </c>
       <c r="G97" s="33"/>
-      <c r="H97" s="12"/>
+      <c r="H97" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I97" s="23"/>
       <c r="J97" s="3"/>
       <c r="K97" s="5"/>
@@ -4877,7 +4901,9 @@
         <v>212</v>
       </c>
       <c r="G98" s="33"/>
-      <c r="H98" s="12"/>
+      <c r="H98" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="I98" s="23"/>
       <c r="J98" s="3"/>
       <c r="K98" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -2527,7 +2527,7 @@
   <dimension ref="A1:IV175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4688,7 +4688,7 @@
       <c r="H90" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I90" s="23"/>
+      <c r="I90" s="42"/>
       <c r="J90" s="3"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
@@ -4715,7 +4715,7 @@
       <c r="H91" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I91" s="23"/>
+      <c r="I91" s="39"/>
       <c r="J91" s="3"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
@@ -4742,7 +4742,7 @@
       <c r="H92" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I92" s="23"/>
+      <c r="I92" s="39"/>
       <c r="J92" s="3"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -4769,7 +4769,7 @@
       <c r="H93" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I93" s="23"/>
+      <c r="I93" s="39"/>
       <c r="J93" s="3"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -4796,7 +4796,7 @@
       <c r="H94" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I94" s="23"/>
+      <c r="I94" s="39"/>
       <c r="J94" s="3"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -2526,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3310,7 +3310,7 @@
       <c r="H30" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="42"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -3506,7 +3506,7 @@
       <c r="H38" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="42"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="3"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -4688,7 +4688,7 @@
       <c r="H90" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I90" s="42"/>
+      <c r="I90" s="39"/>
       <c r="J90" s="3"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
@@ -4823,7 +4823,7 @@
       <c r="H95" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I95" s="23"/>
+      <c r="I95" s="39"/>
       <c r="J95" s="3"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
@@ -4850,7 +4850,7 @@
       <c r="H96" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I96" s="23"/>
+      <c r="I96" s="39"/>
       <c r="J96" s="3"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
@@ -4877,7 +4877,7 @@
       <c r="H97" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I97" s="23"/>
+      <c r="I97" s="39"/>
       <c r="J97" s="3"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
@@ -4904,7 +4904,7 @@
       <c r="H98" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I98" s="23"/>
+      <c r="I98" s="39"/>
       <c r="J98" s="3"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="285">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -864,13 +864,13 @@
     <t>Abhörgeräte</t>
   </si>
   <si>
-    <t>Taker</t>
-  </si>
-  <si>
     <t>Brieföffner</t>
   </si>
   <si>
     <t>20cm höhe/20cm tiefe/30cm breite</t>
+  </si>
+  <si>
+    <t>Tacker</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1268,7 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1333,6 +1333,7 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2526,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -5962,7 +5963,7 @@
       </c>
       <c r="E134" s="53"/>
       <c r="F134" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G134" s="53"/>
       <c r="H134" s="55" t="s">
@@ -5988,8 +5989,10 @@
       <c r="E135" s="53"/>
       <c r="F135" s="53"/>
       <c r="G135" s="53"/>
-      <c r="H135" s="52"/>
-      <c r="I135" s="56"/>
+      <c r="H135" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="64"/>
       <c r="J135" s="59"/>
       <c r="K135" s="59"/>
       <c r="L135" s="59"/>
@@ -6045,7 +6048,7 @@
       <c r="A138" s="54"/>
       <c r="B138" s="54"/>
       <c r="C138" s="53" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D138" s="53" t="s">
         <v>274</v>
@@ -6066,7 +6069,7 @@
       <c r="A139" s="54"/>
       <c r="B139" s="54"/>
       <c r="C139" s="53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D139" s="53" t="s">
         <v>274</v>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1268,7 +1268,7 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1333,7 +1333,6 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2527,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -5992,7 +5991,7 @@
       <c r="H135" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="I135" s="64"/>
+      <c r="I135" s="62"/>
       <c r="J135" s="59"/>
       <c r="K135" s="59"/>
       <c r="L135" s="59"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="286">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -837,9 +837,6 @@
     <t>Albedo</t>
   </si>
   <si>
-    <t>voodoo Puppe</t>
-  </si>
-  <si>
     <t>Albedo/Roughness</t>
   </si>
   <si>
@@ -871,6 +868,12 @@
   </si>
   <si>
     <t>Tacker</t>
+  </si>
+  <si>
+    <t>Maske vom Fetisch</t>
+  </si>
+  <si>
+    <t>Voodoo Puppe</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,6 +1085,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,7 +1277,7 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1276,7 +1285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1333,6 +1341,11 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2524,10 +2537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2585,582 +2601,582 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="17" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="14" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="24" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="18" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="15" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="25" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="20" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="18" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="27" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="26" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="30" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="31" t="s">
+      <c r="I13" s="40"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="31" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="31" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="31" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="31" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="31" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="11"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="26" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="31" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="11"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="31" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="M20" s="31" t="s">
+      <c r="M20" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="11"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="39"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="38" t="s">
+      <c r="G24" s="66"/>
+      <c r="H24" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="3"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -3169,27 +3185,27 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="3"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -3198,21 +3214,21 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="38" t="s">
+      <c r="G26" s="66"/>
+      <c r="H26" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="39"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="3"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -3221,21 +3237,21 @@
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="38" t="s">
+      <c r="G27" s="66"/>
+      <c r="H27" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -3244,27 +3260,27 @@
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -3273,15 +3289,15 @@
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="3"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -3290,27 +3306,27 @@
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="38" t="s">
+      <c r="H30" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -3319,15 +3335,15 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="3"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -3336,23 +3352,23 @@
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="39"/>
+      <c r="I32" s="38"/>
       <c r="J32" s="3"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -3361,25 +3377,25 @@
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="38" t="s">
+      <c r="G33" s="66"/>
+      <c r="H33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="39"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="3"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -3388,25 +3404,25 @@
       <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="38" t="s">
+      <c r="G34" s="66"/>
+      <c r="H34" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="39"/>
+      <c r="I34" s="38"/>
       <c r="J34" s="3"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -3415,25 +3431,25 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="D35" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="38" t="s">
+      <c r="G35" s="66"/>
+      <c r="H35" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="39"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="3"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -3442,25 +3458,25 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="D36" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="43" t="s">
+      <c r="G36" s="66"/>
+      <c r="H36" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="39"/>
+      <c r="I36" s="38"/>
       <c r="J36" s="3"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -3469,15 +3485,15 @@
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="3"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -3486,27 +3502,27 @@
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="18" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="39"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="3"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -3515,15 +3531,15 @@
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="3"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -3532,27 +3548,27 @@
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="25" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="41"/>
+      <c r="I40" s="40"/>
       <c r="J40" s="3"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -3561,15 +3577,15 @@
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="3"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -3578,25 +3594,25 @@
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E42" s="18" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="44" t="s">
+      <c r="G42" s="18"/>
+      <c r="H42" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="41"/>
+      <c r="I42" s="40"/>
       <c r="J42" s="3"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -3605,15 +3621,15 @@
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="3"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -3622,23 +3638,23 @@
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E44" s="25" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="23"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="3"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -3647,15 +3663,15 @@
       <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="3"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -3664,19 +3680,19 @@
       <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="23"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="3"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -3685,25 +3701,25 @@
       <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="18" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E47" s="18" t="s">
+      <c r="D47" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="44" t="s">
+      <c r="G47" s="66"/>
+      <c r="H47" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="41"/>
+      <c r="I47" s="38"/>
       <c r="J47" s="3"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -3712,25 +3728,25 @@
       <c r="O47" s="5"/>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="25" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E48" s="25" t="s">
+      <c r="D48" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="44" t="s">
+      <c r="G48" s="32"/>
+      <c r="H48" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="41"/>
+      <c r="I48" s="40"/>
       <c r="J48" s="3"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -3739,25 +3755,25 @@
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="18" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E49" s="18" t="s">
+      <c r="D49" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="60" t="s">
+      <c r="G49" s="66"/>
+      <c r="H49" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="39"/>
+      <c r="I49" s="38"/>
       <c r="J49" s="3"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -3766,27 +3782,27 @@
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="25" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E50" s="25" t="s">
+      <c r="D50" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="H50" s="38" t="s">
+      <c r="H50" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I50" s="39"/>
+      <c r="I50" s="38"/>
       <c r="J50" s="3"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -3795,23 +3811,23 @@
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="25" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E51" s="25" t="s">
+      <c r="D51" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="23"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="22"/>
       <c r="J51" s="3"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -3820,23 +3836,23 @@
       <c r="O51" s="5"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E52" s="25" t="s">
+      <c r="D52" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G52" s="33"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="23"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="22"/>
       <c r="J52" s="3"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -3845,23 +3861,23 @@
       <c r="O52" s="5"/>
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="25" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E53" s="25" t="s">
+      <c r="D53" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="23"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="22"/>
       <c r="J53" s="3"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -3870,25 +3886,25 @@
       <c r="O53" s="5"/>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="25" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="38" t="s">
+      <c r="G54" s="66"/>
+      <c r="H54" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="39"/>
+      <c r="I54" s="38"/>
       <c r="J54" s="3"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -3897,23 +3913,23 @@
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="25" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E55" s="25" t="s">
+      <c r="D55" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="23"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="3"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -3922,15 +3938,15 @@
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="3"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -3939,23 +3955,27 @@
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E57" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="23"/>
+      <c r="G57" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="H57" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="38"/>
       <c r="J57" s="3"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -3964,15 +3984,15 @@
       <c r="O57" s="5"/>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="3"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -3981,25 +4001,25 @@
       <c r="O58" s="5"/>
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E59" s="14" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="34" t="s">
+      <c r="G59" s="66"/>
+      <c r="H59" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="39"/>
+      <c r="I59" s="38"/>
       <c r="J59" s="3"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -4008,15 +4028,15 @@
       <c r="O59" s="5"/>
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="35"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="3"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -4025,21 +4045,21 @@
       <c r="O60" s="5"/>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="44" t="s">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I61" s="23"/>
+      <c r="I61" s="22"/>
       <c r="J61" s="3"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -4048,15 +4068,15 @@
       <c r="O61" s="5"/>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="3"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -4065,19 +4085,19 @@
       <c r="O62" s="5"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="23"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="22"/>
       <c r="J63" s="3"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
@@ -4086,25 +4106,25 @@
       <c r="O63" s="5"/>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="25" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E64" s="25" t="s">
+      <c r="D64" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E64" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="33"/>
-      <c r="H64" s="44" t="s">
+      <c r="G64" s="32"/>
+      <c r="H64" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="42"/>
+      <c r="I64" s="41"/>
       <c r="J64" s="3"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
@@ -4113,23 +4133,23 @@
       <c r="O64" s="5"/>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="25" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E65" s="25" t="s">
+      <c r="D65" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="44" t="s">
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I65" s="42"/>
+      <c r="I65" s="41"/>
       <c r="J65" s="3"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -4138,15 +4158,15 @@
       <c r="O65" s="5"/>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="3"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -4155,25 +4175,25 @@
       <c r="O66" s="5"/>
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E67" s="25" t="s">
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E67" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="G67" s="33"/>
-      <c r="H67" s="38" t="s">
+      <c r="G67" s="66"/>
+      <c r="H67" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I67" s="39"/>
+      <c r="I67" s="38"/>
       <c r="J67" s="3"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
@@ -4182,15 +4202,15 @@
       <c r="O67" s="5"/>
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="3"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -4199,19 +4219,19 @@
       <c r="O68" s="5"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="23"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="22"/>
       <c r="J69" s="3"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -4220,23 +4240,23 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="25" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E70" s="25" t="s">
+      <c r="D70" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G70" s="33"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="23"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="22"/>
       <c r="J70" s="3"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -4245,23 +4265,23 @@
       <c r="O70" s="5"/>
     </row>
     <row r="71" spans="1:15" ht="15" customHeight="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="25" t="s">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E71" s="25" t="s">
+      <c r="D71" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G71" s="33"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="23"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="22"/>
       <c r="J71" s="3"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -4270,23 +4290,23 @@
       <c r="O71" s="5"/>
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="25" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E72" s="25" t="s">
+      <c r="D72" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E72" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G72" s="33"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="23"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="22"/>
       <c r="J72" s="3"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -4295,15 +4315,15 @@
       <c r="O72" s="5"/>
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="3"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -4312,19 +4332,19 @@
       <c r="O73" s="5"/>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="23"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="22"/>
       <c r="J74" s="3"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -4333,23 +4353,23 @@
       <c r="O74" s="5"/>
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="18" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D75" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E75" s="18" t="s">
+      <c r="D75" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="18" t="s">
+      <c r="F75" s="18"/>
+      <c r="G75" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="23"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="22"/>
       <c r="J75" s="3"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -4358,21 +4378,21 @@
       <c r="O75" s="5"/>
     </row>
     <row r="76" spans="1:15" ht="15" customHeight="1">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="18" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E76" s="18" t="s">
+      <c r="D76" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="23"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="22"/>
       <c r="J76" s="3"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -4381,21 +4401,21 @@
       <c r="O76" s="5"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="18" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E77" s="18" t="s">
+      <c r="D77" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="23"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="22"/>
       <c r="J77" s="3"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -4404,21 +4424,21 @@
       <c r="O77" s="5"/>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="18" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="18" t="s">
+      <c r="D78" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="23"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="22"/>
       <c r="J78" s="3"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -4427,21 +4447,21 @@
       <c r="O78" s="5"/>
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="18" t="s">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E79" s="18" t="s">
+      <c r="D79" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="23"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="22"/>
       <c r="J79" s="3"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -4450,21 +4470,21 @@
       <c r="O79" s="5"/>
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="18" t="s">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D80" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E80" s="18" t="s">
+      <c r="D80" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="23"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="22"/>
       <c r="J80" s="3"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -4473,21 +4493,21 @@
       <c r="O80" s="5"/>
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="18" t="s">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E81" s="18" t="s">
+      <c r="D81" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="23"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="22"/>
       <c r="J81" s="3"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -4496,21 +4516,21 @@
       <c r="O81" s="5"/>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="18" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D82" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E82" s="18" t="s">
+      <c r="D82" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="23"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="22"/>
       <c r="J82" s="3"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -4519,23 +4539,23 @@
       <c r="O82" s="5"/>
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="18" t="s">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D83" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E83" s="18" t="s">
+      <c r="D83" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F83" s="19"/>
-      <c r="G83" s="18" t="s">
+      <c r="F83" s="18"/>
+      <c r="G83" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="3"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -4544,21 +4564,21 @@
       <c r="O83" s="5"/>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="25" t="s">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D84" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E84" s="25" t="s">
+      <c r="D84" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="23"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="22"/>
       <c r="J84" s="3"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -4567,21 +4587,21 @@
       <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="25" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="D85" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E85" s="25" t="s">
+      <c r="D85" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="23"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="22"/>
       <c r="J85" s="3"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
@@ -4590,21 +4610,21 @@
       <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="25" t="s">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D86" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E86" s="25" t="s">
+      <c r="D86" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E86" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="23"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="22"/>
       <c r="J86" s="3"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
@@ -4613,15 +4633,15 @@
       <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
       <c r="J87" s="3"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
@@ -4630,25 +4650,25 @@
       <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E88" s="18" t="s">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F88" s="18" t="s">
+      <c r="F88" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="44" t="s">
+      <c r="G88" s="18"/>
+      <c r="H88" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I88" s="23"/>
+      <c r="I88" s="22"/>
       <c r="J88" s="3"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
@@ -4657,15 +4677,15 @@
       <c r="O88" s="5"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
       <c r="J89" s="3"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
@@ -4674,21 +4694,21 @@
       <c r="O89" s="5"/>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="63" t="s">
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I90" s="39"/>
+      <c r="I90" s="38"/>
       <c r="J90" s="3"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
@@ -4697,25 +4717,25 @@
       <c r="O90" s="5"/>
     </row>
     <row r="91" spans="1:15" ht="15" customHeight="1">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="25" t="s">
+      <c r="A91" s="66"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D91" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E91" s="25" t="s">
+      <c r="D91" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="G91" s="33"/>
-      <c r="H91" s="38" t="s">
+      <c r="G91" s="66"/>
+      <c r="H91" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I91" s="39"/>
+      <c r="I91" s="38"/>
       <c r="J91" s="3"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
@@ -4724,25 +4744,25 @@
       <c r="O91" s="5"/>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="25" t="s">
+      <c r="A92" s="66"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D92" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E92" s="25" t="s">
+      <c r="D92" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="G92" s="33"/>
-      <c r="H92" s="38" t="s">
+      <c r="G92" s="66"/>
+      <c r="H92" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I92" s="39"/>
+      <c r="I92" s="38"/>
       <c r="J92" s="3"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -4751,25 +4771,25 @@
       <c r="O92" s="5"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="25" t="s">
+      <c r="A93" s="66"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="D93" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E93" s="25" t="s">
+      <c r="D93" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F93" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="G93" s="33"/>
-      <c r="H93" s="38" t="s">
+      <c r="G93" s="66"/>
+      <c r="H93" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I93" s="39"/>
+      <c r="I93" s="38"/>
       <c r="J93" s="3"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -4778,25 +4798,25 @@
       <c r="O93" s="5"/>
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="25" t="s">
+      <c r="A94" s="66"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="D94" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E94" s="25" t="s">
+      <c r="D94" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="F94" s="25" t="s">
+      <c r="F94" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="33"/>
-      <c r="H94" s="38" t="s">
+      <c r="G94" s="66"/>
+      <c r="H94" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I94" s="39"/>
+      <c r="I94" s="38"/>
       <c r="J94" s="3"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
@@ -4805,25 +4825,25 @@
       <c r="O94" s="5"/>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="25" t="s">
+      <c r="A95" s="66"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D95" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E95" s="25" t="s">
+      <c r="D95" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="F95" s="25" t="s">
+      <c r="F95" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="G95" s="33"/>
-      <c r="H95" s="38" t="s">
+      <c r="G95" s="66"/>
+      <c r="H95" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I95" s="39"/>
+      <c r="I95" s="38"/>
       <c r="J95" s="3"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
@@ -4832,25 +4852,25 @@
       <c r="O95" s="5"/>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="25" t="s">
+      <c r="A96" s="66"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="D96" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E96" s="25" t="s">
+      <c r="D96" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F96" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="G96" s="33"/>
-      <c r="H96" s="38" t="s">
+      <c r="G96" s="66"/>
+      <c r="H96" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I96" s="39"/>
+      <c r="I96" s="38"/>
       <c r="J96" s="3"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
@@ -4859,25 +4879,25 @@
       <c r="O96" s="5"/>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="25" t="s">
+      <c r="A97" s="66"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D97" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E97" s="25" t="s">
+      <c r="D97" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F97" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="G97" s="33"/>
-      <c r="H97" s="38" t="s">
+      <c r="G97" s="66"/>
+      <c r="H97" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I97" s="39"/>
+      <c r="I97" s="38"/>
       <c r="J97" s="3"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
@@ -4886,25 +4906,25 @@
       <c r="O97" s="5"/>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="25" t="s">
+      <c r="A98" s="66"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="D98" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E98" s="25" t="s">
+      <c r="D98" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E98" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="G98" s="33"/>
-      <c r="H98" s="38" t="s">
+      <c r="G98" s="66"/>
+      <c r="H98" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I98" s="39"/>
+      <c r="I98" s="38"/>
       <c r="J98" s="3"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
@@ -4913,15 +4933,15 @@
       <c r="O98" s="5"/>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="3"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
@@ -4930,19 +4950,19 @@
       <c r="O99" s="5"/>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="23"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="22"/>
       <c r="J100" s="3"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
@@ -4951,25 +4971,25 @@
       <c r="O100" s="5"/>
     </row>
     <row r="101" spans="1:15" ht="15" customHeight="1">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="25" t="s">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E101" s="25" t="s">
+      <c r="D101" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E101" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F101" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G101" s="33"/>
-      <c r="H101" s="45" t="s">
+      <c r="G101" s="32"/>
+      <c r="H101" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I101" s="46"/>
+      <c r="I101" s="45"/>
       <c r="J101" s="3"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -4978,25 +4998,25 @@
       <c r="O101" s="5"/>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="25" t="s">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D102" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E102" s="25" t="s">
+      <c r="D102" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E102" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="F102" s="33"/>
-      <c r="G102" s="25" t="s">
+      <c r="F102" s="32"/>
+      <c r="G102" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="H102" s="45" t="s">
+      <c r="H102" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I102" s="46"/>
+      <c r="I102" s="45"/>
       <c r="J102" s="3"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -5005,25 +5025,25 @@
       <c r="O102" s="5"/>
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="25" t="s">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="D103" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E103" s="25" t="s">
+      <c r="D103" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F103" s="33"/>
-      <c r="G103" s="25" t="s">
+      <c r="F103" s="32"/>
+      <c r="G103" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="H103" s="45" t="s">
+      <c r="H103" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I103" s="46"/>
+      <c r="I103" s="45"/>
       <c r="J103" s="3"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -5032,25 +5052,25 @@
       <c r="O103" s="5"/>
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="25" t="s">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D104" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E104" s="25" t="s">
+      <c r="D104" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="F104" s="33"/>
-      <c r="G104" s="25" t="s">
+      <c r="F104" s="32"/>
+      <c r="G104" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="H104" s="45" t="s">
+      <c r="H104" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I104" s="46"/>
+      <c r="I104" s="45"/>
       <c r="J104" s="3"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
@@ -5059,25 +5079,25 @@
       <c r="O104" s="5"/>
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="25" t="s">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D105" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="25" t="s">
+      <c r="D105" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E105" s="32"/>
+      <c r="F105" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="G105" s="25" t="s">
+      <c r="G105" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="H105" s="45" t="s">
+      <c r="H105" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I105" s="46"/>
+      <c r="I105" s="45"/>
       <c r="J105" s="3"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
@@ -5086,15 +5106,15 @@
       <c r="O105" s="5"/>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
       <c r="J106" s="3"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
@@ -5103,21 +5123,21 @@
       <c r="O106" s="5"/>
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="38" t="s">
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I107" s="39"/>
+      <c r="I107" s="38"/>
       <c r="J107" s="3"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -5126,25 +5146,25 @@
       <c r="O107" s="5"/>
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="26" t="s">
+      <c r="A108" s="66"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D108" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="E108" s="26" t="s">
+      <c r="D108" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E108" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="F108" s="26" t="s">
+      <c r="F108" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="G108" s="29"/>
-      <c r="H108" s="38" t="s">
+      <c r="G108" s="66"/>
+      <c r="H108" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I108" s="39"/>
+      <c r="I108" s="38"/>
       <c r="J108" s="3"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -5153,25 +5173,25 @@
       <c r="O108" s="5"/>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="14" t="s">
+      <c r="A109" s="66"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="D109" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E109" s="14" t="s">
+      <c r="D109" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E109" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F109" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="13"/>
-      <c r="H109" s="34" t="s">
+      <c r="G109" s="66"/>
+      <c r="H109" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I109" s="16"/>
+      <c r="I109" s="15"/>
       <c r="J109" s="3"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
@@ -5180,25 +5200,25 @@
       <c r="O109" s="5"/>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="26" t="s">
+      <c r="A110" s="66"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="D110" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="E110" s="26" t="s">
+      <c r="D110" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E110" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="F110" s="26" t="s">
+      <c r="F110" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="G110" s="29"/>
-      <c r="H110" s="38" t="s">
+      <c r="G110" s="66"/>
+      <c r="H110" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I110" s="39"/>
+      <c r="I110" s="38"/>
       <c r="J110" s="3"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
@@ -5207,15 +5227,15 @@
       <c r="O110" s="5"/>
     </row>
     <row r="111" spans="1:15" ht="15" customHeight="1">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
       <c r="J111" s="3"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
@@ -5224,23 +5244,23 @@
       <c r="O111" s="5"/>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E112" s="25" t="s">
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E112" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="F112" s="33"/>
-      <c r="G112" s="25" t="s">
+      <c r="F112" s="32"/>
+      <c r="G112" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="H112" s="12"/>
-      <c r="I112" s="23"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="22"/>
       <c r="J112" s="3"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
@@ -5249,15 +5269,15 @@
       <c r="O112" s="5"/>
     </row>
     <row r="113" spans="1:256" ht="15" customHeight="1">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
       <c r="J113" s="3"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
@@ -5266,23 +5286,23 @@
       <c r="O113" s="5"/>
     </row>
     <row r="114" spans="1:256" ht="15" customHeight="1">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="14" t="s">
+      <c r="B114" s="66"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="H114" s="15" t="s">
+      <c r="H114" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I114" s="39"/>
+      <c r="I114" s="38"/>
       <c r="J114" s="3"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
@@ -5291,15 +5311,15 @@
       <c r="O114" s="5"/>
     </row>
     <row r="115" spans="1:256" ht="15" customHeight="1">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
       <c r="J115" s="3"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
@@ -5308,21 +5328,21 @@
       <c r="O115" s="5"/>
     </row>
     <row r="116" spans="1:256" ht="15" customHeight="1">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E116" s="18" t="s">
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="23"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="22"/>
       <c r="J116" s="3"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -5331,15 +5351,15 @@
       <c r="O116" s="5"/>
     </row>
     <row r="117" spans="1:256" ht="15" customHeight="1">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
       <c r="J117" s="3"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -5348,25 +5368,25 @@
       <c r="O117" s="5"/>
     </row>
     <row r="118" spans="1:256" ht="15" customHeight="1">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E118" s="25" t="s">
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E118" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="F118" s="25" t="s">
+      <c r="F118" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G118" s="33"/>
-      <c r="H118" s="45" t="s">
+      <c r="G118" s="32"/>
+      <c r="H118" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I118" s="46"/>
+      <c r="I118" s="45"/>
       <c r="J118" s="3"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
@@ -5375,15 +5395,15 @@
       <c r="O118" s="5"/>
     </row>
     <row r="119" spans="1:256" ht="15" customHeight="1">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
       <c r="J119" s="3"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
@@ -5392,21 +5412,21 @@
       <c r="O119" s="5"/>
     </row>
     <row r="120" spans="1:256" ht="15" customHeight="1">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="38" t="s">
+      <c r="B120" s="66"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E120" s="66"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="66"/>
+      <c r="H120" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I120" s="39"/>
+      <c r="I120" s="38"/>
       <c r="J120" s="3"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
@@ -5415,25 +5435,25 @@
       <c r="O120" s="5"/>
     </row>
     <row r="121" spans="1:256" ht="15" customHeight="1">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="14" t="s">
+      <c r="A121" s="66"/>
+      <c r="B121" s="66"/>
+      <c r="C121" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="D121" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E121" s="14" t="s">
+      <c r="D121" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E121" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F121" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="34" t="s">
+      <c r="G121" s="66"/>
+      <c r="H121" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I121" s="16"/>
+      <c r="I121" s="15"/>
       <c r="J121" s="3"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -5442,27 +5462,27 @@
       <c r="O121" s="5"/>
     </row>
     <row r="122" spans="1:256" ht="15" customHeight="1">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="14" t="s">
+      <c r="A122" s="66"/>
+      <c r="B122" s="66"/>
+      <c r="C122" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="D122" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E122" s="14" t="s">
+      <c r="D122" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E122" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F122" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="H122" s="34" t="s">
+      <c r="H122" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I122" s="39"/>
+      <c r="I122" s="38"/>
       <c r="J122" s="3"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -5471,25 +5491,25 @@
       <c r="O122" s="5"/>
     </row>
     <row r="123" spans="1:256" ht="15" customHeight="1">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="14" t="s">
+      <c r="A123" s="66"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="D123" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E123" s="14" t="s">
+      <c r="D123" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E123" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="F123" s="14" t="s">
+      <c r="F123" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="G123" s="13"/>
-      <c r="H123" s="38" t="s">
+      <c r="G123" s="66"/>
+      <c r="H123" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I123" s="39"/>
+      <c r="I123" s="38"/>
       <c r="J123" s="3"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -5498,25 +5518,25 @@
       <c r="O123" s="5"/>
     </row>
     <row r="124" spans="1:256" ht="15" customHeight="1">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="14" t="s">
+      <c r="A124" s="66"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="D124" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E124" s="14" t="s">
+      <c r="D124" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E124" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="F124" s="14" t="s">
+      <c r="F124" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="G124" s="13"/>
-      <c r="H124" s="38" t="s">
+      <c r="G124" s="66"/>
+      <c r="H124" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I124" s="39"/>
+      <c r="I124" s="38"/>
       <c r="J124" s="3"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
@@ -5525,25 +5545,25 @@
       <c r="O124" s="5"/>
     </row>
     <row r="125" spans="1:256" ht="15" customHeight="1">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="14" t="s">
+      <c r="A125" s="66"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="D125" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E125" s="14" t="s">
+      <c r="D125" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E125" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="F125" s="14" t="s">
+      <c r="F125" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="G125" s="13"/>
-      <c r="H125" s="34" t="s">
+      <c r="G125" s="66"/>
+      <c r="H125" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I125" s="16"/>
+      <c r="I125" s="15"/>
       <c r="J125" s="3"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
@@ -5552,276 +5572,276 @@
       <c r="O125" s="5"/>
     </row>
     <row r="126" spans="1:256" ht="15" customHeight="1">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="14" t="s">
+      <c r="A126" s="66"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="D126" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E126" s="14" t="s">
+      <c r="D126" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E126" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="F126" s="14" t="s">
+      <c r="F126" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="G126" s="13"/>
-      <c r="H126" s="34" t="s">
+      <c r="G126" s="66"/>
+      <c r="H126" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I126" s="16"/>
+      <c r="I126" s="15"/>
       <c r="J126" s="3"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
-      <c r="P126" s="37"/>
-      <c r="Q126" s="37"/>
-      <c r="R126" s="37"/>
-      <c r="S126" s="37"/>
-      <c r="T126" s="37"/>
-      <c r="U126" s="37"/>
-      <c r="V126" s="37"/>
-      <c r="W126" s="37"/>
-      <c r="X126" s="37"/>
-      <c r="Y126" s="37"/>
-      <c r="Z126" s="37"/>
-      <c r="AA126" s="37"/>
-      <c r="AB126" s="37"/>
-      <c r="AC126" s="37"/>
-      <c r="AD126" s="37"/>
-      <c r="AE126" s="37"/>
-      <c r="AF126" s="37"/>
-      <c r="AG126" s="37"/>
-      <c r="AH126" s="37"/>
-      <c r="AI126" s="37"/>
-      <c r="AJ126" s="37"/>
-      <c r="AK126" s="37"/>
-      <c r="AL126" s="37"/>
-      <c r="AM126" s="37"/>
-      <c r="AN126" s="37"/>
-      <c r="AO126" s="37"/>
-      <c r="AP126" s="37"/>
-      <c r="AQ126" s="37"/>
-      <c r="AR126" s="37"/>
-      <c r="AS126" s="37"/>
-      <c r="AT126" s="37"/>
-      <c r="AU126" s="37"/>
-      <c r="AV126" s="37"/>
-      <c r="AW126" s="37"/>
-      <c r="AX126" s="37"/>
-      <c r="AY126" s="37"/>
-      <c r="AZ126" s="37"/>
-      <c r="BA126" s="37"/>
-      <c r="BB126" s="37"/>
-      <c r="BC126" s="37"/>
-      <c r="BD126" s="37"/>
-      <c r="BE126" s="37"/>
-      <c r="BF126" s="37"/>
-      <c r="BG126" s="37"/>
-      <c r="BH126" s="37"/>
-      <c r="BI126" s="37"/>
-      <c r="BJ126" s="37"/>
-      <c r="BK126" s="37"/>
-      <c r="BL126" s="37"/>
-      <c r="BM126" s="37"/>
-      <c r="BN126" s="37"/>
-      <c r="BO126" s="37"/>
-      <c r="BP126" s="37"/>
-      <c r="BQ126" s="37"/>
-      <c r="BR126" s="37"/>
-      <c r="BS126" s="37"/>
-      <c r="BT126" s="37"/>
-      <c r="BU126" s="37"/>
-      <c r="BV126" s="37"/>
-      <c r="BW126" s="37"/>
-      <c r="BX126" s="37"/>
-      <c r="BY126" s="37"/>
-      <c r="BZ126" s="37"/>
-      <c r="CA126" s="37"/>
-      <c r="CB126" s="37"/>
-      <c r="CC126" s="37"/>
-      <c r="CD126" s="37"/>
-      <c r="CE126" s="37"/>
-      <c r="CF126" s="37"/>
-      <c r="CG126" s="37"/>
-      <c r="CH126" s="37"/>
-      <c r="CI126" s="37"/>
-      <c r="CJ126" s="37"/>
-      <c r="CK126" s="37"/>
-      <c r="CL126" s="37"/>
-      <c r="CM126" s="37"/>
-      <c r="CN126" s="37"/>
-      <c r="CO126" s="37"/>
-      <c r="CP126" s="37"/>
-      <c r="CQ126" s="37"/>
-      <c r="CR126" s="37"/>
-      <c r="CS126" s="37"/>
-      <c r="CT126" s="37"/>
-      <c r="CU126" s="37"/>
-      <c r="CV126" s="37"/>
-      <c r="CW126" s="37"/>
-      <c r="CX126" s="37"/>
-      <c r="CY126" s="37"/>
-      <c r="CZ126" s="37"/>
-      <c r="DA126" s="37"/>
-      <c r="DB126" s="37"/>
-      <c r="DC126" s="37"/>
-      <c r="DD126" s="37"/>
-      <c r="DE126" s="37"/>
-      <c r="DF126" s="37"/>
-      <c r="DG126" s="37"/>
-      <c r="DH126" s="37"/>
-      <c r="DI126" s="37"/>
-      <c r="DJ126" s="37"/>
-      <c r="DK126" s="37"/>
-      <c r="DL126" s="37"/>
-      <c r="DM126" s="37"/>
-      <c r="DN126" s="37"/>
-      <c r="DO126" s="37"/>
-      <c r="DP126" s="37"/>
-      <c r="DQ126" s="37"/>
-      <c r="DR126" s="37"/>
-      <c r="DS126" s="37"/>
-      <c r="DT126" s="37"/>
-      <c r="DU126" s="37"/>
-      <c r="DV126" s="37"/>
-      <c r="DW126" s="37"/>
-      <c r="DX126" s="37"/>
-      <c r="DY126" s="37"/>
-      <c r="DZ126" s="37"/>
-      <c r="EA126" s="37"/>
-      <c r="EB126" s="37"/>
-      <c r="EC126" s="37"/>
-      <c r="ED126" s="37"/>
-      <c r="EE126" s="37"/>
-      <c r="EF126" s="37"/>
-      <c r="EG126" s="37"/>
-      <c r="EH126" s="37"/>
-      <c r="EI126" s="37"/>
-      <c r="EJ126" s="37"/>
-      <c r="EK126" s="37"/>
-      <c r="EL126" s="37"/>
-      <c r="EM126" s="37"/>
-      <c r="EN126" s="37"/>
-      <c r="EO126" s="37"/>
-      <c r="EP126" s="37"/>
-      <c r="EQ126" s="37"/>
-      <c r="ER126" s="37"/>
-      <c r="ES126" s="37"/>
-      <c r="ET126" s="37"/>
-      <c r="EU126" s="37"/>
-      <c r="EV126" s="37"/>
-      <c r="EW126" s="37"/>
-      <c r="EX126" s="37"/>
-      <c r="EY126" s="37"/>
-      <c r="EZ126" s="37"/>
-      <c r="FA126" s="37"/>
-      <c r="FB126" s="37"/>
-      <c r="FC126" s="37"/>
-      <c r="FD126" s="37"/>
-      <c r="FE126" s="37"/>
-      <c r="FF126" s="37"/>
-      <c r="FG126" s="37"/>
-      <c r="FH126" s="37"/>
-      <c r="FI126" s="37"/>
-      <c r="FJ126" s="37"/>
-      <c r="FK126" s="37"/>
-      <c r="FL126" s="37"/>
-      <c r="FM126" s="37"/>
-      <c r="FN126" s="37"/>
-      <c r="FO126" s="37"/>
-      <c r="FP126" s="37"/>
-      <c r="FQ126" s="37"/>
-      <c r="FR126" s="37"/>
-      <c r="FS126" s="37"/>
-      <c r="FT126" s="37"/>
-      <c r="FU126" s="37"/>
-      <c r="FV126" s="37"/>
-      <c r="FW126" s="37"/>
-      <c r="FX126" s="37"/>
-      <c r="FY126" s="37"/>
-      <c r="FZ126" s="37"/>
-      <c r="GA126" s="37"/>
-      <c r="GB126" s="37"/>
-      <c r="GC126" s="37"/>
-      <c r="GD126" s="37"/>
-      <c r="GE126" s="37"/>
-      <c r="GF126" s="37"/>
-      <c r="GG126" s="37"/>
-      <c r="GH126" s="37"/>
-      <c r="GI126" s="37"/>
-      <c r="GJ126" s="37"/>
-      <c r="GK126" s="37"/>
-      <c r="GL126" s="37"/>
-      <c r="GM126" s="37"/>
-      <c r="GN126" s="37"/>
-      <c r="GO126" s="37"/>
-      <c r="GP126" s="37"/>
-      <c r="GQ126" s="37"/>
-      <c r="GR126" s="37"/>
-      <c r="GS126" s="37"/>
-      <c r="GT126" s="37"/>
-      <c r="GU126" s="37"/>
-      <c r="GV126" s="37"/>
-      <c r="GW126" s="37"/>
-      <c r="GX126" s="37"/>
-      <c r="GY126" s="37"/>
-      <c r="GZ126" s="37"/>
-      <c r="HA126" s="37"/>
-      <c r="HB126" s="37"/>
-      <c r="HC126" s="37"/>
-      <c r="HD126" s="37"/>
-      <c r="HE126" s="37"/>
-      <c r="HF126" s="37"/>
-      <c r="HG126" s="37"/>
-      <c r="HH126" s="37"/>
-      <c r="HI126" s="37"/>
-      <c r="HJ126" s="37"/>
-      <c r="HK126" s="37"/>
-      <c r="HL126" s="37"/>
-      <c r="HM126" s="37"/>
-      <c r="HN126" s="37"/>
-      <c r="HO126" s="37"/>
-      <c r="HP126" s="37"/>
-      <c r="HQ126" s="37"/>
-      <c r="HR126" s="37"/>
-      <c r="HS126" s="37"/>
-      <c r="HT126" s="37"/>
-      <c r="HU126" s="37"/>
-      <c r="HV126" s="37"/>
-      <c r="HW126" s="37"/>
-      <c r="HX126" s="37"/>
-      <c r="HY126" s="37"/>
-      <c r="HZ126" s="37"/>
-      <c r="IA126" s="37"/>
-      <c r="IB126" s="37"/>
-      <c r="IC126" s="37"/>
-      <c r="ID126" s="37"/>
-      <c r="IE126" s="37"/>
-      <c r="IF126" s="37"/>
-      <c r="IG126" s="37"/>
-      <c r="IH126" s="37"/>
-      <c r="II126" s="37"/>
-      <c r="IJ126" s="37"/>
-      <c r="IK126" s="37"/>
-      <c r="IL126" s="37"/>
-      <c r="IM126" s="37"/>
-      <c r="IN126" s="37"/>
-      <c r="IO126" s="37"/>
-      <c r="IP126" s="37"/>
-      <c r="IQ126" s="37"/>
-      <c r="IR126" s="37"/>
-      <c r="IS126" s="37"/>
-      <c r="IT126" s="37"/>
-      <c r="IU126" s="37"/>
-      <c r="IV126" s="37"/>
+      <c r="P126" s="36"/>
+      <c r="Q126" s="36"/>
+      <c r="R126" s="36"/>
+      <c r="S126" s="36"/>
+      <c r="T126" s="36"/>
+      <c r="U126" s="36"/>
+      <c r="V126" s="36"/>
+      <c r="W126" s="36"/>
+      <c r="X126" s="36"/>
+      <c r="Y126" s="36"/>
+      <c r="Z126" s="36"/>
+      <c r="AA126" s="36"/>
+      <c r="AB126" s="36"/>
+      <c r="AC126" s="36"/>
+      <c r="AD126" s="36"/>
+      <c r="AE126" s="36"/>
+      <c r="AF126" s="36"/>
+      <c r="AG126" s="36"/>
+      <c r="AH126" s="36"/>
+      <c r="AI126" s="36"/>
+      <c r="AJ126" s="36"/>
+      <c r="AK126" s="36"/>
+      <c r="AL126" s="36"/>
+      <c r="AM126" s="36"/>
+      <c r="AN126" s="36"/>
+      <c r="AO126" s="36"/>
+      <c r="AP126" s="36"/>
+      <c r="AQ126" s="36"/>
+      <c r="AR126" s="36"/>
+      <c r="AS126" s="36"/>
+      <c r="AT126" s="36"/>
+      <c r="AU126" s="36"/>
+      <c r="AV126" s="36"/>
+      <c r="AW126" s="36"/>
+      <c r="AX126" s="36"/>
+      <c r="AY126" s="36"/>
+      <c r="AZ126" s="36"/>
+      <c r="BA126" s="36"/>
+      <c r="BB126" s="36"/>
+      <c r="BC126" s="36"/>
+      <c r="BD126" s="36"/>
+      <c r="BE126" s="36"/>
+      <c r="BF126" s="36"/>
+      <c r="BG126" s="36"/>
+      <c r="BH126" s="36"/>
+      <c r="BI126" s="36"/>
+      <c r="BJ126" s="36"/>
+      <c r="BK126" s="36"/>
+      <c r="BL126" s="36"/>
+      <c r="BM126" s="36"/>
+      <c r="BN126" s="36"/>
+      <c r="BO126" s="36"/>
+      <c r="BP126" s="36"/>
+      <c r="BQ126" s="36"/>
+      <c r="BR126" s="36"/>
+      <c r="BS126" s="36"/>
+      <c r="BT126" s="36"/>
+      <c r="BU126" s="36"/>
+      <c r="BV126" s="36"/>
+      <c r="BW126" s="36"/>
+      <c r="BX126" s="36"/>
+      <c r="BY126" s="36"/>
+      <c r="BZ126" s="36"/>
+      <c r="CA126" s="36"/>
+      <c r="CB126" s="36"/>
+      <c r="CC126" s="36"/>
+      <c r="CD126" s="36"/>
+      <c r="CE126" s="36"/>
+      <c r="CF126" s="36"/>
+      <c r="CG126" s="36"/>
+      <c r="CH126" s="36"/>
+      <c r="CI126" s="36"/>
+      <c r="CJ126" s="36"/>
+      <c r="CK126" s="36"/>
+      <c r="CL126" s="36"/>
+      <c r="CM126" s="36"/>
+      <c r="CN126" s="36"/>
+      <c r="CO126" s="36"/>
+      <c r="CP126" s="36"/>
+      <c r="CQ126" s="36"/>
+      <c r="CR126" s="36"/>
+      <c r="CS126" s="36"/>
+      <c r="CT126" s="36"/>
+      <c r="CU126" s="36"/>
+      <c r="CV126" s="36"/>
+      <c r="CW126" s="36"/>
+      <c r="CX126" s="36"/>
+      <c r="CY126" s="36"/>
+      <c r="CZ126" s="36"/>
+      <c r="DA126" s="36"/>
+      <c r="DB126" s="36"/>
+      <c r="DC126" s="36"/>
+      <c r="DD126" s="36"/>
+      <c r="DE126" s="36"/>
+      <c r="DF126" s="36"/>
+      <c r="DG126" s="36"/>
+      <c r="DH126" s="36"/>
+      <c r="DI126" s="36"/>
+      <c r="DJ126" s="36"/>
+      <c r="DK126" s="36"/>
+      <c r="DL126" s="36"/>
+      <c r="DM126" s="36"/>
+      <c r="DN126" s="36"/>
+      <c r="DO126" s="36"/>
+      <c r="DP126" s="36"/>
+      <c r="DQ126" s="36"/>
+      <c r="DR126" s="36"/>
+      <c r="DS126" s="36"/>
+      <c r="DT126" s="36"/>
+      <c r="DU126" s="36"/>
+      <c r="DV126" s="36"/>
+      <c r="DW126" s="36"/>
+      <c r="DX126" s="36"/>
+      <c r="DY126" s="36"/>
+      <c r="DZ126" s="36"/>
+      <c r="EA126" s="36"/>
+      <c r="EB126" s="36"/>
+      <c r="EC126" s="36"/>
+      <c r="ED126" s="36"/>
+      <c r="EE126" s="36"/>
+      <c r="EF126" s="36"/>
+      <c r="EG126" s="36"/>
+      <c r="EH126" s="36"/>
+      <c r="EI126" s="36"/>
+      <c r="EJ126" s="36"/>
+      <c r="EK126" s="36"/>
+      <c r="EL126" s="36"/>
+      <c r="EM126" s="36"/>
+      <c r="EN126" s="36"/>
+      <c r="EO126" s="36"/>
+      <c r="EP126" s="36"/>
+      <c r="EQ126" s="36"/>
+      <c r="ER126" s="36"/>
+      <c r="ES126" s="36"/>
+      <c r="ET126" s="36"/>
+      <c r="EU126" s="36"/>
+      <c r="EV126" s="36"/>
+      <c r="EW126" s="36"/>
+      <c r="EX126" s="36"/>
+      <c r="EY126" s="36"/>
+      <c r="EZ126" s="36"/>
+      <c r="FA126" s="36"/>
+      <c r="FB126" s="36"/>
+      <c r="FC126" s="36"/>
+      <c r="FD126" s="36"/>
+      <c r="FE126" s="36"/>
+      <c r="FF126" s="36"/>
+      <c r="FG126" s="36"/>
+      <c r="FH126" s="36"/>
+      <c r="FI126" s="36"/>
+      <c r="FJ126" s="36"/>
+      <c r="FK126" s="36"/>
+      <c r="FL126" s="36"/>
+      <c r="FM126" s="36"/>
+      <c r="FN126" s="36"/>
+      <c r="FO126" s="36"/>
+      <c r="FP126" s="36"/>
+      <c r="FQ126" s="36"/>
+      <c r="FR126" s="36"/>
+      <c r="FS126" s="36"/>
+      <c r="FT126" s="36"/>
+      <c r="FU126" s="36"/>
+      <c r="FV126" s="36"/>
+      <c r="FW126" s="36"/>
+      <c r="FX126" s="36"/>
+      <c r="FY126" s="36"/>
+      <c r="FZ126" s="36"/>
+      <c r="GA126" s="36"/>
+      <c r="GB126" s="36"/>
+      <c r="GC126" s="36"/>
+      <c r="GD126" s="36"/>
+      <c r="GE126" s="36"/>
+      <c r="GF126" s="36"/>
+      <c r="GG126" s="36"/>
+      <c r="GH126" s="36"/>
+      <c r="GI126" s="36"/>
+      <c r="GJ126" s="36"/>
+      <c r="GK126" s="36"/>
+      <c r="GL126" s="36"/>
+      <c r="GM126" s="36"/>
+      <c r="GN126" s="36"/>
+      <c r="GO126" s="36"/>
+      <c r="GP126" s="36"/>
+      <c r="GQ126" s="36"/>
+      <c r="GR126" s="36"/>
+      <c r="GS126" s="36"/>
+      <c r="GT126" s="36"/>
+      <c r="GU126" s="36"/>
+      <c r="GV126" s="36"/>
+      <c r="GW126" s="36"/>
+      <c r="GX126" s="36"/>
+      <c r="GY126" s="36"/>
+      <c r="GZ126" s="36"/>
+      <c r="HA126" s="36"/>
+      <c r="HB126" s="36"/>
+      <c r="HC126" s="36"/>
+      <c r="HD126" s="36"/>
+      <c r="HE126" s="36"/>
+      <c r="HF126" s="36"/>
+      <c r="HG126" s="36"/>
+      <c r="HH126" s="36"/>
+      <c r="HI126" s="36"/>
+      <c r="HJ126" s="36"/>
+      <c r="HK126" s="36"/>
+      <c r="HL126" s="36"/>
+      <c r="HM126" s="36"/>
+      <c r="HN126" s="36"/>
+      <c r="HO126" s="36"/>
+      <c r="HP126" s="36"/>
+      <c r="HQ126" s="36"/>
+      <c r="HR126" s="36"/>
+      <c r="HS126" s="36"/>
+      <c r="HT126" s="36"/>
+      <c r="HU126" s="36"/>
+      <c r="HV126" s="36"/>
+      <c r="HW126" s="36"/>
+      <c r="HX126" s="36"/>
+      <c r="HY126" s="36"/>
+      <c r="HZ126" s="36"/>
+      <c r="IA126" s="36"/>
+      <c r="IB126" s="36"/>
+      <c r="IC126" s="36"/>
+      <c r="ID126" s="36"/>
+      <c r="IE126" s="36"/>
+      <c r="IF126" s="36"/>
+      <c r="IG126" s="36"/>
+      <c r="IH126" s="36"/>
+      <c r="II126" s="36"/>
+      <c r="IJ126" s="36"/>
+      <c r="IK126" s="36"/>
+      <c r="IL126" s="36"/>
+      <c r="IM126" s="36"/>
+      <c r="IN126" s="36"/>
+      <c r="IO126" s="36"/>
+      <c r="IP126" s="36"/>
+      <c r="IQ126" s="36"/>
+      <c r="IR126" s="36"/>
+      <c r="IS126" s="36"/>
+      <c r="IT126" s="36"/>
+      <c r="IU126" s="36"/>
+      <c r="IV126" s="36"/>
     </row>
     <row r="127" spans="1:256" ht="15" customHeight="1">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
       <c r="J127" s="3"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
@@ -5830,19 +5850,19 @@
       <c r="O127" s="5"/>
     </row>
     <row r="128" spans="1:256" ht="15" customHeight="1">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="23"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="22"/>
       <c r="J128" s="3"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
@@ -5851,19 +5871,19 @@
       <c r="O128" s="5"/>
     </row>
     <row r="129" spans="1:15" ht="15" customHeight="1">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="14" t="s">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D129" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="23"/>
+      <c r="D129" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="22"/>
       <c r="J129" s="3"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
@@ -5872,19 +5892,19 @@
       <c r="O129" s="5"/>
     </row>
     <row r="130" spans="1:15" ht="15" customHeight="1">
-      <c r="A130" s="48"/>
-      <c r="B130" s="48"/>
-      <c r="C130" s="49" t="s">
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="D130" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E130" s="50"/>
-      <c r="F130" s="50"/>
-      <c r="G130" s="50"/>
-      <c r="H130" s="48"/>
-      <c r="I130" s="51"/>
+      <c r="D130" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="E130" s="49"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="50"/>
       <c r="J130" s="3"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
@@ -5893,813 +5913,813 @@
       <c r="O130" s="5"/>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="52"/>
-      <c r="I131" s="52"/>
-      <c r="J131" s="58"/>
-      <c r="K131" s="58"/>
-      <c r="L131" s="58"/>
-      <c r="M131" s="58"/>
-      <c r="N131" s="58"/>
-      <c r="O131" s="58"/>
+      <c r="A131" s="51"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="51"/>
+      <c r="F131" s="51"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="51"/>
+      <c r="I131" s="51"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="57"/>
+      <c r="L131" s="57"/>
+      <c r="M131" s="57"/>
+      <c r="N131" s="57"/>
+      <c r="O131" s="57"/>
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1">
-      <c r="A132" s="53" t="s">
+      <c r="A132" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="51"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="58"/>
+      <c r="K132" s="58"/>
+      <c r="L132" s="58"/>
+      <c r="M132" s="58"/>
+      <c r="N132" s="58"/>
+      <c r="O132" s="58"/>
+    </row>
+    <row r="133" spans="1:15" ht="15" customHeight="1">
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="52"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="59"/>
-      <c r="K132" s="59"/>
-      <c r="L132" s="59"/>
-      <c r="M132" s="59"/>
-      <c r="N132" s="59"/>
-      <c r="O132" s="59"/>
-    </row>
-    <row r="133" spans="1:15" ht="15" customHeight="1">
-      <c r="A133" s="54"/>
-      <c r="B133" s="54"/>
-      <c r="C133" s="53" t="s">
+      <c r="D133" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E133" s="52"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="52"/>
+      <c r="H133" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="61"/>
+      <c r="J133" s="58"/>
+      <c r="K133" s="58"/>
+      <c r="L133" s="58"/>
+      <c r="M133" s="58"/>
+      <c r="N133" s="58"/>
+      <c r="O133" s="58"/>
+    </row>
+    <row r="134" spans="1:15" ht="15" customHeight="1">
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="D133" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E133" s="53"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="61" t="s">
+      <c r="D134" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="G134" s="52"/>
+      <c r="H134" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I134" s="55"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="58"/>
+      <c r="L134" s="58"/>
+      <c r="M134" s="58"/>
+      <c r="N134" s="58"/>
+      <c r="O134" s="58"/>
+    </row>
+    <row r="135" spans="1:15" ht="15" customHeight="1">
+      <c r="A135" s="53"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="D135" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="I133" s="62"/>
-      <c r="J133" s="59"/>
-      <c r="K133" s="59"/>
-      <c r="L133" s="59"/>
-      <c r="M133" s="59"/>
-      <c r="N133" s="59"/>
-      <c r="O133" s="59"/>
-    </row>
-    <row r="134" spans="1:15" ht="15" customHeight="1">
-      <c r="A134" s="54"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="D134" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E134" s="53"/>
-      <c r="F134" s="53" t="s">
+      <c r="I135" s="61"/>
+      <c r="J135" s="58"/>
+      <c r="K135" s="58"/>
+      <c r="L135" s="58"/>
+      <c r="M135" s="58"/>
+      <c r="N135" s="58"/>
+      <c r="O135" s="58"/>
+    </row>
+    <row r="136" spans="1:15" ht="15" customHeight="1">
+      <c r="A136" s="53"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="D136" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="51"/>
+      <c r="I136" s="55"/>
+      <c r="J136" s="58"/>
+      <c r="K136" s="58"/>
+      <c r="L136" s="58"/>
+      <c r="M136" s="58"/>
+      <c r="N136" s="58"/>
+      <c r="O136" s="58"/>
+    </row>
+    <row r="137" spans="1:15" ht="15" customHeight="1">
+      <c r="A137" s="53"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D137" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E137" s="52"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I137" s="55"/>
+      <c r="J137" s="58"/>
+      <c r="K137" s="58"/>
+      <c r="L137" s="58"/>
+      <c r="M137" s="58"/>
+      <c r="N137" s="58"/>
+      <c r="O137" s="58"/>
+    </row>
+    <row r="138" spans="1:15" ht="15" customHeight="1">
+      <c r="A138" s="53"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="G134" s="53"/>
-      <c r="H134" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="I134" s="56"/>
-      <c r="J134" s="59"/>
-      <c r="K134" s="59"/>
-      <c r="L134" s="59"/>
-      <c r="M134" s="59"/>
-      <c r="N134" s="59"/>
-      <c r="O134" s="59"/>
-    </row>
-    <row r="135" spans="1:15" ht="15" customHeight="1">
-      <c r="A135" s="54"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="D135" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
-      <c r="H135" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="I135" s="62"/>
-      <c r="J135" s="59"/>
-      <c r="K135" s="59"/>
-      <c r="L135" s="59"/>
-      <c r="M135" s="59"/>
-      <c r="N135" s="59"/>
-      <c r="O135" s="59"/>
-    </row>
-    <row r="136" spans="1:15" ht="15" customHeight="1">
-      <c r="A136" s="54"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="D136" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E136" s="53"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="53"/>
-      <c r="H136" s="52"/>
-      <c r="I136" s="56"/>
-      <c r="J136" s="59"/>
-      <c r="K136" s="59"/>
-      <c r="L136" s="59"/>
-      <c r="M136" s="59"/>
-      <c r="N136" s="59"/>
-      <c r="O136" s="59"/>
-    </row>
-    <row r="137" spans="1:15" ht="15" customHeight="1">
-      <c r="A137" s="54"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="53" t="s">
+      <c r="D138" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E138" s="52"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="55"/>
+      <c r="J138" s="58"/>
+      <c r="K138" s="58"/>
+      <c r="L138" s="58"/>
+      <c r="M138" s="58"/>
+      <c r="N138" s="58"/>
+      <c r="O138" s="58"/>
+    </row>
+    <row r="139" spans="1:15" ht="15" customHeight="1">
+      <c r="A139" s="53"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E137" s="53"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="53"/>
-      <c r="H137" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="I137" s="56"/>
-      <c r="J137" s="59"/>
-      <c r="K137" s="59"/>
-      <c r="L137" s="59"/>
-      <c r="M137" s="59"/>
-      <c r="N137" s="59"/>
-      <c r="O137" s="59"/>
-    </row>
-    <row r="138" spans="1:15" ht="15" customHeight="1">
-      <c r="A138" s="54"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="D138" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E138" s="53"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="53"/>
-      <c r="H138" s="52"/>
-      <c r="I138" s="56"/>
-      <c r="J138" s="59"/>
-      <c r="K138" s="59"/>
-      <c r="L138" s="59"/>
-      <c r="M138" s="59"/>
-      <c r="N138" s="59"/>
-      <c r="O138" s="59"/>
-    </row>
-    <row r="139" spans="1:15" ht="15" customHeight="1">
-      <c r="A139" s="54"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="D139" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E139" s="53"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="53"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="56"/>
-      <c r="J139" s="59"/>
-      <c r="K139" s="59"/>
-      <c r="L139" s="59"/>
-      <c r="M139" s="59"/>
-      <c r="N139" s="59"/>
-      <c r="O139" s="59"/>
+      <c r="D139" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="52"/>
+      <c r="H139" s="51"/>
+      <c r="I139" s="55"/>
+      <c r="J139" s="58"/>
+      <c r="K139" s="58"/>
+      <c r="L139" s="58"/>
+      <c r="M139" s="58"/>
+      <c r="N139" s="58"/>
+      <c r="O139" s="58"/>
     </row>
     <row r="140" spans="1:15" ht="15" customHeight="1">
-      <c r="A140" s="52"/>
-      <c r="B140" s="52"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="52"/>
-      <c r="H140" s="52"/>
-      <c r="I140" s="52"/>
-      <c r="J140" s="59"/>
-      <c r="K140" s="59"/>
-      <c r="L140" s="59"/>
-      <c r="M140" s="59"/>
-      <c r="N140" s="59"/>
-      <c r="O140" s="59"/>
+      <c r="A140" s="51"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
+      <c r="J140" s="58"/>
+      <c r="K140" s="58"/>
+      <c r="L140" s="58"/>
+      <c r="M140" s="58"/>
+      <c r="N140" s="58"/>
+      <c r="O140" s="58"/>
     </row>
     <row r="141" spans="1:15" ht="15" customHeight="1">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52"/>
-      <c r="C141" s="52"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="52"/>
-      <c r="F141" s="52"/>
-      <c r="G141" s="52"/>
-      <c r="H141" s="52"/>
-      <c r="I141" s="52"/>
-      <c r="J141" s="59"/>
-      <c r="K141" s="59"/>
-      <c r="L141" s="59"/>
-      <c r="M141" s="59"/>
-      <c r="N141" s="59"/>
-      <c r="O141" s="59"/>
+      <c r="A141" s="51"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="51"/>
+      <c r="H141" s="51"/>
+      <c r="I141" s="51"/>
+      <c r="J141" s="58"/>
+      <c r="K141" s="58"/>
+      <c r="L141" s="58"/>
+      <c r="M141" s="58"/>
+      <c r="N141" s="58"/>
+      <c r="O141" s="58"/>
     </row>
     <row r="142" spans="1:15" ht="15" customHeight="1">
-      <c r="A142" s="52"/>
-      <c r="B142" s="52"/>
-      <c r="C142" s="52"/>
-      <c r="D142" s="52"/>
-      <c r="E142" s="52"/>
-      <c r="F142" s="52"/>
-      <c r="G142" s="52"/>
-      <c r="H142" s="52"/>
-      <c r="I142" s="52"/>
-      <c r="J142" s="59"/>
-      <c r="K142" s="59"/>
-      <c r="L142" s="59"/>
-      <c r="M142" s="59"/>
-      <c r="N142" s="59"/>
-      <c r="O142" s="59"/>
+      <c r="A142" s="51"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="51"/>
+      <c r="H142" s="51"/>
+      <c r="I142" s="51"/>
+      <c r="J142" s="58"/>
+      <c r="K142" s="58"/>
+      <c r="L142" s="58"/>
+      <c r="M142" s="58"/>
+      <c r="N142" s="58"/>
+      <c r="O142" s="58"/>
     </row>
     <row r="143" spans="1:15" ht="15" customHeight="1">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52"/>
-      <c r="C143" s="52"/>
-      <c r="D143" s="52"/>
-      <c r="E143" s="52"/>
-      <c r="F143" s="52"/>
-      <c r="G143" s="52"/>
-      <c r="H143" s="52"/>
-      <c r="I143" s="52"/>
-      <c r="J143" s="59"/>
-      <c r="K143" s="59"/>
-      <c r="L143" s="59"/>
-      <c r="M143" s="59"/>
-      <c r="N143" s="59"/>
-      <c r="O143" s="59"/>
+      <c r="A143" s="51"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="51"/>
+      <c r="G143" s="51"/>
+      <c r="H143" s="51"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="58"/>
+      <c r="K143" s="58"/>
+      <c r="L143" s="58"/>
+      <c r="M143" s="58"/>
+      <c r="N143" s="58"/>
+      <c r="O143" s="58"/>
     </row>
     <row r="144" spans="1:15" ht="15" customHeight="1">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="52"/>
-      <c r="G144" s="52"/>
-      <c r="H144" s="52"/>
-      <c r="I144" s="52"/>
-      <c r="J144" s="59"/>
-      <c r="K144" s="59"/>
-      <c r="L144" s="59"/>
-      <c r="M144" s="59"/>
-      <c r="N144" s="59"/>
-      <c r="O144" s="59"/>
+      <c r="A144" s="51"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="51"/>
+      <c r="F144" s="51"/>
+      <c r="G144" s="51"/>
+      <c r="H144" s="51"/>
+      <c r="I144" s="51"/>
+      <c r="J144" s="58"/>
+      <c r="K144" s="58"/>
+      <c r="L144" s="58"/>
+      <c r="M144" s="58"/>
+      <c r="N144" s="58"/>
+      <c r="O144" s="58"/>
     </row>
     <row r="145" spans="1:15" ht="15" customHeight="1">
-      <c r="A145" s="52"/>
-      <c r="B145" s="52"/>
-      <c r="C145" s="52"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="52"/>
-      <c r="F145" s="52"/>
-      <c r="G145" s="52"/>
-      <c r="H145" s="52"/>
-      <c r="I145" s="52"/>
-      <c r="J145" s="59"/>
-      <c r="K145" s="59"/>
-      <c r="L145" s="59"/>
-      <c r="M145" s="59"/>
-      <c r="N145" s="59"/>
-      <c r="O145" s="59"/>
+      <c r="A145" s="51"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="51"/>
+      <c r="D145" s="51"/>
+      <c r="E145" s="51"/>
+      <c r="F145" s="51"/>
+      <c r="G145" s="51"/>
+      <c r="H145" s="51"/>
+      <c r="I145" s="51"/>
+      <c r="J145" s="58"/>
+      <c r="K145" s="58"/>
+      <c r="L145" s="58"/>
+      <c r="M145" s="58"/>
+      <c r="N145" s="58"/>
+      <c r="O145" s="58"/>
     </row>
     <row r="146" spans="1:15" ht="15" customHeight="1">
-      <c r="A146" s="52"/>
-      <c r="B146" s="52"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
-      <c r="F146" s="52"/>
-      <c r="G146" s="52"/>
-      <c r="H146" s="52"/>
-      <c r="I146" s="52"/>
-      <c r="J146" s="59"/>
-      <c r="K146" s="59"/>
-      <c r="L146" s="59"/>
-      <c r="M146" s="59"/>
-      <c r="N146" s="59"/>
-      <c r="O146" s="59"/>
+      <c r="A146" s="51"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
+      <c r="F146" s="51"/>
+      <c r="G146" s="51"/>
+      <c r="H146" s="51"/>
+      <c r="I146" s="51"/>
+      <c r="J146" s="58"/>
+      <c r="K146" s="58"/>
+      <c r="L146" s="58"/>
+      <c r="M146" s="58"/>
+      <c r="N146" s="58"/>
+      <c r="O146" s="58"/>
     </row>
     <row r="147" spans="1:15" ht="15" customHeight="1">
-      <c r="A147" s="52"/>
-      <c r="B147" s="52"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="52"/>
-      <c r="F147" s="52"/>
-      <c r="G147" s="52"/>
-      <c r="H147" s="52"/>
-      <c r="I147" s="52"/>
-      <c r="J147" s="59"/>
-      <c r="K147" s="59"/>
-      <c r="L147" s="59"/>
-      <c r="M147" s="59"/>
-      <c r="N147" s="59"/>
-      <c r="O147" s="59"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
+      <c r="F147" s="51"/>
+      <c r="G147" s="51"/>
+      <c r="H147" s="51"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="58"/>
+      <c r="K147" s="58"/>
+      <c r="L147" s="58"/>
+      <c r="M147" s="58"/>
+      <c r="N147" s="58"/>
+      <c r="O147" s="58"/>
     </row>
     <row r="148" spans="1:15" ht="15" customHeight="1">
-      <c r="A148" s="52"/>
-      <c r="B148" s="52"/>
-      <c r="C148" s="52"/>
-      <c r="D148" s="52"/>
-      <c r="E148" s="52"/>
-      <c r="F148" s="52"/>
-      <c r="G148" s="52"/>
-      <c r="H148" s="52"/>
-      <c r="I148" s="52"/>
-      <c r="J148" s="59"/>
-      <c r="K148" s="59"/>
-      <c r="L148" s="59"/>
-      <c r="M148" s="59"/>
-      <c r="N148" s="59"/>
-      <c r="O148" s="59"/>
+      <c r="A148" s="51"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="51"/>
+      <c r="I148" s="51"/>
+      <c r="J148" s="58"/>
+      <c r="K148" s="58"/>
+      <c r="L148" s="58"/>
+      <c r="M148" s="58"/>
+      <c r="N148" s="58"/>
+      <c r="O148" s="58"/>
     </row>
     <row r="149" spans="1:15" ht="15" customHeight="1">
-      <c r="A149" s="52"/>
-      <c r="B149" s="52"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="52"/>
-      <c r="E149" s="52"/>
-      <c r="F149" s="52"/>
-      <c r="G149" s="52"/>
-      <c r="H149" s="52"/>
-      <c r="I149" s="52"/>
-      <c r="J149" s="59"/>
-      <c r="K149" s="59"/>
-      <c r="L149" s="59"/>
-      <c r="M149" s="59"/>
-      <c r="N149" s="59"/>
-      <c r="O149" s="59"/>
+      <c r="A149" s="51"/>
+      <c r="B149" s="51"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="51"/>
+      <c r="H149" s="51"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="58"/>
+      <c r="K149" s="58"/>
+      <c r="L149" s="58"/>
+      <c r="M149" s="58"/>
+      <c r="N149" s="58"/>
+      <c r="O149" s="58"/>
     </row>
     <row r="150" spans="1:15" ht="15" customHeight="1">
-      <c r="A150" s="52"/>
-      <c r="B150" s="52"/>
-      <c r="C150" s="52"/>
-      <c r="D150" s="52"/>
-      <c r="E150" s="52"/>
-      <c r="F150" s="52"/>
-      <c r="G150" s="52"/>
-      <c r="H150" s="52"/>
-      <c r="I150" s="52"/>
-      <c r="J150" s="59"/>
-      <c r="K150" s="59"/>
-      <c r="L150" s="59"/>
-      <c r="M150" s="59"/>
-      <c r="N150" s="59"/>
-      <c r="O150" s="59"/>
+      <c r="A150" s="51"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="51"/>
+      <c r="I150" s="51"/>
+      <c r="J150" s="58"/>
+      <c r="K150" s="58"/>
+      <c r="L150" s="58"/>
+      <c r="M150" s="58"/>
+      <c r="N150" s="58"/>
+      <c r="O150" s="58"/>
     </row>
     <row r="151" spans="1:15" ht="15" customHeight="1">
-      <c r="A151" s="52"/>
-      <c r="B151" s="52"/>
-      <c r="C151" s="52"/>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="52"/>
-      <c r="G151" s="52"/>
-      <c r="H151" s="52"/>
-      <c r="I151" s="52"/>
-      <c r="J151" s="59"/>
-      <c r="K151" s="59"/>
-      <c r="L151" s="59"/>
-      <c r="M151" s="59"/>
-      <c r="N151" s="59"/>
-      <c r="O151" s="59"/>
+      <c r="A151" s="51"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="51"/>
+      <c r="G151" s="51"/>
+      <c r="H151" s="51"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="58"/>
+      <c r="K151" s="58"/>
+      <c r="L151" s="58"/>
+      <c r="M151" s="58"/>
+      <c r="N151" s="58"/>
+      <c r="O151" s="58"/>
     </row>
     <row r="152" spans="1:15" ht="15" customHeight="1">
-      <c r="A152" s="52"/>
-      <c r="B152" s="52"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="52"/>
-      <c r="E152" s="52"/>
-      <c r="F152" s="52"/>
-      <c r="G152" s="52"/>
-      <c r="H152" s="52"/>
-      <c r="I152" s="52"/>
-      <c r="J152" s="59"/>
-      <c r="K152" s="59"/>
-      <c r="L152" s="59"/>
-      <c r="M152" s="59"/>
-      <c r="N152" s="59"/>
-      <c r="O152" s="59"/>
+      <c r="A152" s="51"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="51"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="51"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="58"/>
+      <c r="K152" s="58"/>
+      <c r="L152" s="58"/>
+      <c r="M152" s="58"/>
+      <c r="N152" s="58"/>
+      <c r="O152" s="58"/>
     </row>
     <row r="153" spans="1:15" ht="15" customHeight="1">
-      <c r="A153" s="52"/>
-      <c r="B153" s="52"/>
-      <c r="C153" s="52"/>
-      <c r="D153" s="52"/>
-      <c r="E153" s="52"/>
-      <c r="F153" s="52"/>
-      <c r="G153" s="52"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="52"/>
-      <c r="J153" s="59"/>
-      <c r="K153" s="59"/>
-      <c r="L153" s="59"/>
-      <c r="M153" s="59"/>
-      <c r="N153" s="59"/>
-      <c r="O153" s="59"/>
+      <c r="A153" s="51"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="51"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="58"/>
+      <c r="K153" s="58"/>
+      <c r="L153" s="58"/>
+      <c r="M153" s="58"/>
+      <c r="N153" s="58"/>
+      <c r="O153" s="58"/>
     </row>
     <row r="154" spans="1:15" ht="15" customHeight="1">
-      <c r="A154" s="52"/>
-      <c r="B154" s="52"/>
-      <c r="C154" s="52"/>
-      <c r="D154" s="52"/>
-      <c r="E154" s="52"/>
-      <c r="F154" s="52"/>
-      <c r="G154" s="52"/>
-      <c r="H154" s="52"/>
-      <c r="I154" s="52"/>
-      <c r="J154" s="59"/>
-      <c r="K154" s="59"/>
-      <c r="L154" s="59"/>
-      <c r="M154" s="59"/>
-      <c r="N154" s="59"/>
-      <c r="O154" s="59"/>
+      <c r="A154" s="51"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="51"/>
+      <c r="D154" s="51"/>
+      <c r="E154" s="51"/>
+      <c r="F154" s="51"/>
+      <c r="G154" s="51"/>
+      <c r="H154" s="51"/>
+      <c r="I154" s="51"/>
+      <c r="J154" s="58"/>
+      <c r="K154" s="58"/>
+      <c r="L154" s="58"/>
+      <c r="M154" s="58"/>
+      <c r="N154" s="58"/>
+      <c r="O154" s="58"/>
     </row>
     <row r="155" spans="1:15" ht="15" customHeight="1">
-      <c r="A155" s="52"/>
-      <c r="B155" s="52"/>
-      <c r="C155" s="52"/>
-      <c r="D155" s="52"/>
-      <c r="E155" s="52"/>
-      <c r="F155" s="52"/>
-      <c r="G155" s="52"/>
-      <c r="H155" s="52"/>
-      <c r="I155" s="52"/>
-      <c r="J155" s="59"/>
-      <c r="K155" s="59"/>
-      <c r="L155" s="59"/>
-      <c r="M155" s="59"/>
-      <c r="N155" s="59"/>
-      <c r="O155" s="59"/>
+      <c r="A155" s="51"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="51"/>
+      <c r="D155" s="51"/>
+      <c r="E155" s="51"/>
+      <c r="F155" s="51"/>
+      <c r="G155" s="51"/>
+      <c r="H155" s="51"/>
+      <c r="I155" s="51"/>
+      <c r="J155" s="58"/>
+      <c r="K155" s="58"/>
+      <c r="L155" s="58"/>
+      <c r="M155" s="58"/>
+      <c r="N155" s="58"/>
+      <c r="O155" s="58"/>
     </row>
     <row r="156" spans="1:15" ht="15" customHeight="1">
-      <c r="A156" s="52"/>
-      <c r="B156" s="52"/>
-      <c r="C156" s="52"/>
-      <c r="D156" s="52"/>
-      <c r="E156" s="52"/>
-      <c r="F156" s="52"/>
-      <c r="G156" s="52"/>
-      <c r="H156" s="52"/>
-      <c r="I156" s="52"/>
-      <c r="J156" s="59"/>
-      <c r="K156" s="59"/>
-      <c r="L156" s="59"/>
-      <c r="M156" s="59"/>
-      <c r="N156" s="59"/>
-      <c r="O156" s="59"/>
+      <c r="A156" s="51"/>
+      <c r="B156" s="51"/>
+      <c r="C156" s="51"/>
+      <c r="D156" s="51"/>
+      <c r="E156" s="51"/>
+      <c r="F156" s="51"/>
+      <c r="G156" s="51"/>
+      <c r="H156" s="51"/>
+      <c r="I156" s="51"/>
+      <c r="J156" s="58"/>
+      <c r="K156" s="58"/>
+      <c r="L156" s="58"/>
+      <c r="M156" s="58"/>
+      <c r="N156" s="58"/>
+      <c r="O156" s="58"/>
     </row>
     <row r="157" spans="1:15" ht="15" customHeight="1">
-      <c r="A157" s="52"/>
-      <c r="B157" s="52"/>
-      <c r="C157" s="52"/>
-      <c r="D157" s="52"/>
-      <c r="E157" s="52"/>
-      <c r="F157" s="52"/>
-      <c r="G157" s="52"/>
-      <c r="H157" s="52"/>
-      <c r="I157" s="52"/>
-      <c r="J157" s="59"/>
-      <c r="K157" s="59"/>
-      <c r="L157" s="59"/>
-      <c r="M157" s="59"/>
-      <c r="N157" s="59"/>
-      <c r="O157" s="59"/>
+      <c r="A157" s="51"/>
+      <c r="B157" s="51"/>
+      <c r="C157" s="51"/>
+      <c r="D157" s="51"/>
+      <c r="E157" s="51"/>
+      <c r="F157" s="51"/>
+      <c r="G157" s="51"/>
+      <c r="H157" s="51"/>
+      <c r="I157" s="51"/>
+      <c r="J157" s="58"/>
+      <c r="K157" s="58"/>
+      <c r="L157" s="58"/>
+      <c r="M157" s="58"/>
+      <c r="N157" s="58"/>
+      <c r="O157" s="58"/>
     </row>
     <row r="158" spans="1:15" ht="15" customHeight="1">
-      <c r="A158" s="52"/>
-      <c r="B158" s="52"/>
-      <c r="C158" s="52"/>
-      <c r="D158" s="52"/>
-      <c r="E158" s="52"/>
-      <c r="F158" s="52"/>
-      <c r="G158" s="52"/>
-      <c r="H158" s="52"/>
-      <c r="I158" s="52"/>
-      <c r="J158" s="59"/>
-      <c r="K158" s="59"/>
-      <c r="L158" s="59"/>
-      <c r="M158" s="59"/>
-      <c r="N158" s="59"/>
-      <c r="O158" s="59"/>
+      <c r="A158" s="51"/>
+      <c r="B158" s="51"/>
+      <c r="C158" s="51"/>
+      <c r="D158" s="51"/>
+      <c r="E158" s="51"/>
+      <c r="F158" s="51"/>
+      <c r="G158" s="51"/>
+      <c r="H158" s="51"/>
+      <c r="I158" s="51"/>
+      <c r="J158" s="58"/>
+      <c r="K158" s="58"/>
+      <c r="L158" s="58"/>
+      <c r="M158" s="58"/>
+      <c r="N158" s="58"/>
+      <c r="O158" s="58"/>
     </row>
     <row r="159" spans="1:15" ht="15" customHeight="1">
-      <c r="A159" s="52"/>
-      <c r="B159" s="52"/>
-      <c r="C159" s="52"/>
-      <c r="D159" s="52"/>
-      <c r="E159" s="52"/>
-      <c r="F159" s="52"/>
-      <c r="G159" s="52"/>
-      <c r="H159" s="52"/>
-      <c r="I159" s="52"/>
-      <c r="J159" s="59"/>
-      <c r="K159" s="59"/>
-      <c r="L159" s="59"/>
-      <c r="M159" s="59"/>
-      <c r="N159" s="59"/>
-      <c r="O159" s="59"/>
+      <c r="A159" s="51"/>
+      <c r="B159" s="51"/>
+      <c r="C159" s="51"/>
+      <c r="D159" s="51"/>
+      <c r="E159" s="51"/>
+      <c r="F159" s="51"/>
+      <c r="G159" s="51"/>
+      <c r="H159" s="51"/>
+      <c r="I159" s="51"/>
+      <c r="J159" s="58"/>
+      <c r="K159" s="58"/>
+      <c r="L159" s="58"/>
+      <c r="M159" s="58"/>
+      <c r="N159" s="58"/>
+      <c r="O159" s="58"/>
     </row>
     <row r="160" spans="1:15" ht="15" customHeight="1">
-      <c r="A160" s="52"/>
-      <c r="B160" s="52"/>
-      <c r="C160" s="52"/>
-      <c r="D160" s="52"/>
-      <c r="E160" s="52"/>
-      <c r="F160" s="52"/>
-      <c r="G160" s="52"/>
-      <c r="H160" s="52"/>
-      <c r="I160" s="52"/>
-      <c r="J160" s="59"/>
-      <c r="K160" s="59"/>
-      <c r="L160" s="59"/>
-      <c r="M160" s="59"/>
-      <c r="N160" s="59"/>
-      <c r="O160" s="59"/>
+      <c r="A160" s="51"/>
+      <c r="B160" s="51"/>
+      <c r="C160" s="51"/>
+      <c r="D160" s="51"/>
+      <c r="E160" s="51"/>
+      <c r="F160" s="51"/>
+      <c r="G160" s="51"/>
+      <c r="H160" s="51"/>
+      <c r="I160" s="51"/>
+      <c r="J160" s="58"/>
+      <c r="K160" s="58"/>
+      <c r="L160" s="58"/>
+      <c r="M160" s="58"/>
+      <c r="N160" s="58"/>
+      <c r="O160" s="58"/>
     </row>
     <row r="161" spans="1:15" ht="15" customHeight="1">
-      <c r="A161" s="52"/>
-      <c r="B161" s="52"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="52"/>
-      <c r="E161" s="52"/>
-      <c r="F161" s="52"/>
-      <c r="G161" s="52"/>
-      <c r="H161" s="52"/>
-      <c r="I161" s="52"/>
-      <c r="J161" s="59"/>
-      <c r="K161" s="59"/>
-      <c r="L161" s="59"/>
-      <c r="M161" s="59"/>
-      <c r="N161" s="59"/>
-      <c r="O161" s="59"/>
+      <c r="A161" s="51"/>
+      <c r="B161" s="51"/>
+      <c r="C161" s="51"/>
+      <c r="D161" s="51"/>
+      <c r="E161" s="51"/>
+      <c r="F161" s="51"/>
+      <c r="G161" s="51"/>
+      <c r="H161" s="51"/>
+      <c r="I161" s="51"/>
+      <c r="J161" s="58"/>
+      <c r="K161" s="58"/>
+      <c r="L161" s="58"/>
+      <c r="M161" s="58"/>
+      <c r="N161" s="58"/>
+      <c r="O161" s="58"/>
     </row>
     <row r="162" spans="1:15" ht="15" customHeight="1">
-      <c r="A162" s="52"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="52"/>
-      <c r="E162" s="52"/>
-      <c r="F162" s="52"/>
-      <c r="G162" s="52"/>
-      <c r="H162" s="52"/>
-      <c r="I162" s="52"/>
-      <c r="J162" s="59"/>
-      <c r="K162" s="59"/>
-      <c r="L162" s="59"/>
-      <c r="M162" s="59"/>
-      <c r="N162" s="59"/>
-      <c r="O162" s="59"/>
+      <c r="A162" s="51"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="51"/>
+      <c r="E162" s="51"/>
+      <c r="F162" s="51"/>
+      <c r="G162" s="51"/>
+      <c r="H162" s="51"/>
+      <c r="I162" s="51"/>
+      <c r="J162" s="58"/>
+      <c r="K162" s="58"/>
+      <c r="L162" s="58"/>
+      <c r="M162" s="58"/>
+      <c r="N162" s="58"/>
+      <c r="O162" s="58"/>
     </row>
     <row r="163" spans="1:15" ht="15" customHeight="1">
-      <c r="A163" s="52"/>
-      <c r="B163" s="52"/>
-      <c r="C163" s="52"/>
-      <c r="D163" s="52"/>
-      <c r="E163" s="52"/>
-      <c r="F163" s="52"/>
-      <c r="G163" s="52"/>
-      <c r="H163" s="52"/>
-      <c r="I163" s="52"/>
-      <c r="J163" s="59"/>
-      <c r="K163" s="59"/>
-      <c r="L163" s="59"/>
-      <c r="M163" s="59"/>
-      <c r="N163" s="59"/>
-      <c r="O163" s="59"/>
+      <c r="A163" s="51"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="51"/>
+      <c r="D163" s="51"/>
+      <c r="E163" s="51"/>
+      <c r="F163" s="51"/>
+      <c r="G163" s="51"/>
+      <c r="H163" s="51"/>
+      <c r="I163" s="51"/>
+      <c r="J163" s="58"/>
+      <c r="K163" s="58"/>
+      <c r="L163" s="58"/>
+      <c r="M163" s="58"/>
+      <c r="N163" s="58"/>
+      <c r="O163" s="58"/>
     </row>
     <row r="164" spans="1:15" ht="15" customHeight="1">
-      <c r="A164" s="52"/>
-      <c r="B164" s="52"/>
-      <c r="C164" s="52"/>
-      <c r="D164" s="52"/>
-      <c r="E164" s="52"/>
-      <c r="F164" s="52"/>
-      <c r="G164" s="52"/>
-      <c r="H164" s="52"/>
-      <c r="I164" s="52"/>
-      <c r="J164" s="59"/>
-      <c r="K164" s="59"/>
-      <c r="L164" s="59"/>
-      <c r="M164" s="59"/>
-      <c r="N164" s="59"/>
-      <c r="O164" s="59"/>
+      <c r="A164" s="51"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="51"/>
+      <c r="E164" s="51"/>
+      <c r="F164" s="51"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="51"/>
+      <c r="I164" s="51"/>
+      <c r="J164" s="58"/>
+      <c r="K164" s="58"/>
+      <c r="L164" s="58"/>
+      <c r="M164" s="58"/>
+      <c r="N164" s="58"/>
+      <c r="O164" s="58"/>
     </row>
     <row r="165" spans="1:15" ht="15" customHeight="1">
-      <c r="A165" s="52"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="52"/>
-      <c r="D165" s="52"/>
-      <c r="E165" s="52"/>
-      <c r="F165" s="52"/>
-      <c r="G165" s="52"/>
-      <c r="H165" s="52"/>
-      <c r="I165" s="52"/>
-      <c r="J165" s="59"/>
-      <c r="K165" s="59"/>
-      <c r="L165" s="59"/>
-      <c r="M165" s="59"/>
-      <c r="N165" s="59"/>
-      <c r="O165" s="59"/>
+      <c r="A165" s="51"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="51"/>
+      <c r="D165" s="51"/>
+      <c r="E165" s="51"/>
+      <c r="F165" s="51"/>
+      <c r="G165" s="51"/>
+      <c r="H165" s="51"/>
+      <c r="I165" s="51"/>
+      <c r="J165" s="58"/>
+      <c r="K165" s="58"/>
+      <c r="L165" s="58"/>
+      <c r="M165" s="58"/>
+      <c r="N165" s="58"/>
+      <c r="O165" s="58"/>
     </row>
     <row r="166" spans="1:15" ht="15" customHeight="1">
-      <c r="A166" s="52"/>
-      <c r="B166" s="52"/>
-      <c r="C166" s="52"/>
-      <c r="D166" s="52"/>
-      <c r="E166" s="52"/>
-      <c r="F166" s="52"/>
-      <c r="G166" s="52"/>
-      <c r="H166" s="52"/>
-      <c r="I166" s="52"/>
-      <c r="J166" s="59"/>
-      <c r="K166" s="59"/>
-      <c r="L166" s="59"/>
-      <c r="M166" s="59"/>
-      <c r="N166" s="59"/>
-      <c r="O166" s="59"/>
+      <c r="A166" s="51"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="51"/>
+      <c r="D166" s="51"/>
+      <c r="E166" s="51"/>
+      <c r="F166" s="51"/>
+      <c r="G166" s="51"/>
+      <c r="H166" s="51"/>
+      <c r="I166" s="51"/>
+      <c r="J166" s="58"/>
+      <c r="K166" s="58"/>
+      <c r="L166" s="58"/>
+      <c r="M166" s="58"/>
+      <c r="N166" s="58"/>
+      <c r="O166" s="58"/>
     </row>
     <row r="167" spans="1:15" ht="15" customHeight="1">
-      <c r="A167" s="52"/>
-      <c r="B167" s="52"/>
-      <c r="C167" s="52"/>
-      <c r="D167" s="52"/>
-      <c r="E167" s="52"/>
-      <c r="F167" s="52"/>
-      <c r="G167" s="52"/>
-      <c r="H167" s="52"/>
-      <c r="I167" s="52"/>
-      <c r="J167" s="59"/>
-      <c r="K167" s="59"/>
-      <c r="L167" s="59"/>
-      <c r="M167" s="59"/>
-      <c r="N167" s="59"/>
-      <c r="O167" s="59"/>
+      <c r="A167" s="51"/>
+      <c r="B167" s="51"/>
+      <c r="C167" s="51"/>
+      <c r="D167" s="51"/>
+      <c r="E167" s="51"/>
+      <c r="F167" s="51"/>
+      <c r="G167" s="51"/>
+      <c r="H167" s="51"/>
+      <c r="I167" s="51"/>
+      <c r="J167" s="58"/>
+      <c r="K167" s="58"/>
+      <c r="L167" s="58"/>
+      <c r="M167" s="58"/>
+      <c r="N167" s="58"/>
+      <c r="O167" s="58"/>
     </row>
     <row r="168" spans="1:15" ht="15" customHeight="1">
-      <c r="A168" s="52"/>
-      <c r="B168" s="52"/>
-      <c r="C168" s="52"/>
-      <c r="D168" s="52"/>
-      <c r="E168" s="52"/>
-      <c r="F168" s="52"/>
-      <c r="G168" s="52"/>
-      <c r="H168" s="52"/>
-      <c r="I168" s="52"/>
-      <c r="J168" s="59"/>
-      <c r="K168" s="59"/>
-      <c r="L168" s="59"/>
-      <c r="M168" s="59"/>
-      <c r="N168" s="59"/>
-      <c r="O168" s="59"/>
+      <c r="A168" s="51"/>
+      <c r="B168" s="51"/>
+      <c r="C168" s="51"/>
+      <c r="D168" s="51"/>
+      <c r="E168" s="51"/>
+      <c r="F168" s="51"/>
+      <c r="G168" s="51"/>
+      <c r="H168" s="51"/>
+      <c r="I168" s="51"/>
+      <c r="J168" s="58"/>
+      <c r="K168" s="58"/>
+      <c r="L168" s="58"/>
+      <c r="M168" s="58"/>
+      <c r="N168" s="58"/>
+      <c r="O168" s="58"/>
     </row>
     <row r="169" spans="1:15" ht="15" customHeight="1">
-      <c r="A169" s="52"/>
-      <c r="B169" s="52"/>
-      <c r="C169" s="52"/>
-      <c r="D169" s="52"/>
-      <c r="E169" s="52"/>
-      <c r="F169" s="52"/>
-      <c r="G169" s="52"/>
-      <c r="H169" s="52"/>
-      <c r="I169" s="52"/>
-      <c r="J169" s="59"/>
-      <c r="K169" s="59"/>
-      <c r="L169" s="59"/>
-      <c r="M169" s="59"/>
-      <c r="N169" s="59"/>
-      <c r="O169" s="59"/>
+      <c r="A169" s="51"/>
+      <c r="B169" s="51"/>
+      <c r="C169" s="51"/>
+      <c r="D169" s="51"/>
+      <c r="E169" s="51"/>
+      <c r="F169" s="51"/>
+      <c r="G169" s="51"/>
+      <c r="H169" s="51"/>
+      <c r="I169" s="51"/>
+      <c r="J169" s="58"/>
+      <c r="K169" s="58"/>
+      <c r="L169" s="58"/>
+      <c r="M169" s="58"/>
+      <c r="N169" s="58"/>
+      <c r="O169" s="58"/>
     </row>
     <row r="170" spans="1:15" ht="15" customHeight="1">
-      <c r="A170" s="52"/>
-      <c r="B170" s="52"/>
-      <c r="C170" s="52"/>
-      <c r="D170" s="52"/>
-      <c r="E170" s="52"/>
-      <c r="F170" s="52"/>
-      <c r="G170" s="52"/>
-      <c r="H170" s="52"/>
-      <c r="I170" s="52"/>
-      <c r="J170" s="59"/>
-      <c r="K170" s="59"/>
-      <c r="L170" s="59"/>
-      <c r="M170" s="59"/>
-      <c r="N170" s="59"/>
-      <c r="O170" s="59"/>
+      <c r="A170" s="51"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="51"/>
+      <c r="D170" s="51"/>
+      <c r="E170" s="51"/>
+      <c r="F170" s="51"/>
+      <c r="G170" s="51"/>
+      <c r="H170" s="51"/>
+      <c r="I170" s="51"/>
+      <c r="J170" s="58"/>
+      <c r="K170" s="58"/>
+      <c r="L170" s="58"/>
+      <c r="M170" s="58"/>
+      <c r="N170" s="58"/>
+      <c r="O170" s="58"/>
     </row>
     <row r="171" spans="1:15" ht="15" customHeight="1">
-      <c r="A171" s="52"/>
-      <c r="B171" s="52"/>
-      <c r="C171" s="52"/>
-      <c r="D171" s="52"/>
-      <c r="E171" s="52"/>
-      <c r="F171" s="52"/>
-      <c r="G171" s="52"/>
-      <c r="H171" s="52"/>
-      <c r="I171" s="52"/>
-      <c r="J171" s="59"/>
-      <c r="K171" s="59"/>
-      <c r="L171" s="59"/>
-      <c r="M171" s="59"/>
-      <c r="N171" s="59"/>
-      <c r="O171" s="59"/>
+      <c r="A171" s="51"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="51"/>
+      <c r="D171" s="51"/>
+      <c r="E171" s="51"/>
+      <c r="F171" s="51"/>
+      <c r="G171" s="51"/>
+      <c r="H171" s="51"/>
+      <c r="I171" s="51"/>
+      <c r="J171" s="58"/>
+      <c r="K171" s="58"/>
+      <c r="L171" s="58"/>
+      <c r="M171" s="58"/>
+      <c r="N171" s="58"/>
+      <c r="O171" s="58"/>
     </row>
     <row r="172" spans="1:15" ht="15" customHeight="1">
-      <c r="A172" s="52"/>
-      <c r="B172" s="52"/>
-      <c r="C172" s="52"/>
-      <c r="D172" s="52"/>
-      <c r="E172" s="52"/>
-      <c r="F172" s="52"/>
-      <c r="G172" s="52"/>
-      <c r="H172" s="52"/>
-      <c r="I172" s="52"/>
-      <c r="J172" s="59"/>
-      <c r="K172" s="59"/>
-      <c r="L172" s="59"/>
-      <c r="M172" s="59"/>
-      <c r="N172" s="59"/>
-      <c r="O172" s="59"/>
+      <c r="A172" s="51"/>
+      <c r="B172" s="51"/>
+      <c r="C172" s="51"/>
+      <c r="D172" s="51"/>
+      <c r="E172" s="51"/>
+      <c r="F172" s="51"/>
+      <c r="G172" s="51"/>
+      <c r="H172" s="51"/>
+      <c r="I172" s="51"/>
+      <c r="J172" s="58"/>
+      <c r="K172" s="58"/>
+      <c r="L172" s="58"/>
+      <c r="M172" s="58"/>
+      <c r="N172" s="58"/>
+      <c r="O172" s="58"/>
     </row>
     <row r="173" spans="1:15" ht="15" customHeight="1">
-      <c r="A173" s="52"/>
-      <c r="B173" s="52"/>
-      <c r="C173" s="52"/>
-      <c r="D173" s="52"/>
-      <c r="E173" s="52"/>
-      <c r="F173" s="52"/>
-      <c r="G173" s="52"/>
-      <c r="H173" s="52"/>
-      <c r="I173" s="52"/>
-      <c r="J173" s="59"/>
-      <c r="K173" s="59"/>
-      <c r="L173" s="59"/>
-      <c r="M173" s="59"/>
-      <c r="N173" s="59"/>
-      <c r="O173" s="59"/>
+      <c r="A173" s="51"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="51"/>
+      <c r="D173" s="51"/>
+      <c r="E173" s="51"/>
+      <c r="F173" s="51"/>
+      <c r="G173" s="51"/>
+      <c r="H173" s="51"/>
+      <c r="I173" s="51"/>
+      <c r="J173" s="58"/>
+      <c r="K173" s="58"/>
+      <c r="L173" s="58"/>
+      <c r="M173" s="58"/>
+      <c r="N173" s="58"/>
+      <c r="O173" s="58"/>
     </row>
     <row r="174" spans="1:15" ht="15" customHeight="1">
-      <c r="A174" s="52"/>
-      <c r="B174" s="52"/>
-      <c r="C174" s="52"/>
-      <c r="D174" s="52"/>
-      <c r="E174" s="52"/>
-      <c r="F174" s="52"/>
-      <c r="G174" s="52"/>
-      <c r="H174" s="52"/>
-      <c r="I174" s="52"/>
-      <c r="J174" s="59"/>
-      <c r="K174" s="59"/>
-      <c r="L174" s="59"/>
-      <c r="M174" s="59"/>
-      <c r="N174" s="59"/>
-      <c r="O174" s="59"/>
+      <c r="A174" s="51"/>
+      <c r="B174" s="51"/>
+      <c r="C174" s="51"/>
+      <c r="D174" s="51"/>
+      <c r="E174" s="51"/>
+      <c r="F174" s="51"/>
+      <c r="G174" s="51"/>
+      <c r="H174" s="51"/>
+      <c r="I174" s="51"/>
+      <c r="J174" s="58"/>
+      <c r="K174" s="58"/>
+      <c r="L174" s="58"/>
+      <c r="M174" s="58"/>
+      <c r="N174" s="58"/>
+      <c r="O174" s="58"/>
     </row>
     <row r="175" spans="1:15" ht="15" customHeight="1">
-      <c r="A175" s="47"/>
-      <c r="B175" s="47"/>
-      <c r="C175" s="47"/>
-      <c r="D175" s="47"/>
-      <c r="E175" s="47"/>
-      <c r="F175" s="47"/>
-      <c r="G175" s="47"/>
-      <c r="H175" s="47"/>
-      <c r="I175" s="47"/>
-      <c r="J175" s="47"/>
-      <c r="K175" s="47"/>
-      <c r="L175" s="47"/>
-      <c r="M175" s="47"/>
-      <c r="N175" s="47"/>
-      <c r="O175" s="47"/>
+      <c r="A175" s="46"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="46"/>
+      <c r="F175" s="46"/>
+      <c r="G175" s="46"/>
+      <c r="H175" s="46"/>
+      <c r="I175" s="46"/>
+      <c r="J175" s="46"/>
+      <c r="K175" s="46"/>
+      <c r="L175" s="46"/>
+      <c r="M175" s="46"/>
+      <c r="N175" s="46"/>
+      <c r="O175" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6716,7 +6736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="10.85546875" style="36" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
@@ -6806,7 +6826,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="10.85546875" style="37" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -360,9 +360,6 @@
     <t>15cm höhe</t>
   </si>
   <si>
-    <t>Tablet</t>
-  </si>
-  <si>
     <t>Tablet_SM</t>
   </si>
   <si>
@@ -874,6 +871,9 @@
   </si>
   <si>
     <t>Voodoo Puppe</t>
+  </si>
+  <si>
+    <t>Tablett</t>
   </si>
 </sst>
 </file>
@@ -2542,8 +2542,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P71" sqref="P71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2601,12 +2601,12 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E2" s="65" t="s">
         <v>9</v>
@@ -2633,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E3" s="67" t="s">
         <v>13</v>
@@ -2883,7 +2883,7 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>42</v>
@@ -3034,7 +3034,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
       <c r="L18" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="10"/>
@@ -3080,7 +3080,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M20" s="30" t="s">
         <v>61</v>
@@ -3095,7 +3095,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>63</v>
@@ -3137,7 +3137,7 @@
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E23" s="66"/>
       <c r="F23" s="67" t="s">
@@ -3164,7 +3164,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E24" s="67" t="s">
         <v>68</v>
@@ -3191,7 +3191,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E25" s="67" t="s">
         <v>71</v>
@@ -3218,7 +3218,7 @@
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
       <c r="D26" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="67" t="s">
@@ -3241,7 +3241,7 @@
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
       <c r="D27" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="66"/>
       <c r="F27" s="67" t="s">
@@ -3266,7 +3266,7 @@
         <v>76</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E28" s="67" t="s">
         <v>77</v>
@@ -3312,7 +3312,7 @@
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
       <c r="D30" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" s="67" t="s">
         <v>80</v>
@@ -3358,7 +3358,7 @@
       <c r="B32" s="66"/>
       <c r="C32" s="66"/>
       <c r="D32" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E32" s="66"/>
       <c r="F32" s="66"/>
@@ -3383,7 +3383,7 @@
         <v>84</v>
       </c>
       <c r="D33" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E33" s="67" t="s">
         <v>85</v>
@@ -3410,7 +3410,7 @@
         <v>87</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E34" s="67" t="s">
         <v>88</v>
@@ -3437,7 +3437,7 @@
         <v>90</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E35" s="67" t="s">
         <v>91</v>
@@ -3464,7 +3464,7 @@
         <v>93</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E36" s="67" t="s">
         <v>94</v>
@@ -3508,7 +3508,7 @@
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
       <c r="D38" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E38" s="67" t="s">
         <v>97</v>
@@ -3554,7 +3554,7 @@
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>101</v>
@@ -3600,7 +3600,7 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>105</v>
@@ -3644,7 +3644,7 @@
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>108</v>
@@ -3686,7 +3686,7 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -3707,7 +3707,7 @@
         <v>111</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E47" s="67" t="s">
         <v>112</v>
@@ -3731,16 +3731,16 @@
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E48" s="24" t="s">
+      <c r="F48" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>116</v>
       </c>
       <c r="G48" s="32"/>
       <c r="H48" s="43" t="s">
@@ -3758,16 +3758,16 @@
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E49" s="67" t="s">
+      <c r="F49" s="67" t="s">
         <v>118</v>
-      </c>
-      <c r="F49" s="67" t="s">
-        <v>119</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="59" t="s">
@@ -3785,19 +3785,19 @@
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E50" s="67" t="s">
+      <c r="F50" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="67" t="s">
+      <c r="G50" s="67" t="s">
         <v>122</v>
-      </c>
-      <c r="G50" s="67" t="s">
-        <v>123</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>31</v>
@@ -3814,16 +3814,16 @@
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E51" s="24" t="s">
+      <c r="F51" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="11"/>
@@ -3839,13 +3839,13 @@
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>128</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>113</v>
@@ -3864,16 +3864,16 @@
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E53" s="24" t="s">
+      <c r="F53" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="G53" s="32"/>
       <c r="H53" s="11"/>
@@ -3889,16 +3889,16 @@
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E54" s="67" t="s">
+      <c r="F54" s="67" t="s">
         <v>133</v>
-      </c>
-      <c r="F54" s="67" t="s">
-        <v>134</v>
       </c>
       <c r="G54" s="66"/>
       <c r="H54" s="37" t="s">
@@ -3916,16 +3916,16 @@
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E55" s="24" t="s">
+      <c r="F55" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="11"/>
@@ -3956,21 +3956,21 @@
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1">
       <c r="A57" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
       <c r="D57" s="66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E57" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="67" t="s">
-        <v>140</v>
-      </c>
       <c r="G57" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H57" s="63" t="s">
         <v>31</v>
@@ -4002,18 +4002,18 @@
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1">
       <c r="A59" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="66"/>
       <c r="C59" s="66"/>
       <c r="D59" s="66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E59" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="67" t="s">
         <v>142</v>
-      </c>
-      <c r="F59" s="67" t="s">
-        <v>143</v>
       </c>
       <c r="G59" s="66"/>
       <c r="H59" s="33" t="s">
@@ -4046,12 +4046,12 @@
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
       <c r="A61" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
@@ -4086,12 +4086,12 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
@@ -4109,16 +4109,16 @@
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E64" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E64" s="24" t="s">
+      <c r="F64" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="G64" s="32"/>
       <c r="H64" s="43" t="s">
@@ -4136,13 +4136,13 @@
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
@@ -4176,18 +4176,18 @@
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B67" s="66"/>
       <c r="C67" s="66"/>
       <c r="D67" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E67" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="67" t="s">
         <v>152</v>
-      </c>
-      <c r="F67" s="67" t="s">
-        <v>153</v>
       </c>
       <c r="G67" s="66"/>
       <c r="H67" s="37" t="s">
@@ -4220,12 +4220,12 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="32"/>
@@ -4243,16 +4243,16 @@
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" s="24" t="s">
+      <c r="F70" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>157</v>
       </c>
       <c r="G70" s="32"/>
       <c r="H70" s="11"/>
@@ -4268,16 +4268,16 @@
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E71" s="24" t="s">
+      <c r="F71" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>160</v>
       </c>
       <c r="G71" s="32"/>
       <c r="H71" s="11"/>
@@ -4293,16 +4293,16 @@
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E72" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E72" s="24" t="s">
+      <c r="F72" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="G72" s="32"/>
       <c r="H72" s="11"/>
@@ -4333,12 +4333,12 @@
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -4356,17 +4356,17 @@
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>166</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="22"/>
@@ -4381,13 +4381,13 @@
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -4404,13 +4404,13 @@
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
@@ -4427,13 +4427,13 @@
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>173</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -4450,13 +4450,13 @@
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
@@ -4473,13 +4473,13 @@
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
@@ -4496,13 +4496,13 @@
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
@@ -4519,13 +4519,13 @@
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -4542,17 +4542,17 @@
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E83" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -4567,13 +4567,13 @@
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E84" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="D84" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>186</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
@@ -4590,13 +4590,13 @@
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E85" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="D85" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
@@ -4613,13 +4613,13 @@
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
@@ -4651,18 +4651,18 @@
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E88" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F88" s="17" t="s">
         <v>192</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>193</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="43" t="s">
@@ -4695,12 +4695,12 @@
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
       <c r="A90" s="67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B90" s="66"/>
       <c r="C90" s="66"/>
       <c r="D90" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E90" s="66"/>
       <c r="F90" s="66"/>
@@ -4720,16 +4720,16 @@
       <c r="A91" s="66"/>
       <c r="B91" s="66"/>
       <c r="C91" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D91" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E91" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D91" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E91" s="67" t="s">
+      <c r="F91" s="67" t="s">
         <v>196</v>
-      </c>
-      <c r="F91" s="67" t="s">
-        <v>197</v>
       </c>
       <c r="G91" s="66"/>
       <c r="H91" s="37" t="s">
@@ -4747,16 +4747,16 @@
       <c r="A92" s="66"/>
       <c r="B92" s="66"/>
       <c r="C92" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E92" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D92" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E92" s="67" t="s">
-        <v>199</v>
-      </c>
       <c r="F92" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G92" s="66"/>
       <c r="H92" s="37" t="s">
@@ -4774,16 +4774,16 @@
       <c r="A93" s="66"/>
       <c r="B93" s="66"/>
       <c r="C93" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E93" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="D93" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E93" s="67" t="s">
+      <c r="F93" s="67" t="s">
         <v>201</v>
-      </c>
-      <c r="F93" s="67" t="s">
-        <v>202</v>
       </c>
       <c r="G93" s="66"/>
       <c r="H93" s="37" t="s">
@@ -4801,16 +4801,16 @@
       <c r="A94" s="66"/>
       <c r="B94" s="66"/>
       <c r="C94" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E94" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="D94" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E94" s="67" t="s">
-        <v>204</v>
-      </c>
       <c r="F94" s="67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G94" s="66"/>
       <c r="H94" s="37" t="s">
@@ -4828,16 +4828,16 @@
       <c r="A95" s="66"/>
       <c r="B95" s="66"/>
       <c r="C95" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E95" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D95" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E95" s="67" t="s">
+      <c r="F95" s="67" t="s">
         <v>206</v>
-      </c>
-      <c r="F95" s="67" t="s">
-        <v>207</v>
       </c>
       <c r="G95" s="66"/>
       <c r="H95" s="37" t="s">
@@ -4855,16 +4855,16 @@
       <c r="A96" s="66"/>
       <c r="B96" s="66"/>
       <c r="C96" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="D96" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96" s="67" t="s">
-        <v>209</v>
-      </c>
       <c r="F96" s="67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G96" s="66"/>
       <c r="H96" s="37" t="s">
@@ -4882,16 +4882,16 @@
       <c r="A97" s="66"/>
       <c r="B97" s="66"/>
       <c r="C97" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E97" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D97" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E97" s="67" t="s">
+      <c r="F97" s="67" t="s">
         <v>211</v>
-      </c>
-      <c r="F97" s="67" t="s">
-        <v>212</v>
       </c>
       <c r="G97" s="66"/>
       <c r="H97" s="37" t="s">
@@ -4909,16 +4909,16 @@
       <c r="A98" s="66"/>
       <c r="B98" s="66"/>
       <c r="C98" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E98" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="D98" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E98" s="67" t="s">
-        <v>214</v>
-      </c>
       <c r="F98" s="67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G98" s="66"/>
       <c r="H98" s="37" t="s">
@@ -4951,12 +4951,12 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1">
       <c r="A100" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
       <c r="D100" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
@@ -4974,16 +4974,16 @@
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E101" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E101" s="24" t="s">
+      <c r="F101" s="24" t="s">
         <v>217</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>218</v>
       </c>
       <c r="G101" s="32"/>
       <c r="H101" s="44" t="s">
@@ -5001,17 +5001,17 @@
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E102" s="24" t="s">
         <v>219</v>
-      </c>
-      <c r="D102" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>220</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H102" s="44" t="s">
         <v>37</v>
@@ -5028,17 +5028,17 @@
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E103" s="24" t="s">
         <v>222</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>223</v>
       </c>
       <c r="F103" s="32"/>
       <c r="G103" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H103" s="44" t="s">
         <v>37</v>
@@ -5055,17 +5055,17 @@
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E104" s="24" t="s">
         <v>225</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>226</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H104" s="44" t="s">
         <v>37</v>
@@ -5082,17 +5082,17 @@
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G105" s="24" t="s">
         <v>229</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>230</v>
       </c>
       <c r="H105" s="44" t="s">
         <v>37</v>
@@ -5124,12 +5124,12 @@
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1">
       <c r="A107" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B107" s="66"/>
       <c r="C107" s="66"/>
       <c r="D107" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E107" s="66"/>
       <c r="F107" s="66"/>
@@ -5149,16 +5149,16 @@
       <c r="A108" s="66"/>
       <c r="B108" s="66"/>
       <c r="C108" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D108" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E108" s="67" t="s">
+      <c r="F108" s="67" t="s">
         <v>233</v>
-      </c>
-      <c r="F108" s="67" t="s">
-        <v>234</v>
       </c>
       <c r="G108" s="66"/>
       <c r="H108" s="37" t="s">
@@ -5176,13 +5176,13 @@
       <c r="A109" s="66"/>
       <c r="B109" s="66"/>
       <c r="C109" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E109" s="67" t="s">
         <v>235</v>
-      </c>
-      <c r="D109" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E109" s="67" t="s">
-        <v>236</v>
       </c>
       <c r="F109" s="67" t="s">
         <v>10</v>
@@ -5203,16 +5203,16 @@
       <c r="A110" s="66"/>
       <c r="B110" s="66"/>
       <c r="C110" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E110" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="D110" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E110" s="67" t="s">
+      <c r="F110" s="67" t="s">
         <v>238</v>
-      </c>
-      <c r="F110" s="67" t="s">
-        <v>239</v>
       </c>
       <c r="G110" s="66"/>
       <c r="H110" s="37" t="s">
@@ -5245,19 +5245,19 @@
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1">
       <c r="A112" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
       <c r="D112" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="22"/>
@@ -5287,17 +5287,17 @@
     </row>
     <row r="114" spans="1:256" ht="15" customHeight="1">
       <c r="A114" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B114" s="66"/>
       <c r="C114" s="66"/>
       <c r="D114" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E114" s="66"/>
       <c r="F114" s="66"/>
       <c r="G114" s="67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H114" s="14" t="s">
         <v>11</v>
@@ -5329,15 +5329,15 @@
     </row>
     <row r="116" spans="1:256" ht="15" customHeight="1">
       <c r="A116" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
@@ -5369,18 +5369,18 @@
     </row>
     <row r="118" spans="1:256" ht="15" customHeight="1">
       <c r="A118" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B118" s="32"/>
       <c r="C118" s="32"/>
       <c r="D118" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E118" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F118" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="F118" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="G118" s="32"/>
       <c r="H118" s="44" t="s">
@@ -5413,12 +5413,12 @@
     </row>
     <row r="120" spans="1:256" ht="15" customHeight="1">
       <c r="A120" s="67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B120" s="66"/>
       <c r="C120" s="66"/>
       <c r="D120" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E120" s="66"/>
       <c r="F120" s="66"/>
@@ -5438,16 +5438,16 @@
       <c r="A121" s="66"/>
       <c r="B121" s="66"/>
       <c r="C121" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D121" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E121" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="D121" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E121" s="67" t="s">
+      <c r="F121" s="67" t="s">
         <v>252</v>
-      </c>
-      <c r="F121" s="67" t="s">
-        <v>253</v>
       </c>
       <c r="G121" s="66"/>
       <c r="H121" s="33" t="s">
@@ -5465,19 +5465,19 @@
       <c r="A122" s="66"/>
       <c r="B122" s="66"/>
       <c r="C122" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D122" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="D122" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E122" s="67" t="s">
+      <c r="F122" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F122" s="67" t="s">
+      <c r="G122" s="67" t="s">
         <v>256</v>
-      </c>
-      <c r="G122" s="67" t="s">
-        <v>257</v>
       </c>
       <c r="H122" s="33" t="s">
         <v>31</v>
@@ -5494,16 +5494,16 @@
       <c r="A123" s="66"/>
       <c r="B123" s="66"/>
       <c r="C123" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E123" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="D123" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E123" s="67" t="s">
+      <c r="F123" s="67" t="s">
         <v>259</v>
-      </c>
-      <c r="F123" s="67" t="s">
-        <v>260</v>
       </c>
       <c r="G123" s="66"/>
       <c r="H123" s="37" t="s">
@@ -5521,16 +5521,16 @@
       <c r="A124" s="66"/>
       <c r="B124" s="66"/>
       <c r="C124" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E124" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="D124" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E124" s="67" t="s">
-        <v>262</v>
-      </c>
       <c r="F124" s="67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G124" s="66"/>
       <c r="H124" s="37" t="s">
@@ -5548,16 +5548,16 @@
       <c r="A125" s="66"/>
       <c r="B125" s="66"/>
       <c r="C125" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="D125" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="D125" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E125" s="67" t="s">
+      <c r="F125" s="67" t="s">
         <v>264</v>
-      </c>
-      <c r="F125" s="67" t="s">
-        <v>265</v>
       </c>
       <c r="G125" s="66"/>
       <c r="H125" s="33" t="s">
@@ -5575,16 +5575,16 @@
       <c r="A126" s="66"/>
       <c r="B126" s="66"/>
       <c r="C126" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E126" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="D126" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="E126" s="67" t="s">
-        <v>267</v>
-      </c>
       <c r="F126" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G126" s="66"/>
       <c r="H126" s="33" t="s">
@@ -5851,12 +5851,12 @@
     </row>
     <row r="128" spans="1:256" ht="15" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -5874,10 +5874,10 @@
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -5895,10 +5895,10 @@
       <c r="A130" s="47"/>
       <c r="B130" s="47"/>
       <c r="C130" s="48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E130" s="49"/>
       <c r="F130" s="49"/>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1">
       <c r="A132" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B132" s="52"/>
       <c r="C132" s="52"/>
@@ -5952,10 +5952,10 @@
       <c r="A133" s="53"/>
       <c r="B133" s="53"/>
       <c r="C133" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D133" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E133" s="52"/>
       <c r="F133" s="56"/>
@@ -5975,14 +5975,14 @@
       <c r="A134" s="53"/>
       <c r="B134" s="53"/>
       <c r="C134" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D134" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E134" s="52"/>
       <c r="F134" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G134" s="52"/>
       <c r="H134" s="54" t="s">
@@ -6000,10 +6000,10 @@
       <c r="A135" s="53"/>
       <c r="B135" s="53"/>
       <c r="C135" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D135" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E135" s="52"/>
       <c r="F135" s="52"/>
@@ -6023,10 +6023,10 @@
       <c r="A136" s="53"/>
       <c r="B136" s="53"/>
       <c r="C136" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D136" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E136" s="52"/>
       <c r="F136" s="52"/>
@@ -6044,10 +6044,10 @@
       <c r="A137" s="53"/>
       <c r="B137" s="53"/>
       <c r="C137" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D137" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E137" s="52"/>
       <c r="F137" s="52"/>
@@ -6067,10 +6067,10 @@
       <c r="A138" s="53"/>
       <c r="B138" s="53"/>
       <c r="C138" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D138" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E138" s="52"/>
       <c r="F138" s="52"/>
@@ -6088,10 +6088,10 @@
       <c r="A139" s="53"/>
       <c r="B139" s="53"/>
       <c r="C139" s="52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D139" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E139" s="52"/>
       <c r="F139" s="52"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="286">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -2542,8 +2542,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3826,8 +3826,10 @@
         <v>125</v>
       </c>
       <c r="G51" s="32"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="22"/>
+      <c r="H51" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="38"/>
       <c r="J51" s="3"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -3851,8 +3853,10 @@
         <v>113</v>
       </c>
       <c r="G52" s="32"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="22"/>
+      <c r="H52" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="40"/>
       <c r="J52" s="3"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -3876,7 +3880,9 @@
         <v>130</v>
       </c>
       <c r="G53" s="32"/>
-      <c r="H53" s="11"/>
+      <c r="H53" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="I53" s="22"/>
       <c r="J53" s="3"/>
       <c r="K53" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -3856,7 +3856,7 @@
       <c r="H52" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="38"/>
       <c r="J52" s="3"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -3883,7 +3883,7 @@
       <c r="H53" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I53" s="22"/>
+      <c r="I53" s="40"/>
       <c r="J53" s="3"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -2543,7 +2543,7 @@
   <dimension ref="A1:IV175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3883,7 +3883,7 @@
       <c r="H53" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I53" s="40"/>
+      <c r="I53" s="38"/>
       <c r="J53" s="3"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="286">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -1277,7 +1277,7 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1346,6 +1346,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2542,8 +2543,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6081,8 +6082,10 @@
       <c r="E138" s="52"/>
       <c r="F138" s="52"/>
       <c r="G138" s="52"/>
-      <c r="H138" s="51"/>
-      <c r="I138" s="55"/>
+      <c r="H138" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="61"/>
       <c r="J138" s="58"/>
       <c r="K138" s="58"/>
       <c r="L138" s="58"/>
@@ -6102,8 +6105,10 @@
       <c r="E139" s="52"/>
       <c r="F139" s="52"/>
       <c r="G139" s="52"/>
-      <c r="H139" s="51"/>
-      <c r="I139" s="55"/>
+      <c r="H139" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="68"/>
       <c r="J139" s="58"/>
       <c r="K139" s="58"/>
       <c r="L139" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1277,7 +1277,7 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1346,7 +1346,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2543,8 +2542,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6108,7 +6107,7 @@
       <c r="H139" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="I139" s="68"/>
+      <c r="I139" s="61"/>
       <c r="J139" s="58"/>
       <c r="K139" s="58"/>
       <c r="L139" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1277,7 +1277,7 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1346,6 +1346,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2542,8 +2543,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2776,7 +2777,7 @@
       <c r="L8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="68" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="10"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="301">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -33,24 +33,12 @@
     <t>Nummer</t>
   </si>
   <si>
-    <t>Maße höhe/ breit/ tiefe</t>
-  </si>
-  <si>
-    <t>Beschriebung</t>
-  </si>
-  <si>
-    <t>Zuständigkeit bei</t>
-  </si>
-  <si>
     <t>Zustand</t>
   </si>
   <si>
     <t>Voodoo13_SM</t>
   </si>
   <si>
-    <t>40cm höhe</t>
-  </si>
-  <si>
     <t>Lou</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
     <t>Wachamnn_SM</t>
   </si>
   <si>
-    <t>170cm höhe</t>
-  </si>
-  <si>
     <t>MOD</t>
   </si>
   <si>
@@ -225,45 +210,27 @@
     <t>Schreibtisch_Platte_MOD</t>
   </si>
   <si>
-    <t>120cm breit/ 60cm tiefe</t>
-  </si>
-  <si>
     <t>Schubladenelement mit 3 Schubladen</t>
   </si>
   <si>
     <t>Schreibtisch_Schubladen_MOD</t>
   </si>
   <si>
-    <t>Höhe Schublade 1- 25cm</t>
-  </si>
-  <si>
     <t>Unten statt Tischbein</t>
   </si>
   <si>
-    <t>Höhe Schublade 2- 40cm (ausziehbar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Höhe Schublade 3- 65cm </t>
-  </si>
-  <si>
     <t xml:space="preserve">Türenelement </t>
   </si>
   <si>
     <t>Schreibtisch_Tür_MOD</t>
   </si>
   <si>
-    <t>Höhe 65cm</t>
-  </si>
-  <si>
     <t>Bürostuhl</t>
   </si>
   <si>
     <t>Bürostuhl_SM</t>
   </si>
   <si>
-    <t xml:space="preserve">Sitzfäche 60cm höhe/ 45cm breit,tiefe </t>
-  </si>
-  <si>
     <t>Lehne undefiniert</t>
   </si>
   <si>
@@ -276,45 +243,30 @@
     <t>Regal_Seite_groß_MOD</t>
   </si>
   <si>
-    <t>160cm höhe/ 40cm tief</t>
-  </si>
-  <si>
     <t>Seitenteil klein</t>
   </si>
   <si>
     <t>Regal_Seite_klein_MOD</t>
   </si>
   <si>
-    <t>200cm höhe/ 40cm tief</t>
-  </si>
-  <si>
     <t>Regalboden groß</t>
   </si>
   <si>
     <t>Regal_Boden_groß_MOD</t>
   </si>
   <si>
-    <t>200cm breit/ 40 cm tief</t>
-  </si>
-  <si>
     <t>Regalboden klein</t>
   </si>
   <si>
     <t>Regal_Boden_klein_MOD</t>
   </si>
   <si>
-    <t>100cm breit/ 40cm tief</t>
-  </si>
-  <si>
     <t>Aktenschrank</t>
   </si>
   <si>
     <t>Aktenschrank_SM</t>
   </si>
   <si>
-    <t>80cm höhe/ 40cm breit / 60cm tief</t>
-  </si>
-  <si>
     <t>Schubladen müssen herausziehbar sein</t>
   </si>
   <si>
@@ -324,9 +276,6 @@
     <t>Waschbecken_SM</t>
   </si>
   <si>
-    <t>40/40/40</t>
-  </si>
-  <si>
     <t>Mit Wasserhahn und Wasserbecken</t>
   </si>
   <si>
@@ -336,18 +285,12 @@
     <t>Operationstisch_SM</t>
   </si>
   <si>
-    <t xml:space="preserve"> 80cm höhe/ 100cm breit/ 50cm tief</t>
-  </si>
-  <si>
     <t>Experimentetisch</t>
   </si>
   <si>
     <t>Experimentetisch_SM</t>
   </si>
   <si>
-    <t>80cm höhe</t>
-  </si>
-  <si>
     <t>Arztbesteck</t>
   </si>
   <si>
@@ -357,33 +300,21 @@
     <t>Skalpel_SM</t>
   </si>
   <si>
-    <t>15cm höhe</t>
-  </si>
-  <si>
     <t>Tablet_SM</t>
   </si>
   <si>
-    <t>22cm breit/ 30 cm tief</t>
-  </si>
-  <si>
     <t>Operationsschere</t>
   </si>
   <si>
     <t>Operationsschere_SM</t>
   </si>
   <si>
-    <t>12cm höhe</t>
-  </si>
-  <si>
     <t>Nadeln</t>
   </si>
   <si>
     <t>Nadel_SM</t>
   </si>
   <si>
-    <t>ca 18 cm höhe</t>
-  </si>
-  <si>
     <t>verschiedenfarbiger Kopf</t>
   </si>
   <si>
@@ -393,9 +324,6 @@
     <t>Pinzette_SM</t>
   </si>
   <si>
-    <t>6 cm höhe</t>
-  </si>
-  <si>
     <t>Operationspinzette</t>
   </si>
   <si>
@@ -408,45 +336,30 @@
     <t>Fadentrenner_SM</t>
   </si>
   <si>
-    <t>10cm höhe</t>
-  </si>
-  <si>
     <t>Nähnadel</t>
   </si>
   <si>
     <t>Nähnadel_SM</t>
   </si>
   <si>
-    <t>4cm höhe</t>
-  </si>
-  <si>
     <t>Garn</t>
   </si>
   <si>
     <t>Garn_SM</t>
   </si>
   <si>
-    <t>4cm höhe/ ca 1,5 cm durchmesser</t>
-  </si>
-  <si>
     <t>Voodoo Masken</t>
   </si>
   <si>
     <t>Voodoomasken_SM</t>
   </si>
   <si>
-    <t>35 cm höhe / ca. 20cm breit</t>
-  </si>
-  <si>
     <t>Fetisch</t>
   </si>
   <si>
     <t>Fetisch_SM</t>
   </si>
   <si>
-    <t>ca 25 cm höhe</t>
-  </si>
-  <si>
     <t>Mülleimer</t>
   </si>
   <si>
@@ -459,9 +372,6 @@
     <t>Deckenlampe_SM</t>
   </si>
   <si>
-    <t>ca 30cm durchmesser</t>
-  </si>
-  <si>
     <t>Schreibtischlampe</t>
   </si>
   <si>
@@ -474,9 +384,6 @@
     <t>Pinwand_SM</t>
   </si>
   <si>
-    <t>70cm höhe/ 100cm breite</t>
-  </si>
-  <si>
     <t>Kerzen</t>
   </si>
   <si>
@@ -486,27 +393,18 @@
     <t>Kerze_groß_SM</t>
   </si>
   <si>
-    <t>28cm höhe</t>
-  </si>
-  <si>
     <t>Kerze mittel</t>
   </si>
   <si>
     <t>Kerze_mittel_SM</t>
   </si>
   <si>
-    <t>23cm höhe</t>
-  </si>
-  <si>
     <t>Kerze klein</t>
   </si>
   <si>
     <t>Kerze_klein_SM</t>
   </si>
   <si>
-    <t>18cm höhe</t>
-  </si>
-  <si>
     <t>Enviroment Storytelling</t>
   </si>
   <si>
@@ -606,9 +504,6 @@
     <t>Buch_klein_dünn_SM</t>
   </si>
   <si>
-    <t>12*19cm (breite undefiniert)</t>
-  </si>
-  <si>
     <t>Buch klein dick</t>
   </si>
   <si>
@@ -621,9 +516,6 @@
     <t>Buch_standart_dünn_SM</t>
   </si>
   <si>
-    <t>13,5*21,5cm (breite undefiniert)</t>
-  </si>
-  <si>
     <t>Buch standart dick</t>
   </si>
   <si>
@@ -636,9 +528,6 @@
     <t>Buch_mittel_dünn_SM</t>
   </si>
   <si>
-    <t>17,0*24,0cm (breite undefiniert)</t>
-  </si>
-  <si>
     <t>Buch mittel dick</t>
   </si>
   <si>
@@ -651,9 +540,6 @@
     <t>Buch_groß_dünn_SM</t>
   </si>
   <si>
-    <t>21,0*29,7cm (A4) (breite undefiniert)</t>
-  </si>
-  <si>
     <t>Buch groß dick</t>
   </si>
   <si>
@@ -669,9 +555,6 @@
     <t>Reagenzglas_SM</t>
   </si>
   <si>
-    <t>1,6 cm durchmesser</t>
-  </si>
-  <si>
     <t>Erlenmeyerkolben</t>
   </si>
   <si>
@@ -702,9 +585,6 @@
     <t>Becherglas</t>
   </si>
   <si>
-    <t>14,5 cm höhe/ 10,5 cm durchmesser</t>
-  </si>
-  <si>
     <t>1000 ml</t>
   </si>
   <si>
@@ -717,9 +597,6 @@
     <t>Kiste_klein_SM</t>
   </si>
   <si>
-    <t>25cm höhe</t>
-  </si>
-  <si>
     <t>Kiste mittel</t>
   </si>
   <si>
@@ -732,18 +609,12 @@
     <t>Kiste_groß_SM</t>
   </si>
   <si>
-    <t>65cm höhe</t>
-  </si>
-  <si>
     <t>Dreck</t>
   </si>
   <si>
     <t>Dreck_01_DECAL</t>
   </si>
   <si>
-    <t>unterschiedliche größen</t>
-  </si>
-  <si>
     <t>Blume</t>
   </si>
   <si>
@@ -762,9 +633,6 @@
     <t>Aschenbecher_SM</t>
   </si>
   <si>
-    <t>14cm durchmesser</t>
-  </si>
-  <si>
     <t>Raumbau</t>
   </si>
   <si>
@@ -774,33 +642,18 @@
     <t>Wand_MOD</t>
   </si>
   <si>
-    <t xml:space="preserve">300cm höhe / 100cm breit </t>
-  </si>
-  <si>
     <t>Wand mit Tür</t>
   </si>
   <si>
     <t>Wand_Tür_MOD</t>
   </si>
   <si>
-    <t>Tür 200cm höhe / 100cm breit</t>
-  </si>
-  <si>
-    <t>Müss man Öffnen können</t>
-  </si>
-  <si>
     <t>Kellerfenster</t>
   </si>
   <si>
     <t>Wand_Fenster_MOD</t>
   </si>
   <si>
-    <t>Fenster 30cm höhe / 100cm breite</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vergittertem Fenster</t>
-  </si>
-  <si>
     <t>Wand_Fenstergitter_MOD</t>
   </si>
   <si>
@@ -810,9 +663,6 @@
     <t>Deckenplatter_MOD</t>
   </si>
   <si>
-    <t>100cm breit/100cm tief/5cm dick</t>
-  </si>
-  <si>
     <t>Bodenplatten</t>
   </si>
   <si>
@@ -846,24 +696,15 @@
     <t>Stifte</t>
   </si>
   <si>
-    <t>Schreibmaschiene</t>
-  </si>
-  <si>
     <t>Stempel</t>
   </si>
   <si>
     <t>Notizzettel</t>
   </si>
   <si>
-    <t>Abhörgeräte</t>
-  </si>
-  <si>
     <t>Brieföffner</t>
   </si>
   <si>
-    <t>20cm höhe/20cm tiefe/30cm breite</t>
-  </si>
-  <si>
     <t>Tacker</t>
   </si>
   <si>
@@ -874,17 +715,228 @@
   </si>
   <si>
     <t>Tablett</t>
+  </si>
+  <si>
+    <t>Lineal</t>
+  </si>
+  <si>
+    <t>Vergrößerungsglas</t>
+  </si>
+  <si>
+    <t>Laborstativ</t>
+  </si>
+  <si>
+    <t>Bunsen Brenner</t>
+  </si>
+  <si>
+    <t>Trichter</t>
+  </si>
+  <si>
+    <t>Waage</t>
+  </si>
+  <si>
+    <t>Schale/Schüssel</t>
+  </si>
+  <si>
+    <t>Ordner</t>
+  </si>
+  <si>
+    <t>Tafel</t>
+  </si>
+  <si>
+    <t>Hutständer</t>
+  </si>
+  <si>
+    <t>Schemel</t>
+  </si>
+  <si>
+    <t>Kiste</t>
+  </si>
+  <si>
+    <t>Rührstab</t>
+  </si>
+  <si>
+    <t>Einmachglas</t>
+  </si>
+  <si>
+    <t>30cm Höhe/ 27cm Tiefe/ 5cm Breite</t>
+  </si>
+  <si>
+    <t>20cm Höhe/20cm Tiefe/30cm Breite</t>
+  </si>
+  <si>
+    <t>14cm Durchmesser</t>
+  </si>
+  <si>
+    <t>65cm Höhe</t>
+  </si>
+  <si>
+    <t>40cm Höhe</t>
+  </si>
+  <si>
+    <t>25cm Höhe</t>
+  </si>
+  <si>
+    <t>14,5cm Höhe/ 10,5cm Durchmesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300cm Höhe / 100cm Breite </t>
+  </si>
+  <si>
+    <t>Tür 200cm Höhe / 100cm Breite</t>
+  </si>
+  <si>
+    <t>Fenster 30cm Höhe / 100cm Breite</t>
+  </si>
+  <si>
+    <t>100cm Breite/100cm Tiefe/5cm Höhe</t>
+  </si>
+  <si>
+    <t>Müss man öffnen können</t>
+  </si>
+  <si>
+    <t>Abhörgerät</t>
+  </si>
+  <si>
+    <t>Schreibmaschine</t>
+  </si>
+  <si>
+    <t>Vergittertes Fenster</t>
+  </si>
+  <si>
+    <t>unterschiedliche Größen</t>
+  </si>
+  <si>
+    <t>1,6cm Durchmesser</t>
+  </si>
+  <si>
+    <t>12*19cm (Breite undefiniert)</t>
+  </si>
+  <si>
+    <t>13,5*21,5cm (Breite undefiniert)</t>
+  </si>
+  <si>
+    <t>17,0*24,0cm (Breite undefiniert)</t>
+  </si>
+  <si>
+    <t>21,0*29,7cm (A4) (Breite undefiniert)</t>
+  </si>
+  <si>
+    <t>28cm Höhe</t>
+  </si>
+  <si>
+    <t>23cm Höhe</t>
+  </si>
+  <si>
+    <t>18cm Höhe</t>
+  </si>
+  <si>
+    <t>70cm Höhe/ 100cm Breite</t>
+  </si>
+  <si>
+    <t>ca. 30cm Durchmesser</t>
+  </si>
+  <si>
+    <t>ca. 25 cm Höhe</t>
+  </si>
+  <si>
+    <t>35cm Höhe / ca. 20cm Breite</t>
+  </si>
+  <si>
+    <t>4cm Höhe/ ca. 1,5 cm Durchmesser</t>
+  </si>
+  <si>
+    <t>4cm Höhe</t>
+  </si>
+  <si>
+    <t>10cm Höhe</t>
+  </si>
+  <si>
+    <t>15cm Höhe</t>
+  </si>
+  <si>
+    <t>6 cm Höhe</t>
+  </si>
+  <si>
+    <t>ca. 18 cm Höhe</t>
+  </si>
+  <si>
+    <t>12cm Höhe</t>
+  </si>
+  <si>
+    <t>22cm Breite/ 30 cm Tiefe</t>
+  </si>
+  <si>
+    <t>80cm Höhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80cm Höhe/ 100cm Breite/ 50cm Tiefe</t>
+  </si>
+  <si>
+    <t>40cm Höhe/ 40cm Breite/ 40cm Tiefe</t>
+  </si>
+  <si>
+    <t>80cm Höhe/ 40cm Breite / 60cm Tiefe</t>
+  </si>
+  <si>
+    <t>100cm Breite/ 40cm Tiefe</t>
+  </si>
+  <si>
+    <t>200cm Breite/ 40 cm Tiefe</t>
+  </si>
+  <si>
+    <t>200cm Höhe/ 40cm Tiefe</t>
+  </si>
+  <si>
+    <t>160cm Höhe/ 40cm Tiefe</t>
+  </si>
+  <si>
+    <t>Sitzfäche 60cm Höhe/ 45cm Breite/ 45cm Tiefe</t>
+  </si>
+  <si>
+    <t>Schublade 3- 65cm Höhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schublade 2- 40cm Höhe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schublade 1- 25cm Höhe </t>
+  </si>
+  <si>
+    <t>ausziehbar</t>
+  </si>
+  <si>
+    <t>120cm Breite/ 60cm Tiefe</t>
+  </si>
+  <si>
+    <t>170cm Höhe</t>
+  </si>
+  <si>
+    <t>Maße Höhe/ Breite/ Tiefe</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuständigkeit </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -958,7 +1010,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,6 +1144,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1270,14 +1328,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1286,22 +1345,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1312,44 +1371,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="17" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
+    <cellStyle name="40 % - Akzent3" xfId="5" builtinId="39"/>
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="4" builtinId="27"/>
@@ -2543,8 +2606,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2582,16 +2645,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
@@ -2602,22 +2665,22 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="G2" s="64"/>
       <c r="H2" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -2631,25 +2694,25 @@
       <c r="A3" s="11"/>
       <c r="B3" s="66"/>
       <c r="C3" s="67" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
       <c r="H3" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="3"/>
@@ -2657,26 +2720,26 @@
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="3"/>
@@ -2684,24 +2747,24 @@
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="3"/>
@@ -2709,23 +2772,23 @@
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -2734,24 +2797,24 @@
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="3"/>
@@ -2759,26 +2822,26 @@
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M8" s="68" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="3"/>
@@ -2786,24 +2849,24 @@
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="3"/>
@@ -2811,26 +2874,26 @@
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
       <c r="L10" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="3"/>
@@ -2838,24 +2901,24 @@
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="3"/>
@@ -2879,31 +2942,31 @@
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>43</v>
+        <v>297</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
       <c r="L13" s="30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="3"/>
@@ -2911,26 +2974,26 @@
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="3"/>
@@ -2938,23 +3001,23 @@
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
       <c r="L15" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M15" s="30" t="s">
         <v>1</v>
@@ -2965,26 +3028,26 @@
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
       <c r="L16" s="30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="3"/>
@@ -2992,26 +3055,26 @@
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="3"/>
@@ -3019,23 +3082,23 @@
     <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
       <c r="L18" s="30" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="10"/>
@@ -3044,26 +3107,26 @@
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
       <c r="L19" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="3"/>
@@ -3081,29 +3144,29 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="30" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="22"/>
@@ -3133,22 +3196,22 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E23" s="66"/>
       <c r="F23" s="67" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="3"/>
@@ -3162,20 +3225,20 @@
       <c r="A24" s="66"/>
       <c r="B24" s="66"/>
       <c r="C24" s="67" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>69</v>
+        <v>296</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="3"/>
@@ -3189,22 +3252,22 @@
       <c r="A25" s="66"/>
       <c r="B25" s="66"/>
       <c r="C25" s="67" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>72</v>
+        <v>294</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="3"/>
@@ -3219,15 +3282,17 @@
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
       <c r="D26" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="66"/>
+        <v>293</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>295</v>
+      </c>
       <c r="H26" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="3"/>
@@ -3242,15 +3307,15 @@
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
       <c r="D27" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E27" s="66"/>
       <c r="F27" s="67" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="3"/>
@@ -3264,22 +3329,22 @@
       <c r="A28" s="66"/>
       <c r="B28" s="66"/>
       <c r="C28" s="67" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="G28" s="67" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="3"/>
@@ -3308,24 +3373,24 @@
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="67" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
       <c r="D30" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="3"/>
@@ -3354,20 +3419,20 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="67" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B32" s="66"/>
       <c r="C32" s="66"/>
       <c r="D32" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E32" s="66"/>
       <c r="F32" s="66"/>
       <c r="G32" s="67" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="3"/>
@@ -3381,20 +3446,20 @@
       <c r="A33" s="66"/>
       <c r="B33" s="66"/>
       <c r="C33" s="67" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D33" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F33" s="67" t="s">
-        <v>86</v>
+        <v>290</v>
       </c>
       <c r="G33" s="66"/>
       <c r="H33" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="3"/>
@@ -3408,20 +3473,20 @@
       <c r="A34" s="66"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="G34" s="66"/>
       <c r="H34" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="3"/>
@@ -3435,20 +3500,20 @@
       <c r="A35" s="66"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>92</v>
+        <v>288</v>
       </c>
       <c r="G35" s="66"/>
       <c r="H35" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="3"/>
@@ -3462,20 +3527,20 @@
       <c r="A36" s="66"/>
       <c r="B36" s="66"/>
       <c r="C36" s="67" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="G36" s="66"/>
       <c r="H36" s="42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="3"/>
@@ -3504,24 +3569,24 @@
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="67" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
       <c r="D38" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="G38" s="67" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="3"/>
@@ -3550,24 +3615,24 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>102</v>
+        <v>285</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="3"/>
@@ -3596,22 +3661,22 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="3"/>
@@ -3640,18 +3705,18 @@
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="11"/>
@@ -3682,12 +3747,12 @@
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -3705,20 +3770,20 @@
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="67" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F47" s="67" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="G47" s="66"/>
       <c r="H47" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I47" s="38"/>
       <c r="J47" s="3"/>
@@ -3732,20 +3797,20 @@
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="24" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="G48" s="32"/>
       <c r="H48" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="3"/>
@@ -3759,20 +3824,20 @@
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="67" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F49" s="67" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I49" s="38"/>
       <c r="J49" s="3"/>
@@ -3786,22 +3851,22 @@
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="67" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E50" s="67" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F50" s="67" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="G50" s="67" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I50" s="38"/>
       <c r="J50" s="3"/>
@@ -3815,20 +3880,20 @@
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="24" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I51" s="38"/>
       <c r="J51" s="3"/>
@@ -3842,20 +3907,20 @@
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="24" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="G52" s="32"/>
       <c r="H52" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="3"/>
@@ -3869,20 +3934,20 @@
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="24" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="G53" s="32"/>
       <c r="H53" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="3"/>
@@ -3896,20 +3961,20 @@
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="67" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D54" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F54" s="67" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="G54" s="66"/>
       <c r="H54" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="3"/>
@@ -3923,16 +3988,16 @@
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="24" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="11"/>
@@ -3963,24 +4028,24 @@
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1">
       <c r="A57" s="67" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
       <c r="D57" s="66" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="F57" s="67" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="G57" s="66" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="H57" s="63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I57" s="38"/>
       <c r="J57" s="3"/>
@@ -4009,22 +4074,22 @@
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1">
       <c r="A59" s="67" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B59" s="66"/>
       <c r="C59" s="66"/>
       <c r="D59" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="67" t="s">
         <v>273</v>
-      </c>
-      <c r="E59" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="F59" s="67" t="s">
-        <v>142</v>
       </c>
       <c r="G59" s="66"/>
       <c r="H59" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I59" s="38"/>
       <c r="J59" s="3"/>
@@ -4053,18 +4118,18 @@
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
       <c r="A61" s="24" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="3"/>
@@ -4093,12 +4158,12 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="24" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
@@ -4116,20 +4181,20 @@
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="24" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D64" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="G64" s="32"/>
       <c r="H64" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I64" s="41"/>
       <c r="J64" s="3"/>
@@ -4143,18 +4208,18 @@
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="24" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I65" s="41"/>
       <c r="J65" s="3"/>
@@ -4183,22 +4248,22 @@
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="67" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B67" s="66"/>
       <c r="C67" s="66"/>
       <c r="D67" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="F67" s="67" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="G67" s="66"/>
       <c r="H67" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I67" s="38"/>
       <c r="J67" s="3"/>
@@ -4227,12 +4292,12 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="32"/>
@@ -4250,16 +4315,16 @@
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="24" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="G70" s="32"/>
       <c r="H70" s="11"/>
@@ -4275,16 +4340,16 @@
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="24" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="G71" s="32"/>
       <c r="H71" s="11"/>
@@ -4300,16 +4365,16 @@
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="24" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="G72" s="32"/>
       <c r="H72" s="11"/>
@@ -4340,12 +4405,12 @@
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -4363,17 +4428,17 @@
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="17" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="17" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="22"/>
@@ -4388,13 +4453,13 @@
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="17" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -4411,13 +4476,13 @@
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="17" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
@@ -4434,13 +4499,13 @@
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="17" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -4457,13 +4522,13 @@
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="17" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
@@ -4480,13 +4545,13 @@
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="17" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
@@ -4503,13 +4568,13 @@
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="17" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
@@ -4526,13 +4591,13 @@
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="17" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -4549,17 +4614,17 @@
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="17" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="17" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -4574,13 +4639,13 @@
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="24" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
@@ -4597,13 +4662,13 @@
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="24" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
@@ -4620,13 +4685,13 @@
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="24" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
@@ -4658,22 +4723,22 @@
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I88" s="22"/>
       <c r="J88" s="3"/>
@@ -4702,18 +4767,18 @@
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
       <c r="A90" s="67" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="B90" s="66"/>
       <c r="C90" s="66"/>
       <c r="D90" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E90" s="66"/>
       <c r="F90" s="66"/>
       <c r="G90" s="66"/>
       <c r="H90" s="62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I90" s="38"/>
       <c r="J90" s="3"/>
@@ -4727,20 +4792,20 @@
       <c r="A91" s="66"/>
       <c r="B91" s="66"/>
       <c r="C91" s="67" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E91" s="67" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="F91" s="67" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="G91" s="66"/>
       <c r="H91" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I91" s="38"/>
       <c r="J91" s="3"/>
@@ -4754,20 +4819,20 @@
       <c r="A92" s="66"/>
       <c r="B92" s="66"/>
       <c r="C92" s="67" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E92" s="67" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F92" s="67" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="G92" s="66"/>
       <c r="H92" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I92" s="38"/>
       <c r="J92" s="3"/>
@@ -4781,20 +4846,20 @@
       <c r="A93" s="66"/>
       <c r="B93" s="66"/>
       <c r="C93" s="67" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E93" s="67" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="F93" s="67" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="G93" s="66"/>
       <c r="H93" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I93" s="38"/>
       <c r="J93" s="3"/>
@@ -4808,20 +4873,20 @@
       <c r="A94" s="66"/>
       <c r="B94" s="66"/>
       <c r="C94" s="67" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="F94" s="67" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="G94" s="66"/>
       <c r="H94" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I94" s="38"/>
       <c r="J94" s="3"/>
@@ -4835,20 +4900,20 @@
       <c r="A95" s="66"/>
       <c r="B95" s="66"/>
       <c r="C95" s="67" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E95" s="67" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="F95" s="67" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="G95" s="66"/>
       <c r="H95" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I95" s="38"/>
       <c r="J95" s="3"/>
@@ -4862,20 +4927,20 @@
       <c r="A96" s="66"/>
       <c r="B96" s="66"/>
       <c r="C96" s="67" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E96" s="67" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="F96" s="67" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="G96" s="66"/>
       <c r="H96" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I96" s="38"/>
       <c r="J96" s="3"/>
@@ -4889,20 +4954,20 @@
       <c r="A97" s="66"/>
       <c r="B97" s="66"/>
       <c r="C97" s="67" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D97" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E97" s="67" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="F97" s="67" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="G97" s="66"/>
       <c r="H97" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I97" s="38"/>
       <c r="J97" s="3"/>
@@ -4916,20 +4981,20 @@
       <c r="A98" s="66"/>
       <c r="B98" s="66"/>
       <c r="C98" s="67" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="D98" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E98" s="67" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="F98" s="67" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="G98" s="66"/>
       <c r="H98" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I98" s="38"/>
       <c r="J98" s="3"/>
@@ -4958,12 +5023,12 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1">
       <c r="A100" s="24" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
       <c r="D100" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
@@ -4981,20 +5046,20 @@
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="24" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="G101" s="32"/>
       <c r="H101" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I101" s="45"/>
       <c r="J101" s="3"/>
@@ -5008,20 +5073,20 @@
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="24" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="24" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="H102" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I102" s="45"/>
       <c r="J102" s="3"/>
@@ -5035,20 +5100,20 @@
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="24" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="F103" s="32"/>
       <c r="G103" s="24" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I103" s="45"/>
       <c r="J103" s="3"/>
@@ -5062,20 +5127,20 @@
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="24" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="24" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="H104" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I104" s="45"/>
       <c r="J104" s="3"/>
@@ -5089,20 +5154,20 @@
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="24" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="24" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="H105" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I105" s="45"/>
       <c r="J105" s="3"/>
@@ -5131,18 +5196,18 @@
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1">
       <c r="A107" s="67" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="B107" s="66"/>
       <c r="C107" s="66"/>
       <c r="D107" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E107" s="66"/>
       <c r="F107" s="66"/>
       <c r="G107" s="66"/>
       <c r="H107" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I107" s="38"/>
       <c r="J107" s="3"/>
@@ -5156,20 +5221,20 @@
       <c r="A108" s="66"/>
       <c r="B108" s="66"/>
       <c r="C108" s="67" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D108" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E108" s="67" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="F108" s="67" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G108" s="66"/>
       <c r="H108" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I108" s="38"/>
       <c r="J108" s="3"/>
@@ -5183,20 +5248,20 @@
       <c r="A109" s="66"/>
       <c r="B109" s="66"/>
       <c r="C109" s="67" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D109" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E109" s="67" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="F109" s="67" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="G109" s="66"/>
       <c r="H109" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I109" s="15"/>
       <c r="J109" s="3"/>
@@ -5210,20 +5275,20 @@
       <c r="A110" s="66"/>
       <c r="B110" s="66"/>
       <c r="C110" s="67" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="D110" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E110" s="67" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="F110" s="67" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G110" s="66"/>
       <c r="H110" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I110" s="38"/>
       <c r="J110" s="3"/>
@@ -5252,19 +5317,19 @@
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1">
       <c r="A112" s="24" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
       <c r="D112" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="24" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="22"/>
@@ -5294,20 +5359,20 @@
     </row>
     <row r="114" spans="1:256" ht="15" customHeight="1">
       <c r="A114" s="67" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B114" s="66"/>
       <c r="C114" s="66"/>
       <c r="D114" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E114" s="66"/>
       <c r="F114" s="66"/>
       <c r="G114" s="67" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I114" s="38"/>
       <c r="J114" s="3"/>
@@ -5336,15 +5401,15 @@
     </row>
     <row r="116" spans="1:256" ht="15" customHeight="1">
       <c r="A116" s="17" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
@@ -5376,22 +5441,22 @@
     </row>
     <row r="118" spans="1:256" ht="15" customHeight="1">
       <c r="A118" s="24" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="B118" s="32"/>
       <c r="C118" s="32"/>
       <c r="D118" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G118" s="32"/>
       <c r="H118" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I118" s="45"/>
       <c r="J118" s="3"/>
@@ -5420,18 +5485,18 @@
     </row>
     <row r="120" spans="1:256" ht="15" customHeight="1">
       <c r="A120" s="67" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="B120" s="66"/>
       <c r="C120" s="66"/>
       <c r="D120" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E120" s="66"/>
       <c r="F120" s="66"/>
       <c r="G120" s="66"/>
       <c r="H120" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I120" s="38"/>
       <c r="J120" s="3"/>
@@ -5445,20 +5510,20 @@
       <c r="A121" s="66"/>
       <c r="B121" s="66"/>
       <c r="C121" s="67" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E121" s="67" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="F121" s="67" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G121" s="66"/>
       <c r="H121" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="3"/>
@@ -5472,22 +5537,22 @@
       <c r="A122" s="66"/>
       <c r="B122" s="66"/>
       <c r="C122" s="67" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="D122" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E122" s="67" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="F122" s="67" t="s">
         <v>255</v>
       </c>
       <c r="G122" s="67" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H122" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I122" s="38"/>
       <c r="J122" s="3"/>
@@ -5501,20 +5566,20 @@
       <c r="A123" s="66"/>
       <c r="B123" s="66"/>
       <c r="C123" s="67" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="D123" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E123" s="67" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="F123" s="67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G123" s="66"/>
       <c r="H123" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I123" s="38"/>
       <c r="J123" s="3"/>
@@ -5528,20 +5593,20 @@
       <c r="A124" s="66"/>
       <c r="B124" s="66"/>
       <c r="C124" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D124" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E124" s="67" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="F124" s="67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G124" s="66"/>
       <c r="H124" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I124" s="38"/>
       <c r="J124" s="3"/>
@@ -5555,20 +5620,20 @@
       <c r="A125" s="66"/>
       <c r="B125" s="66"/>
       <c r="C125" s="67" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D125" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E125" s="67" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="F125" s="67" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G125" s="66"/>
       <c r="H125" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I125" s="15"/>
       <c r="J125" s="3"/>
@@ -5582,20 +5647,20 @@
       <c r="A126" s="66"/>
       <c r="B126" s="66"/>
       <c r="C126" s="67" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="D126" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E126" s="67" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="F126" s="67" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G126" s="66"/>
       <c r="H126" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="3"/>
@@ -5858,12 +5923,12 @@
     </row>
     <row r="128" spans="1:256" ht="15" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -5881,10 +5946,10 @@
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="13" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -5902,10 +5967,10 @@
       <c r="A130" s="47"/>
       <c r="B130" s="47"/>
       <c r="C130" s="48" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E130" s="49"/>
       <c r="F130" s="49"/>
@@ -5938,7 +6003,7 @@
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1">
       <c r="A132" s="52" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="B132" s="52"/>
       <c r="C132" s="52"/>
@@ -5959,16 +6024,16 @@
       <c r="A133" s="53"/>
       <c r="B133" s="53"/>
       <c r="C133" s="52" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="D133" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E133" s="52"/>
       <c r="F133" s="56"/>
       <c r="G133" s="52"/>
       <c r="H133" s="60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I133" s="61"/>
       <c r="J133" s="58"/>
@@ -5982,18 +6047,18 @@
       <c r="A134" s="53"/>
       <c r="B134" s="53"/>
       <c r="C134" s="52" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D134" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E134" s="52"/>
       <c r="F134" s="52" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="G134" s="52"/>
       <c r="H134" s="54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I134" s="55"/>
       <c r="J134" s="58"/>
@@ -6007,16 +6072,16 @@
       <c r="A135" s="53"/>
       <c r="B135" s="53"/>
       <c r="C135" s="52" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="D135" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E135" s="52"/>
       <c r="F135" s="52"/>
       <c r="G135" s="52"/>
       <c r="H135" s="60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I135" s="61"/>
       <c r="J135" s="58"/>
@@ -6030,10 +6095,10 @@
       <c r="A136" s="53"/>
       <c r="B136" s="53"/>
       <c r="C136" s="52" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="D136" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E136" s="52"/>
       <c r="F136" s="52"/>
@@ -6051,16 +6116,16 @@
       <c r="A137" s="53"/>
       <c r="B137" s="53"/>
       <c r="C137" s="52" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D137" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E137" s="52"/>
       <c r="F137" s="52"/>
       <c r="G137" s="52"/>
       <c r="H137" s="54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I137" s="55"/>
       <c r="J137" s="58"/>
@@ -6074,16 +6139,16 @@
       <c r="A138" s="53"/>
       <c r="B138" s="53"/>
       <c r="C138" s="52" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="D138" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E138" s="52"/>
       <c r="F138" s="52"/>
       <c r="G138" s="52"/>
       <c r="H138" s="60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I138" s="61"/>
       <c r="J138" s="58"/>
@@ -6097,16 +6162,16 @@
       <c r="A139" s="53"/>
       <c r="B139" s="53"/>
       <c r="C139" s="52" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="D139" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E139" s="52"/>
       <c r="F139" s="52"/>
       <c r="G139" s="52"/>
       <c r="H139" s="60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I139" s="61"/>
       <c r="J139" s="58"/>
@@ -6137,7 +6202,6 @@
       <c r="A141" s="51"/>
       <c r="B141" s="51"/>
       <c r="C141" s="51"/>
-      <c r="D141" s="51"/>
       <c r="E141" s="51"/>
       <c r="F141" s="51"/>
       <c r="G141" s="51"/>
@@ -6153,11 +6217,15 @@
     <row r="142" spans="1:15" ht="15" customHeight="1">
       <c r="A142" s="51"/>
       <c r="B142" s="51"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="51"/>
-      <c r="G142" s="51"/>
+      <c r="C142" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E142" s="69"/>
+      <c r="F142" s="69"/>
+      <c r="G142" s="69"/>
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
       <c r="J142" s="58"/>
@@ -6170,11 +6238,15 @@
     <row r="143" spans="1:15" ht="15" customHeight="1">
       <c r="A143" s="51"/>
       <c r="B143" s="51"/>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51"/>
-      <c r="F143" s="51"/>
-      <c r="G143" s="51"/>
+      <c r="C143" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="D143" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E143" s="69"/>
+      <c r="F143" s="69"/>
+      <c r="G143" s="69"/>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="58"/>
@@ -6187,11 +6259,15 @@
     <row r="144" spans="1:15" ht="15" customHeight="1">
       <c r="A144" s="51"/>
       <c r="B144" s="51"/>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
-      <c r="F144" s="51"/>
-      <c r="G144" s="51"/>
+      <c r="C144" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="D144" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E144" s="69"/>
+      <c r="F144" s="69"/>
+      <c r="G144" s="69"/>
       <c r="H144" s="51"/>
       <c r="I144" s="51"/>
       <c r="J144" s="58"/>
@@ -6204,11 +6280,15 @@
     <row r="145" spans="1:15" ht="15" customHeight="1">
       <c r="A145" s="51"/>
       <c r="B145" s="51"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
-      <c r="F145" s="51"/>
-      <c r="G145" s="51"/>
+      <c r="C145" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="D145" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E145" s="69"/>
+      <c r="F145" s="69"/>
+      <c r="G145" s="69"/>
       <c r="H145" s="51"/>
       <c r="I145" s="51"/>
       <c r="J145" s="58"/>
@@ -6221,11 +6301,15 @@
     <row r="146" spans="1:15" ht="15" customHeight="1">
       <c r="A146" s="51"/>
       <c r="B146" s="51"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
-      <c r="F146" s="51"/>
-      <c r="G146" s="51"/>
+      <c r="C146" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E146" s="69"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="69"/>
       <c r="H146" s="51"/>
       <c r="I146" s="51"/>
       <c r="J146" s="58"/>
@@ -6238,11 +6322,15 @@
     <row r="147" spans="1:15" ht="15" customHeight="1">
       <c r="A147" s="51"/>
       <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
-      <c r="F147" s="51"/>
-      <c r="G147" s="51"/>
+      <c r="C147" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="D147" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147" s="69"/>
+      <c r="F147" s="69"/>
+      <c r="G147" s="69"/>
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
       <c r="J147" s="58"/>
@@ -6255,11 +6343,15 @@
     <row r="148" spans="1:15" ht="15" customHeight="1">
       <c r="A148" s="51"/>
       <c r="B148" s="51"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
-      <c r="F148" s="51"/>
-      <c r="G148" s="51"/>
+      <c r="C148" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D148" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E148" s="69"/>
+      <c r="F148" s="69"/>
+      <c r="G148" s="69"/>
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
       <c r="J148" s="58"/>
@@ -6272,13 +6364,21 @@
     <row r="149" spans="1:15" ht="15" customHeight="1">
       <c r="A149" s="51"/>
       <c r="B149" s="51"/>
-      <c r="C149" s="51"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="51"/>
-      <c r="F149" s="51"/>
-      <c r="G149" s="51"/>
-      <c r="H149" s="51"/>
-      <c r="I149" s="51"/>
+      <c r="C149" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D149" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E149" s="69"/>
+      <c r="F149" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="G149" s="69"/>
+      <c r="H149" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" s="71"/>
       <c r="J149" s="58"/>
       <c r="K149" s="58"/>
       <c r="L149" s="58"/>
@@ -6289,11 +6389,15 @@
     <row r="150" spans="1:15" ht="15" customHeight="1">
       <c r="A150" s="51"/>
       <c r="B150" s="51"/>
-      <c r="C150" s="51"/>
-      <c r="D150" s="51"/>
-      <c r="E150" s="51"/>
-      <c r="F150" s="51"/>
-      <c r="G150" s="51"/>
+      <c r="C150" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="D150" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E150" s="69"/>
+      <c r="F150" s="69"/>
+      <c r="G150" s="69"/>
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>
       <c r="J150" s="58"/>
@@ -6306,11 +6410,15 @@
     <row r="151" spans="1:15" ht="15" customHeight="1">
       <c r="A151" s="51"/>
       <c r="B151" s="51"/>
-      <c r="C151" s="51"/>
-      <c r="D151" s="51"/>
-      <c r="E151" s="51"/>
-      <c r="F151" s="51"/>
-      <c r="G151" s="51"/>
+      <c r="C151" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D151" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E151" s="69"/>
+      <c r="F151" s="69"/>
+      <c r="G151" s="69"/>
       <c r="H151" s="51"/>
       <c r="I151" s="51"/>
       <c r="J151" s="58"/>
@@ -6323,11 +6431,15 @@
     <row r="152" spans="1:15" ht="15" customHeight="1">
       <c r="A152" s="51"/>
       <c r="B152" s="51"/>
-      <c r="C152" s="51"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51"/>
-      <c r="F152" s="51"/>
-      <c r="G152" s="51"/>
+      <c r="C152" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D152" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="69"/>
       <c r="H152" s="51"/>
       <c r="I152" s="51"/>
       <c r="J152" s="58"/>
@@ -6340,11 +6452,15 @@
     <row r="153" spans="1:15" ht="15" customHeight="1">
       <c r="A153" s="51"/>
       <c r="B153" s="51"/>
-      <c r="C153" s="51"/>
-      <c r="D153" s="51"/>
-      <c r="E153" s="51"/>
-      <c r="F153" s="51"/>
-      <c r="G153" s="51"/>
+      <c r="C153" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="D153" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E153" s="69"/>
+      <c r="F153" s="69"/>
+      <c r="G153" s="69"/>
       <c r="H153" s="51"/>
       <c r="I153" s="51"/>
       <c r="J153" s="58"/>
@@ -6357,11 +6473,15 @@
     <row r="154" spans="1:15" ht="15" customHeight="1">
       <c r="A154" s="51"/>
       <c r="B154" s="51"/>
-      <c r="C154" s="51"/>
-      <c r="D154" s="51"/>
-      <c r="E154" s="51"/>
-      <c r="F154" s="51"/>
-      <c r="G154" s="51"/>
+      <c r="C154" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E154" s="69"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="69"/>
       <c r="H154" s="51"/>
       <c r="I154" s="51"/>
       <c r="J154" s="58"/>
@@ -6374,11 +6494,15 @@
     <row r="155" spans="1:15" ht="15" customHeight="1">
       <c r="A155" s="51"/>
       <c r="B155" s="51"/>
-      <c r="C155" s="51"/>
-      <c r="D155" s="51"/>
-      <c r="E155" s="51"/>
-      <c r="F155" s="51"/>
-      <c r="G155" s="51"/>
+      <c r="C155" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D155" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E155" s="69"/>
+      <c r="F155" s="69"/>
+      <c r="G155" s="69"/>
       <c r="H155" s="51"/>
       <c r="I155" s="51"/>
       <c r="J155" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1336,7 +1336,7 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1408,7 +1408,6 @@
     <xf numFmtId="49" fontId="6" fillId="17" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2606,8 +2605,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I149" sqref="I149"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6378,7 +6377,7 @@
       <c r="H149" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I149" s="71"/>
+      <c r="I149" s="61"/>
       <c r="J149" s="58"/>
       <c r="K149" s="58"/>
       <c r="L149" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="302">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -919,17 +919,27 @@
   </si>
   <si>
     <t xml:space="preserve">Zuständigkeit </t>
+  </si>
+  <si>
+    <t>27cm Höhe/ 60cm Tiefe/ 40cm Breite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1330,13 +1340,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1345,22 +1355,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1371,43 +1381,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="17" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2606,7 +2617,7 @@
   <dimension ref="A1:IV175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+      <selection activeCell="L155" sqref="L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6349,10 +6360,14 @@
         <v>222</v>
       </c>
       <c r="E148" s="69"/>
-      <c r="F148" s="69"/>
+      <c r="F148" s="71" t="s">
+        <v>301</v>
+      </c>
       <c r="G148" s="69"/>
-      <c r="H148" s="51"/>
-      <c r="I148" s="51"/>
+      <c r="H148" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I148" s="61"/>
       <c r="J148" s="58"/>
       <c r="K148" s="58"/>
       <c r="L148" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="302">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -2616,8 +2616,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L155" sqref="L155"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4450,8 +4450,10 @@
       <c r="G75" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="22"/>
+      <c r="H75" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="40"/>
       <c r="J75" s="3"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -4659,7 +4661,9 @@
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
-      <c r="H84" s="11"/>
+      <c r="H84" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I84" s="22"/>
       <c r="J84" s="3"/>
       <c r="K84" s="5"/>
@@ -4682,7 +4686,9 @@
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
-      <c r="H85" s="11"/>
+      <c r="H85" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I85" s="22"/>
       <c r="J85" s="3"/>
       <c r="K85" s="5"/>
@@ -4705,7 +4711,9 @@
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
-      <c r="H86" s="11"/>
+      <c r="H86" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I86" s="22"/>
       <c r="J86" s="3"/>
       <c r="K86" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="302">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -1346,7 +1346,7 @@
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1419,6 +1419,7 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2616,8 +2617,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L147" sqref="L147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6121,8 +6122,10 @@
       <c r="E136" s="52"/>
       <c r="F136" s="52"/>
       <c r="G136" s="52"/>
-      <c r="H136" s="51"/>
-      <c r="I136" s="55"/>
+      <c r="H136" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" s="61"/>
       <c r="J136" s="58"/>
       <c r="K136" s="58"/>
       <c r="L136" s="58"/>
@@ -6504,8 +6507,10 @@
       <c r="E154" s="69"/>
       <c r="F154" s="69"/>
       <c r="G154" s="69"/>
-      <c r="H154" s="51"/>
-      <c r="I154" s="51"/>
+      <c r="H154" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I154" s="72"/>
       <c r="J154" s="58"/>
       <c r="K154" s="58"/>
       <c r="L154" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1346,7 +1346,7 @@
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1419,7 +1419,6 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2617,8 +2616,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L147" sqref="L147"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4451,10 +4450,10 @@
       <c r="G75" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I75" s="40"/>
+      <c r="I75" s="38"/>
       <c r="J75" s="3"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -4662,10 +4661,10 @@
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
-      <c r="H84" s="11" t="s">
+      <c r="H84" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="22"/>
+      <c r="I84" s="40"/>
       <c r="J84" s="3"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -4687,7 +4686,7 @@
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
-      <c r="H85" s="11" t="s">
+      <c r="H85" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I85" s="22"/>
@@ -4712,7 +4711,7 @@
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I86" s="22"/>
@@ -6510,7 +6509,7 @@
       <c r="H154" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I154" s="72"/>
+      <c r="I154" s="61"/>
       <c r="J154" s="58"/>
       <c r="K154" s="58"/>
       <c r="L154" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -2617,7 +2617,7 @@
   <dimension ref="A1:IV175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4664,7 +4664,7 @@
       <c r="H84" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="40"/>
+      <c r="I84" s="38"/>
       <c r="J84" s="3"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -4689,7 +4689,7 @@
       <c r="H85" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I85" s="22"/>
+      <c r="I85" s="38"/>
       <c r="J85" s="3"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -2616,8 +2616,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4714,7 +4714,7 @@
       <c r="H86" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I86" s="22"/>
+      <c r="I86" s="38"/>
       <c r="J86" s="3"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="302">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -1346,7 +1346,7 @@
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1419,6 +1419,8 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2616,8 +2618,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3729,8 +3731,8 @@
         <v>283</v>
       </c>
       <c r="G44" s="32"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="22"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="3"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6246,8 +6248,10 @@
       <c r="E142" s="69"/>
       <c r="F142" s="69"/>
       <c r="G142" s="69"/>
-      <c r="H142" s="51"/>
-      <c r="I142" s="51"/>
+      <c r="H142" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" s="61"/>
       <c r="J142" s="58"/>
       <c r="K142" s="58"/>
       <c r="L142" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="286">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -2542,8 +2542,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4261,7 +4261,9 @@
         <v>156</v>
       </c>
       <c r="G70" s="32"/>
-      <c r="H70" s="11"/>
+      <c r="H70" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="I70" s="22"/>
       <c r="J70" s="3"/>
       <c r="K70" s="5"/>
@@ -4286,7 +4288,9 @@
         <v>159</v>
       </c>
       <c r="G71" s="32"/>
-      <c r="H71" s="11"/>
+      <c r="H71" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="I71" s="22"/>
       <c r="J71" s="3"/>
       <c r="K71" s="5"/>
@@ -4311,7 +4315,9 @@
         <v>162</v>
       </c>
       <c r="G72" s="32"/>
-      <c r="H72" s="11"/>
+      <c r="H72" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="I72" s="22"/>
       <c r="J72" s="3"/>
       <c r="K72" s="5"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16560"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="301">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -33,24 +33,12 @@
     <t>Nummer</t>
   </si>
   <si>
-    <t>Maße höhe/ breit/ tiefe</t>
-  </si>
-  <si>
-    <t>Beschriebung</t>
-  </si>
-  <si>
-    <t>Zuständigkeit bei</t>
-  </si>
-  <si>
     <t>Zustand</t>
   </si>
   <si>
     <t>Voodoo13_SM</t>
   </si>
   <si>
-    <t>40cm höhe</t>
-  </si>
-  <si>
     <t>Lou</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
     <t>Wachamnn_SM</t>
   </si>
   <si>
-    <t>170cm höhe</t>
-  </si>
-  <si>
     <t>MOD</t>
   </si>
   <si>
@@ -225,45 +210,27 @@
     <t>Schreibtisch_Platte_MOD</t>
   </si>
   <si>
-    <t>120cm breit/ 60cm tiefe</t>
-  </si>
-  <si>
     <t>Schubladenelement mit 3 Schubladen</t>
   </si>
   <si>
     <t>Schreibtisch_Schubladen_MOD</t>
   </si>
   <si>
-    <t>Höhe Schublade 1- 25cm</t>
-  </si>
-  <si>
     <t>Unten statt Tischbein</t>
   </si>
   <si>
-    <t>Höhe Schublade 2- 40cm (ausziehbar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Höhe Schublade 3- 65cm </t>
-  </si>
-  <si>
     <t xml:space="preserve">Türenelement </t>
   </si>
   <si>
     <t>Schreibtisch_Tür_MOD</t>
   </si>
   <si>
-    <t>Höhe 65cm</t>
-  </si>
-  <si>
     <t>Bürostuhl</t>
   </si>
   <si>
     <t>Bürostuhl_SM</t>
   </si>
   <si>
-    <t xml:space="preserve">Sitzfäche 60cm höhe/ 45cm breit,tiefe </t>
-  </si>
-  <si>
     <t>Lehne undefiniert</t>
   </si>
   <si>
@@ -276,45 +243,30 @@
     <t>Regal_Seite_groß_MOD</t>
   </si>
   <si>
-    <t>160cm höhe/ 40cm tief</t>
-  </si>
-  <si>
     <t>Seitenteil klein</t>
   </si>
   <si>
     <t>Regal_Seite_klein_MOD</t>
   </si>
   <si>
-    <t>200cm höhe/ 40cm tief</t>
-  </si>
-  <si>
     <t>Regalboden groß</t>
   </si>
   <si>
     <t>Regal_Boden_groß_MOD</t>
   </si>
   <si>
-    <t>200cm breit/ 40 cm tief</t>
-  </si>
-  <si>
     <t>Regalboden klein</t>
   </si>
   <si>
     <t>Regal_Boden_klein_MOD</t>
   </si>
   <si>
-    <t>100cm breit/ 40cm tief</t>
-  </si>
-  <si>
     <t>Aktenschrank</t>
   </si>
   <si>
     <t>Aktenschrank_SM</t>
   </si>
   <si>
-    <t>80cm höhe/ 40cm breit / 60cm tief</t>
-  </si>
-  <si>
     <t>Schubladen müssen herausziehbar sein</t>
   </si>
   <si>
@@ -324,9 +276,6 @@
     <t>Waschbecken_SM</t>
   </si>
   <si>
-    <t>40/40/40</t>
-  </si>
-  <si>
     <t>Mit Wasserhahn und Wasserbecken</t>
   </si>
   <si>
@@ -336,18 +285,12 @@
     <t>Operationstisch_SM</t>
   </si>
   <si>
-    <t xml:space="preserve"> 80cm höhe/ 100cm breit/ 50cm tief</t>
-  </si>
-  <si>
     <t>Experimentetisch</t>
   </si>
   <si>
     <t>Experimentetisch_SM</t>
   </si>
   <si>
-    <t>80cm höhe</t>
-  </si>
-  <si>
     <t>Arztbesteck</t>
   </si>
   <si>
@@ -357,33 +300,21 @@
     <t>Skalpel_SM</t>
   </si>
   <si>
-    <t>15cm höhe</t>
-  </si>
-  <si>
     <t>Tablet_SM</t>
   </si>
   <si>
-    <t>22cm breit/ 30 cm tief</t>
-  </si>
-  <si>
     <t>Operationsschere</t>
   </si>
   <si>
     <t>Operationsschere_SM</t>
   </si>
   <si>
-    <t>12cm höhe</t>
-  </si>
-  <si>
     <t>Nadeln</t>
   </si>
   <si>
     <t>Nadel_SM</t>
   </si>
   <si>
-    <t>ca 18 cm höhe</t>
-  </si>
-  <si>
     <t>verschiedenfarbiger Kopf</t>
   </si>
   <si>
@@ -393,9 +324,6 @@
     <t>Pinzette_SM</t>
   </si>
   <si>
-    <t>6 cm höhe</t>
-  </si>
-  <si>
     <t>Operationspinzette</t>
   </si>
   <si>
@@ -408,45 +336,30 @@
     <t>Fadentrenner_SM</t>
   </si>
   <si>
-    <t>10cm höhe</t>
-  </si>
-  <si>
     <t>Nähnadel</t>
   </si>
   <si>
     <t>Nähnadel_SM</t>
   </si>
   <si>
-    <t>4cm höhe</t>
-  </si>
-  <si>
     <t>Garn</t>
   </si>
   <si>
     <t>Garn_SM</t>
   </si>
   <si>
-    <t>4cm höhe/ ca 1,5 cm durchmesser</t>
-  </si>
-  <si>
     <t>Voodoo Masken</t>
   </si>
   <si>
     <t>Voodoomasken_SM</t>
   </si>
   <si>
-    <t>35 cm höhe / ca. 20cm breit</t>
-  </si>
-  <si>
     <t>Fetisch</t>
   </si>
   <si>
     <t>Fetisch_SM</t>
   </si>
   <si>
-    <t>ca 25 cm höhe</t>
-  </si>
-  <si>
     <t>Mülleimer</t>
   </si>
   <si>
@@ -459,9 +372,6 @@
     <t>Deckenlampe_SM</t>
   </si>
   <si>
-    <t>ca 30cm durchmesser</t>
-  </si>
-  <si>
     <t>Schreibtischlampe</t>
   </si>
   <si>
@@ -474,9 +384,6 @@
     <t>Pinwand_SM</t>
   </si>
   <si>
-    <t>70cm höhe/ 100cm breite</t>
-  </si>
-  <si>
     <t>Kerzen</t>
   </si>
   <si>
@@ -486,27 +393,18 @@
     <t>Kerze_groß_SM</t>
   </si>
   <si>
-    <t>28cm höhe</t>
-  </si>
-  <si>
     <t>Kerze mittel</t>
   </si>
   <si>
     <t>Kerze_mittel_SM</t>
   </si>
   <si>
-    <t>23cm höhe</t>
-  </si>
-  <si>
     <t>Kerze klein</t>
   </si>
   <si>
     <t>Kerze_klein_SM</t>
   </si>
   <si>
-    <t>18cm höhe</t>
-  </si>
-  <si>
     <t>Enviroment Storytelling</t>
   </si>
   <si>
@@ -606,9 +504,6 @@
     <t>Buch_klein_dünn_SM</t>
   </si>
   <si>
-    <t>12*19cm (breite undefiniert)</t>
-  </si>
-  <si>
     <t>Buch klein dick</t>
   </si>
   <si>
@@ -621,9 +516,6 @@
     <t>Buch_standart_dünn_SM</t>
   </si>
   <si>
-    <t>13,5*21,5cm (breite undefiniert)</t>
-  </si>
-  <si>
     <t>Buch standart dick</t>
   </si>
   <si>
@@ -636,9 +528,6 @@
     <t>Buch_mittel_dünn_SM</t>
   </si>
   <si>
-    <t>17,0*24,0cm (breite undefiniert)</t>
-  </si>
-  <si>
     <t>Buch mittel dick</t>
   </si>
   <si>
@@ -651,9 +540,6 @@
     <t>Buch_groß_dünn_SM</t>
   </si>
   <si>
-    <t>21,0*29,7cm (A4) (breite undefiniert)</t>
-  </si>
-  <si>
     <t>Buch groß dick</t>
   </si>
   <si>
@@ -669,9 +555,6 @@
     <t>Reagenzglas_SM</t>
   </si>
   <si>
-    <t>1,6 cm durchmesser</t>
-  </si>
-  <si>
     <t>Erlenmeyerkolben</t>
   </si>
   <si>
@@ -702,9 +585,6 @@
     <t>Becherglas</t>
   </si>
   <si>
-    <t>14,5 cm höhe/ 10,5 cm durchmesser</t>
-  </si>
-  <si>
     <t>1000 ml</t>
   </si>
   <si>
@@ -717,9 +597,6 @@
     <t>Kiste_klein_SM</t>
   </si>
   <si>
-    <t>25cm höhe</t>
-  </si>
-  <si>
     <t>Kiste mittel</t>
   </si>
   <si>
@@ -732,18 +609,12 @@
     <t>Kiste_groß_SM</t>
   </si>
   <si>
-    <t>65cm höhe</t>
-  </si>
-  <si>
     <t>Dreck</t>
   </si>
   <si>
     <t>Dreck_01_DECAL</t>
   </si>
   <si>
-    <t>unterschiedliche größen</t>
-  </si>
-  <si>
     <t>Blume</t>
   </si>
   <si>
@@ -762,9 +633,6 @@
     <t>Aschenbecher_SM</t>
   </si>
   <si>
-    <t>14cm durchmesser</t>
-  </si>
-  <si>
     <t>Raumbau</t>
   </si>
   <si>
@@ -774,33 +642,18 @@
     <t>Wand_MOD</t>
   </si>
   <si>
-    <t xml:space="preserve">300cm höhe / 100cm breit </t>
-  </si>
-  <si>
     <t>Wand mit Tür</t>
   </si>
   <si>
     <t>Wand_Tür_MOD</t>
   </si>
   <si>
-    <t>Tür 200cm höhe / 100cm breit</t>
-  </si>
-  <si>
-    <t>Müss man Öffnen können</t>
-  </si>
-  <si>
     <t>Kellerfenster</t>
   </si>
   <si>
     <t>Wand_Fenster_MOD</t>
   </si>
   <si>
-    <t>Fenster 30cm höhe / 100cm breite</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vergittertem Fenster</t>
-  </si>
-  <si>
     <t>Wand_Fenstergitter_MOD</t>
   </si>
   <si>
@@ -810,9 +663,6 @@
     <t>Deckenplatter_MOD</t>
   </si>
   <si>
-    <t>100cm breit/100cm tief/5cm dick</t>
-  </si>
-  <si>
     <t>Bodenplatten</t>
   </si>
   <si>
@@ -846,24 +696,15 @@
     <t>Stifte</t>
   </si>
   <si>
-    <t>Schreibmaschiene</t>
-  </si>
-  <si>
     <t>Stempel</t>
   </si>
   <si>
     <t>Notizzettel</t>
   </si>
   <si>
-    <t>Abhörgeräte</t>
-  </si>
-  <si>
     <t>Brieföffner</t>
   </si>
   <si>
-    <t>20cm höhe/20cm tiefe/30cm breite</t>
-  </si>
-  <si>
     <t>Tacker</t>
   </si>
   <si>
@@ -874,17 +715,228 @@
   </si>
   <si>
     <t>Tablett</t>
+  </si>
+  <si>
+    <t>Lineal</t>
+  </si>
+  <si>
+    <t>Vergrößerungsglas</t>
+  </si>
+  <si>
+    <t>Laborstativ</t>
+  </si>
+  <si>
+    <t>Bunsen Brenner</t>
+  </si>
+  <si>
+    <t>Trichter</t>
+  </si>
+  <si>
+    <t>Waage</t>
+  </si>
+  <si>
+    <t>Schale/Schüssel</t>
+  </si>
+  <si>
+    <t>Ordner</t>
+  </si>
+  <si>
+    <t>Tafel</t>
+  </si>
+  <si>
+    <t>Hutständer</t>
+  </si>
+  <si>
+    <t>Schemel</t>
+  </si>
+  <si>
+    <t>Kiste</t>
+  </si>
+  <si>
+    <t>Rührstab</t>
+  </si>
+  <si>
+    <t>Einmachglas</t>
+  </si>
+  <si>
+    <t>30cm Höhe/ 27cm Tiefe/ 5cm Breite</t>
+  </si>
+  <si>
+    <t>20cm Höhe/20cm Tiefe/30cm Breite</t>
+  </si>
+  <si>
+    <t>14cm Durchmesser</t>
+  </si>
+  <si>
+    <t>65cm Höhe</t>
+  </si>
+  <si>
+    <t>40cm Höhe</t>
+  </si>
+  <si>
+    <t>25cm Höhe</t>
+  </si>
+  <si>
+    <t>14,5cm Höhe/ 10,5cm Durchmesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300cm Höhe / 100cm Breite </t>
+  </si>
+  <si>
+    <t>Tür 200cm Höhe / 100cm Breite</t>
+  </si>
+  <si>
+    <t>Fenster 30cm Höhe / 100cm Breite</t>
+  </si>
+  <si>
+    <t>100cm Breite/100cm Tiefe/5cm Höhe</t>
+  </si>
+  <si>
+    <t>Müss man öffnen können</t>
+  </si>
+  <si>
+    <t>Abhörgerät</t>
+  </si>
+  <si>
+    <t>Schreibmaschine</t>
+  </si>
+  <si>
+    <t>Vergittertes Fenster</t>
+  </si>
+  <si>
+    <t>unterschiedliche Größen</t>
+  </si>
+  <si>
+    <t>1,6cm Durchmesser</t>
+  </si>
+  <si>
+    <t>12*19cm (Breite undefiniert)</t>
+  </si>
+  <si>
+    <t>13,5*21,5cm (Breite undefiniert)</t>
+  </si>
+  <si>
+    <t>17,0*24,0cm (Breite undefiniert)</t>
+  </si>
+  <si>
+    <t>21,0*29,7cm (A4) (Breite undefiniert)</t>
+  </si>
+  <si>
+    <t>28cm Höhe</t>
+  </si>
+  <si>
+    <t>23cm Höhe</t>
+  </si>
+  <si>
+    <t>18cm Höhe</t>
+  </si>
+  <si>
+    <t>70cm Höhe/ 100cm Breite</t>
+  </si>
+  <si>
+    <t>ca. 30cm Durchmesser</t>
+  </si>
+  <si>
+    <t>ca. 25 cm Höhe</t>
+  </si>
+  <si>
+    <t>35cm Höhe / ca. 20cm Breite</t>
+  </si>
+  <si>
+    <t>4cm Höhe/ ca. 1,5 cm Durchmesser</t>
+  </si>
+  <si>
+    <t>4cm Höhe</t>
+  </si>
+  <si>
+    <t>10cm Höhe</t>
+  </si>
+  <si>
+    <t>15cm Höhe</t>
+  </si>
+  <si>
+    <t>6 cm Höhe</t>
+  </si>
+  <si>
+    <t>ca. 18 cm Höhe</t>
+  </si>
+  <si>
+    <t>12cm Höhe</t>
+  </si>
+  <si>
+    <t>22cm Breite/ 30 cm Tiefe</t>
+  </si>
+  <si>
+    <t>80cm Höhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80cm Höhe/ 100cm Breite/ 50cm Tiefe</t>
+  </si>
+  <si>
+    <t>40cm Höhe/ 40cm Breite/ 40cm Tiefe</t>
+  </si>
+  <si>
+    <t>80cm Höhe/ 40cm Breite / 60cm Tiefe</t>
+  </si>
+  <si>
+    <t>100cm Breite/ 40cm Tiefe</t>
+  </si>
+  <si>
+    <t>200cm Breite/ 40 cm Tiefe</t>
+  </si>
+  <si>
+    <t>200cm Höhe/ 40cm Tiefe</t>
+  </si>
+  <si>
+    <t>160cm Höhe/ 40cm Tiefe</t>
+  </si>
+  <si>
+    <t>Sitzfäche 60cm Höhe/ 45cm Breite/ 45cm Tiefe</t>
+  </si>
+  <si>
+    <t>Schublade 3- 65cm Höhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schublade 2- 40cm Höhe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schublade 1- 25cm Höhe </t>
+  </si>
+  <si>
+    <t>ausziehbar</t>
+  </si>
+  <si>
+    <t>120cm Breite/ 60cm Tiefe</t>
+  </si>
+  <si>
+    <t>170cm Höhe</t>
+  </si>
+  <si>
+    <t>Maße Höhe/ Breite/ Tiefe</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuständigkeit </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -957,8 +1009,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,8 +1153,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1269,15 +1339,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1286,22 +1373,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1312,43 +1399,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="19" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="13" xfId="6" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
+    <cellStyle name="40 % - Akzent3" xfId="5" builtinId="39"/>
+    <cellStyle name="Eingabe" xfId="6" builtinId="20"/>
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="4" builtinId="27"/>
@@ -2542,8 +2635,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2581,16 +2674,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
@@ -2601,22 +2694,22 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="G2" s="64"/>
       <c r="H2" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -2630,25 +2723,25 @@
       <c r="A3" s="11"/>
       <c r="B3" s="66"/>
       <c r="C3" s="67" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
       <c r="H3" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="3"/>
@@ -2656,26 +2749,26 @@
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="3"/>
@@ -2683,24 +2776,24 @@
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="3"/>
@@ -2708,23 +2801,23 @@
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -2733,24 +2826,24 @@
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="3"/>
@@ -2758,26 +2851,26 @@
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>27</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="3"/>
@@ -2785,24 +2878,24 @@
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="3"/>
@@ -2810,26 +2903,26 @@
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
       <c r="L10" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="3"/>
@@ -2837,24 +2930,24 @@
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="3"/>
@@ -2878,31 +2971,31 @@
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>43</v>
+        <v>297</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
       <c r="L13" s="30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="3"/>
@@ -2910,26 +3003,26 @@
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="3"/>
@@ -2937,23 +3030,23 @@
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
       <c r="L15" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M15" s="30" t="s">
         <v>1</v>
@@ -2964,26 +3057,26 @@
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
       <c r="L16" s="30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="3"/>
@@ -2991,26 +3084,26 @@
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="3"/>
@@ -3018,23 +3111,23 @@
     <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
       <c r="L18" s="30" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="10"/>
@@ -3043,26 +3136,26 @@
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
       <c r="L19" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="3"/>
@@ -3080,29 +3173,29 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="30" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="22"/>
@@ -3132,22 +3225,22 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E23" s="66"/>
       <c r="F23" s="67" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="3"/>
@@ -3161,20 +3254,20 @@
       <c r="A24" s="66"/>
       <c r="B24" s="66"/>
       <c r="C24" s="67" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>69</v>
+        <v>296</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="3"/>
@@ -3188,22 +3281,22 @@
       <c r="A25" s="66"/>
       <c r="B25" s="66"/>
       <c r="C25" s="67" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>72</v>
+        <v>294</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="3"/>
@@ -3218,15 +3311,17 @@
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
       <c r="D26" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="66"/>
+        <v>293</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>295</v>
+      </c>
       <c r="H26" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="3"/>
@@ -3241,15 +3336,15 @@
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
       <c r="D27" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E27" s="66"/>
       <c r="F27" s="67" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="3"/>
@@ -3263,22 +3358,22 @@
       <c r="A28" s="66"/>
       <c r="B28" s="66"/>
       <c r="C28" s="67" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="G28" s="67" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="3"/>
@@ -3307,24 +3402,24 @@
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="67" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
       <c r="D30" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="3"/>
@@ -3353,20 +3448,20 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="67" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B32" s="66"/>
       <c r="C32" s="66"/>
       <c r="D32" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E32" s="66"/>
       <c r="F32" s="66"/>
       <c r="G32" s="67" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="3"/>
@@ -3380,20 +3475,20 @@
       <c r="A33" s="66"/>
       <c r="B33" s="66"/>
       <c r="C33" s="67" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D33" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F33" s="67" t="s">
-        <v>86</v>
+        <v>290</v>
       </c>
       <c r="G33" s="66"/>
       <c r="H33" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="3"/>
@@ -3407,20 +3502,20 @@
       <c r="A34" s="66"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="G34" s="66"/>
       <c r="H34" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="3"/>
@@ -3434,20 +3529,20 @@
       <c r="A35" s="66"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>92</v>
+        <v>288</v>
       </c>
       <c r="G35" s="66"/>
       <c r="H35" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="3"/>
@@ -3461,20 +3556,20 @@
       <c r="A36" s="66"/>
       <c r="B36" s="66"/>
       <c r="C36" s="67" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="G36" s="66"/>
       <c r="H36" s="42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="3"/>
@@ -3503,24 +3598,24 @@
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="67" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
       <c r="D38" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="G38" s="67" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="3"/>
@@ -3549,24 +3644,24 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>102</v>
+        <v>285</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="3"/>
@@ -3595,22 +3690,22 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="3"/>
@@ -3639,18 +3734,18 @@
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="11"/>
@@ -3681,12 +3776,12 @@
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -3704,20 +3799,20 @@
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="67" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F47" s="67" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="G47" s="66"/>
       <c r="H47" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I47" s="38"/>
       <c r="J47" s="3"/>
@@ -3731,20 +3826,20 @@
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="24" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="G48" s="32"/>
       <c r="H48" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="3"/>
@@ -3758,20 +3853,20 @@
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="67" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F49" s="67" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I49" s="38"/>
       <c r="J49" s="3"/>
@@ -3785,22 +3880,22 @@
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="67" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E50" s="67" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F50" s="67" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="G50" s="67" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I50" s="38"/>
       <c r="J50" s="3"/>
@@ -3814,20 +3909,20 @@
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="24" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I51" s="38"/>
       <c r="J51" s="3"/>
@@ -3841,20 +3936,20 @@
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="24" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="G52" s="32"/>
       <c r="H52" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="3"/>
@@ -3868,20 +3963,20 @@
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="24" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="G53" s="32"/>
       <c r="H53" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="3"/>
@@ -3895,20 +3990,20 @@
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="67" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D54" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F54" s="67" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="G54" s="66"/>
       <c r="H54" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="3"/>
@@ -3922,16 +4017,16 @@
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="24" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="11"/>
@@ -3962,24 +4057,24 @@
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1">
       <c r="A57" s="67" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
       <c r="D57" s="66" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="F57" s="67" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="G57" s="66" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="H57" s="63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I57" s="38"/>
       <c r="J57" s="3"/>
@@ -4008,22 +4103,22 @@
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1">
       <c r="A59" s="67" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B59" s="66"/>
       <c r="C59" s="66"/>
       <c r="D59" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="67" t="s">
         <v>273</v>
-      </c>
-      <c r="E59" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="F59" s="67" t="s">
-        <v>142</v>
       </c>
       <c r="G59" s="66"/>
       <c r="H59" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I59" s="38"/>
       <c r="J59" s="3"/>
@@ -4052,18 +4147,18 @@
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
       <c r="A61" s="24" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="3"/>
@@ -4092,12 +4187,12 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="24" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
@@ -4115,20 +4210,20 @@
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="24" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D64" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="G64" s="32"/>
       <c r="H64" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I64" s="41"/>
       <c r="J64" s="3"/>
@@ -4142,18 +4237,18 @@
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="24" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I65" s="41"/>
       <c r="J65" s="3"/>
@@ -4182,22 +4277,22 @@
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="67" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B67" s="66"/>
       <c r="C67" s="66"/>
       <c r="D67" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="F67" s="67" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="G67" s="66"/>
       <c r="H67" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I67" s="38"/>
       <c r="J67" s="3"/>
@@ -4226,12 +4321,12 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="32"/>
@@ -4249,22 +4344,22 @@
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="24" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="G70" s="32"/>
-      <c r="H70" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" s="22"/>
+      <c r="H70" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="38"/>
       <c r="J70" s="3"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -4276,22 +4371,22 @@
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="24" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="G71" s="32"/>
-      <c r="H71" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I71" s="22"/>
+      <c r="H71" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="38"/>
       <c r="J71" s="3"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -4303,22 +4398,22 @@
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="24" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="G72" s="32"/>
-      <c r="H72" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="22"/>
+      <c r="H72" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72" s="38"/>
       <c r="J72" s="3"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -4345,12 +4440,12 @@
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -4368,20 +4463,22 @@
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="17" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="22"/>
+        <v>132</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="38"/>
       <c r="J75" s="3"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -4393,13 +4490,13 @@
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="17" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -4416,13 +4513,13 @@
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="17" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
@@ -4439,13 +4536,13 @@
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="17" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -4462,13 +4559,13 @@
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="17" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
@@ -4485,13 +4582,13 @@
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="17" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
@@ -4508,13 +4605,13 @@
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="17" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
@@ -4531,13 +4628,13 @@
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="17" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -4554,17 +4651,17 @@
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="17" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="17" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -4579,18 +4676,20 @@
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="24" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="22"/>
+      <c r="H84" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" s="38"/>
       <c r="J84" s="3"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -4602,18 +4701,20 @@
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="24" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="22"/>
+      <c r="H85" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" s="38"/>
       <c r="J85" s="3"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
@@ -4625,18 +4726,20 @@
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="24" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="22"/>
+      <c r="H86" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="38"/>
       <c r="J86" s="3"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
@@ -4663,22 +4766,22 @@
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I88" s="22"/>
       <c r="J88" s="3"/>
@@ -4707,18 +4810,18 @@
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
       <c r="A90" s="67" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="B90" s="66"/>
       <c r="C90" s="66"/>
       <c r="D90" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E90" s="66"/>
       <c r="F90" s="66"/>
       <c r="G90" s="66"/>
       <c r="H90" s="62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I90" s="38"/>
       <c r="J90" s="3"/>
@@ -4732,20 +4835,20 @@
       <c r="A91" s="66"/>
       <c r="B91" s="66"/>
       <c r="C91" s="67" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E91" s="67" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="F91" s="67" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="G91" s="66"/>
       <c r="H91" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I91" s="38"/>
       <c r="J91" s="3"/>
@@ -4759,20 +4862,20 @@
       <c r="A92" s="66"/>
       <c r="B92" s="66"/>
       <c r="C92" s="67" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E92" s="67" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F92" s="67" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="G92" s="66"/>
       <c r="H92" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I92" s="38"/>
       <c r="J92" s="3"/>
@@ -4786,20 +4889,20 @@
       <c r="A93" s="66"/>
       <c r="B93" s="66"/>
       <c r="C93" s="67" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E93" s="67" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="F93" s="67" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="G93" s="66"/>
       <c r="H93" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I93" s="38"/>
       <c r="J93" s="3"/>
@@ -4813,20 +4916,20 @@
       <c r="A94" s="66"/>
       <c r="B94" s="66"/>
       <c r="C94" s="67" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="F94" s="67" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="G94" s="66"/>
       <c r="H94" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I94" s="38"/>
       <c r="J94" s="3"/>
@@ -4840,20 +4943,20 @@
       <c r="A95" s="66"/>
       <c r="B95" s="66"/>
       <c r="C95" s="67" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E95" s="67" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="F95" s="67" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="G95" s="66"/>
       <c r="H95" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I95" s="38"/>
       <c r="J95" s="3"/>
@@ -4867,20 +4970,20 @@
       <c r="A96" s="66"/>
       <c r="B96" s="66"/>
       <c r="C96" s="67" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E96" s="67" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="F96" s="67" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="G96" s="66"/>
       <c r="H96" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I96" s="38"/>
       <c r="J96" s="3"/>
@@ -4894,20 +4997,20 @@
       <c r="A97" s="66"/>
       <c r="B97" s="66"/>
       <c r="C97" s="67" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D97" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E97" s="67" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="F97" s="67" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="G97" s="66"/>
       <c r="H97" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I97" s="38"/>
       <c r="J97" s="3"/>
@@ -4921,20 +5024,20 @@
       <c r="A98" s="66"/>
       <c r="B98" s="66"/>
       <c r="C98" s="67" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="D98" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E98" s="67" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="F98" s="67" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="G98" s="66"/>
       <c r="H98" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I98" s="38"/>
       <c r="J98" s="3"/>
@@ -4963,12 +5066,12 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1">
       <c r="A100" s="24" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
       <c r="D100" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
@@ -4986,20 +5089,20 @@
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="24" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="G101" s="32"/>
       <c r="H101" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I101" s="45"/>
       <c r="J101" s="3"/>
@@ -5013,20 +5116,20 @@
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="24" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="24" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="H102" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I102" s="45"/>
       <c r="J102" s="3"/>
@@ -5040,20 +5143,20 @@
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="24" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="F103" s="32"/>
       <c r="G103" s="24" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I103" s="45"/>
       <c r="J103" s="3"/>
@@ -5067,20 +5170,20 @@
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="24" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="24" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="H104" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I104" s="45"/>
       <c r="J104" s="3"/>
@@ -5094,20 +5197,20 @@
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="24" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="24" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="H105" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I105" s="45"/>
       <c r="J105" s="3"/>
@@ -5136,18 +5239,18 @@
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1">
       <c r="A107" s="67" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="B107" s="66"/>
       <c r="C107" s="66"/>
       <c r="D107" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E107" s="66"/>
       <c r="F107" s="66"/>
       <c r="G107" s="66"/>
       <c r="H107" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I107" s="38"/>
       <c r="J107" s="3"/>
@@ -5161,20 +5264,20 @@
       <c r="A108" s="66"/>
       <c r="B108" s="66"/>
       <c r="C108" s="67" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D108" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E108" s="67" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="F108" s="67" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G108" s="66"/>
       <c r="H108" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I108" s="38"/>
       <c r="J108" s="3"/>
@@ -5188,20 +5291,20 @@
       <c r="A109" s="66"/>
       <c r="B109" s="66"/>
       <c r="C109" s="67" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D109" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E109" s="67" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="F109" s="67" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="G109" s="66"/>
       <c r="H109" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I109" s="15"/>
       <c r="J109" s="3"/>
@@ -5215,20 +5318,20 @@
       <c r="A110" s="66"/>
       <c r="B110" s="66"/>
       <c r="C110" s="67" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="D110" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E110" s="67" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="F110" s="67" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G110" s="66"/>
       <c r="H110" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I110" s="38"/>
       <c r="J110" s="3"/>
@@ -5257,19 +5360,19 @@
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1">
       <c r="A112" s="24" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
       <c r="D112" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="24" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="22"/>
@@ -5299,20 +5402,20 @@
     </row>
     <row r="114" spans="1:256" ht="15" customHeight="1">
       <c r="A114" s="67" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B114" s="66"/>
       <c r="C114" s="66"/>
       <c r="D114" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E114" s="66"/>
       <c r="F114" s="66"/>
       <c r="G114" s="67" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I114" s="38"/>
       <c r="J114" s="3"/>
@@ -5341,15 +5444,15 @@
     </row>
     <row r="116" spans="1:256" ht="15" customHeight="1">
       <c r="A116" s="17" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
@@ -5381,22 +5484,22 @@
     </row>
     <row r="118" spans="1:256" ht="15" customHeight="1">
       <c r="A118" s="24" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="B118" s="32"/>
       <c r="C118" s="32"/>
       <c r="D118" s="32" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G118" s="32"/>
       <c r="H118" s="44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I118" s="45"/>
       <c r="J118" s="3"/>
@@ -5425,18 +5528,18 @@
     </row>
     <row r="120" spans="1:256" ht="15" customHeight="1">
       <c r="A120" s="67" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="B120" s="66"/>
       <c r="C120" s="66"/>
       <c r="D120" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E120" s="66"/>
       <c r="F120" s="66"/>
       <c r="G120" s="66"/>
       <c r="H120" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I120" s="38"/>
       <c r="J120" s="3"/>
@@ -5450,20 +5553,20 @@
       <c r="A121" s="66"/>
       <c r="B121" s="66"/>
       <c r="C121" s="67" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E121" s="67" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="F121" s="67" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G121" s="66"/>
       <c r="H121" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="3"/>
@@ -5477,22 +5580,22 @@
       <c r="A122" s="66"/>
       <c r="B122" s="66"/>
       <c r="C122" s="67" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="D122" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E122" s="67" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="F122" s="67" t="s">
         <v>255</v>
       </c>
       <c r="G122" s="67" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H122" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I122" s="38"/>
       <c r="J122" s="3"/>
@@ -5506,20 +5609,20 @@
       <c r="A123" s="66"/>
       <c r="B123" s="66"/>
       <c r="C123" s="67" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="D123" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E123" s="67" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="F123" s="67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G123" s="66"/>
       <c r="H123" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I123" s="38"/>
       <c r="J123" s="3"/>
@@ -5533,20 +5636,20 @@
       <c r="A124" s="66"/>
       <c r="B124" s="66"/>
       <c r="C124" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D124" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E124" s="67" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="F124" s="67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G124" s="66"/>
       <c r="H124" s="37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I124" s="38"/>
       <c r="J124" s="3"/>
@@ -5560,20 +5663,20 @@
       <c r="A125" s="66"/>
       <c r="B125" s="66"/>
       <c r="C125" s="67" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D125" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E125" s="67" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="F125" s="67" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G125" s="66"/>
       <c r="H125" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I125" s="15"/>
       <c r="J125" s="3"/>
@@ -5587,20 +5690,20 @@
       <c r="A126" s="66"/>
       <c r="B126" s="66"/>
       <c r="C126" s="67" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="D126" s="66" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E126" s="67" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="F126" s="67" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G126" s="66"/>
       <c r="H126" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="3"/>
@@ -5863,12 +5966,12 @@
     </row>
     <row r="128" spans="1:256" ht="15" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -5886,10 +5989,10 @@
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="13" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -5907,10 +6010,10 @@
       <c r="A130" s="47"/>
       <c r="B130" s="47"/>
       <c r="C130" s="48" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E130" s="49"/>
       <c r="F130" s="49"/>
@@ -5943,7 +6046,7 @@
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1">
       <c r="A132" s="52" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="B132" s="52"/>
       <c r="C132" s="52"/>
@@ -5964,16 +6067,16 @@
       <c r="A133" s="53"/>
       <c r="B133" s="53"/>
       <c r="C133" s="52" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="D133" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E133" s="52"/>
       <c r="F133" s="56"/>
       <c r="G133" s="52"/>
       <c r="H133" s="60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I133" s="61"/>
       <c r="J133" s="58"/>
@@ -5987,18 +6090,18 @@
       <c r="A134" s="53"/>
       <c r="B134" s="53"/>
       <c r="C134" s="52" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D134" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E134" s="52"/>
       <c r="F134" s="52" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="G134" s="52"/>
       <c r="H134" s="54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I134" s="55"/>
       <c r="J134" s="58"/>
@@ -6012,16 +6115,16 @@
       <c r="A135" s="53"/>
       <c r="B135" s="53"/>
       <c r="C135" s="52" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="D135" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E135" s="52"/>
       <c r="F135" s="52"/>
       <c r="G135" s="52"/>
       <c r="H135" s="60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I135" s="61"/>
       <c r="J135" s="58"/>
@@ -6035,16 +6138,18 @@
       <c r="A136" s="53"/>
       <c r="B136" s="53"/>
       <c r="C136" s="52" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="D136" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E136" s="52"/>
       <c r="F136" s="52"/>
       <c r="G136" s="52"/>
-      <c r="H136" s="51"/>
-      <c r="I136" s="55"/>
+      <c r="H136" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" s="61"/>
       <c r="J136" s="58"/>
       <c r="K136" s="58"/>
       <c r="L136" s="58"/>
@@ -6056,16 +6161,16 @@
       <c r="A137" s="53"/>
       <c r="B137" s="53"/>
       <c r="C137" s="52" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D137" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E137" s="52"/>
       <c r="F137" s="52"/>
       <c r="G137" s="52"/>
       <c r="H137" s="54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I137" s="55"/>
       <c r="J137" s="58"/>
@@ -6079,16 +6184,16 @@
       <c r="A138" s="53"/>
       <c r="B138" s="53"/>
       <c r="C138" s="52" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="D138" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E138" s="52"/>
       <c r="F138" s="52"/>
       <c r="G138" s="52"/>
       <c r="H138" s="60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I138" s="61"/>
       <c r="J138" s="58"/>
@@ -6102,16 +6207,16 @@
       <c r="A139" s="53"/>
       <c r="B139" s="53"/>
       <c r="C139" s="52" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="D139" s="52" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="E139" s="52"/>
       <c r="F139" s="52"/>
       <c r="G139" s="52"/>
       <c r="H139" s="60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I139" s="61"/>
       <c r="J139" s="58"/>
@@ -6142,7 +6247,6 @@
       <c r="A141" s="51"/>
       <c r="B141" s="51"/>
       <c r="C141" s="51"/>
-      <c r="D141" s="51"/>
       <c r="E141" s="51"/>
       <c r="F141" s="51"/>
       <c r="G141" s="51"/>
@@ -6158,13 +6262,19 @@
     <row r="142" spans="1:15" ht="15" customHeight="1">
       <c r="A142" s="51"/>
       <c r="B142" s="51"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="51"/>
-      <c r="G142" s="51"/>
-      <c r="H142" s="51"/>
-      <c r="I142" s="51"/>
+      <c r="C142" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E142" s="69"/>
+      <c r="F142" s="69"/>
+      <c r="G142" s="69"/>
+      <c r="H142" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" s="61"/>
       <c r="J142" s="58"/>
       <c r="K142" s="58"/>
       <c r="L142" s="58"/>
@@ -6175,11 +6285,15 @@
     <row r="143" spans="1:15" ht="15" customHeight="1">
       <c r="A143" s="51"/>
       <c r="B143" s="51"/>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51"/>
-      <c r="F143" s="51"/>
-      <c r="G143" s="51"/>
+      <c r="C143" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="D143" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E143" s="69"/>
+      <c r="F143" s="69"/>
+      <c r="G143" s="69"/>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="58"/>
@@ -6192,11 +6306,15 @@
     <row r="144" spans="1:15" ht="15" customHeight="1">
       <c r="A144" s="51"/>
       <c r="B144" s="51"/>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
-      <c r="F144" s="51"/>
-      <c r="G144" s="51"/>
+      <c r="C144" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="D144" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E144" s="69"/>
+      <c r="F144" s="69"/>
+      <c r="G144" s="69"/>
       <c r="H144" s="51"/>
       <c r="I144" s="51"/>
       <c r="J144" s="58"/>
@@ -6209,11 +6327,15 @@
     <row r="145" spans="1:15" ht="15" customHeight="1">
       <c r="A145" s="51"/>
       <c r="B145" s="51"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
-      <c r="F145" s="51"/>
-      <c r="G145" s="51"/>
+      <c r="C145" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="D145" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E145" s="69"/>
+      <c r="F145" s="69"/>
+      <c r="G145" s="69"/>
       <c r="H145" s="51"/>
       <c r="I145" s="51"/>
       <c r="J145" s="58"/>
@@ -6226,11 +6348,15 @@
     <row r="146" spans="1:15" ht="15" customHeight="1">
       <c r="A146" s="51"/>
       <c r="B146" s="51"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
-      <c r="F146" s="51"/>
-      <c r="G146" s="51"/>
+      <c r="C146" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E146" s="69"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="69"/>
       <c r="H146" s="51"/>
       <c r="I146" s="51"/>
       <c r="J146" s="58"/>
@@ -6243,11 +6369,15 @@
     <row r="147" spans="1:15" ht="15" customHeight="1">
       <c r="A147" s="51"/>
       <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
-      <c r="F147" s="51"/>
-      <c r="G147" s="51"/>
+      <c r="C147" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="D147" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147" s="69"/>
+      <c r="F147" s="69"/>
+      <c r="G147" s="69"/>
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
       <c r="J147" s="58"/>
@@ -6260,13 +6390,19 @@
     <row r="148" spans="1:15" ht="15" customHeight="1">
       <c r="A148" s="51"/>
       <c r="B148" s="51"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
-      <c r="F148" s="51"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="51"/>
-      <c r="I148" s="51"/>
+      <c r="C148" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D148" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E148" s="69"/>
+      <c r="F148" s="69"/>
+      <c r="G148" s="69"/>
+      <c r="H148" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I148" s="61"/>
       <c r="J148" s="58"/>
       <c r="K148" s="58"/>
       <c r="L148" s="58"/>
@@ -6277,13 +6413,21 @@
     <row r="149" spans="1:15" ht="15" customHeight="1">
       <c r="A149" s="51"/>
       <c r="B149" s="51"/>
-      <c r="C149" s="51"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="51"/>
-      <c r="F149" s="51"/>
-      <c r="G149" s="51"/>
-      <c r="H149" s="51"/>
-      <c r="I149" s="51"/>
+      <c r="C149" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D149" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E149" s="69"/>
+      <c r="F149" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="G149" s="69"/>
+      <c r="H149" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" s="61"/>
       <c r="J149" s="58"/>
       <c r="K149" s="58"/>
       <c r="L149" s="58"/>
@@ -6294,11 +6438,15 @@
     <row r="150" spans="1:15" ht="15" customHeight="1">
       <c r="A150" s="51"/>
       <c r="B150" s="51"/>
-      <c r="C150" s="51"/>
-      <c r="D150" s="51"/>
-      <c r="E150" s="51"/>
-      <c r="F150" s="51"/>
-      <c r="G150" s="51"/>
+      <c r="C150" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="D150" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E150" s="69"/>
+      <c r="F150" s="69"/>
+      <c r="G150" s="69"/>
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>
       <c r="J150" s="58"/>
@@ -6311,11 +6459,15 @@
     <row r="151" spans="1:15" ht="15" customHeight="1">
       <c r="A151" s="51"/>
       <c r="B151" s="51"/>
-      <c r="C151" s="51"/>
-      <c r="D151" s="51"/>
-      <c r="E151" s="51"/>
-      <c r="F151" s="51"/>
-      <c r="G151" s="51"/>
+      <c r="C151" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D151" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E151" s="69"/>
+      <c r="F151" s="69"/>
+      <c r="G151" s="69"/>
       <c r="H151" s="51"/>
       <c r="I151" s="51"/>
       <c r="J151" s="58"/>
@@ -6328,11 +6480,15 @@
     <row r="152" spans="1:15" ht="15" customHeight="1">
       <c r="A152" s="51"/>
       <c r="B152" s="51"/>
-      <c r="C152" s="51"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51"/>
-      <c r="F152" s="51"/>
-      <c r="G152" s="51"/>
+      <c r="C152" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D152" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="69"/>
       <c r="H152" s="51"/>
       <c r="I152" s="51"/>
       <c r="J152" s="58"/>
@@ -6345,11 +6501,15 @@
     <row r="153" spans="1:15" ht="15" customHeight="1">
       <c r="A153" s="51"/>
       <c r="B153" s="51"/>
-      <c r="C153" s="51"/>
-      <c r="D153" s="51"/>
-      <c r="E153" s="51"/>
-      <c r="F153" s="51"/>
-      <c r="G153" s="51"/>
+      <c r="C153" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="D153" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E153" s="69"/>
+      <c r="F153" s="69"/>
+      <c r="G153" s="69"/>
       <c r="H153" s="51"/>
       <c r="I153" s="51"/>
       <c r="J153" s="58"/>
@@ -6362,13 +6522,19 @@
     <row r="154" spans="1:15" ht="15" customHeight="1">
       <c r="A154" s="51"/>
       <c r="B154" s="51"/>
-      <c r="C154" s="51"/>
-      <c r="D154" s="51"/>
-      <c r="E154" s="51"/>
-      <c r="F154" s="51"/>
-      <c r="G154" s="51"/>
-      <c r="H154" s="51"/>
-      <c r="I154" s="51"/>
+      <c r="C154" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E154" s="69"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="69"/>
+      <c r="H154" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I154" s="61"/>
       <c r="J154" s="58"/>
       <c r="K154" s="58"/>
       <c r="L154" s="58"/>
@@ -6379,11 +6545,15 @@
     <row r="155" spans="1:15" ht="15" customHeight="1">
       <c r="A155" s="51"/>
       <c r="B155" s="51"/>
-      <c r="C155" s="51"/>
-      <c r="D155" s="51"/>
-      <c r="E155" s="51"/>
-      <c r="F155" s="51"/>
-      <c r="G155" s="51"/>
+      <c r="C155" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D155" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E155" s="69"/>
+      <c r="F155" s="69"/>
+      <c r="G155" s="69"/>
       <c r="H155" s="51"/>
       <c r="I155" s="51"/>
       <c r="J155" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="301">
   <si>
     <t>Asset Mesh</t>
   </si>
@@ -1364,7 +1364,7 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1437,6 +1437,7 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="13" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2635,8 +2636,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K139" sqref="K139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6489,8 +6490,10 @@
       <c r="E152" s="69"/>
       <c r="F152" s="69"/>
       <c r="G152" s="69"/>
-      <c r="H152" s="51"/>
-      <c r="I152" s="51"/>
+      <c r="H152" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152" s="72"/>
       <c r="J152" s="58"/>
       <c r="K152" s="58"/>
       <c r="L152" s="58"/>
@@ -6510,8 +6513,10 @@
       <c r="E153" s="69"/>
       <c r="F153" s="69"/>
       <c r="G153" s="69"/>
-      <c r="H153" s="51"/>
-      <c r="I153" s="51"/>
+      <c r="H153" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I153" s="72"/>
       <c r="J153" s="58"/>
       <c r="K153" s="58"/>
       <c r="L153" s="58"/>

--- a/_Artbible/Assetliste.xlsx
+++ b/_Artbible/Assetliste.xlsx
@@ -1364,7 +1364,7 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1437,7 +1437,6 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="13" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -2636,8 +2635,8 @@
   </sheetPr>
   <dimension ref="A1:IV175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K139" sqref="K139"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6493,7 +6492,7 @@
       <c r="H152" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I152" s="72"/>
+      <c r="I152" s="61"/>
       <c r="J152" s="58"/>
       <c r="K152" s="58"/>
       <c r="L152" s="58"/>
@@ -6516,7 +6515,7 @@
       <c r="H153" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I153" s="72"/>
+      <c r="I153" s="61"/>
       <c r="J153" s="58"/>
       <c r="K153" s="58"/>
       <c r="L153" s="58"/>
